--- a/processed_wikileaks_parsed.xlsx
+++ b/processed_wikileaks_parsed.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="769">
   <si>
     <t>PDF Path</t>
   </si>
@@ -22,6 +22,9 @@
     <t>Text</t>
   </si>
   <si>
+    <t>Cleaned_Text</t>
+  </si>
+  <si>
     <t>entities</t>
   </si>
   <si>
@@ -29,9 +32,6 @@
   </si>
   <si>
     <t>Category</t>
-  </si>
-  <si>
-    <t>sentiment</t>
   </si>
   <si>
     <t>entity_sentiments</t>
@@ -889,466 +889,889 @@
 (TS//SI//REL TO USA, AUS, CAN, GBR and NZL) French Ambassador Jean­ David Levitte in Washington plans to respond as early as today to information in the Iraq Survey Group report regarding possible misuse of the UN Oil­for­Food (OFF) program by companies from France and other countries during the former Iraqi regime. The ambassador termed the report scandalous, since it named no U.S. companies and he claimed that many French companies with contracts under the OFF program were actually subsidiaries of U.S. firms that also profited from the business dealings. He therefore planned, with foreign ministry backing, to present a list of these U.S. companies to both the U.S. Congress and the media."</t>
   </si>
   <si>
-    <t>[('Pristina Airport', 'FAC'), ('Vendor 1', 'PERSON'), ('Two', 'CARDINAL'), ('at least three', 'CARDINAL'), ('Kosovo', 'GPE'), ('1', 'CARDINAL'), ('2', 'CARDINAL'), ('51%', 'PERCENT'), ('Pristina', 'PERSON'), ('Ljubljana', 'GPE'), ('Vendor 2', 'PERSON'), ('Pristina', 'GPE'), ('three', 'CARDINAL'), ('2003', 'DATE'), ('Supply and Mounting of Sonic System', 'WORK_OF_ART'), ('the Fire Station Building', 'FAC'), ('Vendor 2', 'PERSON'), ('1,530', 'MONEY'), ('1,620', 'MONEY'), ('third', 'ORDINAL'), ('Vendor 3', 'PERSON'), ('15,919', 'MONEY'), ('two', 'CARDINAL'), ('3', 'CARDINAL'), ('Vendor 4', 'PERSON'), ('Euro 19,702', 'LAW'), ('Euro 21,045', 'LAW'), ('Cramer Antenna', 'PERSON'), ('3,627.99', 'MONEY'), ('3,921', 'MONEY'), ('two', 'CARDINAL'), ('3', 'CARDINAL'), ('Vendor 4', 'PERSON'), ('€4,278 and €4,670', 'MONEY')]</t>
-  </si>
-  <si>
-    <t>[('31st August', 'DATE'), ('14th', 'ORDINAL'), ('September 2004', 'DATE'), ('1', 'CARDINAL'), ('Vendor 2', 'PERSON'), ('three', 'CARDINAL'), ('3', 'CARDINAL'), ('three', 'CARDINAL'), ('ITF', 'ORG'), ('the Kosovo Organised Crime Bureau', 'ORG'), ('KOCB', 'ORG'), ('Vendor 4', 'PERSON'), ('Pristina', 'GPE'), ('Vendor 3', 'PERSON'), ('Prizren', 'NORP'), ('ITF', 'ORG'), ('the International Prosecutor, UNMIK Department of Justice', 'ORG'), ('October 2004', 'DATE'), ('1 December 2004', 'DATE'), ('ITF', 'ORG'), ('the International Prosecutor', 'ORG'), ('Economic Law', 'PERSON'), ('Kosovo', 'GPE')]</t>
-  </si>
-  <si>
-    <t>[('Official 2', 'LAW'), ('DOTI', 'ORG'), ('1', 'CARDINAL'), ('Official 2', 'LAW'), ('18 May 2001', 'DATE'), ('28 May 2001', 'DATE'), ('Vendor', 'ORG'), ('18 May 2001', 'DATE'), ('2b', 'DATE'), ('Cargo Apron', 'NORP')]</t>
-  </si>
-  <si>
-    <t>[('three', 'CARDINAL'), ('the Cargo Apron Extension', 'ORG'), ('the Office of the Legal Adviser', 'ORG'), ('2 August 2001', 'DATE'), ('three', 'CARDINAL'), ('2', 'CARDINAL'), ('UN', 'ORG'), ('two', 'CARDINAL'), ('24 September 2001', 'DATE'), ('the Cargo Apron Extension', 'ORG'), ('the Office of the Legal Adviser', 'ORG')]</t>
-  </si>
-  <si>
-    <t>[('Divisional', 'ORG'), ('ITF', 'ORG'), ('Vendor', 'ORG'), ('ITF', 'ORG'), ('Divisional', 'ORG'), ('3', 'CARDINAL'), ('25 August 2002', 'DATE')]</t>
-  </si>
-  <si>
-    <t>[('the Cargo Terminal Apron', 'ORG'), ('Pristina Airport', 'FAC'), ('774,318.63', 'MONEY'), ('Article 23.4', 'LAW'), ('the UNMIK Finance Administrative Instruction', 'ORG'), ('1999/2', 'CARDINAL'), ('Public Procurement', 'ORG'), ('Kosovo Consolidated Budget Funds', 'ORG'), ('the Project Engineer', 'ORG'), ('the Evaluation Company', 'ORG'), ('31 January 2001', 'DATE'), ('the Evaluation Company', 'ORG'), ('the Cargo Terminal', 'ORG'), ('Pristina Airport', 'FAC'), ('the Cargo Apron Extension', 'ORG')]</t>
-  </si>
-  <si>
-    <t>[('4', 'CARDINAL'), ('the Cargo Apron Extension', 'ORG'), ('2 August 2001', 'DATE'), ('Vendor', 'ORG'), ('two', 'CARDINAL'), ('Article 23.3', 'LAW'), ('the UNMIK Finance Administrative Instruction', 'ORG'), ('1999/2', 'CARDINAL'), ('Public Procurement', 'ORG'), ('Kosovo Consolidated Budget Funds', 'ORG'), ('Article 23.3', 'LAW'), ('the UNMIK Finance Administrative Instruction', 'ORG'), ('1999/2', 'CARDINAL'), ('Public Procurement', 'ORG'), ('Kosovo Consolidated Budget Funds', 'ORG'), ('2', 'CARDINAL'), ('Article 23.3', 'LAW')]</t>
-  </si>
-  <si>
-    <t>[('the end of June 2002', 'DATE'), ('the Pristina Airport', 'FAC'), ('the Civil Administration Pillar (Pillar II', 'ORG'), ('UNMIK', 'ORG'), ('Official 1 and Official 2', 'LAW'), ('Pillar II', 'EVENT'), ('Department of Transport and Infrastructure', 'ORG'), ('the Transport Sector of the UNMIK Directorate of Infrastructure Affairs', 'ORG'), ('DOTI', 'ORG'), ('1', 'CARDINAL'), ('the end of June 2002', 'DATE'), ('DOTI', 'ORG'), ('DOTI', 'ORG'), ('31 July 2000', 'DATE'), ('30 September 2001', 'DATE'), ('United Nations', 'ORG'), ('Airport Engineer 1', 'ORG'), ('2', 'CARDINAL'), ('3', 'CARDINAL'), ('the Consulting Company', 'ORG'), ('1 July 2002', 'DATE'), ('Pillar II', 'EVENT'), ('the Kosovo Trust Agency', 'ORG'), ('Pillar', 'ORG'), ('Divisional', 'ORG'), ('Air Traffic Control Services', 'ORG'), ('1 April 2004', 'DATE'), ('Pristina International Airport', 'EVENT'), ('KFOR', 'ORG')]</t>
-  </si>
-  <si>
-    <t>[('the Investigation Task Force', 'ORG'), ('ITF', 'ORG'), ('Pristina Airport', 'FAC'), ('Pillar', 'ORG'), ('International Airport', 'FAC'), ('Yugoslavian', 'NORP'), ('2001', 'DATE'), ('2003', 'DATE'), ('the Public Enterprise Airport Pristina', 'ORG'), ('the Kosovo Force', 'ORG'), ('United Nations Security Council', 'ORG'), ('10 June 1999', 'DATE'), ('UNMIK Regulation', 'ORG'), ('25 July 1999', 'DATE'), ('UNMIK', 'ORG'), ('Kosovo', 'GPE'), ('Pristina International Airport', 'FAC')]</t>
-  </si>
-  <si>
-    <t>[('the Cargo Apron', 'ORG'), ('Staff', 'PRODUCT'), ('2', 'CARDINAL'), ('18 October 2001', 'DATE'), ('1', 'CARDINAL'), ('ITF', 'ORG'), ('4', 'CARDINAL'), ('UNMIK', 'ORG'), ('27 June 2001', 'DATE'), ('UNMIK', 'ORG'), ('17 October 2001', 'DATE'), ('Airport Engineer 1', 'ORG')]</t>
-  </si>
-  <si>
-    <t>[('DOTI', 'WORK_OF_ART'), ('Cargo Apron', 'LOC'), ('the Evaluation Company', 'ORG'), ('the Evaluation Company', 'ORG'), ('2', 'CARDINAL'), ('Airport Engineer 1', 'ORG'), ('the Evaluation Company', 'ORG'), ('CPE', 'ORG'), ('CPE', 'ORG'), ('the Procurement Official', 'ORG')]</t>
-  </si>
-  <si>
-    <t>[('DOTI', 'WORK_OF_ART'), ('CPE', 'ORG'), ('Three', 'CARDINAL'), ('UN', 'ORG'), ('the Cargo Apron Extension', 'ORG'), ('the Office of the Legal Adviser', 'ORG'), ('the Cargo Apron', 'ORG')]</t>
-  </si>
-  <si>
-    <t>[('a Secret US National Security Agency', 'ORG'), ('NSA', 'ORG'), ('Japanese', 'NORP'), ('Economy, Trade  and  Industry', 'ORG'), ('the  Ministry of  Foreign Affairs', 'ORG'), ('Japanese', 'NORP'), ('Shinzo Abe', 'PERSON'), ('Washington DC', 'GPE'), ('George W Bush', 'PERSON'), ('Abe', 'PERSON'), ('the United States', 'GPE'), ('Bush', 'PERSON'), ('National  Security Agency', 'ORG'), ('the United States', 'GPE')]</t>
-  </si>
-  <si>
-    <t>[('Japanese', 'NORP'), ('Reducing Carbon Emissions', 'ORG'), ('Half', 'CARDINAL'), ('2050', 'DATE'), ('the 26 to 27 April', 'DATE'), ('Washington', 'GPE'), ('Japanese', 'NORP'), ('Shinzo Abe', 'PERSON'), ('the Japanese Ministry of Economy, Trade', 'ORG'), ('U.S.', 'GPE'), ('METI', 'GPE'), ('three', 'CARDINAL'), ('the Ministry of Foreign Affairs', 'ORG'), ('MFA', 'ORG'), ('Abe', 'PERSON'), ('Japan', 'GPE'), ('half', 'CARDINAL'), ('2050', 'DATE'), ('late May', 'DATE'), ('MFA', 'ORG'), ('U.S.', 'GPE'), ('Washington', 'GPE'), ('U.S.', 'GPE'), ('Abe', 'PERSON'), ('the United States', 'GPE'), ('Japan', 'GPE'), ('Japanese\xadU.S.', 'GPE')]</t>
-  </si>
-  <si>
-    <t>[('Tokyo', 'GPE'), ('Climate Change Officials', 'ORG'), ('Japanese', 'NORP'), ('the International Energy Agency', 'ORG'), ('IEA', 'ORG'), ('European Union', 'ORG'), ('Fatih Birol', 'PERSON'), ('IEA', 'ORG'), ('Japanese', 'NORP'), ('Tokyo', 'GPE'), ('Masakazu Toyoda', 'PERSON'), ('the Japanese', 'ORG'), ('Ministry of Economy, Trade', 'ORG'), ('three', 'CARDINAL'), ('first', 'ORDINAL'), ('China', 'GPE'), ('India', 'GPE'), ('U.S.', 'GPE'), ('second', 'ORDINAL'), ('third', 'ORDINAL'), ('Toyoda', 'PERSON'), ('One', 'CARDINAL'), ('Japanese', 'NORP'), ('Europeans', 'NORP'), ('the Emissions Trading Scheme', 'ORG'), ('EU', 'ORG'), ('Toyoda', 'ORG'), ('European', 'NORP'), ('ETS', 'ORG')]</t>
-  </si>
-  <si>
-    <t>[('US National Security Agency', 'ORG'), ('NSA', 'ORG'), ('Japanese', 'NORP'), ('2008 G-8 Summit', 'WORK_OF_ART'), ('Lake Toya', 'LOC'), ('Japan', 'GPE'), ('Japanese', 'NORP'), ('Japanese', 'NORP'), ('G-8', 'PERSON'), ('Japanese', 'NORP'), ("the United States'", 'GPE'), ('Five Eyes', 'WORK_OF_ART'), ('Australia', 'GPE'), ('Canada', 'GPE'), ('Great Britain', 'GPE'), ('New Zealand', 'GPE'), ('Japanese', 'NORP'), ('Leadership Working', 'PERSON'), ('TS//SI//REL TO USA', 'ORG'), ('AUS', 'GPE'), ('NZL', 'ORG'), ('Japanese', 'NORP'), ('the Ministry of Economy Trade and Industry', 'ORG'), ('Ministry of Foreign Affairs', 'ORG'), ('Ministry of Finance', 'ORG'), ('Ministry of Environment', 'ORG'), ('Cabinet', 'ORG'), ('Nobutaka Machimura', 'PERSON'), ('20 February', 'DATE'), ('Japan', 'GPE'), ('the G\xad8 Summit', 'FAC'), ('Lake Toya', 'FAC'), ('Japan', 'GPE'), ('July', 'DATE'), ('Japan', 'GPE'), ('Summit', 'ORG')]</t>
-  </si>
-  <si>
-    <t>[('Japanese Strive to Avoid Damage', 'WORK_OF_ART'), ('U.S.', 'GPE'), ('Cherry Imports', 'PERSON'), ('the Japanese Ministry of Agriculture, Forestry', 'ORG'), ('U.S.', 'GPE'), ('Japanese', 'NORP'), ('the U.S. Department of Agriculture', 'ORG'), ('Tokyo', 'GPE'), ('the end of this month', 'DATE'), ('One', 'CARDINAL'), ('Washington', 'GPE'), ('U.S.', 'GPE'), ('Japan', 'GPE'), ('Japanese', 'NORP'), ('Washington', 'GPE'), ('Japanese', 'NORP'), ('221708Z', 'DATE')]</t>
-  </si>
-  <si>
-    <t>[('US', 'GPE'), ('National  Security Agency', 'ORG'), ('NSA', 'ORG'), ('2009', 'DATE'), ('the Japanese Ministry of Agriculture, Forestry and Fisheries', 'ORG'), ('the National  Security  Agency', 'ORG'), ('Japan', 'GPE'), ('US', 'GPE'), ('US', 'GPE'), ('Washington', 'GPE'), ('Japanese', 'NORP'), ('Washington', 'GPE')]</t>
-  </si>
-  <si>
-    <t>[('the end of June 2002', 'DATE'), ('the Pristina Airport', 'FAC'), ('the Civil Administration Pillar (Pillar II', 'ORG'), ('UNMIK', 'ORG'), ('Official 1 and Official 2', 'LAW'), ('Pillar II', 'EVENT'), ('the Department of Transport and Infrastructure (DOTI', 'ORG'), ('1', 'CARDINAL'), ('the Transport Sector of the UNMIK Directorate of Infrastructure Affairs', 'ORG'), ('DOTI', 'ORG'), ('1', 'CARDINAL'), ('the end of June 2002', 'DATE'), ('DOTI', 'ORG'), ('DOTI', 'ORG'), ('31 July 2000', 'DATE'), ('30 September 2001', 'DATE'), ('United Nations', 'ORG'), ('3', 'CARDINAL'), ('Consultant', 'PRODUCT'), ('the Consulting Firm', 'LAW'), ('1 July 2002', 'DATE'), ('Pillar II', 'EVENT'), ('the Kosovo Trust Agency', 'ORG'), ('Pillar', 'ORG'), ('Divisional', 'ORG'), ('the Airport Sector', 'FAC'), ('the Air Traffic Control Services', 'ORG'), ('1 April 2004', 'DATE'), ('Pristina International Airport', 'EVENT'), ('KFOR', 'ORG')]</t>
-  </si>
-  <si>
-    <t>[('the Investigation Task Force', 'ORG'), ('ITF', 'ORG'), ('Pristina Airport', 'FAC'), ('Pillar', 'ORG'), ('BACKGROUND INFORMATION Pristina International Airport', 'ORG'), ('Yugoslavian', 'NORP'), ('2001', 'DATE'), ('2003', 'DATE'), ('the Public Enterprise Airport Pristina', 'ORG'), ('the Kosovo Force', 'ORG'), ('United Nations Security Council', 'ORG'), ('10 June 1999', 'DATE'), ('UNMIK Regulation', 'ORG'), ('25 July 1999', 'DATE'), ('UNMIK', 'ORG'), ('Kosovo', 'GPE'), ('Pristina International Airport', 'FAC')]</t>
-  </si>
-  <si>
-    <t>[('EU', 'ORG'), ('Japan', 'GPE'), ('early December', 'DATE'), ('U.S.', 'GPE'), ('Brussels', 'GPE'), ('Tokyo', 'GPE'), ('Japanese', 'NORP'), ('U.S.', 'GPE'), ('U.S.', 'GPE'), ('Japanese', 'NORP'), ('Agriculture, Forestry', 'ORG'), ('Toshikatsu Matsuoka', 'PERSON'), ('EU Agriculture', 'ORG'), ('Marianne Fischer-Boel', 'PERSON'), ('U.S.', 'GPE'), ('EU', 'ORG'), ('$17 billion', 'MONEY'), ('U.S.', 'GPE'), ('Brussels', 'GPE'), ('last July', 'DATE'), ('$14 to $15 billion', 'MONEY'), ('EU', 'ORG'), ('Fischer-Boel', 'ORG'), ('EU', 'ORG'), ('Washington', 'GPE'), ("Fischer-Boel's", 'ORG'), ('Klaus-Dieter Borchardt', 'ORG'), ('Japanese', 'NORP'), ('EU', 'ORG'), ('8 percent', 'PERCENT'), ('as low as 4 to 5 percent', 'PERCENT'), ('Japan', 'GPE'), ('Borchardt', 'PERSON'), ('Japanese', 'NORP'), ('EU', 'ORG'), ('U.S.', 'GPE'), ('Cancun', 'GPE'), ('2003', 'DATE'), ('Brussels', 'GPE')]</t>
-  </si>
-  <si>
-    <t>[('22', 'CARDINAL'), ('October', 'DATE'), ('German', 'NORP'), ('Angela Merkel', 'PERSON'), ('French', 'NORP'), ('Nicolas Sarkozy', 'PERSON'), ('Italian', 'NORP'), ('Silvio Berlusconi', 'PERSON'), ('Italian', 'NORP'), ('Valentino Valentini', 'PERSON'), ('Rome', 'GPE'), ('Sarkozy', 'PERSON'), ('Italy', 'GPE'), ('Sarkozy', 'PERSON'), ('Berlusconi', 'PERSON'), ('Italian', 'NORP'), ('the 24th', 'DATE'), ('Valentini', 'GPE'), ('EU Council', 'ORG'), ('Herman Van Rompuy', 'PERSON'), ('Italy', 'GPE'), ('EU', 'ORG'), ("Van Rompuy's", 'PERSON'), ('Spain', 'GPE'), ('Italy', 'GPE')]</t>
-  </si>
-  <si>
-    <t>[('Israel', 'GPE'), ('Europe', 'LOC'), ('Italy', 'GPE'), ('the United States', 'GPE'), ('Italian', 'NORP'), ('13 March', 'DATE'), ('Italian', 'NORP'), ('Silvio Berlusconi', 'PERSON'), ('Israeli', 'NORP'), ('Binyamin Netanyahu', 'PERSON'), ('Israel', 'GPE'), ('1,600', 'CARDINAL'), ('East Jerusalem', 'GPE'), ('Golda Meir', 'PERSON'), ('Netanyahu', 'PERSON'), ('Palestinians', 'NORP'), ('U.S.', 'GPE'), ('Berlusconi', 'PERSON'), ('Italy', 'GPE'), ('Israel', 'GPE'), ('Washington', 'GPE'), ('Israeli', 'NORP')]</t>
-  </si>
-  <si>
-    <t>[('Japan', 'GPE'), ('the Group-of-8 (G-8', 'ORG'), ('Lake Toya', 'FAC'), ('July', 'DATE'), ('Germany', 'GPE'), ('U.S.', 'GPE'), ('Heiligendamm', 'PERSON'), ("last year's", 'DATE'), ('G-8', 'PERSON'), ('the Major Economies Meeting', 'ORG'), ('MEM', 'ORG'), ('16', 'CARDINAL'), ('the G-8 plus China', 'GPE'), ('India', 'GPE'), ('Brazil', 'GPE'), ('Australia', 'GPE'), ('Indonesia', 'GPE'), ('South Korea', 'GPE'), ('South Africa', 'GPE'), ('Mexico', 'GPE'), ('G-8', 'PERSON'), ('Japan', 'GPE'), ('Kono', 'PERSON'), ('Japan', 'GPE'), ('Tokyo', 'GPE'), ('German', 'NORP'), ('Bernd Pfaffenback', 'PERSON'), ('17 June', 'DATE'), ('Pfaffenback', 'ORG'), ('Lake Toya', 'FAC'), ('German', 'NORP'), ('U.S.', 'GPE'), ('45-percent', 'PERCENT'), ('MEM', 'ORG'), ('Bali', 'GPE'), ("next year's", 'DATE'), ('Copenhagen', 'ORG'), ('Pfaffenback', 'ORG'), ('G-8', 'PERSON')]</t>
-  </si>
-  <si>
-    <t>[('Ban Ki-moon', 'PERSON'), ('10 December', 'DATE'), ('German', 'NORP'), ('Angela Merkel', 'PERSON'), ('EU', 'ORG'), ('mid-December', 'DATE'), ('Brussels', 'GPE'), ('the UN Conference on Climate Change', 'ORG'), ('Poznan', 'GPE'), ('the 2009 Copenhagen Talks', 'EVENT'), ('EU', 'ORG'), ('UN', 'ORG'), ('Poznan', 'GPE'), ('Ban', 'PERSON'), ('U.S.', 'GPE'), ('EU', 'ORG'), ('2009', 'DATE'), ('Ban', 'PERSON'), ('the Poznan Conference', 'ORG'), ('Copenhagen', 'ORG'), ('Ban', 'PERSON'), ('Merkel', 'PERSON'), ('EU', 'ORG'), ('Merkel', 'PERSON'), ('the EU Summit', 'ORG'), ('Ban', 'PERSON'), ('Merkel', 'PERSON'), ('early 2009', 'DATE'), ('U.S.', 'GPE'), ('U.S.', 'GPE')]</t>
-  </si>
-  <si>
-    <t>[('Non Staff', 'ORG'), ('1', 'CARDINAL'), ('two', 'CARDINAL'), ('30', 'CARDINAL'), ('31 July 2004', 'DATE'), ('Non Staff', 'ORG'), ('1', 'CARDINAL'), ('Official 1’s', 'LAW'), ('Hajvali', 'PERSON'), ('Official 1', 'LAW'), ('Non Staff', 'ORG'), ('1', 'CARDINAL'), ('Non Staff', 'ORG'), ('1', 'CARDINAL'), ('5.000,00', 'MONEY'), ('three', 'CARDINAL'), ('Airport Staff', 'WORK_OF_ART'), ('Pristina  Airport', 'FAC')]</t>
-  </si>
-  <si>
-    <t>[('Non Staff', 'ORG'), ('1', 'CARDINAL'), ('two', 'CARDINAL'), ('Pristina Airport', 'FAC'), ('6 September 2004', 'DATE'), ('Non Staff', 'ORG'), ('1', 'CARDINAL'), ('KPS', 'ORG'), ('2', 'CARDINAL'), ('Non Staff', 'ORG'), ('Pristina Airport', 'FAC'), ('1', 'CARDINAL'), ('Non Staff', 'ORG'), ('5', 'DATE'), ('KPS Officer', 'ORG'), ('2', 'CARDINAL'), ('Non Staff', 'ORG'), ('4', 'CARDINAL'), ('Pristina Airport', 'FAC'), ('3.000,00', 'MONEY')]</t>
-  </si>
-  <si>
-    <t>[('Non Staff', 'ORG'), ('1', 'CARDINAL'), ('two', 'CARDINAL'), ('25-26 July 2004', 'DATE'), ('Non Staff', 'ORG'), ('1', 'CARDINAL'), ('Official 1 (Pristina Airport', 'LAW'), ('Pristina Airport', 'FAC'), ('Official 1', 'LAW'), ('Non Staff', 'ORG'), ('1', 'CARDINAL'), ('two', 'CARDINAL'), ('Non Staff', 'ORG'), ('2', 'CARDINAL'), ('Non Staff', 'ORG'), ('3', 'CARDINAL'), ('7,000.00', 'MONEY'), ('Official 1', 'LAW'), ('Pristina Airport', 'FAC')]</t>
-  </si>
-  <si>
-    <t>[('Non Staff', 'ORG'), ('1', 'CARDINAL'), ('two', 'CARDINAL'), ('1', 'CARDINAL'), ('ITF', 'ORG'), ('two days later', 'DATE'), ('an additional €', 'MONEY'), ('Official 2’s', 'LAW'), ('Official 1', 'LAW'), ('Official 1', 'LAW'), ('Non Staff', 'ORG'), ('1', 'CARDINAL'), ('approximately € 180', 'MONEY'), ('night', 'TIME'), ('Official 2’s', 'LAW'), ('two', 'CARDINAL'), ('Restaurant 2', 'ORG'), ('Non-Staff', 'ORG'), ('1', 'CARDINAL'), ('225', 'MONEY'), ('190', 'MONEY'), ('Non Staff', 'ORG'), ('Pristina Airport', 'FAC'), ('Official 1', 'LAW'), ('one', 'CARDINAL'), ('English', 'LANGUAGE'), ('Official 5', 'LAW'), ('Non Staff', 'ORG'), ('Kosovar', 'ORG'), ('International', 'ORG'), ('Non Staff', 'ORG'), ('1', 'CARDINAL'), ('Airport', 'ORG'), ('Non Staff', 'ORG'), ('1', 'CARDINAL')]</t>
-  </si>
-  <si>
-    <t>[('Background and Allegations A Kosovo Trust Agency', 'WORK_OF_ART'), ('Internal Audit Unit', 'ORG'), ('IAU', 'ORG'), ('4 October 2004', 'DATE'), ('Pristina Airport', 'FAC'), ('summer', 'DATE'), ('winter', 'DATE'), ('Pristina Airport Reference No', 'FAC'), ('summer', 'DATE'), ('Pristina Airport Reference No', 'FAC'), ('IAU', 'ORG'), ('28', 'CARDINAL'), ('Vendor 1', 'ORG'), ('summer', 'DATE'), ('1', 'CARDINAL'), ('Pristina Airport', 'FAC'), ('Pristina Airport', 'FAC'), ('one', 'CARDINAL'), ('1', 'CARDINAL'), ('Vendor 2', 'PERSON'), ('1', 'CARDINAL'), ('the Bid Evaluation Committee', 'ORG'), ('the Finance Department', 'ORG'), ('Vendor 2', 'PERSON'), ('ITF', 'ORG'), ('1', 'CARDINAL'), ('ITF', 'ORG')]</t>
-  </si>
-  <si>
-    <t>[('Background and Allegations A Kosovo Trust Agency', 'ORG'), ('Internal Audit Unit', 'ORG'), ('IAU', 'ORG'), ('4 October 2004', 'DATE'), ('Pristina Airport', 'FAC'), ('summer', 'DATE'), ('winter', 'DATE'), ('Pristina Airport Reference No', 'FAC'), ('summer', 'DATE'), ('Pristina Airport Reference No', 'FAC'), ('IAU', 'ORG'), ('28', 'CARDINAL'), ('Vendor 1', 'ORG'), ('summer', 'DATE'), ('1', 'CARDINAL'), ('Pristina Airport', 'FAC'), ('Pristina Airport', 'FAC'), ('one', 'CARDINAL'), ('1', 'CARDINAL'), ('Vendor 2', 'PERSON'), ('1', 'CARDINAL'), ('the Bid Evaluation Committee', 'ORG'), ('the Finance Department', 'ORG'), ('Vendor 2', 'PERSON'), ('ITF', 'ORG'), ('1', 'CARDINAL'), ('ITF', 'ORG')]</t>
-  </si>
-  <si>
-    <t>[('July 2004', 'DATE'), ('the Investigation Task Force', 'ORG'), ('28 May 2004', 'DATE'), ('Cargo', 'NORP'), ('Cargo', 'NORP'), ('Invoice', 'GPE'), ('April 2004', 'DATE'), ('the Cargo Department of Pristina Airport', 'ORG'), ('Pristina Airport', 'FAC'), ('the Cargo Department', 'ORG')]</t>
-  </si>
-  <si>
-    <t>[('Background\n\nPristina Airport', 'WORK_OF_ART'), ('Airline', 'ORG'), ('KFOR', 'ORG'), ('Pristina Airport', 'FAC'), ('€0.50/kg', 'MONEY'), ('Pristina Airport', 'FAC'), ('Invoice', 'ORG'), ('the Member State’s KFOR', 'ORG'), ('Value Added Tax', 'ORG'), ('VAT', 'ORG')]</t>
-  </si>
-  <si>
-    <t>[('DRA', 'ORG'), ('2', 'CARDINAL'), ('DRA', 'ORG'), ('2', 'CARDINAL'), ('Vendor 4', 'PERSON'), ('5', 'CARDINAL'), ('the “Gotive H41 IB', 'ORG'), ('the “Gotive H41', 'ORG'), ('Vendor 4', 'PERSON'), ('Vendor 5', 'ORG'), ('DRA', 'ORG'), ('2', 'CARDINAL'), ('the “Gotive H41', 'ORG'), ('DRA', 'ORG'), ('2', 'CARDINAL'), ('PDA', 'ORG'), ('Vendor 1', 'PERSON'), ('first', 'ORDINAL'), ('1', 'CARDINAL'), ('KVS', 'ORG'), ('Vendor 1', 'PERSON')]</t>
-  </si>
-  <si>
-    <t>[('DRA', 'ORG'), ('2', 'CARDINAL'), ('DRA', 'ORG'), ('Section VII of the Bidding Documents “Obligatory Requirements', 'LAW'), ('DRA', 'ORG'), ('2', 'CARDINAL'), ('Kosovo', 'GPE'), ('five working days', 'DATE'), ('Kosovo', 'GPE'), ('five days', 'DATE'), ('a week', 'DATE')]</t>
-  </si>
-  <si>
-    <t>[('Vendor 1', 'PERSON'), ('two', 'CARDINAL'), ('Vendor 4', 'PERSON'), ('six', 'CARDINAL'), ('DRA', 'ORG'), ('one', 'CARDINAL'), ('DRA', 'ORG'), ('2', 'CARDINAL'), ('DRA', 'ORG'), ('2', 'CARDINAL')]</t>
-  </si>
-  <si>
-    <t>[('two', 'CARDINAL'), ('firstly', 'ORDINAL'), ('Vendor 1', 'PERSON'), ('Secondly', 'ORDINAL'), ('two', 'CARDINAL'), ('PRIO', 'ORG'), ('eight', 'CARDINAL'), ('DRA', 'ORG'), ('1', 'CARDINAL'), ('two', 'CARDINAL'), ('Vendor 2', 'PERSON'), ('Vendor 3', 'PERSON'), ('135,000', 'MONEY'), ('DRA', 'ORG'), ('1', 'CARDINAL'), ('Vendor 2', 'PERSON'), ('Kosovo', 'GPE'), ('135,000', 'MONEY'), ('more than €17,000', 'MONEY'), ('Vendor 3’s', 'PERSON'), ('yearly €16,500', 'MONEY'), ('more than €15,000', 'MONEY')]</t>
-  </si>
-  <si>
-    <t>[('late 2002', 'DATE'), ('EAR', 'ORG'), ('SPUVESEK', 'GPE'), ('August 2002', 'DATE'), ('DRA', 'ORG'), ('November 2003', 'DATE'), ('170,000', 'MONEY'), ('February 2004', 'DATE'), ('the Central Procurement Entity', 'ORG'), ('second', 'ORDINAL'), ('April 2004', 'DATE'), ('second', 'ORDINAL'), ('DRA', 'ORG'), ('135,000', 'MONEY'), ('19 May 2004', 'DATE'), ('DRA', 'ORG'), ('eight', 'CARDINAL'), ('DRA', 'ORG'), ('1', 'CARDINAL'), ('DRA', 'ORG'), ('DRA', 'ORG'), ('1', 'CARDINAL'), ('DRA', 'ORG')]</t>
-  </si>
-  <si>
-    <t>[('ITB', 'ORG'), ('the UN Financial Rules', 'ORG'), ('UNMIK’s Finance Administrative', 'ORG'), ('KCB', 'ORG'), ('RECOMMENDATION Based', 'ORG'), ('Recommendation 1:', 'LAW'), ('UNMIK', 'ORG'), ('DRA', 'ORG'), ('DRA', 'ORG'), ('2', 'CARDINAL'), ('DRA', 'ORG'), ('1', 'CARDINAL')]</t>
-  </si>
-  <si>
-    <t>[('Pillar II', 'EVENT'), ('the Policy Review and Internal Oversight Unit', 'ORG'), ('PRIO', 'ORG'), ('UN', 'ORG'), ('The Directorate of Rural Affairs', 'ORG'), ('DRA', 'ORG'), ('UNMIK Civil Administration', 'ORG'), ('October 2001', 'DATE'), ('Department of Agriculture', 'ORG'), ('DRA', 'ORG'), ('Veterinary Services &amp;', 'ORG'), ('Border Control and Public Forests', 'ORG'), ('DRA', 'ORG'), ('Security Council Resolution 1244', 'ORG'), ('United Nations', 'ORG'), ('the UN Rules and Regulations', 'ORG'), ('DRA', 'ORG'), ('DRA', 'ORG')]</t>
-  </si>
-  <si>
-    <t>[('PRIO', 'ORG'), ('EAR', 'ORG'), ('five', 'CARDINAL'), ('PDA', 'ORG'), ('USD $323.38 to', 'MONEY'), ('818.30', 'MONEY'), ('EAR', 'ORG')]</t>
-  </si>
-  <si>
-    <t>[('ITF', 'ORG'), ('Prishtina Airport', 'FAC'), ('KTA', 'FAC'), ('2002', 'DATE'), ('the ATCS Finance Office', 'ORG'), ('the ATCS Finance Office', 'ORG'), ('Division', 'ORG'), ('UNMIK Pillar', 'ORG')]</t>
-  </si>
-  <si>
-    <t>[('ITF', 'ORG'), ('the Prishtina Airport', 'FAC'), ('Italy', 'GPE'), ('Canada', 'GPE'), ('the United Kingdom', 'GPE'), ('Employees', 'ORG')]</t>
-  </si>
-  <si>
-    <t>[('2002', 'DATE'), ('Finance', 'ORG'), ('Finance', 'ORG')]</t>
-  </si>
-  <si>
-    <t>[('Nokia 8850', 'ORG'), ('Official 3', 'LAW'), ('1.176,00', 'MONEY'), ('VALA', 'ORG'), ('20', 'CARDINAL'), ('23.52', 'CARDINAL'), ('12', 'CARDINAL'), ('58.8', 'CARDINAL'), ('960,00', 'MONEY'), ('Head of Department', 'ORG'), ('hundreds', 'CARDINAL')]</t>
-  </si>
-  <si>
-    <t>[('ITF', 'ORG'), ('two', 'CARDINAL'), ('46/2002', 'CARDINAL'), ('49/2002', 'CARDINAL'), ('55/2002', 'CARDINAL'), ('59/2002', 'DATE'), ('30 June 2002', 'DATE'), ('four', 'CARDINAL'), ('ATCS', 'ORG'), ('05/2002', 'CARDINAL'), ('06/2002', 'ORG'), ('07/2002', 'CARDINAL'), ('01 July 2002', 'DATE'), ('ITF', 'ORG'), ('ITF', 'ORG')]</t>
-  </si>
-  <si>
-    <t>[('Division', 'ORG'), ('Division', 'ORG'), ('Division', 'ORG')]</t>
-  </si>
-  <si>
-    <t>[('ITF', 'ORG'), ('Official 1', 'LAW'), ('Prishtina Airport', 'FAC'), ('May 2002', 'DATE'), ('Official 3', 'LAW'), ('UK', 'GPE'), ('ATCS', 'ORG'), ('46/2002', 'CARDINAL'), ('Shinfield Park', 'FAC'), ('London', 'GPE'), ('Prishtina', 'GPE'), ('Official 3', 'LAW'), ('1158', 'MONEY')]</t>
-  </si>
-  <si>
-    <t>[('BACKGROUND', 'ORG'), ('10.000', 'MONEY'), ('Between July 2002', 'DATE'), ('November 2003', 'DATE'), ('642.000', 'MONEY'), ('February 2003', 'DATE'), ('01 July 2002', 'DATE'), ('Division', 'ORG'), ('Pristina Airport', 'FAC'), ('Department', 'ORG'), ('the ATCS Finance Office', 'ORG'), ('Finance', 'ORG'), ('2', 'CARDINAL'), ('Finance', 'ORG'), ('Finance', 'ORG'), ('2', 'CARDINAL'), ('Division', 'ORG')]</t>
-  </si>
-  <si>
-    <t>[('ITF', 'ORG'), ('two', 'CARDINAL'), ('2002', 'DATE'), ('2003', 'DATE'), ('• Examined ATCS bank', 'ORG'), ('• Examined', 'PERSON')]</t>
-  </si>
-  <si>
-    <t>[('ITF', 'ORG'), ('two', 'CARDINAL'), ('• Cross', 'ORG'), ('ATCS bank', 'ORG'), ('• Cross-checked', 'ORG'), ('mid-2002', 'DATE'), ('• Interviewed', 'ORG'), ('Division', 'ORG'), ('1', 'CARDINAL'), ('2', 'CARDINAL'), ('Official 1', 'LAW'), ('Prishtina Airport', 'FAC'), ('the Official 2', 'LAW'), ('Prishtina Airport', 'FAC')]</t>
-  </si>
-  <si>
-    <t>[('ITF', 'ORG'), ('ATCS Finance Office', 'ORG'), ('the ATCS Finance Office', 'ORG'), ('Italy', 'GPE'), ('the United Kingdom', 'GPE'), ('ITF', 'ORG'), ('Finance', 'ORG'), ('ATCS Finance Office', 'ORG'), ('the period September 2000 to December 2003', 'DATE'), ('1', 'CARDINAL'), ('2002', 'DATE'), ('2003', 'DATE'), ('Employee 1', 'ORG'), ('2', 'CARDINAL'), ('Division', 'ORG'), ('Employee 3', 'ORG'), ('5', 'CARDINAL'), ('the UNMIK Aviation Transport', 'ORG'), ('Airport Prishtina', 'GPE')]</t>
-  </si>
-  <si>
-    <t>[('KTA', 'ORG'), ('UNMIK Regulation', 'ORG'), ('2001/27', 'CARDINAL'), ('8 October', 'DATE')]</t>
-  </si>
-  <si>
-    <t>[('ITF', 'ORG'), ('Finance', 'ORG'), ('the ATCS Finance Office', 'ORG'), ('01 April 2002', 'DATE'), ('the ATCS Finance Office', 'ORG'), ('the ATCS Finance Office', 'ORG'), ('UNMIK', 'ORG')]</t>
-  </si>
-  <si>
-    <t>[('ITF', 'ORG'), ('Official 4', 'LAW'), ('the Pristina Airport', 'FAC'), ('2002', 'DATE'), ('46/2002', 'CARDINAL'), ('49/2002', 'CARDINAL'), ('55/2002', 'CARDINAL'), ('59/2002', 'DATE'), ('four', 'CARDINAL'), ('46/2002', 'CARDINAL'), ('25 May 2002', 'DATE'), ('21 May 2002', 'DATE'), ('22 May 2002', 'DATE'), ('55/2002', 'CARDINAL'), ('four', 'CARDINAL'), ('ATCS', 'ORG')]</t>
-  </si>
-  <si>
-    <t>[('01 July 2002', 'DATE'), ('05/2002', 'CARDINAL'), ('06/2002', 'ORG'), ('07/2002', 'CARDINAL'), ('16', 'CARDINAL')]</t>
-  </si>
-  <si>
-    <t>[('Division', 'ORG'), ('two', 'CARDINAL'), ('nineteen', 'CARDINAL'), ('seven', 'CARDINAL'), ('six', 'CARDINAL'), ('Pristina Airport', 'FAC')]</t>
-  </si>
-  <si>
-    <t>[('Division', 'ORG'), ('the ATCS Finance Office', 'ORG'), ('Finance', 'ORG'), ('1', 'CARDINAL'), ('Division', 'ORG'), ('2002', 'DATE'), ('UNMIK Pillar', 'ORG'), ('1 July 2002', 'DATE'), ('Finance', 'ORG'), ('46/2002', 'CARDINAL'), ('49/2002', 'CARDINAL'), ('55/2002', 'CARDINAL'), ('59/2002', 'DATE'), ('ATCS Finance Office', 'ORG')]</t>
-  </si>
-  <si>
-    <t>[('1', 'CARDINAL'), ('UNDP', 'ORG'), ('two', 'CARDINAL'), ('The Finance Department', 'ORG'), ('Finance', 'ORG'), ('2', 'CARDINAL'), ('OIOS', 'ORG'), ('two', 'CARDINAL'), ('the end of month', 'DATE'), ('UNON', 'ORG'), ('UNEP Narobi', 'ORG'), ('UNDP Bratislava', 'ORG'), ('• UNDP Bratislava', 'ORG'), ('UNON', 'ORG'), ('UNDP', 'ORG'), ('UNON', 'ORG'), ('August 2002', 'DATE'), ('more than a year', 'DATE'), ('• UNEP Narobi', 'ORG'), ('UNDP', 'ORG')]</t>
-  </si>
-  <si>
-    <t>[('Mzumara', 'PERSON'), ('OIC', 'ORG'), ('SRO', 'ORG'), ('Lusaka', 'ORG'), ('29 January 2003', 'DATE'), ('Dickson Mzumara', 'PERSON'), ('ECA Sub Regional Office', 'ORG'), ('Lusaka', 'GPE'), ('Zambia', 'GPE'), ('Negroponte', 'PERSON'), ('Mzumara', 'PERSON'), ('Negroponte', 'PERSON'), ('the same day', 'DATE'), ('Mzumara', 'PERSON'), ('Mzumara', 'PERSON'), ('Organization', 'ORG'), ('Mzumara', 'PERSON'), ('the Conditions of Service', 'ORG'), ('29 January 2003', 'DATE'), ('JAB', 'ORG'), ('Nairobi', 'GPE'), ('White House', 'ORG'), ('USA', 'GPE'), ('Negroponte', 'PERSON'), ('the UN Secretariat', 'LOC'), ('Boss', 'PERSON'), ('Human Rights Organizations', 'ORG')]</t>
-  </si>
-  <si>
-    <t>[('26 January 2003', 'DATE'), ('Hiwot Abebe', 'PERSON'), ('the United States of America', 'GPE'), ('John Kerry', 'PERSON'), ('Dodd', 'PERSON'), ('the United States Senate', 'ORG'), ('ECA', 'ORG'), ('ECA', 'ORG'), ('Crimes of Rape', 'WORK_OF_ART'), ('ECA', 'ORG'), ('Ethiopian Foreign Ministry', 'ORG'), ('the UN System', 'ORG'), ('Abebe', 'PERSON'), ('the American Government', 'ORG'), ('ECA', 'ORG'), ('ten', 'CARDINAL'), ('ECA', 'ORG'), ('Abebe', 'PERSON'), ('the American Government', 'ORG')]</t>
-  </si>
-  <si>
-    <t>[('the Office of Internal Oversight Services', 'ORG'), ('OIOS', 'ORG'), ('Organization', 'ORG'), ('the Economic Commission for Africa', 'ORG'), ('ECA', 'ORG'), ('One', 'CARDINAL'), ('ECA', 'ORG'), ('UN Rules and Regulations', 'ORG'), ('John Negroponte', 'PERSON'), ('the US Mission', 'ORG'), ('UN', 'ORG'), ('the United States of America', 'GPE'), ('John Kerry', 'PERSON'), ('Dodd', 'PERSON'), ('the United States', 'ORG'), ('Senate', 'ORG')]</t>
-  </si>
-  <si>
-    <t>[('APPLICABLE LAW\n\nRegulation', 'WORK_OF_ART'), ('1.2', 'CARDINAL'), ('the Staff Regulations', 'WORK_OF_ART'), ('BACKGROUND', 'ORG'), ('ECA', 'ORG'), ('P5', 'NORP'), ('the end of November 2003', 'DATE'), ('25 years', 'DATE')]</t>
-  </si>
-  <si>
-    <t>[('Hiwot Abebe', 'PERSON'), ('26 January 2003', 'DATE'), ('26 January 2003', 'DATE'), ('Hiwot Abebe', 'PERSON'), ('the United States of America', 'GPE'), ('John Kerry', 'PERSON'), ('Dodd', 'PERSON'), ('the United States Senate', 'ORG'), ('ECA', 'ORG'), ('ECA', 'ORG'), ('Crimes of Rape', 'WORK_OF_ART'), ('ECA', 'ORG'), ('Ethiopian Foreign Ministry', 'ORG'), ('the UN System', 'ORG')]</t>
-  </si>
-  <si>
-    <t>[('Official 2', 'LAW'), ('DSA', 'ORG'), ('ECA', 'ORG'), ('UNDP', 'ORG'), ('UNDP', 'ORG'), ('Barclays in Seychelles', 'ORG'), ('DSA', 'ORG'), ('17 February 1999', 'DATE'), ('first', 'ORDINAL'), ('UNDP', 'ORG'), ('18 February 1999', 'DATE'), ('DSA', 'ORG')]</t>
-  </si>
-  <si>
-    <t>[('DSA', 'ORG'), ('DSA', 'ORG'), ('one', 'CARDINAL'), ('DSA', 'ORG'), ('Bank', 'ORG'), ('ID/OIOS Investigators', 'ORG'), ('Official 4', 'LAW'), ('DSA', 'ORG')]</t>
-  </si>
-  <si>
-    <t>[('3', 'CARDINAL'), ('UNEP', 'ORG'), ('2', 'CARDINAL'), ('May 2000', 'DATE'), ('about a year', 'DATE'), ('BTF', 'ORG'), ('UNEP', 'ORG'), ('1', 'CARDINAL'), ('UNEP', 'ORG'), ('UNEP', 'ORG'), ('UNEP', 'ORG'), ('2', 'CARDINAL'), ('UNEP', 'ORG'), ('UNEP', 'ORG'), ('BTF', 'ORG')]</t>
-  </si>
-  <si>
-    <t>[('The Investigations Division of the Office of Internal Oversight Services', 'WORK_OF_ART'), ('the Balkans Task Force', 'ORG'), ('BTF', 'ORG'), ('the Post-Conflict Assessment Unit (PCAU', 'ORG'), ('the United Nations Environment Programme', 'ORG'), ('UNEP', 'ORG'), ('two', 'CARDINAL'), ('UNEP Staff', 'ORG'), ('BTF', 'ORG'), ('PCAU', 'ORG'), ('UNEP', 'ORG'), ('1,UNEP', 'CARDINAL'), ('UNEP/PCAU Consultant', 'ORG'), ('2', 'CARDINAL'), ('UNEP', 'ORG'), ('fifty percent', 'PERCENT'), ('UNEP', 'ORG')]</t>
-  </si>
-  <si>
-    <t>[('1', 'CARDINAL'), ('UNEP', 'ORG'), ('UNEP/PCAU Consultant', 'ORG'), ('BTF', 'ORG'), ('UNEP', 'ORG'), ('BTF', 'ORG'), ('UNEP', 'ORG'), ('UNEP', 'ORG'), ('UNEP', 'ORG')]</t>
-  </si>
-  <si>
-    <t>[('BTF', 'ORG'), ('Financial Regulation', 'ORG'), ('the United Nations', 'ORG'), ('6', 'CARDINAL'), ('the United Nations', 'ORG'), ('UNEP', 'ORG'), ('UNOPS', 'ORG'), ('United Nations', 'ORG'), ('BTF', 'ORG')]</t>
-  </si>
-  <si>
-    <t>[('ITF', 'ORG'), ('Airport', 'ORG'), ('ICAA', 'ORG'), ('Internal Audit Department', 'ORG'), ('KTA', 'ORG'), ('ICAA', 'ORG'), ('ITF', 'ORG'), ('UNMIK', 'ORG'), ('ICAA', 'ORG'), ('UNMIK', 'ORG'), ('ICAA', 'ORG'), ('Iceland', 'GPE'), ('ITF', 'ORG'), ('ICAA', 'ORG')]</t>
-  </si>
-  <si>
-    <t>[('Violations of Procurement Procedures - Insurance', 'ORG'), ('April 2004', 'DATE'), ('the Investigation Task Force', 'ORG'), ('UNMIK', 'ORG'), ('the Pristina Airport', 'FAC'), ('1 April 2004', 'DATE'), ('the Icelandic Civil Aviation Administration', 'ORG'), ('UNMIK', 'ORG'), ('April 2004', 'DATE'), ('Iceland', 'GPE'), ('WPVI', 'PERSON'), ('Iceland', 'GPE'), ('Iceland', 'GPE'), ('1', 'CARDINAL'), ('ICAA', 'ORG'), ('Pristina Airport', 'FAC'), ('ICAA', 'ORG'), ('Iceland', 'GPE')]</t>
-  </si>
-  <si>
-    <t>[('The Investigation Task Force', 'ORG'), ('Pristina Airport', 'FAC'), ('London', 'GPE'), ('Insurance Company 1', 'ORG'), ('2003', 'DATE'), ('UNMIK Pillar II', 'ORG'), ('the Kosovo Trust Agency', 'ORG'), ('ITF', 'ORG'), ('2002', 'DATE'), ('2003', 'DATE'), ('Kosovo Consolidated Funds', 'ORG'), ('more than $125,000 USD', 'MONEY'), ('at least the period', 'DATE'), ('October 2003', 'DATE'), ('October 2004', 'DATE'), ('Insurance Company 1', 'ORG'), ('Pristina International Airport', 'FAC'), ('a further year', 'DATE'), ('the Department of Justice', 'ORG')]</t>
-  </si>
-  <si>
-    <t>[('IAU', 'ORG'), ('28', 'CARDINAL'), ('Vendor 1', 'ORG'), ('summer', 'DATE'), ('1', 'CARDINAL'), ('Pristina Airport', 'FAC'), ('Pristina Airport', 'FAC'), ('one', 'CARDINAL'), ('1', 'CARDINAL'), ('Vendor 2', 'PERSON'), ('1', 'CARDINAL'), ('the Bid Evaluation Committee', 'ORG'), ('the Finance Department', 'ORG'), ('Vendor 2', 'PERSON')]</t>
-  </si>
-  <si>
-    <t>[('Investigation Details\n\nProcurement Officer 1', 'WORK_OF_ART'), ('Vendor 1', 'PERSON'), ('Vendor 2', 'PERSON'), ('Procurement Officer 1', 'PRODUCT'), ('a Bid Opening Committee', 'ORG'), ('10', 'CARDINAL'), ('three', 'CARDINAL'), ('1', 'CARDINAL'), ('Officer 1', 'LAW'), ('a Bid Evaluation Committee', 'ORG'), ('18-06-04', 'DATE'), ('Vendor 2', 'PERSON'), ('one', 'CARDINAL'), ('23', 'CARDINAL'), ('Pristina Airport', 'FAC'), ('Pristina Airport', 'FAC'), ('Pristina Airport', 'FAC'), ('summer', 'DATE'), ('106,059', 'MONEY'), ('Vendor 1', 'PERSON'), ('two', 'CARDINAL')]</t>
-  </si>
-  <si>
-    <t>[('the Bid Evaluation Committee\n\nProcurement Officer 1 explained', 'ORG'), ('ITF', 'ORG'), ('Committee', 'ORG'), ('1', 'CARDINAL'), ('the day', 'DATE'), ('first', 'ORDINAL'), ('Committee', 'ORG'), ('2', 'CARDINAL'), ('second', 'ORDINAL'), ('1', 'CARDINAL'), ('Committee', 'ORG'), ('2', 'CARDINAL'), ('the Bid Evaluation Committee\n\nThe Finance Officer', 'ORG'), ('Pristina Airport', 'FAC'), ('ITF', 'ORG'), ('Finance', 'ORG'), ('the Bid Evaluation Committee', 'ORG'), ('Pristina Airport', 'FAC'), ('ITF', 'ORG'), ('the Finance Department', 'ORG'), ('15 December 1999', 'DATE')]</t>
-  </si>
-  <si>
-    <t>[('ITF', 'ORG'), ('Vendor 2', 'PERSON'), ('1', 'CARDINAL'), ('Pristina', 'GPE'), ('1', 'CARDINAL'), ('Vendor 2', 'PERSON'), ('the Bid Opening Committee', 'ORG'), ('2', 'CARDINAL'), ('2', 'CARDINAL')]</t>
-  </si>
-  <si>
-    <t>[('the end of June 2002', 'DATE'), ('the Pristina Airport', 'FAC'), ('the Civil Administration Pillar (Pillar II', 'ORG'), ('UNMIK', 'ORG'), ('Official 1 and Official 2', 'LAW'), ('Pillar II', 'EVENT'), ('the Department of Transport and Infrastructure (DOTI', 'ORG'), ('1', 'CARDINAL'), ('the Transport Sector of the UNMIK Directorate of Infrastructure Affairs', 'ORG'), ('DOTI', 'ORG'), ('1', 'CARDINAL'), ('the end of June 2002', 'DATE'), ('DOTI', 'ORG'), ('DOTI', 'ORG'), ('31 July 2000', 'DATE'), ('30 September 2001', 'DATE'), ('United Nations', 'ORG'), ('Airport Engineer 1', 'ORG'), ('2', 'CARDINAL'), ('3', 'CARDINAL'), ('Consultant', 'PRODUCT'), ('the Consulting Firm', 'LAW')]</t>
-  </si>
-  <si>
-    <t>[('Vendor 1', 'PERSON'), ('one', 'CARDINAL'), ('Peja', 'LOC'), ('Vendor 2', 'PERSON'), ('the Procurement Officer', 'ORG'), ('the Evaluation Committee', 'ORG'), ('English', 'LANGUAGE'), ('Vendor 2’s', 'PERSON')]</t>
-  </si>
-  <si>
-    <t>[('the end of June 2002', 'DATE'), ('the Pristina Airport', 'FAC'), ('the Civil Administration Pillar (Pillar II', 'ORG'), ('UNMIK', 'ORG'), ('Official 1 and Official 2 Department of Transport and Infrastructure (DOTI', 'LAW'), ('DOTI', 'ORG'), ('the Transport Sector of the UNMIK Directorate of Infrastructure Affairs', 'ORG'), ('DOTI', 'ORG'), ('1', 'CARDINAL'), ('the end of June 2002', 'DATE'), ('DOTI', 'ORG'), ('31 July 2000', 'DATE'), ('30 September 2001', 'DATE'), ('one', 'CARDINAL'), ('UN', 'ORG'), ('Army', 'ORG'), ('Airport Engineer 1', 'ORG'), ('2', 'CARDINAL'), ('3', 'CARDINAL'), ('the Consulting Company', 'ORG')]</t>
-  </si>
-  <si>
-    <t>[('the end of June 2002', 'DATE'), ('the Pristina Airport', 'FAC'), ('the Civil Administration Pillar (Pillar II', 'ORG'), ('UNMIK', 'ORG'), ('Official 1 and Official 2 Department of Transport and Infrastructure (DOTI', 'LAW'), ('DOTI', 'ORG'), ('the Transport Sector of the UNMIK Directorate of Infrastructure Affairs', 'ORG'), ('DOTI', 'ORG'), ('1', 'CARDINAL'), ('the end of June 2002', 'DATE'), ('DOTI', 'ORG'), ('31 July 2000', 'DATE'), ('30 September 2001', 'DATE'), ('one', 'CARDINAL'), ('UN', 'ORG'), ('Army', 'ORG'), ('Airport Engineer 1', 'ORG'), ('2', 'CARDINAL'), ('3', 'CARDINAL'), ('the Consulting Company', 'ORG'), ('1 July 2002', 'DATE'), ('Pillar II', 'EVENT'), ('the Kosovo Trust Agency', 'ORG'), ('Pillar', 'ORG'), ('Divisional', 'ORG'), ('Official 3', 'LAW'), ('1 April 2004', 'DATE'), ('Pristina International Airport', 'EVENT'), ('KFOR', 'ORG')]</t>
-  </si>
-  <si>
-    <t>[('two', 'CARDINAL'), ('792', 'MONEY'), ('1,188', 'MONEY'), ('Two', 'CARDINAL'), ('4 July 2003', 'DATE'), ('5', 'CARDINAL'), ('August 2003', 'DATE'), ('two', 'CARDINAL'), ('99', 'CARDINAL'), ('66', 'CARDINAL'), ('1188', 'MONEY'), ('792', 'MONEY'), ('three months', 'DATE'), ('two', 'CARDINAL'), ('two', 'CARDINAL'), ('1 July 2003', 'DATE'), ('1 August 2003', 'DATE')]</t>
-  </si>
-  <si>
-    <t>[('two', 'CARDINAL'), ('one month', 'DATE'), ('only three months', 'DATE'), ('two', 'CARDINAL')]</t>
-  </si>
-  <si>
-    <t>[('two', 'CARDINAL'), ('Vendor 3', 'PERSON'), ('summer', 'DATE'), ('Pristina Airport', 'FAC'), ('April 2003', 'DATE'), ('Divisional', 'ORG'), ('two', 'CARDINAL'), ('Divisional', 'ORG'), ('Divisional', 'ORG')]</t>
-  </si>
-  <si>
-    <t>[('6 December 2002', 'DATE'), ('8', 'CARDINAL'), ('4', 'CARDINAL'), ('27 November 2002', 'DATE'), ('3', 'CARDINAL'), ('3', 'CARDINAL'), ('157,060', 'MONEY'), ('two', 'CARDINAL'), ('80,198', 'MONEY'), ('Vendor 2', 'PERSON'), ('86,850', 'MONEY'), ('1', 'CARDINAL'), ('four', 'CARDINAL'), ('27 November 2002', 'DATE'), ('3', 'CARDINAL')]</t>
-  </si>
-  <si>
-    <t>[('the Investigation Task Force', 'ORG'), ('ITF', 'ORG'), ('Pristina Airport', 'FAC'), ('Pillar', 'ORG'), ('BACKGROUND INFORMATION\n\nPristina', 'ORG'), ('International Airport', 'FAC'), ('Yugoslavian', 'NORP'), ('2001', 'DATE'), ('2003', 'DATE'), ('the Public Enterprise Airport Pristina', 'ORG'), ('the Kosovo Force', 'ORG'), ('United Nations Security Council', 'ORG'), ('10 June 1999', 'DATE'), ('UNMIK Regulation', 'ORG'), ('25 July 1999', 'DATE'), ('UNMIK', 'ORG'), ('Kosovo', 'GPE'), ('Pristina International Airport', 'FAC')]</t>
-  </si>
-  <si>
-    <t>[('2', 'CARDINAL'), ('FIDS', 'ORG'), ('2', 'CARDINAL'), ('ITF', 'ORG'), ('the Procurement Regulation', 'ORG')]</t>
-  </si>
-  <si>
-    <t>[('non-Airport', 'FAC'), ('the Flat Information Display System', 'ORG'), ('Single', 'LOC'), ('Vendor 1', 'PERSON'), ('FIDS', 'ORG'), ('FIDS', 'ORG'), ('Vendor 2', 'PERSON'), ('FIDS', 'ORG'), ('17 October 2002', 'DATE'), ('2', 'CARDINAL'), ('FIDS', 'ORG'), ('the Passenger Terminal Building', 'ORG'), ('Vendor 1', 'PERSON'), ('the Airport Management', 'ORG'), ('1', 'CARDINAL'), ('The Capital Expenditure Approval', 'ORG'), ('13 December 2002', 'DATE'), ('Vendor 1', 'PERSON'), ('FIDS', 'ORG'), ('FIDS', 'ORG'), ('March 2004', 'DATE'), ('15.919', 'CARDINAL')]</t>
-  </si>
-  <si>
-    <t>[('The Airport Engineer', 'WORK_OF_ART'), ('11 October 2004', 'DATE'), ('the Airport Management', 'ORG'), ('The Airport Engineer', 'ORG'), ('FIDS', 'ORG'), ('2', 'CARDINAL'), ('FIDS', 'ORG'), ('FIDS', 'ORG'), ('the Airport Management', 'ORG'), ('Vendor 1', 'PERSON'), ('30 August 2004', 'DATE'), ('Vendor 1', 'PERSON'), ('Kosovo', 'GPE'), ('Vendor 1', 'PERSON'), ('Airport', 'EVENT'), ('FIDS', 'ORG')]</t>
-  </si>
-  <si>
-    <t>[('Pristina Airport', 'FAC'), ('the 29th May 2003', 'DATE'), ('Divisional', 'ORG'), ('Kosovo Trust Agency', 'ORG'), ('UNMIK', 'ORG'), ('Pillar', 'ORG'), ('Pristina Airport', 'FAC'), ('the Capital Expenditure', 'ORG'), ('KTA', 'ORG'), ('7 March 2003', 'DATE'), ('Pristina Airport', 'FAC'), ('4 April 2003', 'DATE'), ('the Evaluation Committee', 'ORG'), ('Pristina Airport', 'FAC'), ('Vendor', 'PRODUCT'), ('10 April 2003', 'DATE'), ('Vendor', 'ORG'), ('Divisional', 'ORG'), ('29 May 2003', 'DATE'), ('KTA', 'ORG'), ('The Capital Expenditure Approval', 'ORG'), ('19 June 2003', 'DATE'), ('KTA', 'ORG'), ('2', 'CARDINAL'), ('20 June 2003', 'DATE')]</t>
-  </si>
-  <si>
-    <t>[('the Airport Handling Services Department for Airline', 'ORG'), ('Price List for Basic Airport Services', 'WORK_OF_ART'), ('1 January 2002', 'DATE'), ('the "Load Sheets', 'ORG'), ('1074', 'CARDINAL'), ('Euros', 'PERSON'), ('676.44', 'MONEY'), ('50%', 'PERCENT'), ('Pristina Airport', 'FAC'), ('Kosovars', 'FAC'), ('the Official of the Airport General Services', 'ORG')]</t>
-  </si>
-  <si>
-    <t>[('Pristina Airport', 'FAC'), ('Pristina Airport', 'FAC'), ('Airport Pristina', 'ORG'), ('the Passenger Handling Services Department', 'ORG'), ('the Pristina Airport Senior Official', 'ORG'), ('Price List for Basic Airport Services', 'WORK_OF_ART')]</t>
-  </si>
-  <si>
-    <t>[('the Pristina Airport', 'FAC'), ('Management Letter', 'ORG'), ('May 2004', 'DATE'), ('the 2003 Financial Audit', 'EVENT'), ('Airport', 'GPE')]</t>
-  </si>
-  <si>
-    <t>[('the Pristina Airport', 'FAC'), ('Management Letter', 'ORG'), ('May 2004', 'DATE'), ('the 2003 Financial Audit', 'EVENT'), ('53', 'CARDINAL'), ('the Airport,', 'FAC'), ('54', 'DATE')]</t>
-  </si>
-  <si>
-    <t>[('Pristina Airport', 'FAC'), ('15', 'MONEY'), ('Official', 'ORG'), ('U.K. Immigration', 'ORG'), ('UK', 'GPE'), ('Official', 'ORG')]</t>
-  </si>
-  <si>
-    <t>[('UNMIK CIVPOL', 'ORG'), ('Immigration', 'ORG'), ('Pristina Airport', 'FAC'), ('Pristina', 'PERSON'), ('Pristina Airport', 'FAC'), ('ITF', 'ORG'), ('the Airline "Load Sheets', 'ORG')]</t>
-  </si>
-  <si>
-    <t>[('Handling Services Department', 'ORG'), ('Pristina Airport', 'FAC'), ('ITF', 'ORG'), ('Pristina Airport', 'FAC'), ('22 July 2004', 'DATE'), ('Airline', 'ORG'), ('Kosovar', 'ORG'), ('25', 'CARDINAL'), ('Immigration Department', 'ORG')]</t>
-  </si>
-  <si>
-    <t>[('Pristina Airport', 'FAC'), ('the period January to June 2004', 'DATE'), ('Official 1 and Official 2', 'LAW'), ('Pristina Airport', 'FAC'), ('the Aircraft "Load Sheets', 'ORG'), ('May and June 2004', 'DATE'), ('MTOW', 'ORG')]</t>
-  </si>
-  <si>
-    <t>[('II', 'CARDINAL'), ('BACKGROUND', 'ORG'), ('Pristina Airport', 'FAC'), ('European Airport', 'LOC'), ('Thursday', 'DATE'), ('Kosovar', 'ORG'), ('European', 'NORP'), ('the Immigration Department', 'ORG'), ('25', 'CARDINAL'), ('Securicor', 'PERSON'), ('Pristina', 'GPE'), ('Airline', 'ORG'), ('Pristina', 'GPE'), ('Securicor', 'ORG'), ('UNMIK CIVPOL', 'ORG'), ('CIVPOL', 'NORP'), ('UK', 'GPE'), ('the U.K. Immigration Department', 'ORG')]</t>
-  </si>
-  <si>
-    <t>[('the Border Boundary Police', 'ORG'), ('two', 'CARDINAL'), ('5,200', 'MONEY'), ('27 September 2004', 'DATE'), ('ITF', 'ORG'), ('UNMIK Police', 'ORG'), ('Regional Crime Squad Pristina Region', 'ORG')]</t>
-  </si>
-  <si>
-    <t>[('Pristina Airport', 'FAC'), ('one day', 'DATE'), ('5,200', 'MONEY'), ('5000', 'MONEY'), ('Airport Engineer', 'ORG'), ('26', 'CARDINAL'), ('September 2002', 'DATE'), ('2', 'CARDINAL'), ('ITF Case No', 'WORK_OF_ART'), ('0274/04', 'CARDINAL')]</t>
-  </si>
-  <si>
-    <t>[('29 April 2004', 'DATE'), ('Divisional', 'ORG'), ('UNMIK Pillar IV', 'ORG'), ('October 2002', 'DATE'), ('5200', 'MONEY'), ('Public Enterprise Airport Pristina', 'ORG'), ('4 October 2002', 'DATE'), ('approximately 8', 'CARDINAL'), ('1', 'CARDINAL'), ('Pristina International Airport', 'FAC'), ('UNITED NATIONS', 'ORG'), ('Article 344 of the Provisional Criminal Code of', 'LAW'), ('Kosovo', 'GPE')]</t>
-  </si>
-  <si>
-    <t>[('BACKGROUND INFORMATION\n\n', 'WORK_OF_ART'), ('29 April 2004', 'DATE'), ('Divisional', 'ORG'), ('October 2002', 'DATE'), ('ITF', 'ORG'), ('ITF', 'ORG'), ('Divisional', 'ORG'), ('ITF', 'ORG'), ('UNMIK', 'ORG'), ('11 October 2002', 'DATE'), ('UNMIK Police', 'ORG'), ('Fush', 'GPE'), ('Kosovo', 'GPE'), ('Divisional', 'ORG'), ('UNMIK Police', 'ORG'), ('11 October 2002', 'DATE'), ('8 October 2002', 'DATE'), ('Divisional', 'ORG'), ('Euro', 'ORG'), ('5,200', 'MONEY'), ('PEAP', 'ORG')]</t>
-  </si>
-  <si>
-    <t>[('The KTA Procurement Specialist', 'WORK_OF_ART'), ('1', 'CARDINAL'), ('Divisional', 'ORG'), ('UNMIK', 'ORG'), ('11 October 2002', 'DATE'), ('5,200', 'MONEY'), ('Iraq', 'GPE'), ('ITF', 'ORG'), ('Kosovo', 'GPE'), ('between June 2001', 'DATE'), ('November 2002', 'DATE'), ('the Border Police Investigations Unit', 'ORG')]</t>
-  </si>
-  <si>
-    <t>[('The KTA Procurement Specialist', 'WORK_OF_ART'), ('ITF', 'ORG'), ('1', 'CARDINAL'), ('1', 'CARDINAL'), ('1', 'CARDINAL'), ('1', 'CARDINAL'), ('1', 'CARDINAL'), ('three', 'CARDINAL'), ('two', 'CARDINAL'), ('two', 'CARDINAL'), ('Pristina Airport', 'FAC')]</t>
-  </si>
-  <si>
-    <t>[('the Investigation Task Force', 'ORG'), ('ITF', 'ORG'), ('Pristina Airport', 'FAC'), ('Pillar', 'ORG'), ('International Airport', 'FAC'), ('Yugoslavian', 'NORP'), ('2001', 'DATE'), ('2003', 'DATE'), ('the Public Enterprise Airport Pristina', 'ORG'), ('the Kosovo Force', 'ORG'), ('United Nations Security Council', 'ORG'), ('10 June 1999', 'DATE'), ('UNMIK Regulation', 'ORG'), ('25 July 1999', 'DATE'), ('UNMIK', 'ORG'), ('Kosovo', 'GPE'), ('Pristina International Airport', 'FAC'), ('the end of June 2002', 'DATE'), ('the Pristina Airport', 'FAC'), ('the Civil Administration Pillar (Pillar II', 'ORG'), ('UNMIK', 'ORG'), ('Official 1 and Official 2', 'LAW'), ('Pillar II', 'EVENT'), ('the Department of Transport and Infrastructure (DOTI', 'ORG'), ('1', 'CARDINAL'), ('the Transport Sector of the UNMIK Directorate of Infrastructure Affairs', 'ORG'), ('DOTI', 'ORG'), ('1', 'CARDINAL'), ('the end of June 2002', 'DATE'), ('DOTI', 'ORG'), ('DOTI', 'ORG'), ('31 July 2000', 'DATE'), ('30 September 2001', 'DATE'), ('3', 'CARDINAL'), ('Consultant', 'PRODUCT'), ('the Consulting Firm\n\n', 'ORG'), ('1 July 2002', 'DATE'), ('Pillar II', 'EVENT'), ('the Kosovo Trust Agency', 'ORG'), ('Pillar', 'ORG'), ('Divisional', 'ORG'), ('the Airport Sector', 'FAC'), ('the Air Traffic Control Services', 'ORG'), ('1', 'CARDINAL'), ('1 April 2004', 'DATE'), ('Pristina International Airport', 'EVENT'), ('KFOR', 'ORG')]</t>
-  </si>
-  <si>
-    <t>[('ITF', 'ORG'), ('the Department of Justice', 'ORG'), ('26 July 2004', 'DATE'), ('Official 1 and Official 2', 'LAW'), ('14th', 'ORDINAL'), ('March 2004', 'DATE'), ('16th', 'ORDINAL'), ('March 2004', 'DATE'), ('Official 1 and Official 2', 'LAW'), ('Airport Pristina', 'ORG'), ('Fraud in Service', 'ORG'), ('Article 215', 'LAW'), ('1', 'CARDINAL'), ('2', 'CARDINAL'), ('the Kosovo Criminal Code', 'EVENT'), ('KCC', 'ORG'), ('one to ten years', 'DATE'), ('Fraud', 'GPE'), ('Article 341', 'LAW'), ('1', 'CARDINAL'), ('2', 'CARDINAL'), ('Provisional Kosovo Criminal Code', 'ORG'), ('PCCK', 'ORG'), ('Complicity', 'GPE'), ('Article 22 of Criminal Code of', 'LAW'), ('SFRY', 'ORG'), ('PCCK', 'ORG'), ('Article 23', 'LAW')]</t>
-  </si>
-  <si>
-    <t>[('the 16th of March 2004', 'DATE'), ('Partner 1', 'LAW'), ('8,000.00', 'MONEY'), ('the Company Representative', 'ORG'), ('Pristina Airport', 'FAC'), ('Official 1', 'LAW'), ('Official 1', 'LAW'), ('The Airport X-Ray Operator', 'FAC'), ('two', 'CARDINAL'), ('the Cargo Department Finance Office', 'ORG'), ('Company', 'ORG'), ('8,000', 'MONEY'), ('the Cargo Department', 'ORG'), ('2003', 'DATE'), ('2004', 'DATE'), ('ITF', 'ORG'), ('Company', 'ORG'), ('approximately €32,000.00', 'MONEY'), ('the 23rd of December 2003 to 15th of March 2004', 'DATE')]</t>
-  </si>
-  <si>
-    <t>[('4', 'CARDINAL'), ('Partner 3', 'LAW'), ('VAT', 'ORG'), ('Custom Duties', 'ORG'), ('Storage', 'GPE'), ('Official 2’s', 'LAW'), ('Finance', 'ORG'), ('1', 'CARDINAL'), ('the Cargo Handling Office', 'ORG'), ('Official 1’s', 'LAW')]</t>
-  </si>
-  <si>
-    <t>[('APPLICABLE TERRITORIAL LAWS:\n\nPursuant', 'WORK_OF_ART'), ('The Special Representative', 'ORG'), ('United Nations Security Council', 'ORG'), ('1999', 'DATE'), ('10 June 1999', 'DATE'), ('United Nations Interim Administration Mission', 'ORG'), ('Kosovo', 'GPE'), ('25 July 1999', 'DATE'), ('the Authority of the Interim Administration', 'ORG'), ('Kosovo', 'GPE'), ('Kosovo', 'GPE'), ('Kosovo', 'GPE'), ('the Special Representative', 'ORG'), ('Kosovo', 'GPE'), ('22 March 1989', 'DATE'), ('the Provisional Criminal Code', 'LAW'), ('Kosovo', 'GPE'), ('Article 339 (Abusing Official Position of Authority', 'LAW'), ('Article 340 (Misappropriation in Office', 'LAW'), ('Article 341', 'LAW'), ('Fraud in Office', 'ORG')]</t>
-  </si>
-  <si>
-    <t>[('INTRODUCTION\n\nThe Investigation Task Force', 'WORK_OF_ART'), ('Kosovo', 'GPE'), ('UNMIK Bank Account', 'ORG'), ('Bank in Pristina', 'ORG'), ('Public Enterprise Airport Pristina', 'ORG'), ('February 2003', 'DATE'), ('the Chartered Accountants', 'ORG'), ('Pristina Airport', 'FAC'), ('the Kosovo Trust Agency', 'ORG'), ('UNMIK Pillar IV', 'ORG'), ('the European Union', 'ORG'), ('UNMIK', 'ORG'), ('the Provisional Institutions of Self-Government', 'ORG'), ('PISG', 'ORG'), ('the Constitutional Framework for Provisional Self-Government', 'ORG'), ('Kosovo', 'GPE'), ('the Executive Decision', 'ORG'), ('21 October 2003', 'DATE')]</t>
-  </si>
-  <si>
-    <t>[('BACKGROUND INFORMATION\n\nThe DCDM Audit Report', 'WORK_OF_ART'), ('UNMIK Bank Account', 'ORG'), ('the “Company Account', 'ORG'), ('13 and', 'DATE'), ('20 July 2001', 'DATE'), ('UNMIK', 'ORG'), ('Company', 'ORG'), ('Relating to the Supply of Aviation Fuel and the Refueling of Commercial Civilian Aircraft at', 'WORK_OF_ART'), ('Pristina Airport', 'FAC'), ('03 March 2004', 'DATE'), ('Contract', 'PERSON'), ('Company', 'ORG')]</t>
-  </si>
-  <si>
-    <t>[('the Office of Internal Oversight Services', 'ORG'), ('the United Nations Mission', 'ORG'), ('Liberia', 'GPE'), ('Liberia', 'GPE')]</t>
-  </si>
-  <si>
-    <t>[('II', 'CARDINAL'), ('BACKGROUND', 'ORG'), ('19 September 2003', 'DATE'), ('Security Council Resolution 1509', 'ORG'), ('the UNMIL Fuel Cell', 'LAW'), ('the Mission des Nations Unies', 'ORG'), ('République Démocratique de Congo', 'PERSON'), ('the UNMIL Fuel Cell', 'LAW'), ('20', 'CARDINAL'), ('four', 'CARDINAL'), ('International', 'ORG'), ('the United Nations', 'ORG'), ('30 June 2004', 'DATE'), ('8 July 2004', 'DATE'), ('January', 'DATE'), ('February 2004', 'DATE'), ('"Fuel Management in UNMIL', 'WORK_OF_ART'), ('IAD1', 'GPE')]</t>
-  </si>
-  <si>
-    <t>[('13 February 2005', 'DATE'), ('the Investigations Division of the Office of Internal Oversight Services', 'ORG'), ('UNON', 'ORG'), ('Official 1', 'PRODUCT'), ('United Nations Office', 'ORG'), ('UNON', 'ORG'), ('the United Nations Co-operative', 'ORG'), ('Savings', 'ORG'), ('Credit Society Limited', 'ORG'), ('UNON Management by UNON', 'ORG'), ('Nairobi', 'GPE'), ('United Nations Children’s Fund/Somalia Support Centre', 'ORG'), ('Somalia', 'GPE'), ('UN', 'ORG'), ('UN', 'ORG'), ('UNON Management', 'ORG'), ('Nairobi', 'GPE'), ('United Nations Agencies', 'ORG')]</t>
-  </si>
-  <si>
-    <t>[('UNON Management by UNON', 'ORG'), ('Nairobi', 'GPE'), ('United Nations Children’s Fund/Somalia Support Centre', 'ORG'), ('Somalia', 'GPE'), ('UN', 'ORG'), ('UN', 'ORG'), ('UNON Management', 'ORG'), ('Nairobi', 'GPE'), ('United Nations Agencies', 'ORG'), ('two', 'CARDINAL'), ('ID/OIOS Investigators', 'ORG'), ('Nairobi', 'GPE'), ('UNON Managers', 'ORG'), ('ID/OIOS Management', 'ORG'), ('14', 'CARDINAL'), ('18 February 2005', 'DATE'), ('ID/OIOS Investigation', 'ORG'), ('UNON Management', 'ORG')]</t>
-  </si>
-  <si>
-    <t>[('one', 'CARDINAL'), ('UNICEF', 'ORG'), ('UNICEF', 'ORG'), ('UNICEF', 'ORG'), ('UNICEF', 'ORG'), ('ID/OIOS', 'ORG'), ('UNICEF', 'ORG'), ('UN', 'ORG'), ('one', 'CARDINAL'), ('UNICEF', 'ORG')]</t>
-  </si>
-  <si>
-    <t>[('UN', 'ORG'), ('the Official Status Files', 'ORG'), ('UNON', 'ORG'), ('January 2005', 'DATE'), ('one', 'CARDINAL'), ('UN', 'ORG'), ('two years', 'DATE'), ('ID/OIOS', 'ORG'), ('UN', 'ORG')]</t>
-  </si>
-  <si>
-    <t>[('UN', 'ORG'), ('UNON', 'ORG'), ('UN', 'ORG'), ('UNON', 'ORG'), ('Additional Investigative', 'ORG'), ('Documentation', 'ORG'), ('UN', 'ORG'), ('about 2,500', 'CARDINAL'), ('UNON', 'ORG'), ('United Nations', 'ORG'), ('UN', 'ORG'), ('about one thousand', 'CARDINAL'), ('UNON', 'ORG')]</t>
-  </si>
-  <si>
-    <t>[('UN', 'ORG'), ('UNICEF/Somalia Management', 'ORG'), ('UNICEF/Somalia', 'ORG'), ('UNICEF/Somalia', 'ORG'), ('only approximately 20', 'CARDINAL'), ('UNICEF Somalia', 'ORG'), ('Nairobi', 'GPE'), ('11 February 2005', 'DATE'), ('Attachment 5', 'DATE')]</t>
-  </si>
-  <si>
-    <t>[('National Identification Card', 'ORG'), ('six', 'CARDINAL'), ('UN', 'ORG'), ('UN', 'ORG'), ('Credit Committee', 'ORG')]</t>
-  </si>
-  <si>
-    <t>[('Recommendation 1: It', 'LAW'), ('UNON', 'ORG'), ('UNON', 'ORG'), ('UNON', 'ORG'), ('UNON', 'ORG'), ('UNON', 'ORG'), ('Recommendation 5', 'LAW'), ('UNON', 'ORG')]</t>
-  </si>
-  <si>
-    <t>[('UNON', 'ORG'), ('UNON', 'ORG'), ('1.2', 'CARDINAL'), ('UNON', 'ORG'), ('The Financial Regulations and Rules', 'LAW'), ('the United Nations ST/SGB/2003/7, Regulation 5.12', 'ORG')]</t>
-  </si>
-  <si>
-    <t>[('the Investigation Task Force', 'ORG'), ('ITF', 'ORG'), ('Pristina Airport', 'FAC'), ('Pillar', 'ORG'), ('International Airport', 'FAC'), ('Yugoslavian', 'NORP'), ('2001', 'DATE'), ('2003', 'DATE'), ('the Public Enterprise Airport Pristina', 'ORG'), ('the Kosovo Force', 'ORG'), ('United Nations Security Council', 'ORG'), ('10 June 1999', 'DATE'), ('UNMIK Regulation', 'ORG'), ('25 July 1999', 'DATE'), ('UNMIK', 'ORG'), ('Kosovo', 'GPE'), ('Pristina International Airport', 'FAC'), ('the end of June 2002', 'DATE'), ('the Pristina Airport', 'FAC'), ('the Civil Administration Pillar (Pillar II', 'ORG'), ('UNMIK', 'ORG'), ('Official 1 and Official 2', 'LAW'), ('Pillar II', 'EVENT'), ('the Department of Transport and Infrastructure (DOTI', 'ORG'), ('1', 'CARDINAL'), ('the Transport Sector of the UNMIK Directorate of Infrastructure Affairs', 'ORG'), ('DOTI', 'ORG'), ('1', 'CARDINAL'), ('the end of June 2002', 'DATE'), ('DOTI', 'ORG'), ('DOTI', 'ORG'), ('31 July 2000', 'DATE'), ('30 September 2001', 'DATE'), ('United Nations', 'ORG'), ('Airport Engineer 1', 'ORG'), ('Consultant', 'PRODUCT'), ('the Consulting Firm', 'LAW'), ('1 July 2002', 'DATE'), ('Pillar II', 'EVENT'), ('the Kosovo Trust Agency', 'ORG'), ('Pillar', 'ORG'), ('Divisional', 'ORG'), ('the Airport Sector', 'FAC'), ('the Air Traffic Control Services', 'ORG'), ('1', 'CARDINAL'), ('1 April 2004', 'DATE'), ('Pristina International Airport', 'EVENT'), ('KFOR', 'ORG')]</t>
-  </si>
-  <si>
-    <t>[('February, 2002', 'DATE'), ('DPKO Communications and Technology Services Division', 'ORG'), ('Cabrera', 'PERSON'), ('February 25, 2002', 'DATE'), ('April 15, 2002', 'DATE'), ('36', 'CARDINAL'), ('nine', 'CARDINAL'), ('IBM', 'ORG'), ('Dell', 'ORG'), ('Compaq', 'ORG'), ('PD', 'GPE'), ('the Information Technology Services Division', 'ORG'), ('Bahel', 'PERSON'), ('Toshiba', 'ORG'), ('Sony', 'ORG'), ('Fujitsu', 'ORG'), ('NEC', 'ORG'), ('CITS', 'ORG'), ('three', 'CARDINAL'), ('CITS', 'ORG'), ('April 24, 2002', 'DATE'), ('Cabrera', 'PERSON'), ('Compaq', 'WORK_OF_ART'), ('Dell', 'ORG'), ('IBM', 'ORG'), ('Toshiba', 'ORG'), ('Sony', 'ORG'), ('Fujitsu', 'ORG'), ('NEC', 'ORG')]</t>
-  </si>
-  <si>
-    <t>[('1', 'CARDINAL'), ('26 January 2006', 'DATE'), ('2', 'CARDINAL'), ('Walter Cabrera', 'PERSON'), ('Headquarters Procurement Section', 'ORG'), ('the Procurement Task Force', 'ORG'), ('United Nations', 'ORG'), ('Walter Cabrera', 'PERSON'), ('The Procurement Task Force', 'ORG'), ('January 12, 2006', 'DATE'), ('the Office of Internal Oversight Services', 'ORG'), ('the Task Force', 'ORG'), ('the Independent Inquiry Committee', 'ORG'), ('the Oil for Food Programme', 'ORG'), ('UN', 'ORG'), ('Alexander Yakovlev', 'PERSON')]</t>
-  </si>
-  <si>
-    <t>[('the Task Force', 'ORG'), ('OIOS', 'ORG'), ('OIOS', 'ORG'), ('the Task Force', 'ORG'), ('the United Nations', 'ORG'), ('UN', 'ORG'), ('the Task Force', 'ORG'), ('The Task Force’s', 'ORG'), ('Organization', 'ORG'), ('more than 200', 'CARDINAL'), ('UN Missions', 'ORG'), ('UN Headquarters', 'ORG'), ('the Task Force', 'ORG'), ('The Task Force', 'ORG'), ('The Task Force', 'ORG'), ('eight', 'CARDINAL')]</t>
-  </si>
-  <si>
-    <t>[('January 2006', 'DATE'), ('Walter Cabrera', 'PERSON'), ('United Nations', 'ORG'), ('the Task Force', 'ORG'), ('First', 'ORDINAL'), ('Cabrera', 'PERSON'), ('LLC', 'ORG'), ('UN Missions', 'ORG'), ('Secondly', 'ORDINAL'), ('Cabrera', 'PERSON'), ('Telecommunications Consultants of India', 'ORG'), ('Task Force', 'PRODUCT'), ('The Task Force', 'ORG'), ('Cabrera', 'PERSON'), ('Cabrera', 'PERSON')]</t>
-  </si>
-  <si>
-    <t>[('Bahel', 'PERSON'), ('Thunderbird', 'GPE'), ('HCC', 'ORG'), ('Bahel', 'PERSON'), ('Thunderbird', 'PRODUCT'), ('first', 'ORDINAL'), ('Thunderbird', 'GPE'), ('IECS', 'ORG'), ('an additional two months', 'DATE'), ('Thunderbird', 'GPE'), ('an additional four weeks', 'DATE'), ('Thunderbird', 'PERSON'), ('over eight weeks', 'DATE'), ('Bahel', 'PERSON'), ('Thunderbird', 'GPE'), ('Thunderbird', 'ORG'), ('the minutes', 'TIME'), ('HCC', 'ORG'), ('one', 'CARDINAL'), ('HCC', 'ORG'), ('Thunderbird', 'GPE'), ('first', 'ORDINAL'), ('the Task Force’s', 'ORG'), ('the Task Force', 'ORG'), ('Cabrera', 'PERSON')]</t>
-  </si>
-  <si>
-    <t>[('Bahel', 'PERSON'), ('New York', 'GPE'), ('annual', 'DATE'), ('Jane Redfern', 'PERSON'), ('UN', 'ORG'), ('Walter Cabrera', 'PERSON'), ('Bahel', 'PERSON'), ('Thunderbird', 'PRODUCT'), ('Cabrera', 'PERSON'), ('Thunderbird', 'GPE'), ('HCC', 'ORG'), ('HCC', 'ORG'), ('Cabrera', 'PERSON'), ('Bahel', 'PERSON'), ('Bahel', 'PERSON'), ('Cabrera', 'PERSON'), ('Nishan Kohli', 'PERSON'), ('HCC', 'ORG'), ('Thunderbird', 'GPE'), ('Thunderbird', 'GPE'), ('Cabrera', 'PERSON'), ('Kohli', 'PERSON'), ('LOI', 'ORG'), ('Kohli', 'PERSON'), ('the Task Force', 'ORG'), ('Kohli', 'PERSON')]</t>
-  </si>
-  <si>
-    <t>[('July 18, 2002', 'DATE'), ('Sanjaya Bahel', 'PERSON'), ('TCIL', 'ORG'), ('5,340,000', 'MONEY'), ('HCC', 'ORG'), ('three', 'CARDINAL'), ('UN', 'ORG'), ('ITB', 'ORG'), ('DPKO', 'ORG'), ('three', 'CARDINAL'), ('HCC', 'ORG'), ('Committee', 'ORG'), ('UN', 'ORG'), ('TCIL', 'ORG')]</t>
-  </si>
-  <si>
-    <t>[('ITB', 'ORG'), ('The Task Force', 'ORG'), ('Cabrera', 'PERSON'), ('Cabrera', 'PERSON'), ('DPKO', 'ORG'), ('the Task Force', 'ORG'), ('Cabrera', 'PERSON'), ('Cabrera', 'PERSON'), ('Sanjaya Bahel', 'PERSON'), ('DPKO', 'ORG'), ('DPKO', 'ORG'), ('Bahel', 'PERSON'), ('Bahel', 'PERSON'), ('LaCresta', 'ORG')]</t>
-  </si>
-  <si>
-    <t>[('Cabrera', 'PERSON'), ('May, 2002', 'DATE'), ('Thunderbird', 'PRODUCT'), ('LLC', 'ORG'), ('Nishan Kohli', 'PERSON'), ('Managing Partner', 'ORG'), ('Organization', 'ORG'), ('UN', 'ORG'), ('July, 2002', 'DATE'), ('PD', 'GPE'), ('Thunderbird', 'GPE'), ('Nishan Kohli', 'PERSON'), ('UN Missions', 'ORG'), ('the Procurement Department', 'ORG'), ('Sanjaya Bahel', 'PERSON'), ('Field Procurement', 'ORG'), ('the Headquarters Committee on Contracts', 'ORG'), ('Thunderbird', 'GPE'), ('Cabrera', 'PERSON'), ('late December, 2002', 'DATE')]</t>
-  </si>
-  <si>
-    <t>[('Procurement Department', 'ORG'), ('LaCresta', 'ORG'), ('La Cresta', 'PERSON'), ('La Cresta', 'PERSON'), ('DPKO', 'ORG'), ('the Task Force', 'ORG'), ('LaCresta', 'ORG'), ('the Procurement Department', 'ORG'), ('PD', 'GPE'), ('LaCresta', 'ORG'), ('DPKO', 'ORG'), ('La Cresta', 'PERSON'), ('Cabrera', 'PERSON'), ('DPKO', 'ORG')]</t>
-  </si>
-  <si>
-    <t>[('the European Aeronautic', 'ORG'), ('Space Corporation', 'ORG'), ('EADS', 'ORG'), ('U.S.', 'GPE'), ('Vimont', 'PERSON'), ('Levitte', 'PERSON'), ('Pernod Ricard', 'PERSON'), ('second', 'ORDINAL'), ('Sarkozy', 'PERSON'), ('Patrick Ricard', 'PERSON'), ('Pernod Ricard', 'ORG'), ('Sarkozy', 'PERSON'), ('Vimont', 'PERSON'), ('U.S.', 'GPE'), ('the White House', 'ORG'), ('Sarkozy', 'PERSON'), ('U.S.', 'GPE'), ('Levitte', 'PERSON'), ('U.S.', 'GPE'), ('Levitte', 'PERSON'), ('two', 'CARDINAL'), ('Iran', 'GPE'), ('the Middle East Peace Process', 'LOC'), ('Afghanistan', 'GPE'), ('Pakistan', 'GPE'), ('Yemen', 'GPE'), ('Somalia', 'GPE'), ('Sahel', 'PERSON'), ('Russia', 'GPE'), ('China', 'GPE'), ('Turkey', 'GPE'), ('European', 'NORP')]</t>
-  </si>
-  <si>
-    <t>[('Sensitive Issues on the Agenda When French', 'WORK_OF_ART'), ('U.S.', 'GPE'), ('Next Week', 'DATE'), ('Washington', 'GPE'), ('French', 'NORP'), ('Sarkozy', 'PERSON'), ('U.S.', 'GPE'), ('two', 'CARDINAL'), ('Washington', 'GPE'), ('31 March', 'DATE'), ('last week', 'DATE'), ('French', 'NORP'), ('Washington', 'GPE'), ('Pierre Vimont', 'PERSON'), ('Sarkozy', 'PERSON'), ('Jean-David Levitte', 'PERSON'), ('Vimont', 'PERSON'), ('French', 'NORP'), ('Washington', 'GPE'), ('Sarkozy', 'PERSON'), ('Vimont', 'PERSON'), ('Levitte', 'PERSON'), ('U.S.', 'GPE'), ('France', 'GPE'), ('Afghanistan', 'GPE'), ('Levitte', 'PERSON'), ('Sarkozy', 'PERSON'), ('U.S.', 'GPE')]</t>
-  </si>
-  <si>
-    <t>[('National Security Agency', 'ORG'), ('French', 'NORP'), ('March 24, 2010', 'DATE'), ('French', 'NORP'), ('Washington', 'GPE'), ('D.C.', 'GPE'), ('Pierre Vimont', 'PERSON'), ('French', 'NORP'), ('Nicolas Sarkozy', 'PERSON'), ('Jean-David Levitte', 'PERSON'), ('Sarkozy', 'PERSON'), ('US', 'GPE'), ('Barack Obama', 'PERSON'), ('Washington', 'GPE'), ('Sarkozy', 'PERSON'), ('US', 'GPE'), ('US', 'GPE'), ('France', 'GPE'), ('French', 'NORP'), ('Afghanistan', 'GPE'), ('European Aeronautic Defence', 'ORG'), ('EADS', 'ORG'), ('US', 'GPE'), ('French', 'NORP'), ('Pernod Ricard', 'PERSON')]</t>
-  </si>
-  <si>
-    <t>[('28 February 2003', 'DATE'), ('Pristina International Airport', 'FAC'), ('the Chartered Accountants', 'ORG'), ('Pristina International Airport', 'FAC'), ('one', 'CARDINAL'), ('one month', 'DATE'), ('two', 'CARDINAL'), ('seven', 'CARDINAL'), ('Pristina Airport', 'FAC'), ('the Investigation Task Force', 'ORG'), ('ITF', 'ORG'), ('Pristina Airport', 'FAC'), ('Pillar', 'ORG')]</t>
-  </si>
-  <si>
-    <t>[('BACKGROUND INFORMATION\n\nPristina International Airport', 'WORK_OF_ART'), ('Yugoslavian', 'NORP'), ('2001', 'DATE'), ('2003', 'DATE'), ('the Public Enterprise Airport Pristina', 'ORG'), ('the Kosovo Force', 'ORG'), ('United Nations Security Council', 'ORG'), ('10 June 1999', 'DATE'), ('UNMIK Regulation', 'ORG'), ('25 July 1999', 'DATE'), ('UNMIK', 'ORG'), ('Kosovo', 'GPE'), ('Pristina International Airport', 'FAC'), ('1 July 2002', 'DATE'), ('Pillar II', 'EVENT'), ('the Kosovo Trust Agency', 'ORG'), ('Pillar', 'ORG'), ('the Airport Sector', 'FAC'), ('1 April 2004', 'DATE'), ('Pristina International Airport', 'EVENT'), ('KFOR', 'ORG')]</t>
-  </si>
-  <si>
-    <t>[('BACKGROUND INFORMATION\n\nPristina International Airport', 'WORK_OF_ART'), ('Yugoslavian', 'NORP'), ('2001', 'DATE'), ('2003', 'DATE'), ('the Public Enterprise Airport Pristina', 'ORG'), ('the Kosovo Force', 'ORG'), ('United Nations Security Council', 'ORG'), ('10 June 1999', 'DATE'), ('UNMIK Regulation', 'ORG'), ('25 July 1999', 'DATE'), ('UNMIK', 'ORG'), ('Kosovo', 'GPE'), ('Pristina International Airport', 'FAC')]</t>
-  </si>
-  <si>
-    <t>[('French', 'NORP'), ('Washington', 'GPE'), ('Jean-David Levitte', 'PERSON'), ('Iraq Survey Group', 'ORG'), ('French', 'NORP'), ('Levitte', 'PERSON'), ('U.S.', 'GPE'), ('French', 'NORP'), ('U.S.', 'GPE'), ('the U.S. Congress', 'ORG'), ('French', 'NORP'), ('Release List of U.S. Firms', 'ORG'), ('TS//SI//REL TO USA', 'ORG'), ('AUS', 'GPE'), ('NZL', 'ORG'), ('French', 'NORP'), ('Jean\xad David Levitte', 'PERSON'), ('Washington', 'GPE'), ('today', 'DATE'), ('the Iraq Survey Group', 'ORG'), ('UN', 'ORG'), ('France', 'GPE'), ('Iraqi', 'NORP'), ('U.S.', 'GPE'), ('French', 'NORP'), ('OFF', 'ORG'), ('U.S.', 'GPE'), ('U.S.', 'GPE'), ('the U.S. Congress', 'ORG')]</t>
-  </si>
-  <si>
-    <t>[('Airport', 'took', 24), ('irregularity', 'took', 24), ('Vendor', 'involving', 9), ('part', 'took', 24), ('companies', 'have', 82), ('residences', 'have', 82), ('Vendor', 'submitted', 99), ('Supply', 'submitted', 99), ('company', 'provide', 146), ('offer', 'provide', 146), ('competitors', 'offered', 188), ('prices', 'offered', 188), ('competitors', 'offered', 232), ('prices', 'offered', 232)]</t>
-  </si>
-  <si>
-    <t>[('Vendor', 'admitted', 23), ('fact', 'put', 41), ('Vendor', 'took', 34), ('part', 'took', 34), ('competitors', 'put', 41), ('companies', 'exchanged', 54), ('information', 'exchanged', 54), ('companies', 'exist', 75), ('bids', 'submitted', 77), ('investigation', 'found', 101), ('reference', 'found', 101), ('ITF', 'contacted', 173), ('Prosecutor', 'contacted', 173)]</t>
+    <t>pristina airport possible administrative irregularity regarding tender procedure involving vendor vendor allegation two company owner took part least three time airport tender background information kosovo citizen vendor vendor representative owner director pristinabased vendor also shareholder pristinaljubljanabased company vendor company residence address pristina vendor vendor submitted three time tender supply mounting sonic system fire station building winner vendor followed vendor third company vendor provide price offer cabling flat display information system fids winner vendor followed vendor two competitor vendor vendor offered price euro euro purchase fixing cramer antenna winner vendor followed vendor two competitor vendor vendor offered price</t>
+  </si>
+  <si>
+    <t>investigative detail hisher interview conducted st august th september vendor vendor representative admitted fact vendor vendor took part together three airport tender put competitor disadvantage alleged company never exchanged information regard price offer doubt whether company vendor vendor exist submitted bid three tender itf investigation support kosovo organised crime bureau kocb found reference regard existence alleged competitor vendor pristina alleged company vendor found supermarket located prizren abovementioned fact already part itf case submitted international prosecutor unmik department justice october december itf contacted international prosecutor legal assessment case although case would clearly breach economic law applicable law kosovo time</t>
+  </si>
+  <si>
+    <t>interoffice memorandum providing outstanding issue update official doti official staff member office official dated may could give rise suggestion offer provided company may vendor chosen work advance however likely explanation date interoffice memorandum incorrectly dated since document contains reference date relating project event post date may paragraph b interoffice memorandum state cargo apron invitation tender based summary document</t>
+  </si>
+  <si>
+    <t>allegation specifically three person bid opening committee evaluation committee party carried task contract cargo apron extension channeled office legal adviser evaluation report dated august signed three party also listed attended bid opening session indicates composition bid opening committee evaluation committee overlapped asked issue interview doti official confirmed heshe bid opening committee member evaluation committee heshe added people evaluated offer signed evaluation report conflict un regulation segregate two role interoffice memorandum dated september indicates contract cargo apron extension channeled office legal adviser</t>
+  </si>
+  <si>
+    <t>asked interview divisional manager stated without seeing document face appear could conflict interest report produced professional pavement engineer laboratory therefore one assume certain degree integrity itf note peap official indicated heshe unhappy vendor selfcertifying work heshe commented airport engineer questioned itf sufficient technical knowledge assess adequacy vendor work however letter divisional manager staff member dated august give rise possibility specification certain area</t>
+  </si>
+  <si>
+    <t>investigation detail part investigation relates tender contract extension cargo terminal apron pristina airport value contract allegation specifically tender document cargo apron comply requirement article unmik finance administrative instruction public procurement using kosovo consolidated budget fund based summary document include clear instruction drawing plan note project engineer evaluation company peap official dated january indicates evaluation company commissioned produce preliminary design cargo terminal pristina airport design also provided construction cargo apron extension</t>
+  </si>
+  <si>
+    <t>paragraph cargo apron extension evaluation report dated august committee note bidding document include clear instruction drawing plan therefore recommended negotiation held lowest bidder vendor detail scope work combination two document suggest tender document comply article unmik finance administrative instruction public procurement using kosovo consolidated budget fund asked whether heshe view tender document complied provision article unmik finance administrative instruction public procurement using kosovo consolidated budget fund doti official conceded engineer asked question heshe would indicate tender specification technically deficient comply article</t>
+  </si>
+  <si>
+    <t>end june responsibility administration pristina airport entrusted civil administration pillar pillar ii unmik including official official pillar ii supervised doti official department transport infrastructure doti later known transport sector unmik directorate infrastructure affair doti official left unmik end june doti official recruited doti international staff member july charge airport operation reporting doti official continued role september engineering expertise provided series engineer seconded armed force united nation member state specifically airport engineer airport engineer airport engineer later consultant consulting company july responsibility administration airport passed pillar ii kosovo trust agency kta pillar iv divisional manager appointed peap official atcs official air traffic control service april pristina international airport time jurisdiction kfor handed civilian jurisdiction icao regulation background change procurement procedure relating following contract examined</t>
+  </si>
+  <si>
+    <t>methodology investigation conducted pursuant executive decision establishment investigation task force itf investigator conducted enquiry allegation raised interview person indicated witness person potentially implicated allegation obtaining document pristina airport administration pillar iv analysed relevance inquiry hand background information pristina international airport constitutes state owned enterprise yugoslavian law asset airport include runway terminal building hanger fuel storage facility equipment period covered investigation maintained public enterprise airport pristina peap cooperation military unit kosovo force kfor pursuant united nation security council resolution dated june unmik regulation dated july unmik mandated administer territory kosovo including state owned publicly owned asset includes pristina international airport</t>
+  </si>
+  <si>
+    <t>allegation specifically vendor produced test result confirm quality work cargo apron resulting conflict interest interoffice memorandum staff member procurement official signed doti official dated october indicates doti official authorised soil stabilisation work memorandum also add work inadvertently included original contract doti official told itf order progress cargo apron tender heshe organise geographical survey heshe added test done could tender go ahead however evaluation report paragraph suggests information nature ground appear included tender document addition letter vendor unmik peap dated june apparently received unmik peap october according manuscript note signed airport engineer bottom letter suggests carried soil test</t>
+  </si>
+  <si>
+    <t>doti official explained technical detail cargo apron extension project taken cargo terminal study produced evaluation company pasted tender document specification thereafter company winning tender demonstrate could fulfil specification according doti official airport engineer arrived shortly tender launched angry evaluation company allowing doti official send excerpt study tender specification airport engineer also expressed concern method used preparing tender document engineering point view tender contain sufficient detail however doti official stated evaluation company asked prepare tender document would cost money heshe therefore prepared tender document himselfherself sent procurement official cpe review help procurement exercise assistance cpe provided primarily cpe procurement officer lesser extent procurement official procurement document rule however doti official expressed view neither procurement official cpe procurement officer would technical expertise time review technical specification doti official emphasised engineering expert support hisher work time tender launched fact made hisher work difficult</t>
+  </si>
+  <si>
+    <t>doti official primarily responsible shortcoming tender document although doti official cpe must also bear certain amount responsibility shortcoming tender document likely prejudiced company decision submitting bid tender since may clear detailed requirement tender therefore submitted insufficient detail bid result three person indicated attended bid opening session well tender evaluation committee conflict un regulation evidence indicates contract cargo apron extension channelled office legal adviser evidence indicates vendor produced bearing capacity report cargo apron thereby self certifying work presenting potential conflict interest</t>
+  </si>
+  <si>
+    <t>description secret u national security agency nsa report derived intelligence intercept official within japanese ministry economy trade industry ministry foreign affair shortly official visit japanese prime minister shinzo abe washington dc talk president george w bush abe 's government reported considering informing united state prime minister 's plan reduce carbon emission basis plan might opposed bush administration report show national security agency aware plan inform united state government 's change mind taken briefing prime minister 's official residence</t>
+  </si>
+  <si>
+    <t>japanese state goal reducing carbon emission half ssinf snf preparing april visit washington japanese prime minister shinzo abe japanese ministry economy trade industry meti apparently wanted come simple message regarding climate change u agree accordingly meti pushed three principle technical development energy conservation nuclear energy participation country future framework meanwhile ministry foreign affair mfa apparently want abe mention bilateral summit japan 's goal reducing carbon emission half part abe initiative announced late may mfa considering informing u advance intention ministry expect washington approve goal based u reaction climate change issue far apparently decided briefing prime minister 's official residence abe clearly state goal bilateral summit advance notification united state japan anticipates major harm japaneseus relationship result</t>
+  </si>
+  <si>
+    <t>tokyo 's climate change official continue promoting sectoral approach tssinf tssinf japanese climate change official apparently plan continue promoting sectoral approach despite criticism international energy agency iea european union official fatih birol chief economist iea reportedly warned japanese midmay pushing hard promote sectoral approach may perceived offering approach option reducing carbon emission also cautioned sectoral approach yet understood tokyo must clarify concept promote understanding trust among nation concerned masakazu toyoda japanese ministry economy trade industry expressed frustration criticism laid three advantage sectoral approach first approach designed get china india u board second approach allows developed country avoid expending unnecessary effort reduce carbon emission area covered sectoral approach third sectoral approach toyoda 's estimation result economic industrial loss developed developing nation one japanese official think may difficult european implement sectoral approach sector electricity already subject emission trading scheme ets suggested ultimate solution dependent upon eu accepting method determining figure total carbon emission reduction includes electricity sector toyoda claimed business several sector including steel aluminum cement petroleumare threatening cease european operation ets continues</t>
+  </si>
+  <si>
+    <t>description secret u national security agency nsa report derived intelligence intercept official within japanese government shortly g summit held lake toya japan report observes widespread impetus within japanese government involving multiple ministry towards japanese leadership g summit policy combat climate change focusing japanese initiative towards sectoral approach reducing carbon emission report marked sharing united state ' five eye intelligence partner australia canada great britain new zealand japanese leadership working narrow climate change goal g summit tssi tssirel usa au gbr nzl japanese official ministry economy trade industry ministry foreign affair ministry finance ministry environment briefed chief cabinet secretary nobutaka machimura february environmental goal believe japan work toward achieving g summit lake toya japan july obtaining agreement use sectorbased cumulative approach mediumterm emission reduction target individual country mentioned one key objective japan also seeking demonstrate leadership environmental sector summit may announce domestic emission reduction goal prior meeting</t>
+  </si>
+  <si>
+    <t>japanese strive avoid damage u relation cherry import tssiocnf tssiocnf official japanese ministry agriculture forestry fishery maff appeared recently seeking way prevent damage relation u ministry 's decision delay importation usorigin cherry decision driven japanese politician grower maff alarmed strong reaction u department agriculture tokyo 's ruling import could commence end month pilot program involving inspection u pacific northwest maff inspector expected concluded satisfactorily one approach consideration ministry admit washington back channel decision product political pressure also recommended u notified thatunlike beef disputeimports could begin soon result onsite inspection confirmed rather inspector returned japan test conducted principal fear among japanese issue become similarly politicized possibly senior level washington unconventional japanese governmental zoo z</t>
+  </si>
+  <si>
+    <t>description secret u national security agency nsa report derived intelligence intercept official within japanese ministry agriculture forestry fishery report indicates national security agency knew option consideration within ministry japan seek patch bilateral relation u trade dispute concerning import u cherry among option discussed use back channel share information washington report indicates main japanese incentive avoidance politicization trade issue washington</t>
+  </si>
+  <si>
+    <t>end june responsibility administration pristina airport entrusted civil administration pillar pillar ii unmik including official official pillar ii supervised department transport infrastructure doti official doti later known transport sector unmik directorate infrastructure affair doti official left unmik end june doti official recruited doti international staff member july charge airport operation reporting doti official continued role september engineering expertise provided series engineer seconded armed force united nation member state specifically airport engineer airport engineer airport engineer later consultant consulting firm july responsibility administration airport passed pillar ii kosovo trust agency kta pillar iv divisional manager appointed airport sector kta time peap official air traffic control service atcs official april pristina international airport time jurisdiction kfor handed civilian jurisdiction icao regulation background change procurement procedure relating following contract examined</t>
+  </si>
+  <si>
+    <t>methodology investigation conducted pursuant executive decision establishment investigation task force itf investigator conducted enquiry allegation raised interview person indicated witness person potentially implicated allegation obtaining document pristina airport administration pillar iv analysed relevance inquiry hand report detail finding resulting enquiry background information pristina international airport constitutes state owned enterprise yugoslavian law asset airport include runway terminal building hanger fuel storage facility equipment period covered investigation maintained public enterprise airport pristina peap cooperation military unit kosovo force kfor pursuant united nation security council resolution dated june unmik regulation dated july unmik mandated administer territory kosovo including state owned publicly owned asset includes pristina international airport</t>
+  </si>
+  <si>
+    <t>eu japan engaged early december strategy session aimed common handling policy deal potential u move doha round negotiation conviction brussels tokyo according japanese reporting great care must taken avoid falling prey u move designed extort concession exaggerated initial demand regarding u domestic support agriculture example japanese minister agriculture forestry fishery toshikatsu matsuoka eu agriculture commissioner marianne fischerboel recently pondered whether jumpstart negotiation asking u specific dollar figure reduced support problem eu noted whether proposed billion mark acceptable point departure since u support level judged way comparable breadth market access brussels put table last july figure billion would line eu 's thinking fischerboel indicated eu also concern washington may headed showdown developing country special product sensitive product fischerboel 's deputy chef de cabinet klausdieter borchardt hinted japanese eu may willing go lower current official limit percent possibly low percent however would hard japan accept borchardt also tried allay japanese fear eu might try enter bilateral underthetable deal u happened cancun saying brussels learned lesson respect backdoor action</t>
+  </si>
+  <si>
+    <t>october meeting attended german chancellor angela merkel french president nicolas sarkozy italian prime minister pm silvio berlusconi later described italian 's personal adviser international relation valentino valentini tense harsh toward rome government merkel sarkozy evidently brooking excuse respect italy 's current predicament pressured pm announce strong concrete palliative implement order show government serious debt problem sarkozy said told berlusconi latter 's claim solidity italian banking system may true theory financial institution could soon pop like cork champagne bottle word longer enough berlusconi must make decision also th valentini indicated eu council president herman van rompuy urged italy undertake policy aimed reducing impression within eu country weighed enormous debt moment time also struggling low productivity showing little dynamism van rompuy 's opinion spain model italy seeking emulate</t>
+  </si>
+  <si>
+    <t>israel reached europe including italy help smoothing current rift relation united state according italian diplomatic reporting march speaking italian prime minister pm silvio berlusconi israeli pm binyamin netanyahu insisted trigger disputeisrael 's decision build home contested east jerusalemwas totally keeping national policy dating back administration golda meir blamed mishandling government official poor political sensitivity objective netanyahu said keep palestinian using issue pretext block resumption talk advance unrealistic claim could risk sinking peace negotiation altogether continuing asserted tension heightened absence direct contact u president response berlusconi promised put italy israel 's disposal helping mend latter 's tie washington israeli official meanwhile believed tiff go far beyond merely question construction plan marking instead lowest point usisraeli relation memory</t>
+  </si>
+  <si>
+    <t>japan preparing role chairman groupof g summit lake toya early july given notice intends strive longterm commitment climate change specific figure germany belief crucial issue summit whether u accept going beyond heiligendamm site last year 's g summit language framework g emerging country accept numerical target major economy meeting mem according press report leader country including member g plus china india brazil australia indonesia south korea south africa mexico plan discus climate change margin g summit japan masaharu kono japan 's g sherpa emphasized tokyo 's position exchange german counterpart bernd pfaffenback june pfaffenback provided country 's take issue addressed lake toya german also noted response u request country would likely give demand percent midterm carbon dioxide reduction mem addition believe emerging economy willing go beyond bali language present feeling prefer instead wait next year 's g summit copenhagen wish give thing might prepared give later also pfaffenback 's position failure emerging economy accept longterm goal number even bracket would pose difficulty g possibly lead clash summit fallback position</t>
+  </si>
+  <si>
+    <t>unsyg ban kimoon exchange december german chancellor angela merkel pointed world would watching eu keen interest reassurance maintain leadership role combating climate change belief middecember eu summit brussels impact un conference climate change poznan well copenhagen talk stressing without positive signal continued leadership eu would difficult un make commitment poznan ban also maintained since new u administration engaging proactive attitude issue time right eu whole world create condition necessary reaching meaningful deal un climate talk regard ban considered poznan conference important bridge toward copenhagen ban also praised merkel personal effort regarding issue combating climate change encouraging eu leader agree issue part merkel optimistic eu summit would come agreement although acknowledged tough issue would involve carbon dioxide trading ban merkel favored holding minisummit early involve new u administration believing important get clear idea u intention merkel believed climatechange issue discussed headsofstate level otherwise would work</t>
+  </si>
+  <si>
+    <t>non staff member statement provided itf investigator disclosed following two distinct case case either july non staff member said heshe contacted official daughter official secretary requesting himher come restaurant located hajvali non staff member stated heshe personally greeted upon arrival security official official secretary official another person male name unknown seeking similar employment route according non staff member person paid presence sum official secretary non staff member himselfherself handed person person paid agreed upon cash amount requested sign three different coloured book entitled airport staff asked leave would contacted telephone detail future employment pristina airport</t>
+  </si>
+  <si>
+    <t>non staff member statement provided itf investigator disclosed following two distinct case caseb non staff member stated heshe aware another case kickback pristina airport employment occurred circa september non staff member role owner hamburgersandwich standrestaurant wellfrequented airport employee said heshe contacted kp officer requested information relation business connection non staff member within pristina airport non staff member stated non staff member wife kp officer met non staff member clothing boutique heshe worked heshe purchasing airport uniform time heshe asked himher obtain job airport heshe allegedly replied heshe problem getting himher job pristina airport due hisher important airport contact would cost himher</t>
+  </si>
+  <si>
+    <t>non staff member statement provided itf investigator disclosed following two distinct case case july non staff member alleges visited official pristina airport asking heshe could obtain employment pristina airport heshe stated official replied possible via payment considerable amount money non staff member aware two person non staff member non staff member already paid official procedure hope receiving employment pristina airport</t>
+  </si>
+  <si>
+    <t>non staff member statement provided itf investigator disclosed following two distinct case case non staff member told itf heshe called two day later order pay additional heshe given official secretary presence hisher father official dinner official daughter mentioned restaurant non staff member also said heshe paid approximately night dinner heshe called always official secretary two dinner restaurant restaurant nonstaff member requested pay amount dinner non staff member stated dinner following pristina airport staff present security official secretary official xray official official official secretary official official one person spoke english name unknown person may official non staff member stated person kosovar international furthermore certain point person present others congratulated non staff member new job investigator believe abovementioned airport staff attempting demonstrate non staff member contact competent person could authorize employment</t>
+  </si>
+  <si>
+    <t>background allegation kosovo trust agency kta internal audit unit iau internal memorandum dated october described audit procurement staff uniform pristina airport raised concern reasoning cancellation competitive tender summer winter uniform pristina airport reference peapcguas subsequent issue single source contract summer uniform new staff pristina airport reference shktacg iau memo reference made letter complaint dated vendor company competed tender subsequently awarded single source contract supply summer uniform author letter vendor manager alleged existence rumour witness matter bribery procurement officer pristina airport finance officer pristina airport one vendor manager competitor tender process vendor vendor manager letter also identified intention seek legal action procurement officer allegedly violating procurement rule replacing member bid evaluation committee competitive tender allowing member finance department finance officer sit committee favouring vendor tender process course investigation procurement officer told itf following cancellation competitive tender vendor manager made utterance himher procurement officer interpreted threat itf commenced inquiry allegation regarding procurement process provides summary case finding recommendation</t>
+  </si>
+  <si>
+    <t>allegation july investigation task force itf provided copy letter dated may cargo manager airline staff member public enterprise airport pristina letter cargo manager referred several problem relative invoice april issued cargo department pristina airport handling outgoing mail member state kfor time pristina airport staff could locate record invoice airport financial record therefore commission fraud part staff cargo department suspected</t>
+  </si>
+  <si>
+    <t>background pristina airport airline cargo handling agent import export airline member state kfors mail handling agent pristina airport collect mailhandling revenue behalf airline deposit revenue airline bank account deducting appropriate commission issue identified letter airline cargo manager related high rate kg charged pristina airport handling outgoing mail fact invoice incorrectly sent member state kfor instead agent airline inappropriate addition value added tax vat applicable international traffic</t>
+  </si>
+  <si>
+    <t>idoios requested dra logistics officer review individual bid explain hisher annotation dra logistics officer pointed vendor vendor vendor offered virtually technical device heshe found gotive h ib model offered vendor substantially differ gotive h model offered vendor vendor dra logistics officer stated gotive h model complied requirement laid technical specification pointed device well protected environmental impact notably field according dra logistics officer pda model offered vendor rugged pda comply ip protection standard essential outdoor use first glance vendor appeared lowest bidder offered largest number pda stated price ceiling however product comply technical specification hence would inappropriate use kv veterinarian member evaluation panel shortlist vendor examination</t>
+  </si>
+  <si>
+    <t>term priority selection criterion evaluation panel dra logistics officer stated dra advised monitor technical specification focus particularly section vii bidding document obligatory requirement fulfilled bidder dra logistics officer highlighted criterion afterwarranty repair service located within kosovo repair replacement within five working day based existing regulation kosovo notification registration recording information concerning movement animal within five day movement therefore pda device used communication data broke replaced within week farmer veterinarian would run risk complying law</t>
+  </si>
+  <si>
+    <t>order find lowest bidder vendor still selected idoios spoke separately two member bid evaluation panel explained evaluation process panel recommended selected bidder vendor idoios told evaluation panel examined bid document submitted six prequalified bidder made comment annotation table provided dra logistics officer evaluation panel relied heavily technical expertise one panel member dra logistics officer responsible evaluation technical feature pda offered dra logistics officer told idoios hisher handwritten entry table based discussion entire evaluation panel heshe independently verified product offered bidder possess declared feature heshe checked technical data submitted individual bidder product datasheet brochure included bidding document</t>
+  </si>
+  <si>
+    <t>complainant raised two main issue firstly bid submitted vendor lowest bid offered number device within ceiling price secondly although two bidder offered product winning bidder lower price selected prio preliminary report also identified issue idoios investigator reviewed eight bid submitted noted dra logistics officer disqualified two vendor vendor neither vendor vendor bid substantially responsive total price product offered exceeded price ceiling hisher prequalification bid dra logistics officer noted vendor include tax cip pristina kosovo required bid document meaning total price would exceed ceiling vendor total offer include yearly maintenance surcharge fee causing bid exceed stated price ceiling</t>
+  </si>
+  <si>
+    <t>late ear consultant prepared technical specification pda based proposal spuveseks inception report august based specification dra launched initial tender november pda inclusive hardware software bid submitted exceeded amount set aside purchase pda therefore tender cancelled february based advice central procurement entity cpe second tender purchase required pda launched april using technical specification second tender dra provided bidder price ceiling requested state number device total company could offer within price ceiling may deadline submission bid dra received eight bid required bid opened certified member bidopening panel consisting dra logistics officer dra procurement officer dra employee dra finance officer complainant told idoios bid opening process occurred without incident accordance correct procedural requirement</t>
+  </si>
+  <si>
+    <t>evidence adduced investigation confirms pda offered vendor conform technical specification itb although complainant offered largest number pda within stated ceiling price pda offered appropriate designated use set forth bid document idoios determined procurement exercise conducted accordance un financial rule regulation governing procurement unmiks finance administrative instruction public procurement using kcb fund recommendation based idoios make following recommendation recommendation recommended unmik take note idoios finding conclusion advise dra staff member dra employee dra logistics officer result investigation id rec iv</t>
+  </si>
+  <si>
+    <t>internal pillar ii review policy review internal oversight unit prio highlighted possible irregularity preliminary report procurement exercise recommendation investigation report provided idoios request investigation based issue raised complaint subsequently prio unit preliminary report idoios investigated entire tender process determine whether violation un rule occurred directorate rural affair dra located within unmik civil administration pillar ii formed october former department agriculture joint administrative interim structure dra comprises veterinary service veterinary border control phytosanitary border control public forest dra remains reserved area security council resolution staff united nation staff member subject un rule regulation also dra undertakes procurement division within dra</t>
+  </si>
+  <si>
+    <t>preliminary prio report price estimate stated ear consultant inception report showed five different pda model integrated scanner capability price pda model shown ranged usd usd idoios adduced initial estimate regular pda rugged pda specified technical specification required use veterinarian working inclement weather condition idoios also found estimate obtained internet inception report include feature would make technically appropriate veterinarian field actual technical specification prepared ear consultant later envisaged rugged durable product would water dust drop resistant price per unit rugged pda required technical specification higher initial estimate made inception report idoios verified internet research</t>
+  </si>
+  <si>
+    <t>investigation conducted itf clearly documented prishtina airport management failed perform duty accordance general principle outlined particular use asset allocated atcs kta inadequately documented performance atcs finance office respect unsatisfactory poor performance even caused financial damage unmik pillar kta demonstrated report work atcs finance office direct supervision atcs official oversight responsibility hand division manager respectful capacity failed perform duty according expected standard failed promote best interest unmik pillar kta employer</t>
+  </si>
+  <si>
+    <t>documentation obtained itf prishtina airport clearly show atcs management failed introduce enforce rule regulation would guarantee proper use allocated fund provided transparent documentation process significant amount cash withdrawal atcs used training opportunity employee atcs attended course number country including italy canada united kingdom therefore cash advance related atcs official travel rather significant number employee necessity frequent travel atcs official remains questionable available documentation provide clear proof atcs official travel business related justified</t>
+  </si>
+  <si>
+    <t>atcs official stated heshe sufficiently experienced financial management therefore heshe hired finance officer finance officer educational background professional experience field heshe said heshe sure atcs money spent line request heshe accepted documentation poor unacceptable even minimal standard required atcs official agreed heshe hisher staff diligent requesting fund atcs operation however generally deficient addressing need proper documentation actual expenditure atcs official indicated heshe trusted hisher staff professional recently heshe realized heshe devoted effort supervision</t>
+  </si>
+  <si>
+    <t>atcs official indicated hisher superior approved bill petty cash binder including example present international staff present official nokia palm organizer atcs official official recharging scratch card vala payment mobile phone rent car head department atcs official stated present purchased petty cash also approved however heshe could support claim documentation atcs official added bill authorized atcs would able get cash approval cash withdrawal conditioned proper documentation certification previous spending heshe insisted sum paid refreshmentsfoodrestaurant bill petty cash fund hundred euro authorized hisher superior request written justification himher bill allegedly sufficient proof expenditure</t>
+  </si>
+  <si>
+    <t>itf interviewed atcs official two occasion heshe acknowledged case time period june show numerous irregularity heshe studied file detail concluded four contained sufficient information justify allocation money planned travel atcs staff documentation expense poor atcs official also acknowledged case time period july also showed numerous irregularity missing bill prove payment missing signature atcs staff proving received perdiem missing flight ticket boarding pass proving travel fact executed itf concluded likely fund paid atcs employee perdiem salary however sufficient documentation prove payment available itf investigator despite numerous attempt made order secure documentation matter practice atcs official formally certifying hisher expense business trip atcs official could provide acceptable explanation irregularity</t>
+  </si>
+  <si>
+    <t>division manager said atcs official would bring himher request heshe would detail need cash division manager found justification sufficient line need airport heshe would approve atcs official would responsible proper use fund keeping financial record expenditure fact atcs official sign bank check could cashed bank therefore heshe cash hisher custody division manager indicated possible himher check every bill invoice therefore delegated authority financial management atcs official</t>
+  </si>
+  <si>
+    <t>itf interviewed official prishtina airport heshe stated may heshe travelled atcs official official uk order negotiate condition finetune training arrangement atcs staff request mission received free accommodation meal provided well transport shinfield park london upon return heshe returned prishtina heshe requested return perdiem adding heshe knew atcs official official also return allocated fund</t>
+  </si>
+  <si>
+    <t>background information review airport bank account document related airport operation contract financial matter revealed number cash withdrawal atcs bank account many increment july november amount withdrawn cash majority withdrawal identified air travel related expense atcs official similarly atcs employee also socalled petty cash purpose forensic audit report february highlighted atcs official travelled frequently questioned whether trip necessary approved established july new division manager airport sector unmik pillar appointed overall responsibility pristina airport atcs official charge department included day today management atcs finance office finance officer finance officer employed atcs finance officer directly supervised atcs official also mentioned atcs official finance officer finance officer working atcs prior arrival division manager</t>
+  </si>
+  <si>
+    <t>iv investigative detail itf investigation focused examination two main area travel arrangement cash expense related official travel atcs staff b handling socalled atcs petty cash investigation itf investigator reviewed existing procedure related cash withdrawal view establishing whether procedure properly followed enforced management atcs examined atcs bank account related record examined cash withdrawal request supporting documentation receipt including airline ticket hotel bill receipt</t>
+  </si>
+  <si>
+    <t>itf investigation focused examination two main area travel arrangement cash expense related official travel atcs staff b handling socalled atcs petty cash investigation itf investigator reviewed socalled petty cash file related documentation crosschecked staff detail record employment role time period question including official right authorize cash withdrawal atcs bank account compared signature found examined document signature staff file crosschecked specific sum airport excel cash spreadsheet master bank account note excel spreadsheet system place since mid used maintain cashbook interviewed atcs staff particular division manager atcs official finance officer itf investigator also interviewed official prishtina airport official prishtina airport</t>
+  </si>
+  <si>
+    <t>review available documentation itf investigator identified number problem related existing procedure practice atcs finance office finalized document review interviewed available atcs staff directly involved approving cash withdrawal subsequently atcs staff handled cash related documentation atcs finance office travelled training italy united kingdom itf interviewed finance officer working atcs finance office period september december finance officer described procedure place identified employee employee division manager class signatory employee employee employee atcs official b class signatory unmik aviation transport airport prishtina bank account listed class signatory people authorized withdraw cash atcs bank account</t>
+  </si>
+  <si>
+    <t>regard performance conduct employee kta following unmik regulation shall apply unmik regulation dated october essential labour law kosovo section termination labour contract state following extract serious misconduct shall include following unjustified refusal perform obligation set labour contract b theft destruction damage unauthorized use employer asset c disclosure business secret consumption drug alcohol work e behavior serious nature would unreasonable expect employment relationship continue unsatisfactory performance shall include following unjustified absence work b repeated mistake sufficient justify dismissal given frequency seriousness disrupt normal course employment relationship</t>
+  </si>
+  <si>
+    <t>itf interviewed finance officer working atcs finance office stated heshe employed atcs since april finance officer provided detailed information regard financial procedure practice atcs finance office indicated based hisher previous experience dealing finance number company local international heshe found atcs finance office quite disorganized example office place proper structure computer software deal financial issue including cash even though amount money processing quite high finance officer allegedly tried suggest improvement atcs official told himher way unmik wanted deal money heshe follow hisher instruction since finance officer concerned heshe might lose hisher job heshe raised objection heshe decided work instructed atcs official</t>
+  </si>
+  <si>
+    <t>itf interviewed official pristina airport official requested review several file related business travel atcs staff shown document heshe concluded four might contain sufficient information justify allocation fund planned travel atcs staff however none sufficient information would document allocated fund spent information contained file suggests document might created afterthefact request submitted approval may indicated would impossible approval date written document may may respectively also document attached request printout indicating flight reservation prove travel executed none four file contained original flight ticket boarding pass original bill contain sufficient proof fund allocated traveller provided atcs official traveller sign without flight ticket boarding pass sufficiently documented atcs personnel travelled mission</t>
+  </si>
+  <si>
+    <t>official also requested review file dated july particular file studied file heshe concluded file revealed absence required documentation case identified paragraph official asked review several file related socalled petty cash transaction see whether irregularity heshe concluded significant effort made atcs official justify cash withdrawal however cash appeared provided little effort properly document fund spent</t>
+  </si>
+  <si>
+    <t>itf investigator interviewed division manager two occasion heshe explained staff travel expense high necessity train nineteen air traffic controller seven meteorological forecaster six aeronautical information service officer staff received classroom onthejob training around world pristina airport responsible expense incurred heshe said airport rule regulation regarding travel form complete requesting authorization travel documentation authorizing travel division manager aware atcs official supervisor many travelled would frequently visit staff whilst undertaking respective course</t>
+  </si>
+  <si>
+    <t>finance officer also confirmed division manager atcs official supervised work atcs finance office heshe indicated whenever requirement larger cash payment example official travel finance officer finance officer would prepare request cash withdrawal would signed atcs official subsequently assessed approved division manager finance officer given opportunity review documentation related travel atcs staff prior takeover atcs unmik pillar kta july exercise finance officer established request cash proper justification sufficient authorization cash allocation lacked documentation would indicate fund spent finance officer able provide satisfactory explanation identified irregularity recollection atcs official ever made check financial file atcs finance office</t>
+  </si>
+  <si>
+    <t>finance assistant claimed noticed footer idoios asked photocopy forged fax undp finance file footer disclaimed responsibility photocopying time incident two photocopying assistant working ad hoc basis finance office access departmental file photocopying assistant relative finance department supervisor photocopying assistant daughter finance assistant photocopying assistant assisted father periodically without pay oios informed two assistant helped preparation end month financial return included retrieving document various file copying returning file photocopying assistant working finance office relevant time period fully established photocopying assistant worked office timesheets kept either assistant review procedure unon unep narobi undp bratislava connection payment sort showed undp bratislava relies authorizing signature fax verify authenticity agency undp bratislava maintains signin sheet requires signature identity information kept haphazardly time incident undp bratislava disperses cheque upon proof identity recorded back cheque payee sign original cash disbursement voucher upon receipt cheque finance office retain copy payee proof identification undp bratislava maintain mail log procedure reconciling account unon undp place unon attempt reconcile august undp bratislava account year purportedly submitted unep narobi stated several problem fraudulent payment undp office</t>
+  </si>
+  <si>
+    <t>email staff member mr mzumara oic sro lusaka january staff member wrote email mr dickson mzumara officerincharge eca sub regional office lusaka zambia confirming written ambassador negroponte chat friend thought much hot potato mr mzumara also recipient copy email addressed ambassador negroponte staff member day mr mzumara replied email staff member concurred action writing ambassador however mr mzumara pointed staff member concerned staff member writing person outside organization mr mzumara stated yes thought much concern going system line condition service see come staff member responded via email dated january stated thanks told question brought jab nairobi phone call case shelved lady broadcasted message one wrote white house vice president usa internal justice system functioned every thing would kept within system hope negroponte un secretariat would damage control get somehow bos address problem best interest secretary general lady continue writing human right organization especially tired may produce immediate result lot damage done added wrote ambassador show man dialogue best option life</t>
+  </si>
+  <si>
+    <t>course investigation revealed january anonymous person using identity hiwot abebe sent email president vicepresident united state america email also addressed senator john kerry senator dodd united state senate email attachment addressed executive secretary eca highlighted allegation sexual harassment rape perpetrated senior official eca within eca complex title attachment crime rape maladministration within compound eca document also copied secretarygeneral ethiopian foreign ministry senior official un system abebes complaint american government executive secretary eca failed take action staff member alleged sexually harassed raped ten woman staff member eca abebe therefore asking american government intervene behalf aggrieved woman email attachment copied staff member person working organization</t>
+  </si>
+  <si>
+    <t>introduction investigation division office internal oversight service oios received several email sent person external organization alleged wrongdoing committed economic commission africa eca action taken one author said email staff member eca subsequently investigation conducted revealed contrary un rule regulation staff member sent email excellency ambassador john negroponte u mission un president vicepresident united state america senator john kerry senator dodd united state senate amongst others</t>
+  </si>
+  <si>
+    <t>applicable law regulation staff regulation provides staff member shall exercise utmost discretion regard matter official business shall communicate government entity person source information known reason official position know ought known made public except appropriate normal course duty authorization secretarygeneral obligation cease upon separation service methodology oios investigation matter entailed obtaining analyzing relevant document staff member also interviewed including staff member background information staff member worked eca p level retired end november worked organization year</t>
+  </si>
+  <si>
+    <t>investigative detail hiwot abebe email january course investigation revealed january anonymous person using identity hiwot abebe sent email president vicepresident united state america email also addressed senator john kerry senator dodd united state senate email attachment addressed executive secretary eca highlighted allegation sexual harassment rape perpetrated senior official eca within eca complex title attachment crime rape maladministration within compound eca document also copied secretarygeneral ethiopian foreign ministry senior official un system</t>
+  </si>
+  <si>
+    <t>v investigative detail interviewed acgd officer told idoios official asked pay miscellaneous expense dsa participant seychelles conference said eca written undp mauritius asked undp hq authority transfer fund barclays seychelles acgd officer cashed fund disbursed dsa participant said february paid first group participant hotel presence undp officer indicated payment participant list placing asterisk name february barclays paid participant using attendance list supplied acgd officer upon receipt identification payee bank teller participant sign hisher name attendance list paid dsa acgd officer said present bank teller paid remaining participant payment made attendance list returned</t>
+  </si>
+  <si>
+    <t>v investigative detail acgd officer explained discrepancy suggesting bank employee might tampered dsa list forged signature participant attend pocketed dsa said dealt manager teller gobetween person one could falsely signed dsa list however previously acknowledged witnessed payment made bank staff raised question concern time questioned idoios investigator point however claimed surprised discrepancy pointed idoios acknowledged received memoranda official asking account amongst thing money given dsa thought matter settled despite unaccounted discrepancy</t>
+  </si>
+  <si>
+    <t>evidence adduced allegation show unep staff member received appointment pcau may year began work btf consultant unep staff member subsequently received highlevel contract unep management advised idoios unep staff member unep staff member performed well felt justified decision grant contract high level although unep staff member requisite educational background unep staff member little environmental expertise prior consultancy btf allegation could substantiated</t>
+  </si>
+  <si>
+    <t>investigation division office internal oversight service idoios received report alleged wrongdoing balkan task force btf postconflict assessment unit pcau united nation environment programme unep complaint two unep staff member unepipcau consultant country previously worked together allegation working btf pcau unep staff member unep staff member uneppcau consultant maintained ongoing relationship former company thereby creating conflict interest ii allegation unep staff member demanded kickback fifty percent consultancy fee paid expert fee shared unep staff member uneppcau consultant</t>
+  </si>
+  <si>
+    <t>evidence adduced allegation show unep staff member uneppcau consultant time financial relationship former company however btf series contract extension contract former company unep staff member shareholder senior officer former company subcontractor former company worked btf time unep staff member held consultancy contract unep former company contractual relationship unep although created appearance conflict interest none established</t>
+  </si>
+  <si>
+    <t>course investigation idoios learned former company received contract extension contract btf unops without competitive bidding violation financial regulation state procurement function include action necessary acquisition purchase lease property including product real property service including work following general principle shall given due consideration exercising procurement function united nation best value money fairness integrity transparency c effective international competition interest united nation conclusion idoios find unep unops departed united nation rule regulation described irregularity seem carried bad faith urgency situation necessitated btf become operational rapidly however operational organisation taken measure rectify problem identified allegation</t>
+  </si>
+  <si>
+    <t>interview itf airport personnel know whether icaa required follow unmik procurement protocol however kta internal audit department staff member confirmed breach kta rule unmik procurement rule abovementioned agreement could identified purchase new policy icaa itf concludes unmik procurement rule applicable icaa agreement unmik icaa government iceland prevailing identify requirement also evidence improper collusion negotiation requisitioning process insurance policy evidence process corrupted finally itf report comprehensive policy document provided icaa previous insurance policy cancelled</t>
+  </si>
+  <si>
+    <t>alleged violation procurement procedure insurance april investigation task force itf received information alleging possible violation unmik procurement procedure involving purchase insurance cover pristina airport commencing april insurance obtained unmik assistance icelandic civil aviation administration icaa agreement unmik icaa april specified procedure follows unmik shall assistance iceland described wpvii schedulevi requested obtain maintain appropriate insurance airport equipment facility operation service reputable insurer unmik shall reasonably required iceland provide iceland satisfactory evidence insurance wpv read 'icaa provide assistance acquiring liability insurance cover operation pristina airport icaa use result similar activitiesfor acquiring liability insurance icelandic airport activity performed iceland '</t>
+  </si>
+  <si>
+    <t>alleged misappropriation fund manager case investigation task force itf investigating allegation regarding administrative irregularity regarding insurance coverage pristina airport londonbased company purchased cover insurance company based extensive documentation obtained unmik pillar ii kosovo trust agency kta public enterprise airport pristina peap itf determined responsible manager undertake effort invite international tender airport insurance coverage according unmik regulation finance administration instruction public procurement using kosovo consolidated fund view cost premium usd tender undertaken manager prepare international tender least period october october instead concluded contract favour insurance company effecting insurance coverage pertaining pristina international airport year considered whether conduct demonstrates probable cause regard waste misappropriation public fund issue determined review matter department justice</t>
+  </si>
+  <si>
+    <t>iau memo reference made letter complaint dated vendor company competed tender subsequently awarded single source contract supply summer uniform author letter vendor manager alleged existence rumour witness matter bribery procurement officer pristina airport finance officer pristina airport one vendor manager competitor tender process vendor vendor manager letter also identified intention seek legal action procurement officer allegedly violating procurement rule replacing member bid evaluation committee competitive tender allowing member finance department finance officer sit committee favouring vendor tender process</t>
+  </si>
+  <si>
+    <t>investigation detail procurement officer managed competitive tender supply uniform addition vendor vendor vendor submitted bid following procurement officer convened chaired bid opening committee present addition committee comprised member various airport work group representative three bidding company including vendor manager procurement officer also formed chaired bid evaluation committee assess offering competitor comprised range uniform accessory various category airport employee committee though satisfied vendor sample tentatively decided favour company median bidder term price vendor highest bidder committee resolved vendor would approached determine feasibility nocost design change one uniform woman employee committee reconvened request pristina airport official meeting pristina airport official announced cancellation tender pristina airport official later awarded singlesource procurement contract summer uniform newly hired staff amount vendor supplied uniform airport two previous contract</t>
+  </si>
+  <si>
+    <t>allegation procurement officer replaced member bid evaluation committee procurement officer explained itf original nominee committee committee member work day committee first convened therefore replaced committee member attended second session continuity purpose committee member committee member confirmed procurement officer explanation replacement allegation procurement officer inappropriately included finance officer bid evaluation committee finance officer procurement officer pristina airport official told itf finance officer participated bid evaluation committee however procurement officer pristina airport official said nominated finance officer committee kta legal staff advised itf wisdom allowing representative finance department participate bid evaluation questionable generally officer whose function involves payment evaluate contractor payment become due according kta legal staff however participation precluded rule law section finance administration instruction revised december public procurement using kosovo consolidated budget fund precludes approving officer procuring entity eventually sign contract serving tender evaluator finance officer approving officer procurement process therefore prevented serving evaluator</t>
+  </si>
+  <si>
+    <t>asked itf substantiate hisher allegation procurement officer finance officer accepted bribe vendor vendor manager said heshe heard rumour pristina coffee bar heshe could remember heshe heard rumour heshe said witness heshe referred letter complaint actually person heshe heard rumour vendor manager unable suggest representative vendor paid bribe vendor employee attended meeting bid opening committee vendor manager vendor director told itf paid bribe procurement officer andor finance officer procurement officer finance officer denied accepting bribe consideration person matter</t>
+  </si>
+  <si>
+    <t>end june responsibility administration pristina airport entrusted civil administration pillar pillar ii unmik including official official pillar ii supervised department transport infrastructure doti official doti later known transport sector unmik directorate infrastructure affair doti official left unmik end june doti official recruited doti international staff member july charge airport operation reporting doti official continued role september engineering expertise provided series engineer seconded armed force united nation member state specifically airport engineer airport engineer airport engineer later consultant consulting firm</t>
+  </si>
+  <si>
+    <t>evaluation report also concluded company vendor one manufacturer peja cant offer required quality long date completion case vendor evaluation report state company provided incomplete offer asked manner offer incomplete interview procurement officer member evaluation committee stated vendor submitted offer contain required article procurement officer asked hisher explanation put tender evaluation heshe replied due hisher lack english view fact evaluation committee signed evaluation report would aware reason vendor rejection</t>
+  </si>
+  <si>
+    <t>end june responsibility administration pristina airport entrusted civil administration pillar pillar ii unmik including official official department transport infrastructure doti official also involved matter doti later known transport sector unmik directorate infrastructure affair doti official left unmik end june doti official recruited doti international staff member july charge airport operation reporting doti official continued role september engineering expertise provided series engineer seconded one un member state army specifically airport engineer airport engineer airport engineer later consultant consulting company</t>
+  </si>
+  <si>
+    <t>end june responsibility administration pristina airport entrusted civil administration pillar pillar ii unmik including official official department transport infrastructure doti official also involved matter doti later known transport sector unmik directorate infrastructure affair doti official left unmik end june doti official recruited doti international staff member july charge airport operation reporting doti official continued role september engineering expertise provided series engineer seconded one un member state army specifically airport engineer airport engineer airport engineer later consultant consulting company july responsibility administration airport passed pillar ii kosovo trust agency kta pillar iv divisional manager appointed himher peap official official april pristina international airport time jurisdiction kfor handed civilian jurisdiction icao regulation background change procurement procedure relating following contract examined</t>
+  </si>
+  <si>
+    <t>allegation alleged two small quantity uniform sum purchased without supporting document justification two invoice dated july august indicate two quantity tshirts respectively ordered value respectively asked extra purchase peap official stated heshe assumed airport hired student temporary staff three month tshirts wear peap official subsequently produced two written request security official two order dated july august</t>
+  </si>
+  <si>
+    <t>asked two order placed within one month one another rather together peap official stated airport run tshirts therefore purchased company order design tshirt explanation credible one since suggests airport idea number temporary staff taken period three month case indicates poor management alternative could two order placed avoid organise competitive bidding procedure since limit single source procurement time</t>
+  </si>
+  <si>
+    <t>addition two request specify shirt previous shirt existing worker requirement suggests vendor tender provision summer uniform pristina airport april already chosen supplier security official stated heshe asked write request uniform divisional manager following conversation need uniform student worker asked heshe addressed two request peap official rather divisional manager heshe replied peap official hisher superior however neither request mention security official spoken divisional manager</t>
+  </si>
+  <si>
+    <t>methodology investigation conducted pursuant executive decision establishment investigation task force itf investigator conducted enquiry allegation raised conducting interview relevant person obtaining document pristina airport administration pillar iv administration analysed relevance inquiry hand background information pristina international airport constitutes state owned enterprise yugoslavian law asset airport include runway terminal building hangar fuel storage facility equipment period covered investigation maintained public enterprise airport pristina peap cooperation military unit kosovo force kfor pursuant united nation security council resolution dated june unmik regulation dated july unmik mandated administer territory kosovo including state owned publicly owned asset includes pristina international airport</t>
+  </si>
+  <si>
+    <t>bid evaluation report dated december indicates firm issued document bid submitted bid opened november report indicates page vendor offer sum almost twice much two bid vendor vendor rejected reason specified rejection bid vendor page four evaluation evaluation committee asked company produce specimen type uniform failed confirmed letter vendor dated november similar letter delivered vendor</t>
+  </si>
+  <si>
+    <t>iii methodology investigation conducted pursuant executive decision establishment investigation task force itf investigator conducted enquiry allegation raised interview person indicated witness person potentially implicated allegation obtaining document pristina airport administration pillar iv analysed relevance inquiry hand iv background information pristina international airport constitutes state owned enterprise yugoslavian law asset airport include runway terminal building hanger fuel storage facility equipment period covered investigation maintained public enterprise airport pristina peap cooperation military unit kosovo force kfor pursuant united nation security council resolution dated june unmik regulation dated july unmik mandated administer territory kosovo including state owned publicly owned asset includes pristina international airport</t>
+  </si>
+  <si>
+    <t>conclusion although peap official responsible official time denied heshe requested vendor representative support fids supply cabling procurement vendor representative granted itf heshe acted peap official request nevertheless peap official bear overall responsibility hisher department peap investigation proved heshe fully meet requirement manager sensitive area like airport entire matter seen administrative irregularity obvious international procurement rule breached procurement regulation force time financial agreement indicate case like described furthermore prove possible case corruption enough indication</t>
+  </si>
+  <si>
+    <t>allegation official nonairport related company supported procurement process supply flat information display system fids writing recommendation justification single source procurement also defined technical specification vendor able supply cable fids another tender launched fids cabling winner tender vendor background information single source procurement purchase supply fids started october written recommendation justification vendor representative purchase additional fids became necessary expansion passenger terminal building already existing system provided vendor therefore airport management decided choose vendor capital expenditure approval contract signed december procurement file show vendor delivered fids cable need cabling fids resulted another tender commenced march according procurement file appeared vendor competitive shopping tender amount euro</t>
+  </si>
+  <si>
+    <t>investigative detail airport engineer interviewed october heshe responsible person suggest new project airport management airport engineer stated heshe time involved fids purchase request support vendor representative regard recommend justify fids supply airport engineer recommended cabling fids note airport management following procedure responsibility procurement unit management sale manager vendor interviewed phone august asked vendor provide cabling fids heshe stated vendor management allow traveling kosovo time security reason sale manager vendor also mentioned airport 's contact person regard fids cabling himher vendor representative</t>
+  </si>
+  <si>
+    <t>pristina airport alleged administrative irregularity regarding xray tender allegation th may divisional manager kosovo trust agency kta unmik eu pillar iv approved signed contract pristina airport vendor capital expenditure formally approved kta background information march pristina airport launched international tender supply xray equipment april evaluation committee awarded contract vendor submitted lowest tender company met rigorous technical specification vendor acknowledged worldclass company specializing equipment contract pristina airport vendor concluded april clear vendor signed document kta internal auditor expressed concern conclusion contract resulted divisional manager signing behalf procuring entity may kta official also signed contract record date hisher name capital expenditure approval dated june signed kta official june</t>
+  </si>
+  <si>
+    <t>iii investigative detail charge calculated airport handling service department airline flight scrutinized published price list basic airport service issued january detail recorded load sheet confirmed handling charge euro also found correct landing charge however reduced flight identified humanitarian flight qualified discount official passenger handling service pristina airport told itf investigator regarded returning kosovars refugee discount appropriate itf investigator checked matter official airport general service confirmed heshe aware discount dispute interpretation flight</t>
+  </si>
+  <si>
+    <t>iv finding conclusion evidence airline sought avoid charge levied pristina airport charge levied upon airline pristina airport incoming outgoing flight paid receipt issued charge applied airline flight accordance listed charge service identification flight humanitarian matter closer review airport pristina management ensure compliance airport charge recently appointed senior official pristina airport advised itf number cash transaction unaware practice continued within passenger handling service department information credit arrangement airline also provided pristina airport senior official itf hisher action charge shown price list basic airport service correspond charged airline addition audit trail respect cash handling receipt recording reconciliation cashbooks airport record showed discrepancy</t>
+  </si>
+  <si>
+    <t>iii investigative detail itf reviewed conventional checkin procedure pristina airport confirmed complied observation provided senior official pristina airport response management letter dated may financial audit auditing company extract advice state following management comment full integration achieved new system present passenger baggage checkin boarding automatically connected load sheet load sheet contains relevant fact concerning flight including type quantity passenger report signed airport load control staff compared headcount board aircraft conducted aircraft staff thereafter signed pilot takeoff copy confirmed report used basis invoicing use information later retrieved automatically new system possible loss revenue departing passenger tax another matter requiring attention airport management</t>
+  </si>
+  <si>
+    <t>iii investigative detail itf reviewed conventional checkin procedure pristina airport confirmed complied observation provided senior official pristina airport response management letter dated may financial audit auditing company extract advice state following passenger fee observation process modernization airport entity acquired implemented socalled automatic checking system system provides accurate evidence passenger arriving departure however pa still integrated andor connected automatic checking system financial reporting establishment integrated system could provide efficient monitoring control accurate evidence completeness reconciliation number passenger recorded automatic checking system revenue passenger fee financial statement</t>
+  </si>
+  <si>
+    <t>iii investigative detail itf investigator asked official passenger handling service pristina airport describe airport tax obligation flight official stated tax per passenger payable respect departing passenger official explained tax normally collected airline using checkin facility part normal boarding procedure heshe explained security guard uk immigration staff remained airside awaiting return uk technically entered airport liable airport tax respect departing passenger official said obligation payment tax neither carrier passenger used regular checkin facility airport</t>
+  </si>
+  <si>
+    <t>iii investigative detail passenger departing airline met airport public lounge identity checked list provided unmik civpol officer consultation immigration representative went conventional immigration xray search escorted departure lounge boarding airline aircraft however pas regular checkin procedure time itf investigator reviewed paperwork relating flight official passenger handling service pristina airport provided receipt book used evidence cash payment landing handling airport passenger tax noted airline particularly visiting pristina regular basis pay cash handling service detail shown record provided pristina airport official reconciled receipt book date amount breakdown charge confirmed pilot required sign receipt book itf verified recorded signature airline load sheet genuine</t>
+  </si>
+  <si>
+    <t>iii investigative detail airline official explained airline paid cash handling landing charge pristina airport passenger handling service department occasion aircraft used airport airline official explained heshe endeavored open credit account pristina airport without success itf sought assistance security officer pristina airport order monitor airline passenger movement july itf investigator monitored airline inward outward flight related airport activity noted whilst arriving kosovar passenger went immigration procedure entering arrival lounge security escort representative related immigration department remained airside time awaiting instruction return aircraft enter terminal building</t>
+  </si>
+  <si>
+    <t>iii investigative detail itf investigator obtained number document pristina airport official including record fund received airline period january june fund broken handling landing airport passenger departure tax schedule also list individual airport receipt number recorded cash payment record airline paid airport tax itf investigator spoke official official airline requested copy receipt issued pristina airport respect fee paid airline airport well aircraft load sheet may june document record detail weight aircraft including mtow maximum take weight</t>
+  </si>
+  <si>
+    <t>ii background information airline fly pristina airport european airport every thursday carrying kosovar passenger found enter referred european state illegally airline contracted foreign state immigration department representative immigration department securicor security staff routinely escort passenger flight pristina return leg mentioned state airline flight carry passenger pristina consisting returning securicor escort representative immigration addition number police officer concerned state currently working unmik civpol civpol officer travel uk without payment knowledge approval airline uk immigration department</t>
+  </si>
+  <si>
+    <t>itf investigator visited border boundary police interviewed two current investigator neither officer recalled incident made extensive enquiry attempt trace police report locate unsuccessful count september itf sent letter unmik police officer effort determine investigation undertaken matter result investigation whereabouts money unmik police officer indicated regional crime squad pristina region undertaking investigation matter therefore remains open investigation</t>
+  </si>
+  <si>
+    <t>investigation detail analysis note written peap official suggests company referred note escavator fact company contract construction new car park pristina airport whose representative attended meeting peap official office one day prior discovery money sum alleged left envelope unusual since one would expect sum round sum noted interoffice memorandum former airport engineer kta procurement specialist dated september alleged peap official accepted open envelope document relating car park tender company time submission bid concluded contrary accepted procurement procedure handling bid allegation addressed itf case</t>
+  </si>
+  <si>
+    <t>introduction april divisional manager unmik pillar iv alleged october envelope containing left office official public enterprise airport pristina peap unidentified individual october group approximately person including kta procurement specialist company representative attended meeting office concerning procurement contract building new car park pristina international airport applicable territorial law united nation procedural rule case concern allegation attempted bribery corruption cited article provisional criminal code kosovo</t>
+  </si>
+  <si>
+    <t>background information april divisional manager advised itf incident occurred sometime october heshe thought heshe raised itf previously however evidence report could located recalled member itf divisional manager provided itf copy document passed unmik police officer october unmik police fush kosovo concerning incident document consist letter divisional manager unmik police officer dated october file note peap official dated october divisional manager detailing incident annexing list serial number euro note totalling alleged left peap official diary office</t>
+  </si>
+  <si>
+    <t>kta procurement specialist also indicated heshe see anything placed peap official office diary although heshe later heard incident heshe expressed hisher opinion incident arranged break contract company indicate itf reviewed letter divisional manager unmik police officer indicates matter referred unmik police october letter also record sum handed unmik police officer unmik police officer based iraq told itf heshe served kosovo june november recall incident reported heshe stated time heshe serving border police investigation unit assigned enquiry supervisor latter unable interviewed heshe left mission</t>
+  </si>
+  <si>
+    <t>kta procurement specialist told itf meeting held peap official office company attended company representative company engineer purpose meeting hand contract new car park company company representative sign kta procurement specialist indicated three four person present two heshe thought may two staff member pristina airport kta procurement specialist added normal practice party winning bid invited sign contract way</t>
+  </si>
+  <si>
+    <t>methodology investigation conducted pursuant executive decision establishment investigation task force itf investigator conducted enquiry allegation raised interview person indicated witness person potentially implicated allegation obtaining document pristina airport administration pillar iv analysed relevance inquiry hand background information pristina international airport constitutes state owned enterprise yugoslavian law asset airport include runway terminal building hanger fuel storage facility equipment period covered investigation maintained public enterprise airport pristina peap cooperation military unit kosovo force kfor pursuant united nation security council resolution dated june unmik regulation dated july unmik mandated administer territory kosovo including state owned publicly owned asset includes pristina international airport end june responsibility administration pristina airport entrusted civil administration pillar pillar ii unmik including official official pillar ii supervised department transport infrastructure doti official doti later known transport sector unmik directorate infrastructure affair doti official left unmik end june doti official recruited doti international staff member july charge airport operation reporting doti official continued role september engineering expertise provided series engineer seconded member state armed force specifically airport engineer airport engineer airport engineer later consultant consulting firm july responsibility administration airport passed pillar ii kosovo trust agency kta pillar iv divisional manager appointed airport sector kta time himher peap official air traffic control service atcs official april pristina international airport time jurisdiction kfor handed civilian jurisdiction icao regulation background change procurement procedure relating following contract examined</t>
+  </si>
+  <si>
+    <t>iv criminal violation based referral itf department justice july arrest warrant issued official official charge detailed count date th march th march inclusive official official acting capacity official airport pristina acting complicity intention obtain unlawful material benefit presented representative company false statement account claiming reduced storage fee misled authorized person carry unlawful payment thereby committing offence fraud service violation article kosovo criminal code kcc punishable imprisonment one ten year equivalent fraud office contrary article provisional kosovo criminal code pcck complicity violation article criminal code sfry equivalent co perpetration violation pcck article</t>
+  </si>
+  <si>
+    <t>iii investigative detail th march partner paid company representative went pristina airport hand official company representative stated handover cash official took place outside airport terminal gate airport xray operator observed meeting two men corroborated fact meeting took place stated itf investigator visited cargo department finance office check official documentation relation company merchandise trace payment could found cargo department account book according tariff list finance officer cargo section provided itf company paid amount approximately storage fee rd december th march</t>
+  </si>
+  <si>
+    <t>ii background itf investigator met company representative explained part business involves importation marketing led display equipment company consists partner partner partner partner partner company partner agreed following regarding various payment effected follows partner partner pay total price good partner pay everything regarding vat custom duty local tax storage iii duty responsibility airport pristina cargo official official responsibility ensure storage fee paid record payment kept procedure recording payment airway bill custom stamp provided finance officer whereby heshe calculates storage fee owed individual company allowed retrieve good fee paid pursuant official invoice instant case record invoice payment absence record highly unusual establishes monies owed airport received case official worked cargo handling office airport official official duty ensure payment made customer airport complied applicable regulation instruction</t>
+  </si>
+  <si>
+    <t>applicable territorial law pursuant authority given special representative secretarygeneral united nation security council resolution june taking account united nation interim administration mission kosovo unmik regulation july authority interim administration kosovo purpose defining law applicable kosovo srsg promulgated law applicable kosovo shall regulation promulgated special representative secretarygeneral subsidiary instrument issued thereunder b law force kosovo march itf investigator considered possible breach provisional criminal code kosovo especially article abusing official position authority article misappropriation office article fraud office</t>
+  </si>
+  <si>
+    <t>introduction investigation task force itf kosovo conducted investigation circumstance surrounding unmik bank account opened bank pristina investigation triggered forensic audit report public enterprise airport pristina peap released february chartered accountant activity pristina airport fall control kosovo trust agency kta unmik pillar iv administered european union investigation allegation fraud corruption involving unmik pillar organisational structure well provisional institution selfgovernment pisg independent body office established pursuant constitutional framework provisional selfgovernment kosovo fall within purview itf laid executive decision establishment investigation task force unmiked dated october</t>
+  </si>
+  <si>
+    <t>background information dcdm audit report highlighted possible problem unmik bank account termed company account alleged one signatory account staff member interest account going unidentified private account investigative detail itf investigator established july unmik company signed contract relating supply aviation fuel refueling commercial civilian aircraft pristina airport march contract amended company also commenced supplying aviation fuel refueling service military noncommercial aircraft</t>
+  </si>
+  <si>
+    <t>allegation conflict interest abuse authority senior official unmil investigation division office internal oversight service idoios received information senior official united nation mission liberia srsg unmil involved business dealing businessman operating liberia abused authority unmil benefit either businessman evidence adduced investigation support allegation idoios investigation found evidence senior official involved business dealing businessman abused authority benefit either businessman</t>
+  </si>
+  <si>
+    <t>ii background information unmil established september security council resolution officer responsible establishing unmil fuel cell start mission previously served officer mission de nation unies au rpublique dmocratique de congo monuc time served officer unmil fuel cell unit consisted staff member four international staff remainder national staff officer left unmil united nation june replacement officer took post july january february audit fuel management unmil reference ap conducted iadoios</t>
+  </si>
+  <si>
+    <t>introduction february investigation division office internal oversight service idoios received request unon official inquire allegation locally recruited united nation office nairobi unon staff may engaged improper conduct submitting fraudulent letter appointment showing longer contract duration date obtain loan united nation cooperative saving credit society limited unsacco operates within unon premise request prompted earlier report submitted unon management unon official scheme whereby locally recruited staff member nairobibased united nation childrens fundsomalia support centre unicefsomalia obtained unsacco loan submitting fraudulent letter appointment unsacco primary concern unon management similar fraudulent scheme might spread unon nairobi based united nation agency</t>
+  </si>
+  <si>
+    <t>request prompted earlier report submitted unon management unon official scheme whereby locally recruited staff member nairobibased united nation childrens fundsomalia support centre unicefsomalia obtained unsacco loan submitting fraudulent letter appointment unsacco primary concern unon management similar fraudulent scheme might spread unon nairobi based united nation agency time request two idoios investigator mission nairobi another matter given concern expressed unon manager idoios investigator directed idoios management look matter celerity february purpose report present finding preliminary idoios investigation together recommendation appropriate action unon management</t>
+  </si>
+  <si>
+    <t>idoios could interview unicef staff former staff involved fraud example one staff member passed away another left unicef declined interview addition unicef inquiry final information obtained primarily interview unicef staff idoios suggested might unicef staff involved initially envisaged interview idoios concerned unicef staff confirmed misused unicef letterhead official seal indicated forged signature unicef operation officer provided unsacco incorrect information duration contract order obtain loan mentioned ease accessed official unicef stamp stationery computer although given limited responsibility example driver access occurred interviewee stated acted alone one exception denied either unicef unon colleague assisted fraudulent activity otherwise aware involved improper action</t>
+  </si>
+  <si>
+    <t>whenever idoios investigator noted apparent irregularity concerning letter appointment similar document produced staff unsacco example letter suggesting contract would renewed beyond expiration date contract idoios officer made copy document compared corresponding documentation available official status file staff andor confirmed unon official whose signature appeared letter indeed signed idoios investigator noted concern january one senior unep manager informed unsacco management contract particular staff member likely extended two year subject satisfactory performance manager interview idoios admitted written letter request staff member advised letter sometimes provided unsacco locally recruited staff obtain loan idoios caution manager issuance letter may give impression staff member contract renewed</t>
+  </si>
+  <si>
+    <t>interview unsacco unon staff unsacco unon staff member interviewed idoios investigator provided general information operation otherwise cooperated idoios inquiry providing unhindered access file however interview produce conclusive information either suggest completely rule improper conduct part unon staff member additional investigative step documentation obtained unsacco show staff member unon united nation related organization requested obtained unsacco loan one thousand unon staff given large number record review would need compared similar record unon absence identified subject idoios investigator decided thorough review sampling case file selected review loan amount high duration contract long applicant also guarantor loan</t>
+  </si>
+  <si>
+    <t>administrative officer requested copy appointment letter found fraudulent date expiration contract false signature unicef operation officer named letter forged upon inquiry unsacco manager unicefsomalia management started inquiry found unicefsomalia staff member obtained similarly improper loan unicefsomalia approximately staff member result inquiry described report preliminary investigation case fraudulent signature use office stationary official seal unicef somalia nairobi dated february included copy false letter appointment written statement several locally recruited unicef staff admitted improper conduct attachment</t>
+  </si>
+  <si>
+    <t>obtain individual loan staff member required complete either loan application loan agreement form attachment instant loan facility application agreement form attachment staff member must attach hisher request document including copy hisher latest payslip national identification card passport copy hisher letter contract copy letter contract required ensure applicant hold valid contract cover agreed period time repayment loan benefit longer contract permit repayment lesser amount longer period time ensure guarantee repayment applicant must provide six guarantor event borrower default guarantor must also un sacco member application loan reviewed unsacco staff credit committee approve defer reject application</t>
+  </si>
+  <si>
+    <t>viii recommendation based finding report idoios recommends following corrective action recommendation recommended unon take appropriate action unonits staff member id rec iv recommendation recommended unon take corrective measure ensure unonits staff member refund money collected unpos id rec iv recommendation recommended unon unpos administration instructs staff necessity procurement procedure followed id rec iv recommendation recommended unon issue advice staff unonbased agency emphasizing necessity submission written request service id rec iv recommendation recommended unon administration share finding report representative secretary general unpos id rec iv</t>
+  </si>
+  <si>
+    <t>vi finding unonits staff member intended use expensive equipment unon workshop receive permission hisher supervisor prior hisher arrangement unpos unon official learned arrangement told unonits staff member equipment could used unpos request extension satellite link must go though proper channel unpos receive extension satellite link residence unonits staff member return money paid himher vii conclusion personally undertaking extend satellite link rsg residence receiving money said undertaking failing provide satellite link refusing return money paid himher unonits staff member acted contrary hisher obligation staff regulation personally undertaking extend satellite link rsg residence unonits staff member acted contrary hisher obligation financial regulation rule united nation stsgb regulation</t>
+  </si>
+  <si>
+    <t>methodology investigation conducted pursuant executive decision establishment investigation task force itf investigator conducted enquiry allegation raised interview person indicated witness person potentially implicated allegation obtaining document pristina airport administration pillar iv analysed relevance inquiry hand background information pristina international airport constitutes state owned enterprise yugoslavian law asset airport include runway terminal building hanger fuel storage facility equipment period covered investigation maintained public enterprise airport pristina peap cooperation military unit kosovo force kfor pursuant united nation security council resolution dated june unmik regulation dated july unmik mandated administer territory kosovo including state owned publicly owned asset includes pristina international airport end june responsibility administration pristina airport entrusted civil administration pillar pillar ii unmik including official official pillar ii supervised department transport infrastructure doti official doti later known transport sector unmik directorate infrastructure affair doti official left unmik end june doti official recruited doti international staff member july charge airport operation reporting doti official continued role september engineering expertise provided series engineer seconded armed force united nation member state specifically airport engineer airport engineer airport engineer later consultant consulting firm july responsibility administration airport passed pillar ii kosovo trust agency kta pillar iv divisional manager appointed airport sector kta time peap official air traffic control service atcs official april pristina international airport time jurisdiction kfor handed civilian jurisdiction icao regulation background change procurement procedure relating following contract examined</t>
+  </si>
+  <si>
+    <t>february dpko communication technology service division cits sought obtain new system contract laptop computer mr cabrera procurement officer procurement department pd assigned matter chief cits communicated request pd february expression interest issued pd invitation bid followed april transmitted vendor nine country cits advised pd desired ibm dell compaq based itsd standard desktop computer hand pd information technology service division itsd involved process mr bahel recommended adding toshiba sony fujitsu nec list subsequent exchange email pd requisitioner cits itsd cits continued assert sought three major brand computer avoid inferior product laptop questionable manufacturer clone home built computer ultimately however cits agreed amenable expanding field include major brand computer manufacturer recognized industry leader result april case officer mr cabrera issued bid amendment notification vendor correcting anticipated quantity computer sought clarifying compaq dell ibm toshiba sony fujitsu nec brand would considered solicitation</t>
+  </si>
+  <si>
+    <t>report dealing matter raised audit report dated january pd raised referral concerning mr walter cabrera procurement officer headquarters procurement section relevant time following set forth finding procurement task force concerning united nation staff member walter cabrera introduction procurement task force created january address procurement matter referred office internal oversight service oios creation task force result perceived problem procurement identified independent inquiry committee oil food programme iic arrest conviction un procurement officer alexander yakovlev</t>
+  </si>
+  <si>
+    <t>term reference task force operates part oios report directly secretary general oios remit task force investigate open pending procurement case including matter involving procurement bidding exercise procurement staff vendor business united nation hereinafter un organization mandate task force also includes review procurement matter closed nevertheless determined investigative effort warranted task force investigation also focused upon myriad individual vendor business organization matter particularly complex span significant period time since inception matter involving numerous procurement case various un mission un headquarters referred task force task force report matter individually task force given priority matter involving eight staff member placed special leave pay</t>
+  </si>
+  <si>
+    <t>purpose report address matter raised audit finding january concerning walter cabrera united nation procurement officer another matter brought attention task force separate referral first mr cabrera alleged improperly provided notification prospective vendor approval granted favor vendor thunderbird llc thunderbird contract provide manpower support un mission prior official award contract secondly audit report found cabrera engaged misconduct connection procurement exercise substantial contract ultimately awarded firm telecommunication consultant india tcil audit report found significant fraud indicator connection procurement exercise contract conclusion task force agrees task force report issue much detail subsequent report addressing related matter however focus report upon conduct mr cabrera individually whether mr cabrera acted improperly participation matter</t>
+  </si>
+  <si>
+    <t>however investigation revealed mr bahels personal involvement ensuring vendor thunderbird received advanced notice likely award hcc secretary mr bahel also individual associated request expedited approval position seek need expedited approval thunderbird first instance effort notify thunderbird quickly likely award questionable light fact hcc meeting current vendor iecs granted extension continue additional two month thunderbird failed submit audited financial statement given additional four week accomplish task however thunderbird took eight week file form thus basis intensive effort mr bahel notify thunderbird problematic especially light fact thunderbird application still yet complete curiously request advanced notification iecs expedited approval extension minute hcc meeting pending yet finalized however one page form issued hcc granting expedited approval continuation current contractor replacement thunderbird circumstance surrounding creation form request expedited approval first instance troubling continued subject task force investigation however present evidence possession task force demonstrates mr cabrera participated aspect matter</t>
+  </si>
+  <si>
+    <t>hcc presentation mr bahel scheduled leave new york annual leave convened meeting m jane redfern un procurement officer mr walter cabrera prior departure meeting mr bahel instructed notify thunderbird recommendation award contract according mr cabrera understood able provide letter intent loi thunderbird able give verbal notification hccs action based upon document issued hcc mr cabreras understanding action permissible based upon fact supervisor mr bahel directed well independent understanding time direction mr bahel mr cabrera fact notify mr nishan kohli hcc recommended contract awarded thunderbird thunderbird would likely receive contract mr cabrera asserts notified mr kohli pd could issue loi prior receiving approved hcc minute formal award contract mr kohlis explanation event written submission organization attorney materially differs however task force find mr kohlis representation credible</t>
+  </si>
+  <si>
+    <t>july sanjaya bahel officer charge procurement time recommended award tcil system contract amount u presentation matter hcc official questioned basis limiting bidding exercise three specified brand intimated pd violated un rule regulation use brand name itb email communication event describes circumstance dpko official questioned limitation resolicitation three preferred brand hcc stated imminent loss fund committee would recommended rebidding exercise conducted inviting brand laptop met un requirement nevertheless proposed contract award tcil ultimately approved signed</t>
+  </si>
+  <si>
+    <t>nonetheless clear new invitation bid itb issued basis renewed itb however clear identity individual sought task force identified evidence support finding mr cabrera involved decision document demonstrate mr cabrera continued maintain dialogue dpko concerning request task force identified evidence suggests mr cabrera sought cancel bid seek rebidding exercise investigation revealed however mr cabreras supervisor sanjaya bahel intimately involved matter interjected communicating itsd official dpko official dpko official referred stated conversation mr bahel mr bahel confirmed pd view technical issue lacrestas bid new bidding exercise</t>
+  </si>
+  <si>
+    <t>fact matter relate mr cabrera dispute may thunderbird llc thunderbird mr nishan kohli managing partner submitted application support registering organization vendor authorizing submit proposal upcoming un contract july successfully registered pd thunderbird nishan kohli submitted proposal supply engineering manpower various un mission response rfp issued procurement department ultimately mr sanjaya bahel chief field procurement made presentation headquarters committee contract hcc favor award thunderbird matter assigned mr cabrera late december involved case peripherally time</t>
+  </si>
+  <si>
+    <t>procurement department official concede point issue justification award contract lacresta indeed justification provided la cresta found file seems la cresta formally informed cancellation typically case officer maintains responsibility communicating cancellation vendor case correspondence case file procurement vendor notifying cancellation dpko official involved process informed task force conversation pd interim period represented pd expressed view issue lacrestas submission according official procurement department suggested rebid technicality official objected told matter commercial one within pd prerogative cancel bid basis commercial noncompliance explanation persuasive commercial technical issue lacrestas bid dpko found la cresta compliant firm lowest bidder mr cabrera agrees reasoning proffered pd dpko official sound take issue claim participation exchange decision</t>
+  </si>
+  <si>
+    <t>another proposed topic effort european aeronautic defense space corporation eads win tanker aircraft contract u military vimont revealed cryptically deal moving forward provide detail levitte expected put labeling dispute pernod ricard world 's second largest spirit group agenda sarkozy spoken company 's chairman asked president intercede behalf comment patrick ricard chairman pernod ricard board director said one sarkozy 's wealthy backer vimont characterized issue political matter u suggested direct appeal white house might useful sarkozy intends broach issue u president levitte talk u president 's economic adviser deputy national security adviser finally levitte expected two leader discus pressing subject including iran middle east peace process afghanistan pakistan yemen somalia sahel russia china turkey climate change financial situation several european country however provided detail topic</t>
+  </si>
+  <si>
+    <t>sensitive issue agenda french u president meet next week washington tssinf tssinf french president sarkozy intends raise number sensitive topic u president two leader meet washington march according exchange last week french ambassador washington pierre vimont sarkozy 's diplomatic advisor jeandavid levitte vimont conveyed french president express frustration washington backed away proposed bilateral intelligence cooperation agreement sarkozy intends continue push closure vimont levitte understand main sticking point u desire continue spying france topic afghanistan levitte noted sarkozy ready authorize military trainer want clarification many needed given conflicting figure u source</t>
+  </si>
+  <si>
+    <t>description top secret u national security agency report highlight signal intelligence intercept highlevel french government communication extract dating march summarises communication french ambassador washington dc pierre vimont french president nicolas sarkozy 's diplomatic advisor jeandavid levitte report reveals various potential topic sarkozy intended raise u president barack obama upcoming meeting washington topping sarkozy 's agenda frustration u backed away bilaterial intelligence cooperation agreement might restrict u ability continue spying france issue include potential french commitment military trainer afghanistan potential european aeronautic defence space corporation eads contract tanker aircraft u military trademark dispute concerning french spirit company pernod ricard</t>
+  </si>
+  <si>
+    <t>introduction case arises audit report dated february financial statement pristina international airport conducted chartered accountant led investigation concerning alleged corruption irregularity arising course procurement contract pristina international airport alleged single source contract one container added one month main contract supply two new container dismantling transport reconstruction seven container pristina airport methodology investigation conducted pursuant executive decision establishment investigation task force itf investigator conducted enquiry allegation raised interview person indicated witness person potentially implicated allegation obtaining document pristina airport administration pillar iv analysed relevance inquiry hand</t>
+  </si>
+  <si>
+    <t>background information pristina international airport constitutes state owned enterprise yugoslavian law asset airport include runway terminal building hanger fuel storage facility equipment period covered investigation maintained public enterprise airport pristina peap cooperation military unit kosovo force kfor pursuant united nation security council resolution dated june unmik regulation dated july unmik mandated administer territory kosovo including state owned publicly owned asset includes pristina international airport july responsibility administration airport passed pillar ii kosovo trust agency kta pillar iv kta divisional manager appointed airport sector kta time peap official act official april pristina international airport time jurisdiction kfor handed civilian jurisdiction icao regulation background change procurement procedure relating following contract examined</t>
+  </si>
+  <si>
+    <t>background information pristina international airport constitutes state owned enterprise yugoslavian law asset airport include runway terminal building hanger fuel storage facility equipment period covered investigation maintained public enterprise airport pristina peap cooperation military unit kosovo force kfor pursuant united nation security council resolution dated june unmik regulation dated july unmik mandated administer territory kosovo including state owned publicly owned asset includes pristina international airport</t>
+  </si>
+  <si>
+    <t>description interception french ambassador washington jeandavid levitte reveals frustration towards report iraq survey group finding un oilforfood program possibly misused french company interception levitte state scandalous u company named report claimed many french company named actually subsidiary u firm planned present list company u congress medium tssi french envoy plan release list u firm allegedly profited tssirel usa au gbr nzl french ambassador jean david levitte washington plan respond early today information iraq survey group report regarding possible misuse un oilforfood program company france country former iraqi regime ambassador termed report scandalous since named u company claimed many french company contract program actually subsidiary u firm also profited business dealing therefore planned foreign ministry backing present list u company u congress medium</t>
+  </si>
+  <si>
+    <t>[('Vendor 3', 'PERSON'), ('2', 'CARDINAL'), ('Euro 21,045', 'LAW'), ('51%', 'PERCENT'), ('Vendor 1', 'PERSON'), ('Supply and Mounting of Sonic System', 'WORK_OF_ART'), ('Pristina', 'GPE'), ('1,530', 'MONEY'), ('two', 'CARDINAL'), ('2003', 'DATE'), ('3,921', 'MONEY'), ('Cramer Antenna', 'PERSON'), ('at least three', 'CARDINAL'), ('Ljubljana', 'GPE'), ('Kosovo', 'GPE'), ('3,627.99', 'MONEY'), ('€4,278 and €4,670', 'MONEY'), ('Euro 19,702', 'LAW'), ('Vendor 4', 'PERSON'), ('third', 'ORDINAL'), ('three', 'CARDINAL'), ('Pristina Airport', 'FAC'), ('Vendor 2', 'PERSON'), ('15,919', 'MONEY'), ('1', 'CARDINAL'), ('3', 'CARDINAL'), ('1,620', 'MONEY'), ('Two', 'CARDINAL')]</t>
+  </si>
+  <si>
+    <t>[('International Prosecutor', 'ORG'), ('31st August', 'DATE'), ('Vendor 3', 'PERSON'), ('1 December 2004', 'DATE'), ('ITF', 'PERSON'), ('September 2004', 'DATE'), ('Pristina', 'GPE'), ('ITF', 'ORG'), ('October 2004', 'DATE'), ('UNMIK Department of Justice', 'ORG'), ('Kosovo', 'GPE'), ('KOCB', 'ORG'), ('Prizren', 'NORP'), ('Vendor 4', 'PERSON'), ('three', 'CARDINAL'), ('Kosovo Organised Crime Bureau', 'ORG'), ('14th', 'ORDINAL'), ('Vendor 2', 'PERSON'), ('1', 'CARDINAL'), ('Economic Law', 'PERSON'), ('3', 'CARDINAL')]</t>
+  </si>
+  <si>
+    <t>[('28 May 2001', 'DATE'), ('DOTI', 'ORG'), ('18 May 2001', 'DATE'), ('2b', 'DATE'), ('Official 2', 'LAW'), ('1', 'CARDINAL'), ('Vendor', 'ORG'), ('Cargo Apron', 'NORP')]</t>
+  </si>
+  <si>
+    <t>[('three', 'CARDINAL'), ('2', 'CARDINAL'), ('24 September 2001', 'DATE'), ('2 August 2001', 'DATE'), ('Office of  Legal Adviser', 'ORG'), ('two', 'CARDINAL'), ('UN', 'ORG')]</t>
+  </si>
+  <si>
+    <t>[('Divisional', 'ORG'), ('3', 'CARDINAL'), ('Vendor', 'ORG'), ('25 August 2002', 'DATE')]</t>
+  </si>
+  <si>
+    <t>[('Pristina Airport', 'FAC'), ('Evaluation Company', 'ORG'), ('31 January 2001', 'DATE'), ('1999/2', 'CARDINAL'), ('774,318.63', 'MONEY'), ('Public Procurement', 'ORG'), ('Project Engineer', 'ORG'), ('Article 23.4', 'LAW'), ('Kosovo Consolidated Budget Funds', 'ORG'), ('Cargo Terminal', 'ORG'), ('Cargo Terminal Apron', 'ORG')]</t>
+  </si>
+  <si>
+    <t>[('4', 'CARDINAL'), ('2', 'CARDINAL'), ('1999/2', 'CARDINAL'), ('Public Procurement', 'ORG'), ('2 August 2001', 'DATE'), ('Vendor', 'ORG'), ('Kosovo Consolidated Budget Funds', 'ORG'), ('two', 'CARDINAL'), ('Article 23.3', 'LAW')]</t>
+  </si>
+  <si>
+    <t>[('Divisional', 'ORG'), ('2', 'CARDINAL'), ('31 July 2000', 'DATE'), ('Pillar', 'ORG'), ('Air Traffic Control Services', 'ORG'), ('Department of Transport and Infrastructure', 'ORG'), ('Airport Engineer 1', 'ORG'), ('Consulting Company', 'ORG'), ('DOTI', 'ORG'), ('UNMIK Directorate of Infrastructure Affairs', 'ORG'), ('1 July 2002', 'DATE'), ('1 April 2004', 'DATE'), ('Pristina International Airport', 'EVENT'), ('June 2002', 'DATE'), ('Civil Administration Pillar', 'ORG'), ('Pristina Airport', 'FAC'), ('Official 1 and Official 2', 'LAW'), ('Pillar II', 'EVENT'), ('United Nations', 'ORG'), ('1', 'CARDINAL'), ('Airport', 'PERSON'), ('KFOR', 'ORG'), ('Kosovo Trust Agency', 'ORG'), ('3', 'CARDINAL'), ('30 September 2001', 'DATE'), ('UNMIK', 'ORG')]</t>
+  </si>
+  <si>
+    <t>[('10 June 1999', 'DATE'), ('Pristina Airport', 'FAC'), ('2001', 'DATE'), ('Yugoslavian', 'NORP'), ('Pillar', 'ORG'), ('Investigation Task Force', 'ORG'), ('Kosovo Force', 'ORG'), ('UNMIK Regulation', 'ORG'), ('25 July 1999', 'DATE'), ('Kosovo', 'GPE'), ('Pristina International Airport', 'FAC'), ('International Airport', 'FAC'), ('United Nations Security Council', 'ORG'), ('2003', 'DATE'), ('UNMIK', 'ORG')]</t>
+  </si>
+  <si>
+    <t>[('4', 'CARDINAL'), ('2', 'CARDINAL'), ('27 June 2001', 'DATE'), ('Airport Engineer 1', 'ORG'), ('Cargo Apron', 'PERSON'), ('1', 'CARDINAL'), ('Vendor', 'ORG'), ('Staff', 'PRODUCT'), ('18 October 2001', 'DATE'), ('Procurement Official', 'PRODUCT'), ('17 October 2001', 'DATE'), ('UNMIK', 'ORG')]</t>
+  </si>
+  <si>
+    <t>[('Evaluation Company', 'ORG'), ('2', 'CARDINAL'), ('CPE Procurement Officer', 'ORG'), ('DOTI', 'WORK_OF_ART'), ('CPE', 'ORG'), ('Procurement Official', 'PRODUCT'), ('Cargo Apron', 'LOC'), ('Airport Engineer 1', 'ORG')]</t>
+  </si>
+  <si>
+    <t>[('Three', 'CARDINAL'), ('DOTI', 'WORK_OF_ART'), ('Cargo Apron', 'PERSON'), ('Office of  Legal Adviser', 'ORG'), ('UN', 'ORG')]</t>
+  </si>
+  <si>
+    <t>[('a Secret US National Security Agency', 'ORG'), ('National  Security Agency', 'ORG'), ('Japanese', 'NORP'), ('Abe', 'PERSON'), ('Washington DC', 'GPE'), ('Economy, Trade  and  Industry', 'ORG'), ('Bush', 'PERSON'), ('George W Bush', 'PERSON'), ('NSA', 'ORG'), ('United States', 'GPE'), ('Shinzo Abe', 'PERSON')]</t>
+  </si>
+  <si>
+    <t>[('Japanese\xadU.S.', 'GPE'), ('Half', 'CARDINAL'), ('Japan', 'GPE'), ('Ministry of Economy, Trade', 'ORG'), ('2050', 'DATE'), ('Ministry of Foreign Affairs', 'ORG'), ('half', 'CARDINAL'), ('Shinzo Abe', 'PERSON'), ('MFA', 'ORG'), ('United States', 'GPE'), ('METI', 'GPE'), ('Washington', 'GPE'), ('three', 'CARDINAL'), ('Reducing Carbon Emissions', 'ORG'), ('Japanese', 'NORP'), ('Abe', 'PERSON'), ('late May', 'DATE'), ('26 to 27 April', 'DATE'), ('U.S.', 'GPE')]</t>
+  </si>
+  <si>
+    <t>[('Masakazu Toyoda', 'PERSON'), ('International Energy Agency', 'ORG'), ('One', 'CARDINAL'), ('Ministry of Economy, Trade', 'ORG'), ('Europeans', 'NORP'), ('EU', 'ORG'), ('Fatih Birol', 'PERSON'), ('IEA', 'ORG'), ('Emissions Trading Scheme', 'ORG'), ('Toyoda', 'PERSON'), ('Tokyo', 'GPE'), ('Climate Change Officials', 'ORG'), ('China', 'GPE'), ('Toyoda', 'ORG'), ('second', 'ORDINAL'), ('third', 'ORDINAL'), ('India', 'GPE'), ('European Union', 'ORG'), ('three', 'CARDINAL'), ('first', 'ORDINAL'), ('Japanese', 'NORP'), ('European', 'NORP'), ('U.S.', 'GPE')]</t>
+  </si>
+  <si>
+    <t>[('Japan', 'GPE'), ('Five Eyes', 'WORK_OF_ART'), ('Ministry of Economy Trade and Industry', 'ORG'), ('Lake Toya', 'LOC'), ('Leadership Working', 'PERSON'), ('Summit', 'ORG'), ('New Zealand', 'GPE'), ('Great Britain', 'GPE'), ('20 February', 'DATE'), ('US National Security Agency', 'ORG'), ('Cabinet', 'ORG'), ('Ministry of Finance', 'ORG'), ('Ministry of Foreign Affairs', 'ORG'), ("United States'", 'GPE'), ('one', 'CARDINAL'), ('Nobutaka Machimura', 'PERSON'), ('NSA', 'ORG'), ('NZL', 'ORG'), ('Australia', 'GPE'), ('AUS', 'GPE'), ('2008 G-8 Summit', 'WORK_OF_ART'), ('Japanese', 'NORP'), ('July', 'DATE'), ('Ministry of Environment', 'ORG'), ('Canada', 'GPE'), ('Lake Toya', 'FAC'), ('TS//SI//REL TO USA', 'ORG')]</t>
+  </si>
+  <si>
+    <t>[('U.S. Pacific Northwest', 'ORG'), ('221708Z', 'DATE'), ('Japanese', 'NORP'), ('Cherry Imports', 'PERSON'), ('Japan', 'GPE'), ('U.S. Department of Agriculture', 'ORG'), ('One', 'CARDINAL'), ('Ministry of Agriculture, Forestry', 'ORG'), ('Japanese Strive to Avoid Damage', 'WORK_OF_ART'), ('Tokyo', 'GPE'), ('U.S.', 'GPE'), ('Washington', 'GPE')]</t>
+  </si>
+  <si>
+    <t>[('National  Security Agency', 'ORG'), ('Japanese', 'NORP'), ('2009', 'DATE'), ('National  Security  Agency', 'ORG'), ('Japanese Ministry of Agriculture, Forestry and Fisheries', 'ORG'), ('Japan', 'GPE'), ('NSA', 'ORG'), ('United States', 'GPE'), ('Washington', 'GPE')]</t>
+  </si>
+  <si>
+    <t>[('Divisional', 'ORG'), ('31 July 2000', 'DATE'), ('Pillar', 'ORG'), ('Air Traffic Control Services', 'ORG'), ('Airport Sector', 'PERSON'), ('Consulting Firm', 'ORG'), ('DOTI', 'ORG'), ('Department of Transport and Infrastructure (DOTI', 'ORG'), ('UNMIK Directorate of Infrastructure Affairs', 'ORG'), ('1 July 2002', 'DATE'), ('1 April 2004', 'DATE'), ('Pristina International Airport', 'EVENT'), ('June 2002', 'DATE'), ('Civil Administration Pillar', 'ORG'), ('Pristina Airport', 'FAC'), ('Official 1 and Official 2', 'LAW'), ('Pillar II', 'EVENT'), ('United Nations', 'ORG'), ('1', 'CARDINAL'), ('Airport', 'PERSON'), ('KFOR', 'ORG'), ('Kosovo Trust Agency', 'ORG'), ('3', 'CARDINAL'), ('30 September 2001', 'DATE'), ('UNMIK', 'ORG')]</t>
+  </si>
+  <si>
+    <t>[('10 June 1999', 'DATE'), ('Pristina Airport', 'FAC'), ('2001', 'DATE'), ('Yugoslavian', 'NORP'), ('Pillar', 'ORG'), ('Investigation Task Force', 'ORG'), ('Kosovo Force', 'ORG'), ('UNMIK Regulation', 'ORG'), ('25 July 1999', 'DATE'), ('Kosovo', 'GPE'), ('Pristina International Airport', 'FAC'), ('BACKGROUND INFORMATION Pristina International Airport', 'ORG'), ('United Nations Security Council', 'ORG'), ('2003', 'DATE'), ('UNMIK', 'ORG')]</t>
+  </si>
+  <si>
+    <t>[('EU Agriculture', 'ORG'), ('Toshikatsu Matsuoka', 'PERSON'), ('Klaus-Dieter Borchardt', 'ORG'), ('Borchardt', 'PERSON'), ('Japan', 'GPE'), ('$17 billion', 'MONEY'), ('early December', 'DATE'), ('Marianne Fischer-Boel', 'PERSON'), ('2003', 'DATE'), ("Fischer-Boel's", 'ORG'), ('Cancun', 'GPE'), ('EU', 'ORG'), ('Fischer-Boel', 'ORG'), ('Tokyo', 'GPE'), ('Brussels', 'GPE'), ('Agriculture, Forestry', 'ORG'), ('Doha Round', 'LOC'), ('$14 to $15 billion', 'MONEY'), ('Washington', 'GPE'), ('as low as 4 to 5 percent', 'PERCENT'), ('Japanese', 'NORP'), ('8 percent', 'PERCENT'), ('last July', 'DATE'), ('U.S.', 'GPE')]</t>
+  </si>
+  <si>
+    <t>[('Berlusconi', 'PERSON'), ('Spain', 'GPE'), ('Valentini', 'GPE'), ('Herman Van Rompuy', 'PERSON'), ('Valentino Valentini', 'PERSON'), ('Nicolas Sarkozy', 'PERSON'), ("Van Rompuy's", 'PERSON'), ('EU Council', 'ORG'), ('EU', 'ORG'), ('Italian', 'NORP'), ('Angela Merkel', 'PERSON'), ('French', 'NORP'), ('Silvio Berlusconi', 'PERSON'), ('22', 'CARDINAL'), ('Sarkozy', 'PERSON'), ('German', 'NORP'), ('October', 'DATE'), ('Italy', 'GPE'), ('Rome', 'GPE')]</t>
+  </si>
+  <si>
+    <t>[('Israeli', 'NORP'), ('Palestinians', 'NORP'), ('Italian', 'NORP'), ('Berlusconi', 'PERSON'), ('Silvio Berlusconi', 'PERSON'), ('East Jerusalem', 'GPE'), ('United States', 'GPE'), ('Italy', 'GPE'), ('Europe', 'LOC'), ('Binyamin Netanyahu', 'PERSON'), ('13 March', 'DATE'), ('1,600', 'CARDINAL'), ('Netanyahu', 'PERSON'), ('U.S.', 'GPE'), ('Washington', 'GPE'), ('Golda Meir', 'PERSON'), ('Israel', 'GPE')]</t>
+  </si>
+  <si>
+    <t>[("last year's", 'DATE'), ('South Africa', 'GPE'), ('17 June', 'DATE'), ('45-percent', 'PERCENT'), ('Japan', 'GPE'), ('Lake Toya', 'LOC'), ("next year's", 'DATE'), ('Copenhagen', 'ORG'), ('Indonesia', 'GPE'), ('Tokyo', 'GPE'), ('Germany', 'GPE'), ('MEM', 'ORG'), ('South Korea', 'GPE'), ('China', 'GPE'), ('16', 'CARDINAL'), ('Pfaffenback', 'ORG'), ('India', 'GPE'), ('Kono', 'PERSON'), ('Bernd Pfaffenback', 'PERSON'), ('German', 'NORP'), ('G-8', 'PERSON'), ('Australia', 'GPE'), ('Bali', 'PERSON'), ('July', 'DATE'), ('Mexico', 'GPE'), ('Lake Toya', 'FAC'), ('Brazil', 'GPE'), ('Heiligendamm', 'PERSON'), ('U.S.', 'GPE')]</t>
+  </si>
+  <si>
+    <t>[('UN', 'ORG'), ('EU', 'ORG'), ('Copenhagen', 'ORG'), ('Angela Merkel', 'PERSON'), ('Ban Ki-moon', 'PERSON'), ('early 2009', 'DATE'), ('Merkel', 'PERSON'), ('Brussels', 'GPE'), ('UN Conference on Climate Change', 'ORG'), ('Poznan', 'GPE'), ('German', 'NORP'), ('EU Summit', 'ORG'), ('10 December', 'DATE'), ('mid-December', 'DATE'), ('2009', 'DATE'), ('UN Climate Talks', 'LAW'), ('Ban', 'PERSON'), ('Poznan Conference', 'PERSON'), ('U.S.', 'GPE')]</t>
+  </si>
+  <si>
+    <t>[('three', 'CARDINAL'), ('30', 'CARDINAL'), ('Official 1’s', 'LAW'), ('1', 'CARDINAL'), ('5.000,00', 'MONEY'), ('31 July 2004', 'DATE'), ('Airport Staff', 'WORK_OF_ART'), ('Hajvali', 'PERSON'), ('Pristina  Airport', 'FAC'), ('ITF Investigators', 'ORG'), ('two', 'CARDINAL'), ('Official 1', 'LAW'), ('Non Staff', 'ORG')]</t>
+  </si>
+  <si>
+    <t>[('KPS', 'ORG'), ('4', 'CARDINAL'), ('Pristina Airport', 'FAC'), ('6 September 2004', 'DATE'), ('2', 'CARDINAL'), ('KPS Officer 2', 'ORG'), ('5', 'CARDINAL'), ('1', 'CARDINAL'), ('3.000,00', 'MONEY'), ('ITF Investigators', 'ORG'), ('two', 'CARDINAL'), ('Non Staff', 'ORG')]</t>
+  </si>
+  <si>
+    <t>[('Official 1 (Pristina Airport', 'LAW'), ('Pristina Airport', 'FAC'), ('2', 'CARDINAL'), ('25-26 July 2004', 'DATE'), ('3', 'CARDINAL'), ('1', 'CARDINAL'), ('7,000.00', 'MONEY'), ('ITF Investigators', 'ORG'), ('two', 'CARDINAL'), ('Official 1', 'LAW'), ('Non Staff', 'ORG')]</t>
+  </si>
+  <si>
+    <t>[('night', 'TIME'), ('Non-Staff', 'ORG'), ('Official 5', 'LAW'), ('two', 'CARDINAL'), ('two days later', 'DATE'), ('one', 'CARDINAL'), ('approximately € 180', 'MONEY'), ('International', 'ORG'), ('190', 'MONEY'), ('an additional €', 'MONEY'), ('Restaurant 2', 'ORG'), ('ITF Investigators', 'ORG'), ('Kosovar', 'ORG'), ('Official 1', 'LAW'), ('Official 2’s', 'LAW'), ('Pristina Airport', 'FAC'), ('1', 'CARDINAL'), ('225', 'MONEY'), ('English', 'LANGUAGE'), ('Airport', 'ORG'), ('Non Staff', 'ORG')]</t>
+  </si>
+  <si>
+    <t>[('4 October 2004', 'DATE'), ('winter', 'DATE'), ('Pristina Airport', 'FAC'), ('summer', 'DATE'), ('IAU', 'ORG'), ('Vendor 2', 'PERSON'), ('Bid Evaluation Committee', 'ORG'), ('Finance Department', 'ORG'), ('28', 'CARDINAL'), ('1', 'CARDINAL'), ('Internal Audit Unit', 'ORG'), ('Vendor 1', 'ORG'), ('Background and Allegations A Kosovo Trust Agency', 'WORK_OF_ART'), ('one', 'CARDINAL'), ('Procurement', 'PRODUCT'), ('Pristina Airport Reference No', 'FAC')]</t>
+  </si>
+  <si>
+    <t>[('4 October 2004', 'DATE'), ('winter', 'DATE'), ('Pristina Airport', 'FAC'), ('summer', 'DATE'), ('IAU', 'ORG'), ('Vendor 2', 'PERSON'), ('Bid Evaluation Committee', 'ORG'), ('Finance Department', 'ORG'), ('28', 'CARDINAL'), ('1', 'CARDINAL'), ('Background and Allegations A Kosovo Trust Agency', 'ORG'), ('Internal Audit Unit', 'ORG'), ('Vendor 1', 'ORG'), ('one', 'CARDINAL'), ('Procurement', 'PRODUCT'), ('Pristina Airport Reference No', 'FAC')]</t>
+  </si>
+  <si>
+    <t>[('Pristina Airport', 'FAC'), ('Cargo', 'NORP'), ('Invoice', 'GPE'), ('28 May 2004', 'DATE'), ('April 2004', 'DATE'), ('Cargo Department of Pristina Airport', 'ORG'), ('Investigation Task Force', 'ORG'), ('Cargo Department', 'ORG'), ('July 2004', 'DATE')]</t>
+  </si>
+  <si>
+    <t>[('Pristina Airport', 'FAC'), ('€0.50/kg', 'MONEY'), ('Invoice', 'ORG'), ('Airline Cargo', 'ORG'), ('State', 'ORG'), ('Airline', 'ORG'), ('KFOR', 'ORG'), ('VAT', 'ORG'), ('Value Added Tax', 'ORG'), ('Background\n\nPristina Airport', 'WORK_OF_ART')]</t>
+  </si>
+  <si>
+    <t>[('KVS', 'ORG'), ('first', 'ORDINAL'), ('2', 'CARDINAL'), ('DRA', 'ORG'), ('Gotive H41', 'WORK_OF_ART'), ('Vendor 1', 'PERSON'), ('5', 'CARDINAL'), ('Vendor 4', 'PERSON'), ('Gotive H41 IB', 'ORG'), ('1', 'CARDINAL'), ('Vendor 5', 'ORG')]</t>
+  </si>
+  <si>
+    <t>[('five working days', 'DATE'), ('2', 'CARDINAL'), ('DRA', 'ORG'), ('five days', 'DATE'), ('a week', 'DATE'), ('Kosovo', 'GPE'), ('Section VII of  ', 'LAW')]</t>
+  </si>
+  <si>
+    <t>[('six', 'CARDINAL'), ('one', 'CARDINAL'), ('2', 'CARDINAL'), ('DRA', 'ORG'), ('Vendor 1', 'PERSON'), ('Vendor 4', 'PERSON'), ('two', 'CARDINAL')]</t>
+  </si>
+  <si>
+    <t>[('firstly', 'ORDINAL'), ('PRIO', 'ORG'), ('eight', 'CARDINAL'), ('Vendor 3', 'PERSON'), ('yearly €16,500', 'MONEY'), ('Vendor 2', 'PERSON'), ('DRA', 'ORG'), ('Vendor 1', 'PERSON'), ('135,000', 'MONEY'), ('more than €15,000', 'MONEY'), ('1', 'CARDINAL'), ('Kosovo', 'GPE'), ('Vendor 3’s', 'PERSON'), ('Secondly', 'ORDINAL'), ('two', 'CARDINAL'), ('more than €17,000', 'MONEY')]</t>
+  </si>
+  <si>
+    <t>[('February 2004', 'DATE'), ('eight', 'CARDINAL'), ('August 2002', 'DATE'), ('April 2004', 'DATE'), ('DRA', 'ORG'), ('November 2003', 'DATE'), ('135,000', 'MONEY'), ('late 2002', 'DATE'), ('second', 'ORDINAL'), ('19 May 2004', 'DATE'), ('1', 'CARDINAL'), ('170,000', 'MONEY'), ('EAR', 'ORG'), ('SPUVESEK', 'GPE'), ('Central Procurement Entity', 'ORG')]</t>
+  </si>
+  <si>
+    <t>[('UN Financial Rules', 'ORG'), ('UNMIK’s Finance Administrative', 'ORG'), ('KCB', 'ORG'), ('Recommendation 1: It', 'LAW'), ('ITB', 'ORG'), ('2', 'CARDINAL'), ('DRA', 'ORG'), ('1', 'CARDINAL'), ('RECOMMENDATION Based', 'ORG'), ('UNMIK', 'ORG')]</t>
+  </si>
+  <si>
+    <t>[('Border Control and Public Forests', 'ORG'), ('PRIO', 'ORG'), ('PRIO Unit’s', 'ORG'), ('Veterinary Services &amp;', 'ORG'), ('DRA', 'ORG'), ('United Nations', 'ORG'), ('Pillar II', 'EVENT'), ('Joint Administrative', 'PERSON'), ('UNMIK Civil Administration', 'ORG'), ('Policy Review and', 'ORG'), ('Department of Agriculture', 'ORG'), ('October 2001', 'DATE'), ('UN Rules and Regulations', 'ORG'), ('Internal Oversight Unit', 'ORG'), ('UN', 'ORG'), ('Directorate of Rural Affairs', 'ORG'), ('Security Council Resolution 1244', 'ORG')]</t>
+  </si>
+  <si>
+    <t>[('PRIO', 'ORG'), ('818.30', 'MONEY'), ('PDA', 'ORG'), ('EAR', 'ORG'), ('five', 'CARDINAL'), ('USD $323.38 to', 'MONEY')]</t>
+  </si>
+  <si>
+    <t>[('Prishtina Airport', 'FAC'), ('ATCS Finance Office', 'ORG'), ('UNMIK Pillar', 'ORG'), ('KTA', 'ORG'), ('2002', 'DATE')]</t>
+  </si>
+  <si>
+    <t>[('Employees', 'ORG'), ('Prishtina Airport', 'FAC'), ('Canada', 'GPE'), ('United Kingdom', 'GPE'), ('Italy', 'GPE')]</t>
+  </si>
+  <si>
+    <t>[('ATCS Official', 'ORG'), ('2002', 'DATE'), ('Finance', 'ORG')]</t>
+  </si>
+  <si>
+    <t>[('Head of Department', 'ORG'), ('hundreds', 'CARDINAL'), ('1.176,00', 'MONEY'), ('Nokia 8850', 'ORG'), ('58.8', 'CARDINAL'), ('ATCS Official', 'ORG'), ('23.52', 'CARDINAL'), ('960,00', 'MONEY'), ('Official 3', 'LAW'), ('12', 'CARDINAL'), ('20', 'CARDINAL'), ('VALA', 'ORG')]</t>
+  </si>
+  <si>
+    <t>[('49/2002', 'CARDINAL'), ('46/2002', 'CARDINAL'), ('01 July 2002', 'DATE'), ('four', 'CARDINAL'), ('ATCS Official', 'ORG'), ('59/2002', 'CARDINAL'), ('07/2002', 'CARDINAL'), ('30 June 2002', 'DATE'), ('06/2002', 'ORG'), ('05/2002', 'CARDINAL'), ('two', 'CARDINAL'), ('55/2002', 'CARDINAL')]</t>
+  </si>
+  <si>
+    <t>[('ATCS Official', 'ORG')]</t>
+  </si>
+  <si>
+    <t>[('1158', 'MONEY'), ('Prishtina Airport', 'FAC'), ('UK', 'GPE'), ('Shinfield Park', 'FAC'), ('London', 'GPE'), ('May 2002', 'DATE'), ('Prishtina', 'GPE'), ('Official 3', 'LAW'), ('46/2002', 'CARDINAL'), ('Official 1', 'LAW')]</t>
+  </si>
+  <si>
+    <t>[('01 July 2002', 'DATE'), ('Pristina Airport', 'FAC'), ('Division', 'ORG'), ('2', 'CARDINAL'), ('ATCS Official', 'ORG'), ('February 2003', 'DATE'), ('November 2003', 'DATE'), ('ATCS bank', 'ORG'), ('10.000', 'MONEY'), ('BACKGROUND', 'ORG'), ('Between July 2002', 'DATE'), ('Finance', 'ORG'), ('642.000', 'MONEY')]</t>
+  </si>
+  <si>
+    <t>[('• Examined ATCS bank', 'ORG'), ('• Examined', 'PERSON'), ('two', 'CARDINAL'), ('2002', 'DATE'), ('2003', 'DATE')]</t>
+  </si>
+  <si>
+    <t>[('• Interviewed', 'ORG'), ('Prishtina Airport', 'FAC'), ('2', 'CARDINAL'), ('ATCS bank', 'ORG'), ('• Cross-checked', 'ORG'), ('1', 'CARDINAL'), ('Official 2', 'LAW'), ('two', 'CARDINAL'), ('Official 1', 'LAW'), ('mid-2002', 'DATE'), ('• Cross', 'ORG')]</t>
+  </si>
+  <si>
+    <t>[('September 2000 to December 2003', 'DATE'), ('Employee 1', 'ORG'), ('2', 'CARDINAL'), ('Airport Prishtina', 'GPE'), ('ATCS Finance Office', 'ORG'), ('ATCS bank', 'ORG'), ('5', 'CARDINAL'), ('1', 'CARDINAL'), ('United Kingdom', 'GPE'), ('Employee 3', 'ORG'), ('Italy', 'GPE'), ('Finance', 'ORG'), ('UNMIK Aviation Transport', 'ORG'), ('2002', 'DATE'), ('2003', 'DATE')]</t>
+  </si>
+  <si>
+    <t>[('2001/27', 'CARDINAL'), ('KTA', 'ORG'), ('UNMIK Regulation', 'ORG'), ('8 October', 'DATE')]</t>
+  </si>
+  <si>
+    <t>[('Finance', 'ORG'), ('ATCS Finance Office', 'ORG'), ('01 April 2002', 'DATE'), ('UNMIK', 'ORG')]</t>
+  </si>
+  <si>
+    <t>[('49/2002', 'CARDINAL'), ('Pristina Airport', 'FAC'), ('four', 'CARDINAL'), ('21 May 2002', 'DATE'), ('ATCS Official', 'ORG'), ('Official 4', 'LAW'), ('59/2002', 'DATE'), ('25 May 2002', 'DATE'), ('22 May 2002', 'DATE'), ('46/2002', 'CARDINAL'), ('2002', 'DATE'), ('55/2002', 'CARDINAL')]</t>
+  </si>
+  <si>
+    <t>[('01 July 2002', 'DATE'), ('16', 'CARDINAL'), ('07/2002', 'CARDINAL'), ('06/2002', 'ORG'), ('05/2002', 'CARDINAL')]</t>
+  </si>
+  <si>
+    <t>[('Pristina Airport', 'FAC'), ('Division', 'ORG'), ('seven', 'CARDINAL'), ('six', 'CARDINAL'), ('ATCS Official', 'ORG'), ('nineteen', 'CARDINAL'), ('two', 'CARDINAL')]</t>
+  </si>
+  <si>
+    <t>[('49/2002', 'CARDINAL'), ('ATCS Official', 'ORG'), ('ATCS Finance Office', 'ORG'), ('59/2002', 'DATE'), ('1', 'CARDINAL'), ('UNMIK Pillar', 'ORG'), ('Finance', 'ORG'), ('46/2002', 'CARDINAL'), ('2002', 'DATE'), ('1 July 2002', 'DATE'), ('55/2002', 'CARDINAL')]</t>
+  </si>
+  <si>
+    <t>[('UNEP Narobi', 'ORG'), ('• UNDP Bratislava', 'ORG'), ('• UNEP Narobi', 'ORG'), ('UNON', 'ORG'), ('2', 'CARDINAL'), ('August 2002', 'DATE'), ('Finance Department', 'ORG'), ('UNDP', 'ORG'), ('1', 'CARDINAL'), ('Supervisor', 'PERSON'), ('UNDP Bratislava', 'ORG'), ('UNDP Bratislava', 'PRODUCT'), ('OIOS', 'ORG'), ('Finance', 'ORG'), ('two', 'CARDINAL'), ('more than a year', 'DATE')]</t>
+  </si>
+  <si>
+    <t>[('Conditions of Service', 'ORG'), ('Lusaka', 'ORG'), ('UN', 'ORG'), ('Nairobi', 'GPE'), ('Mzumara', 'PERSON'), ('Lusaka', 'GPE'), ('Organization', 'ORG'), ('Dickson Mzumara', 'PERSON'), ('Human Rights Organizations', 'ORG'), ('White House', 'ORG'), ('USA', 'GPE'), ('Negroponte', 'PERSON'), ('SRO', 'ORG'), ('Boss', 'PERSON'), ('29 January 2003', 'DATE'), ('JAB', 'ORG'), ('ECA Sub Regional Office', 'ORG'), ('Zambia', 'GPE'), ('OIC', 'ORG')]</t>
+  </si>
+  <si>
+    <t>[('Hiwot Abebe', 'PERSON'), ('UN System', 'ORG'), ('ten', 'CARDINAL'), ('United States of America', 'GPE'), ('American Government', 'ORG'), ('Senate', 'ORG'), ('Ethiopian Foreign Ministry', 'ORG'), ('ECA', 'ORG'), ('Crimes of Rape', 'WORK_OF_ART'), ('Abebe', 'PERSON'), ('26 January 2003', 'DATE'), ('Dodd', 'PERSON'), ('ECA Complex', 'PRODUCT'), ('John Kerry', 'PERSON')]</t>
+  </si>
+  <si>
+    <t>[('United States of America', 'GPE'), ('John Negroponte', 'PERSON'), ('Senate', 'ORG'), ('One', 'CARDINAL'), ('Office of Internal Oversight Services', 'ORG'), ('ECA', 'ORG'), ('United States', 'GPE'), ('UN Rules and Regulations', 'ORG'), ('Dodd', 'PERSON'), ('OIOS', 'ORG'), ('John Kerry', 'PERSON'), ('Africa', 'LOC'), ('UN', 'ORG')]</t>
+  </si>
+  <si>
+    <t>[('25 years', 'DATE'), ('APPLICABLE LAW\n\nRegulation', 'WORK_OF_ART'), ('1.2', 'CARDINAL'), ('November 2003', 'DATE'), ('ECA', 'ORG')]</t>
+  </si>
+  <si>
+    <t>[('Hiwot Abebe', 'PERSON'), ('UN System', 'ORG'), ('United States of America', 'GPE'), ('Senate', 'ORG'), ('Ethiopian Foreign Ministry', 'ORG'), ('ECA', 'ORG'), ('Crimes of Rape', 'WORK_OF_ART'), ('26 January 2003', 'DATE'), ('Dodd', 'PERSON'), ('ECA Complex', 'PRODUCT'), ('John Kerry', 'PERSON')]</t>
+  </si>
+  <si>
+    <t>[('Barclays in Seychelles', 'ORG'), ('first', 'ORDINAL'), ('DSA', 'ORG'), ('ACGD Officer', 'ORG'), ('UNDP', 'ORG'), ('Official 2', 'LAW'), ('ECA', 'ORG'), ('17 February 1999', 'DATE'), ('18 February 1999', 'DATE')]</t>
+  </si>
+  <si>
+    <t>[('DSA', 'ORG'), ('ACGD Officer', 'ORG'), ('Official 4', 'LAW'), ('Bank', 'ORG'), ('ID/OIOS Investigators', 'ORG'), ('one', 'CARDINAL')]</t>
+  </si>
+  <si>
+    <t>[('2', 'CARDINAL'), ('BTF', 'ORG'), ('1', 'CARDINAL'), ('May 2000', 'DATE'), ('UNEP', 'ORG'), ('3', 'CARDINAL'), ('about a year', 'DATE')]</t>
+  </si>
+  <si>
+    <t>[('United Nations Environment Programme', 'ORG'), ('Post-Conflict Assessment Unit', 'ORG'), ('1,UNEP', 'CARDINAL'), ('two', 'CARDINAL'), ('UNEP/PCAU Consultant', 'ORG'), ('UNEP Staff', 'ORG'), ('2', 'CARDINAL'), ('Office of Internal Oversight Services', 'ORG'), ('BTF', 'ORG'), ('fifty percent', 'PERCENT'), ('PCAU', 'ORG'), ('UNEP', 'ORG'), ('Balkans Task Force', 'ORG')]</t>
+  </si>
+  <si>
+    <t>[('UNEP', 'ORG'), ('BTF', 'ORG'), ('UNEP/PCAU Consultant', 'ORG'), ('1', 'CARDINAL')]</t>
+  </si>
+  <si>
+    <t>[('UNOPS', 'ORG'), ('United Nations', 'ORG'), ('BTF', 'ORG'), ('6', 'CARDINAL'), ('Financial Regulation', 'ORG'), ('UNEP', 'ORG')]</t>
+  </si>
+  <si>
+    <t>[('UNMIK', 'ORG'), ('Iceland', 'GPE'), ('Internal Audit Department', 'ORG'), ('ITF', 'ORG'), ('Airport', 'ORG'), ('KTA', 'ORG'), ('ICAA', 'ORG')]</t>
+  </si>
+  <si>
+    <t>[('Pristina Airport', 'FAC'), ('ICAA', 'ORG'), ('Violations of Procurement Procedures - Insurance', 'ORG'), ('April 2004', 'DATE'), ('Investigation Task Force', 'ORG'), ('1 April 2004', 'DATE'), ('1', 'CARDINAL'), ('Iceland', 'GPE'), ('WPVI', 'PERSON'), ('UNMIK', 'ORG')]</t>
+  </si>
+  <si>
+    <t>[('October 2003', 'DATE'), ('October 2004', 'DATE'), ('Pristina Airport', 'FAC'), ('more than $125,000 USD', 'MONEY'), ('Insurance Company 1', 'ORG'), ('London', 'GPE'), ('Investigation Task Force', 'ORG'), ('UNMIK Pillar II', 'ORG'), ('Pristina International Airport', 'FAC'), ('a further year', 'DATE'), ('Kosovo Trust Agency', 'ORG'), ('Department of Justice', 'ORG'), ('Kosovo Consolidated Funds', 'ORG'), ('2002', 'DATE'), ('2003', 'DATE')]</t>
+  </si>
+  <si>
+    <t>[('Pristina Airport', 'FAC'), ('summer', 'DATE'), ('IAU', 'ORG'), ('Vendor 2', 'PERSON'), ('Bid Evaluation Committee', 'ORG'), ('Finance Department', 'ORG'), ('1', 'CARDINAL'), ('28', 'CARDINAL'), ('Vendor 1', 'ORG'), ('one', 'CARDINAL'), ('Procurement', 'PRODUCT')]</t>
+  </si>
+  <si>
+    <t>[('three', 'CARDINAL'), ('Pristina Airport', 'FAC'), ('Procurement Officer 1', 'PRODUCT'), ('18-06-04', 'DATE'), ('one', 'CARDINAL'), ('Vendor 2', 'PERSON'), ('Pristina Airport Official', 'FAC'), ('23', 'CARDINAL'), ('Vendor 1', 'PERSON'), ('10', 'CARDINAL'), ('summer', 'DATE'), ('1', 'CARDINAL'), ('two', 'CARDINAL'), ('106,059', 'MONEY'), ('Officer 1', 'LAW'), ('Investigation Details\n\nProcurement Officer 1', 'WORK_OF_ART'), ('a Bid Opening Committee', 'ORG'), ('a Bid Evaluation Committee', 'ORG')]</t>
+  </si>
+  <si>
+    <t>[('Bid Evaluation Committee\n\n Finance Officer', 'ORG'), ('Pristina Airport', 'FAC'), ('Committee', 'ORG'), ('first', 'ORDINAL'), ('2', 'CARDINAL'), ('Bid Evaluation Committee', 'ORG'), ('Procuring Entity', 'WORK_OF_ART'), ('Finance Department', 'ORG'), ('second', 'ORDINAL'), ('1', 'CARDINAL'), ('Bid Evaluation Committee\n\nProcurement Officer', 'ORG'), ('Finance', 'ORG'), ('15 December 1999', 'DATE')]</t>
+  </si>
+  <si>
+    <t>[('Vendor 2', 'PERSON'), ('Pristina', 'GPE'), ('2', 'CARDINAL'), ('1', 'CARDINAL')]</t>
+  </si>
+  <si>
+    <t>[('June 2002', 'DATE'), ('Civil Administration Pillar', 'ORG'), ('Pristina Airport', 'FAC'), ('2', 'CARDINAL'), ('DOTI', 'ORG'), ('Department of Transport and Infrastructure (DOTI', 'ORG'), ('31 July 2000', 'DATE'), ('Airport Engineer 1', 'ORG'), ('Official 1 and Official 2', 'LAW'), ('Pillar II', 'EVENT'), ('United Nations', 'ORG'), ('1', 'CARDINAL'), ('UNMIK Directorate of Infrastructure Affairs', 'ORG'), ('Consulting Firm', 'ORG'), ('3', 'CARDINAL'), ('30 September 2001', 'DATE'), ('UNMIK', 'ORG')]</t>
+  </si>
+  <si>
+    <t>[('Peja', 'LOC'), ('Evaluation Committee', 'ORG'), ('Vendor 2’s', 'PERSON'), ('Vendor 2', 'PERSON'), ('Vendor 1', 'PERSON'), ('English', 'LANGUAGE'), ('one', 'CARDINAL')]</t>
+  </si>
+  <si>
+    <t>[('June 2002', 'DATE'), ('Civil Administration Pillar', 'ORG'), ('Pristina Airport', 'FAC'), ('Consulting Company', 'ORG'), ('2', 'CARDINAL'), ('DOTI', 'ORG'), ('31 July 2000', 'DATE'), ('Army', 'ORG'), ('Airport Engineer 1', 'ORG'), ('3', 'CARDINAL'), ('1', 'CARDINAL'), ('Official 1 and Official 2 Department of Transport and Infrastructure (DOTI', 'LAW'), ('UNMIK Directorate of Infrastructure Affairs', 'ORG'), ('one', 'CARDINAL'), ('UN', 'ORG'), ('30 September 2001', 'DATE'), ('UNMIK', 'ORG')]</t>
+  </si>
+  <si>
+    <t>[('Divisional', 'ORG'), ('2', 'CARDINAL'), ('31 July 2000', 'DATE'), ('Pillar', 'ORG'), ('UN', 'ORG'), ('Airport Engineer 1', 'ORG'), ('Consulting Company', 'ORG'), ('DOTI', 'ORG'), ('Official 1 and Official 2 Department of Transport and Infrastructure (DOTI', 'LAW'), ('UNMIK Directorate of Infrastructure Affairs', 'ORG'), ('one', 'CARDINAL'), ('1 July 2002', 'DATE'), ('1 April 2004', 'DATE'), ('Official 3', 'LAW'), ('Pristina International Airport', 'EVENT'), ('June 2002', 'DATE'), ('Civil Administration Pillar', 'ORG'), ('Pristina Airport', 'FAC'), ('Army', 'ORG'), ('Pillar II', 'EVENT'), ('1', 'CARDINAL'), ('Airport', 'PERSON'), ('KFOR', 'ORG'), ('Kosovo Trust Agency', 'ORG'), ('3', 'CARDINAL'), ('30 September 2001', 'DATE'), ('UNMIK', 'ORG')]</t>
+  </si>
+  <si>
+    <t>[('1,188', 'MONEY'), ('Security Official', 'ORG'), ('66', 'CARDINAL'), ('three months', 'DATE'), ('1 August 2003', 'DATE'), ('5', 'CARDINAL'), ('99', 'CARDINAL'), ('1188', 'MONEY'), ('Airport', 'PERSON'), ('1 July 2003', 'DATE'), ('4 July 2003', 'DATE'), ('August 2003', 'DATE'), ('two', 'CARDINAL'), ('792', 'MONEY'), ('Two', 'CARDINAL')]</t>
+  </si>
+  <si>
+    <t>[('only three months', 'DATE'), ('two', 'CARDINAL'), ('one month', 'DATE'), ('Airport', 'PERSON')]</t>
+  </si>
+  <si>
+    <t>[('Divisional', 'ORG'), ('Pristina Airport', 'FAC'), ('Vendor 3', 'PERSON'), ('summer', 'DATE'), ('April 2003', 'DATE'), ('two', 'CARDINAL'), ('Security Official', 'ORG')]</t>
+  </si>
+  <si>
+    <t>[('4', 'CARDINAL'), ('80,198', 'MONEY'), ('157,060', 'MONEY'), ('Vendor 2', 'PERSON'), ('four', 'CARDINAL'), ('1', 'CARDINAL'), ('27 November 2002', 'DATE'), ('86,850', 'MONEY'), ('8', 'CARDINAL'), ('two', 'CARDINAL'), ('3', 'CARDINAL'), ('6 December 2002', 'DATE')]</t>
+  </si>
+  <si>
+    <t>[('10 June 1999', 'DATE'), ('Pristina Airport', 'FAC'), ('2001', 'DATE'), ('Yugoslavian', 'NORP'), ('Pillar', 'ORG'), ('Investigation Task Force', 'ORG'), ('Kosovo Force', 'ORG'), ('UNMIK Regulation', 'ORG'), ('BACKGROUND INFORMATION\n\nPristina', 'ORG'), ('25 July 1999', 'DATE'), ('Kosovo', 'GPE'), ('Pristina International Airport', 'FAC'), ('International Airport', 'FAC'), ('United Nations Security Council', 'ORG'), ('2003', 'DATE'), ('UNMIK', 'ORG')]</t>
+  </si>
+  <si>
+    <t>[('Procurement Regulation', 'ORG'), ('2', 'CARDINAL')]</t>
+  </si>
+  <si>
+    <t>[('2', 'CARDINAL'), ('Airport Management', 'ORG'), ('Vendor 2', 'PERSON'), ('Capital Expenditure Approval', 'ORG'), ('Background Information\n\n Single Source Procurement (Purchase', 'ORG'), ('Vendor 1', 'PERSON'), ('1', 'CARDINAL'), ('17 October 2002', 'DATE'), ('Single', 'LOC'), ('March 2004', 'DATE'), ('13 December 2002', 'DATE'), ('15.919', 'CARDINAL'), ('Competitive Shopping', 'PERSON'), ('FIDS', 'ORG'), ('non-Airport', 'FAC')]</t>
+  </si>
+  <si>
+    <t>[('Airport Engineer', 'ORG'), ('30 August 2004', 'DATE'), ('2', 'CARDINAL'), ('Airport Management', 'ORG'), ('Vendor 1', 'PERSON'), ('11 October 2004', 'DATE'), ('Kosovo', 'GPE'), ('Airport', 'PERSON'), ('FIDS', 'ORG')]</t>
+  </si>
+  <si>
+    <t>[('Divisional', 'ORG'), ('2', 'CARDINAL'), ('Capital Expenditure Approval', 'ORG'), ('Pillar', 'ORG'), ('Capital Expenditure', 'ORG'), ('10 April 2003', 'DATE'), ('Vendor', 'ORG'), ('29th May 2003', 'DATE'), ('29 May 2003', 'DATE'), ('20 June 2003', 'DATE'), ('KTA', 'ORG'), ('7 March 2003', 'DATE'), ('Evaluation Committee', 'ORG'), ('Pristina Airport', 'FAC'), ('19 June 2003', 'DATE'), ('4 April 2003', 'DATE'), ('Procuring Entity', 'WORK_OF_ART'), ('Kosovo Trust Agency', 'ORG'), ('UNMIK', 'ORG')]</t>
+  </si>
+  <si>
+    <t>[('Kosovars', 'PRODUCT'), ('Airport General Services', 'ORG'), ('Pristina Airport', 'FAC'), ('Load Sheets', 'WORK_OF_ART'), ('Price List for Basic Airport Services', 'WORK_OF_ART'), ('676.44', 'MONEY'), ('1 January 2002', 'DATE'), ('Airport Handling Services Department', 'ORG'), ('50%', 'PERCENT'), ('Euros', 'PERSON'), ('1074', 'CARDINAL')]</t>
+  </si>
+  <si>
+    <t>[('Pristina Airport', 'FAC'), ('Handling Services Department', 'ORG'), ('Price List for Basic Airport Services', 'WORK_OF_ART'), ('Airport Pristina', 'ORG')]</t>
+  </si>
+  <si>
+    <t>[('Airport', 'GPE'), ('Pristina Airport', 'FAC'), ('May 2004', 'DATE'), ('Management Letter', 'ORG'), ('2003', 'DATE')]</t>
+  </si>
+  <si>
+    <t>[('Pristina Airport', 'FAC'), ('May 2004', 'DATE'), ('53', 'CARDINAL'), ('Management Letter', 'ORG'), ('54', 'DATE'), ('2003', 'DATE')]</t>
+  </si>
+  <si>
+    <t>[('15', 'MONEY'), ('Pristina Airport', 'FAC'), ('UK', 'GPE'), ('Official', 'ORG'), ('U.K. Immigration', 'ORG')]</t>
+  </si>
+  <si>
+    <t>[('Pristina', 'PERSON'), ('Airport', 'GPE'), ('Pristina Airport', 'FAC'), ('UNMIK CIVPOL', 'ORG')]</t>
+  </si>
+  <si>
+    <t>[('22 July 2004', 'DATE'), ('Pristina Airport', 'FAC'), ('Immigration Department', 'ORG'), ('25', 'CARDINAL'), ('Handling Services Department', 'ORG'), ('Airline', 'ORG'), ('Kosovar', 'ORG')]</t>
+  </si>
+  <si>
+    <t>[('May and June 2004', 'DATE'), ('Pristina Airport', 'FAC'), ('Official 1 and Official 2', 'LAW'), ('MTOW', 'ORG')]</t>
+  </si>
+  <si>
+    <t>[('CIVPOL', 'NORP'), ('Pristina Airport', 'FAC'), ('Immigration Department', 'ORG'), ('Securicor', 'ORG'), ('UNMIK CIVPOL', 'ORG'), ('25', 'CARDINAL'), ('Thursday', 'DATE'), ('UK', 'GPE'), ('U.K. Immigration Department', 'ORG'), ('European', 'NORP'), ('Pristina', 'GPE'), ('Securicor', 'PERSON'), ('BACKGROUND INFORMATION\n\n Airline', 'ORG'), ('II', 'CARDINAL'), ('Kosovar', 'ORG'), ('European Airport', 'LOC')]</t>
+  </si>
+  <si>
+    <t>[('Border Boundary Police', 'ORG'), ('5,200', 'MONEY'), ('Regional Crime Squad Pristina Region', 'ORG'), ('UNMIK Police', 'ORG'), ('27 September 2004', 'DATE'), ('two', 'CARDINAL')]</t>
+  </si>
+  <si>
+    <t>[('5,200', 'MONEY'), ('Pristina Airport', 'FAC'), ('Airport Engineer', 'ORG'), ('5000', 'MONEY'), ('September 2002', 'DATE'), ('2', 'CARDINAL'), ('ITF Case No', 'WORK_OF_ART'), ('one day', 'DATE'), ('0274/04', 'CARDINAL'), ('KTA Procurement Specialist', 'ORG'), ('26', 'CARDINAL')]</t>
+  </si>
+  <si>
+    <t>[('Divisional', 'ORG'), ('UNMIK Pillar IV', 'ORG'), ('Article 344 of  Provisional Criminal Code of Kosovo', 'LAW'), ('4 October 2002', 'DATE'), ('Pristina International Airport', 'FAC'), ('5200', 'MONEY'), ('1', 'CARDINAL'), ('approximately 8', 'CARDINAL'), ('29 April 2004', 'DATE'), ('Public Enterprise Airport Pristina', 'ORG'), ('October 2002', 'DATE'), ('UNITED NATIONS', 'ORG')]</t>
+  </si>
+  <si>
+    <t>[('BACKGROUND INFORMATION\n\n', 'WORK_OF_ART'), ('Divisional', 'ORG'), ('Euro', 'ORG'), ('5,200', 'MONEY'), ('Fush', 'GPE'), ('11 October 2002', 'DATE'), ('Kosovo', 'GPE'), ('8 October 2002', 'DATE'), ('UNMIK Police', 'ORG'), ('29 April 2004', 'DATE'), ('ITF', 'ORG'), ('October 2002', 'DATE'), ('UNMIK', 'ORG')]</t>
+  </si>
+  <si>
+    <t>[('Divisional', 'ORG'), ('KTA Procurement Specialist', 'WORK_OF_ART'), ('5,200', 'MONEY'), ('11 October 2002', 'DATE'), ('Border Police Investigations Unit', 'ORG'), ('1', 'CARDINAL'), ('Kosovo', 'GPE'), ('UNMIK Police Officer', 'ORG'), ('UNMIK Police', 'ORG'), ('November 2002', 'DATE'), ('between June 2001', 'DATE'), ('Iraq', 'GPE')]</t>
+  </si>
+  <si>
+    <t>[('three', 'CARDINAL'), ('KTA Procurement Specialist', 'WORK_OF_ART'), ('Pristina Airport', 'FAC'), ('1', 'CARDINAL'), ('two', 'CARDINAL')]</t>
+  </si>
+  <si>
+    <t>[('Divisional', 'ORG'), ('31 July 2000', 'DATE'), ('25 July 1999', 'DATE'), ('Pillar', 'ORG'), ('Air Traffic Control Services', 'ORG'), ('Airport Sector', 'PERSON'), ('2003', 'DATE'), ('DOTI', 'ORG'), ('Department of Transport and Infrastructure (DOTI', 'ORG'), ('Kosovo', 'GPE'), ('UNMIK Directorate of Infrastructure Affairs', 'ORG'), ('Consulting Firm\n\n', 'WORK_OF_ART'), ('1 July 2002', 'DATE'), ('10 June 1999', 'DATE'), ('2001', 'DATE'), ('Yugoslavian', 'NORP'), ('Investigation Task Force', 'ORG'), ('Pristina International Airport', 'FAC'), ('1 April 2004', 'DATE'), ('Pristina International Airport', 'EVENT'), ('June 2002', 'DATE'), ('Civil Administration Pillar', 'ORG'), ('Pristina Airport', 'FAC'), ('Official 1 and Official 2', 'LAW'), ('Kosovo Force', 'ORG'), ('UNMIK Regulation', 'ORG'), ('Pillar II', 'EVENT'), ('1', 'CARDINAL'), ('Airport', 'PERSON'), ('International Airport', 'FAC'), ('KFOR', 'ORG'), ('Kosovo Trust Agency', 'ORG'), ('United Nations Security Council', 'ORG'), ('3', 'CARDINAL'), ('30 September 2001', 'DATE'), ('UNMIK', 'ORG')]</t>
+  </si>
+  <si>
+    <t>[('Complicity', 'GPE'), ('2', 'CARDINAL'), ('Provisional Kosovo Criminal Code', 'ORG'), ('SFRY', 'ORG'), ('KCC', 'ORG'), ('Department of Justice', 'ORG'), ('Kosovo Criminal Code', 'EVENT'), ('Fraud', 'GPE'), ('16th', 'ORDINAL'), ('PCCK', 'ORG'), ('one to ten years', 'DATE'), ('Article 23', 'LAW'), ('14th March 2004', 'DATE'), ('Fraud in Service', 'ORG'), ('Article 215', 'LAW'), ('Official 1 and Official 2', 'LAW'), ('Article 22 of Criminal Code of', 'LAW'), ('1', 'CARDINAL'), ('26 July 2004', 'DATE'), ('Airport Pristina', 'ORG'), ('March 2004', 'DATE'), ('Article 341', 'LAW')]</t>
+  </si>
+  <si>
+    <t>[('Partner 1', 'LAW'), ('Pristina Airport', 'FAC'), ('8,000.00', 'MONEY'), ('2004', 'DATE'), ('Airport X-Ray Operator', 'PERSON'), ('8,000', 'MONEY'), ('approximately €32,000.00', 'MONEY'), ('Cargo Department', 'ORG'), ('Company Representative', 'ORG'), ('Cargo Department Finance Office', 'ORG'), ('23rd of December 2003 to 15th of March 2004', 'DATE'), ('ITF', 'ORG'), ('16th of March 2004', 'DATE'), ('Official 1', 'LAW'), ('2003', 'DATE'), ('between  two', 'CARDINAL')]</t>
+  </si>
+  <si>
+    <t>[('4', 'CARDINAL'), ('Partner 3', 'LAW'), ('Custom Duties', 'ORG'), ('Cargo Handling Office', 'ORG'), ('Official 1’s', 'LAW'), ('1', 'CARDINAL'), ('Company Representative', 'ORG'), ('Storage', 'GPE'), ('Finance', 'ORG'), ('VAT', 'ORG'), ('Official 2’s', 'LAW')]</t>
+  </si>
+  <si>
+    <t>[('10 June 1999', 'DATE'), ('Provisional Criminal Code', 'LAW'), ('Authority of  Interim Administration', 'ORG'), ('APPLICABLE TERRITORIAL LAWS:\n\nPursuant', 'WORK_OF_ART'), ('Article 340 (Misappropriation in Office', 'LAW'), ('Kosovo', 'GPE'), ('United Nations Interim Administration Mission', 'ORG'), ('July 1999', 'DATE'), ('Article 339 (Abusing Official Position of Authority', 'LAW'), ('Article 341', 'LAW'), ('Fraud in Office', 'ORG'), ('22 March 1989', 'DATE'), ('1999', 'DATE'), ('United Nations Security Council', 'ORG')]</t>
+  </si>
+  <si>
+    <t>[('Bank in Pristina', 'ORG'), ('Pristina Airport', 'FAC'), ('UNMIK Pillar IV', 'ORG'), ('PISG', 'ORG'), ('February 2003', 'DATE'), ('21 October 2003', 'DATE'), ('UNMIK Bank Account', 'ORG'), ('Kosovo', 'GPE'), ('Investigation Task Force UNMIK/ED/2003/16', 'ORG'), ('Public Enterprise Airport Pristina', 'ORG'), ('INTRODUCTION\n\n Investigation Task Force (ITF', 'WORK_OF_ART'), ('Kosovo Trust Agency', 'ORG'), ('European Union', 'ORG'), ('UNMIK', 'ORG')]</t>
+  </si>
+  <si>
+    <t>[('20 July 2001', 'DATE'), ('Pristina Airport', 'FAC'), ('03 March 2004', 'DATE'), ('Supply of Aviation Fuel and  Refueling of Commercial Civilian Aircraft', 'WORK_OF_ART'), ('UNMIK Bank Account', 'ORG'), ('BACKGROUND INFORMATION\n\n DCDM Audit Report', 'WORK_OF_ART'), ('Contract', 'PERSON'), ('13 and', 'DATE'), ('UNMIK', 'ORG')]</t>
+  </si>
+  <si>
+    <t>[('Liberia', 'GPE'), ('UNMIL\n\n Investigations Division of  Office of Internal Oversight Services', 'ORG')]</t>
+  </si>
+  <si>
+    <t>[('Security Council Resolution 1509', 'ORG'), ('February 2004', 'DATE'), ('International', 'ORG'), ('8 July 2004', 'DATE'), ('four', 'CARDINAL'), ('19 September 2003', 'DATE'), ('United Nations', 'ORG'), ('"Fuel Management in UNMIL', 'WORK_OF_ART'), ('BACKGROUND', 'ORG'), ('UNMIL Fuel Cell', 'WORK_OF_ART'), ('Mission des Nations Unies', 'ORG'), ('République Démocratique de Congo', 'PERSON'), ('January', 'DATE'), ('IAD1', 'GPE'), ('II', 'CARDINAL'), ('30 June 2004', 'DATE'), ('20', 'CARDINAL'), ('National', 'ORG')]</t>
+  </si>
+  <si>
+    <t>[('Nairobi', 'GPE'), ('UNON', 'ORG'), ('Official 1', 'PRODUCT'), ('13 February 2005', 'DATE'), ('UNON Management by UNON', 'ORG'), ('UNON Management', 'ORG'), ('United Nations Co-operative', 'ORG'), ('Investigations Division of  Office of Internal Oversight Services', 'ORG'), ('United Nations Children’s Fund/Somalia Support Centre', 'ORG'), ('Savings', 'ORG'), ('Credit Society Limited', 'ORG'), ('United Nations Office', 'ORG'), ('Somalia', 'GPE'), ('UN', 'ORG'), ('United Nations Agencies', 'ORG')]</t>
+  </si>
+  <si>
+    <t>[('Nairobi', 'GPE'), ('UNON Managers', 'ORG'), ('UNON Management by UNON', 'ORG'), ('14', 'CARDINAL'), ('UNON Management', 'ORG'), ('18 February 2005', 'DATE'), ('United Nations Children’s Fund/Somalia Support Centre', 'ORG'), ('ID/OIOS Investigators', 'ORG'), ('ID/OIOS Management', 'ORG'), ('Somalia', 'GPE'), ('two', 'CARDINAL'), ('UN', 'ORG'), ('United Nations Agencies', 'ORG'), ('ID/OIOS Investigation', 'ORG')]</t>
+  </si>
+  <si>
+    <t>[('ID/OIOS', 'ORG'), ('one', 'CARDINAL'), ('UN', 'ORG'), ('UNICEF', 'ORG')]</t>
+  </si>
+  <si>
+    <t>[('ID/OIOS', 'ORG'), ('UNON', 'ORG'), ('January 2005', 'DATE'), ('ID/OIOS Investigators', 'ORG'), ('two years', 'DATE'), ('one', 'CARDINAL'), ('UN', 'ORG')]</t>
+  </si>
+  <si>
+    <t>[('UNON', 'ORG'), ('Documentation', 'ORG'), ('United Nations', 'ORG'), ('about one thousand', 'CARDINAL'), ('about 2,500', 'CARDINAL'), ('ID/OIOS Investigators', 'ORG'), ('Additional Investigative', 'ORG'), ('UN', 'ORG')]</t>
+  </si>
+  <si>
+    <t>[('Nairobi', 'GPE'), ('UNICEF/Somalia', 'ORG'), ('11 February 2005', 'DATE'), ('Attachment 5', 'DATE'), ('UNICEF Somalia', 'ORG'), ('UN', 'ORG'), ('only approximately 20', 'CARDINAL'), ('UNICEF/Somalia Management', 'ORG')]</t>
+  </si>
+  <si>
+    <t>[('Credit Committee', 'ORG'), ('National Identification Card', 'ORG'), ('UN', 'ORG'), ('six', 'CARDINAL')]</t>
+  </si>
+  <si>
+    <t>[('Recommendation 1: It', 'LAW'), ('Recommendation 5', 'LAW'), ('UNON', 'ORG')]</t>
+  </si>
+  <si>
+    <t>[('1.2', 'CARDINAL'), ('United Nations ST/SGB/2003/7', 'ORG'), ('5.12', 'CARDINAL'), ('Financial Regulations and Rules', 'ORG')]</t>
+  </si>
+  <si>
+    <t>[('Divisional', 'ORG'), ('31 July 2000', 'DATE'), ('25 July 1999', 'DATE'), ('Pillar', 'ORG'), ('Air Traffic Control Services', 'ORG'), ('Airport Sector', 'PERSON'), ('Consulting Firm', 'ORG'), ('2003', 'DATE'), ('Airport Engineer 1', 'ORG'), ('DOTI', 'ORG'), ('Department of Transport and Infrastructure (DOTI', 'ORG'), ('Kosovo', 'GPE'), ('UNMIK Directorate of Infrastructure Affairs', 'ORG'), ('1 July 2002', 'DATE'), ('10 June 1999', 'DATE'), ('2001', 'DATE'), ('Yugoslavian', 'NORP'), ('Investigation Task Force', 'ORG'), ('Pristina International Airport', 'FAC'), ('1 April 2004', 'DATE'), ('Pristina International Airport', 'EVENT'), ('June 2002', 'DATE'), ('Civil Administration Pillar', 'ORG'), ('Pristina Airport', 'FAC'), ('Official 1 and Official 2', 'LAW'), ('Kosovo Force', 'ORG'), ('UNMIK Regulation', 'ORG'), ('Pillar II', 'EVENT'), ('1', 'CARDINAL'), ('United Nations', 'ORG'), ('Airport', 'PERSON'), ('International Airport', 'FAC'), ('KFOR', 'ORG'), ('Kosovo Trust Agency', 'ORG'), ('United Nations Security Council', 'ORG'), ('3', 'CARDINAL'), ('30 September 2001', 'DATE'), ('UNMIK', 'ORG')]</t>
+  </si>
+  <si>
+    <t>[('Toshiba', 'ORG'), ('February, 2002', 'DATE'), ('only  three', 'CARDINAL'), ('IBM', 'ORG'), ('DPKO Communications and Technology Services Division', 'ORG'), ('Sony', 'ORG'), ('Information Technology Services Division', 'ORG'), ('April 24, 2002', 'DATE'), ('Compaq', 'ORG'), ('CITS', 'ORG'), ('Compaq', 'WORK_OF_ART'), ('Bahel', 'PERSON'), ('PD', 'GPE'), ('Cabrera', 'PERSON'), ('36', 'CARDINAL'), ('April 15, 2002', 'DATE'), ('nine', 'CARDINAL'), ('Fujitsu', 'ORG'), ('NEC', 'ORG'), ('February 25, 2002', 'DATE'), ('Dell', 'ORG')]</t>
+  </si>
+  <si>
+    <t>[('26 January 2006', 'DATE'), ('2', 'CARDINAL'), ('Independent Inquiry Committee', 'ORG'), ('Headquarters Procurement Section', 'ORG'), ('United Nations', 'ORG'), ('Office of Internal Oversight Services', 'ORG'), ('1', 'CARDINAL'), ('Alexander Yakovlev', 'PERSON'), ('Oil for Food Programme', 'ORG'), ('Walter Cabrera', 'PERSON'), ('Procurement Task Force', 'ORG'), ('UN', 'ORG'), ('January 12, 2006', 'DATE'), ('Task Force', 'PRODUCT')]</t>
+  </si>
+  <si>
+    <t>[('Task Force’s', 'PRODUCT'), ('eight', 'CARDINAL'), ('more than 200', 'CARDINAL'), ('United Nations', 'ORG'), ('UN Missions', 'ORG'), ('UN Headquarters', 'ORG'), ('OIOS', 'ORG'), ('UN', 'ORG'), ('Terms of Reference', 'PRODUCT'), ('Task Force', 'PRODUCT')]</t>
+  </si>
+  <si>
+    <t>[('Cabrera', 'PERSON'), ('Secondly', 'ORDINAL'), ('United Nations', 'ORG'), ('LLC', 'ORG'), ('January 2006', 'DATE'), ('Telecommunications Consultants of India', 'ORG'), ('Walter Cabrera', 'PERSON'), ('First', 'ORDINAL'), ('UN Missions', 'ORG'), ('Task Force', 'PRODUCT')]</t>
+  </si>
+  <si>
+    <t>[('Thunderbird', 'ORG'), ('Task Force’s', 'PRODUCT'), ('first', 'ORDINAL'), ('Thunderbird', 'GPE'), ('HCC', 'ORG'), ('Cabrera', 'PERSON'), ('minutes', 'TIME'), ('Task Force', 'PRODUCT'), ('Bahel', 'PERSON'), ('an additional four weeks', 'DATE'), ('Thunderbird', 'PERSON'), ('one', 'CARDINAL'), ('IECS', 'ORG'), ('an additional two months', 'DATE'), ('over eight weeks', 'DATE')]</t>
+  </si>
+  <si>
+    <t>[('New York', 'GPE'), ('Thunderbird', 'PRODUCT'), ('Nishan Kohli', 'PERSON'), ('Cabrera', 'PERSON'), ('Thunderbird', 'GPE'), ('HCC', 'ORG'), ('Kohli', 'PERSON'), ('Bahel', 'PERSON'), ('LOI', 'ORG'), ('Walter Cabrera', 'PERSON'), ('Jane Redfern', 'PERSON'), ('UN', 'ORG'), ('annual', 'DATE'), ('Task Force', 'PRODUCT')]</t>
+  </si>
+  <si>
+    <t>[('July 18, 2002', 'DATE'), ('5,340,000', 'MONEY'), ('three', 'CARDINAL'), ('TCIL', 'ORG'), ('Committee', 'ORG'), ('ITB', 'ORG'), ('HCC', 'ORG'), ('DPKO', 'ORG'), ('Sanjaya Bahel', 'PERSON'), ('UN', 'ORG')]</t>
+  </si>
+  <si>
+    <t>[('Cabrera', 'PERSON'), ('ITB', 'ORG'), ('DPKO', 'ORG'), ('Bahel', 'PERSON'), ('LaCresta', 'ORG'), ('Sanjaya Bahel', 'PERSON'), ('Task Force', 'PRODUCT')]</t>
+  </si>
+  <si>
+    <t>[('Nishan Kohli', 'PERSON'), ('Thunderbird', 'PRODUCT'), ('Cabrera', 'PERSON'), ('Thunderbird', 'GPE'), ('Managing Partner', 'ORG'), ('July, 2002', 'DATE'), ('May, 2002', 'DATE'), ('LLC', 'ORG'), ('late December, 2002', 'DATE'), ('PD', 'GPE'), ('Procurement Department', 'ORG'), ('Sanjaya Bahel', 'PERSON'), ('Field Procurement', 'ORG'), ('Headquarters Committee on Contracts', 'ORG'), ('UN', 'ORG'), ('UN Missions', 'ORG')]</t>
+  </si>
+  <si>
+    <t>[('Cabrera', 'PERSON'), ('DPKO', 'ORG'), ('LaCresta', 'ORG'), ('Procurement Department', 'ORG'), ('La Cresta', 'PERSON'), ('PD', 'GPE'), ('Task Force', 'PRODUCT')]</t>
+  </si>
+  <si>
+    <t>[('Middle East Peace Process', 'LOC'), ('Pakistan', 'GPE'), ('Russia', 'GPE'), ('Space Corporation', 'ORG'), ('EADS', 'ORG'), ('Afghanistan', 'GPE'), ('two', 'CARDINAL'), ('Pernod Ricard', 'PERSON'), ('Patrick Ricard', 'PERSON'), ('Pernod Ricard', 'ORG'), ('Sahel', 'PERSON'), ('White House', 'ORG'), ('China', 'GPE'), ('Turkey', 'GPE'), ('second', 'ORDINAL'), ('Somalia', 'GPE'), ('European Aeronautic', 'ORG'), ('Sarkozy', 'PERSON'), ('Vimont', 'PERSON'), ('Yemen', 'GPE'), ('European', 'NORP'), ('Iran', 'GPE'), ('U.S.', 'GPE'), ('Levitte', 'PERSON')]</t>
+  </si>
+  <si>
+    <t>[('Sensitive Issues', 'WORK_OF_ART'), ('Next Week', 'DATE'), ('Vimont', 'PERSON'), ('France', 'GPE'), ('Pierre Vimont', 'PERSON'), ('Jean-David Levitte', 'PERSON'), ('Sarkozy', 'PERSON'), ('Agenda When French', 'WORK_OF_ART'), ('31 March', 'DATE'), ('Afghanistan', 'GPE'), ('Levitte', 'PERSON'), ('French', 'NORP'), ('two', 'CARDINAL'), ('U.S.', 'GPE'), ('Washington', 'GPE'), ('last week', 'DATE')]</t>
+  </si>
+  <si>
+    <t>[('National Security Agency', 'ORG'), ('France', 'GPE'), ('Pierre Vimont', 'PERSON'), ('Jean-David Levitte', 'PERSON'), ('March 24, 2010', 'DATE'), ('D.C.', 'GPE'), ('Nicolas Sarkozy', 'PERSON'), ('Barack Obama', 'PERSON'), ('United States', 'GPE'), ('European Aeronautic Defence', 'ORG'), ('EADS', 'ORG'), ('Afghanistan', 'GPE'), ('French', 'NORP'), ('Sarkozy', 'PERSON'), ('Washington', 'GPE'), ('between  French', 'CARDINAL'), ('Pernod Ricard', 'PERSON')]</t>
+  </si>
+  <si>
+    <t>[('Pristina Airport', 'FAC'), ('28 February 2003', 'DATE'), ('seven', 'CARDINAL'), ('two', 'CARDINAL'), ('Pillar', 'ORG'), ('Investigation Task Force', 'ORG'), ('Pristina International Airport', 'FAC'), ('Chartered Accountants', 'ORG'), ('one', 'CARDINAL'), ('one month', 'DATE')]</t>
+  </si>
+  <si>
+    <t>[('25 July 1999', 'DATE'), ('Pillar', 'ORG'), ('Airport Sector', 'PERSON'), ('2003', 'DATE'), ('Kosovo', 'GPE'), ('1 July 2002', 'DATE'), ('10 June 1999', 'DATE'), ('2001', 'DATE'), ('Yugoslavian', 'NORP'), ('Pristina International Airport', 'FAC'), ('1 April 2004', 'DATE'), ('Pristina International Airport', 'EVENT'), ('BACKGROUND INFORMATION\n\nPristina International Airport', 'WORK_OF_ART'), ('Kosovo Force', 'ORG'), ('UNMIK Regulation', 'ORG'), ('Airport', 'PERSON'), ('Pillar II', 'EVENT'), ('KFOR', 'ORG'), ('Kosovo Trust Agency', 'ORG'), ('United Nations Security Council', 'ORG'), ('UNMIK', 'ORG')]</t>
+  </si>
+  <si>
+    <t>[('10 June 1999', 'DATE'), ('2001', 'DATE'), ('Yugoslavian', 'NORP'), ('BACKGROUND INFORMATION\n\nPristina International Airport', 'WORK_OF_ART'), ('25 July 1999', 'DATE'), ('Kosovo Force', 'ORG'), ('UNMIK Regulation', 'ORG'), ('Kosovo', 'GPE'), ('Pristina International Airport', 'FAC'), ('United Nations Security Council', 'ORG'), ('2003', 'DATE'), ('UNMIK', 'ORG')]</t>
+  </si>
+  <si>
+    <t>[('AUS', 'GPE'), ('today', 'DATE'), ('France', 'GPE'), ('TS//SI//REL TO USA', 'ORG'), ('Jean-David Levitte', 'PERSON'), ('Release List of U.S. Firms', 'ORG'), ('Jean\xad David Levitte', 'PERSON'), ('U.S. Congress', 'ORG'), ('Iraqi', 'NORP'), ('Levitte', 'PERSON'), ('French', 'NORP'), ('NZL', 'ORG'), ('UN', 'ORG'), ('Washington', 'GPE'), ('U.S.', 'GPE'), ('Iraq Survey Group', 'ORG')]</t>
+  </si>
+  <si>
+    <t>[('Airport', 'took', 24), ('irregularity', 'took', 24), ('Vendor', 'involving', 9), ('part', 'took', 24), ('companies', 'have', 81), ('residences', 'have', 81), ('Vendor', 'submitted', 98), ('Supply', 'submitted', 98), ('company', 'provide', 145), ('offer', 'provide', 145), ('competitors', 'offered', 187), ('prices', 'offered', 187), ('competitors', 'offered', 231), ('prices', 'offered', 231)]</t>
+  </si>
+  <si>
+    <t>[('details', 'admitted', 23), ('Vendor', 'admitted', 23), ('fact', 'put', 41), ('Vendor', 'took', 34), ('part', 'took', 34), ('competitors', 'put', 41), ('companies', 'exchanged', 54), ('information', 'exchanged', 54), ('companies', 'exist', 75), ('bids', 'submitted', 77), ('investigation', 'found', 101), ('reference', 'found', 101), ('ITF', 'contacted', 172), ('Prosecutor', 'contacted', 172)]</t>
   </si>
   <si>
     <t>[('memorandum', 'update', 9), ('issues', 'providing', 4), ('rise', 'give', 35), ('document', 'contains', 84), ('dates', 'contains', 84), ('which', 'post', 94), ('date', 'post', 94), ('memorandum', 'states', 107)]</t>
   </si>
   <si>
-    <t>[('who', 'carried', 30), ('tasks', 'carried', 30), ('session', 'attended', 79), ('This', 'indicates', 86), ('composition', 'overlapped', 99), ('He', 'added', 136), ('she', 'added', 136), ('people', 'signed', 144), ('who', 'evaluated', 141), ('offers', 'evaluated', 141), ('report', 'signed', 144), ('which', 'segregate', 158), ('roles', 'segregate', 158), ('memorandum', 'indicates', 170)]</t>
-  </si>
-  <si>
-    <t>[('Manager', 'stated', 11), ('documents', 'seeing', 15), ('it', 'appear', 28), ('one', 'assume', 58), ('degree', 'assume', 58), ('ITF', 'notes', 69), ('Official', 'indicated', 74), ('work', 'certifying', 86), ('he', 'commented', 93), ('she', 'commented', 93), ('engineer', 'questioned', 100), ('it', 'questioned', 100), ('ITF', 'have', 108), ('knowledge', 'have', 108), ('adequacy', 'assess', 113), ('letter', 'dated', 134), ('rise', 'gives', 138)]</t>
-  </si>
-  <si>
-    <t>[('DETAILS', 'relates', 9), ('part', 'relates', 9), ('Allegation', 'comply', 53), ('documents', 'comply', 53), ('Funds', 'using', 70), ('instructions', 'include', 86), ('note', 'indicates', 116), ('design', 'produce', 124), ('design', 'provided', 139)]</t>
+    <t>[('who', 'carried', 30), ('tasks', 'carried', 30), ('session', 'attended', 77), ('This', 'indicates', 84), ('composition', 'overlapped', 97), ('He', 'added', 134), ('she', 'added', 134), ('that', 'added', 134), ('who', 'evaluated', 139), ('offers', 'evaluated', 139), ('report', 'evaluated', 139), ('which', 'segregate', 156), ('roles', 'segregate', 156), ('memorandum', 'indicates', 168)]</t>
+  </si>
+  <si>
+    <t>[('Manager', 'stated', 11), ('documents', 'seeing', 15), ('it', 'appear', 28), ('one', 'assume', 58), ('degree', 'assume', 58), ('ITF', 'notes', 68), ('Official', 'indicated', 73), ('Vendor', 'certifying', 85), ('work', 'certifying', 85), ('he', 'commented', 92), ('she', 'commented', 92), ('engineer', 'questioned', 99), ('it', 'questioned', 99), ('ITF', 'have', 106), ('knowledge', 'have', 106), ('adequacy', 'assess', 111), ('letter', 'dated', 132), ('rise', 'gives', 136)]</t>
+  </si>
+  <si>
+    <t>[('DETAILS', 'relates', 9), ('part', 'relates', 9), ('Allegation', 'comply', 53), ('Funds', 'using', 70), ('instructions', 'include', 86), ('note', 'indicates', 116), ('design', 'produce', 124), ('design', 'provided', 139)]</t>
   </si>
   <si>
     <t>[('committee', 'notes', 18), ('documents', 'include', 25), ('instructions', 'include', 25), ('documents', 'suggest', 65), ('documents', 'comply', 72), ('Funds', 'using', 86), ('documents', 'complied', 107), ('Funds', 'using', 124), ('Official', 'conceded', 133), ('question', 'asked', 139), ('he', 'indicate', 147), ('she', 'indicate', 147)]</t>
   </si>
   <si>
-    <t>[('II', 'supervised', 39), ('Official', 'supervised', 39), ('Official', 'left', 71)]</t>
+    <t>[('II', 'supervised', 39), ('Official', 'supervised', 39), ('Official', 'left', 71), ('responsibility', 'passed', 178)]</t>
   </si>
   <si>
     <t>[('investigators', 'conducted', 25), ('enquiry', 'conducted', 25), ('documents', 'obtaining', 49), ('Airport', 'constitutes', 80), ('enterprise', 'constitutes', 80), ('assets', 'include', 94), ('runways', 'include', 94), ('Regulation', 'dated', 166), ('territory', 'administer', 175), ('This', 'includes', 190), ('Airport', 'includes', 190)]</t>
   </si>
   <si>
-    <t>[('Vendor', 'produced', 11), ('results', 'produced', 11), ('quality', 'confirm', 17), ('memorandum', 'indicates', 60), ('Official', 'authorised', 65), ('work', 'authorised', 65), ('memorandum', 'adds', 74), ('Official', 'told', 91), ('ITF', 'told', 91), ('tender', 'progress', 98), ('he', 'had', 107), ('she', 'had', 107), ('survey', 'organise', 109), ('He', 'added', 117), ('she', 'added', 117), ('tender', 'go', 128), ('report', 'suggests', 139), ('information', 'appear', 150), ('letter', 'suggests', 207), ('it', 'carried', 210), ('tests', 'carried', 210)]</t>
-  </si>
-  <si>
-    <t>[('Official', 'explained', 4), ('tender', 'winning', 43), ('they', 'fulfil', 51), ('specification', 'fulfil', 51), ('who', 'arrived', 67), ('excerpts', 'send', 89), ('Engineer', 'expressed', 105), ('concern', 'expressed', 105), ('documents', 'preparing', 112), ('tenders', 'contain', 128), ('detail', 'contain', 128), ('Official', 'stated', 137), ('documents', 'prepare', 147), ('it', 'cost', 155), ('money', 'cost', 155), ('He', 'prepared', 164), ('she', 'prepared', 164), ('documents', 'prepared', 164), ('them', 'sent', 172), ('him', 'help', 184), ('Official', 'expressed', 228), ('view', 'expressed', 228), ('specifications', 'review', 250), ('Official', 'emphasised', 259), ('work', 'support', 267), ('that', 'made', 283)]</t>
-  </si>
-  <si>
-    <t>[('Official', 'bear', 24), ('amount', 'bear', 24), ('companies', 'prejudiced', 42), ('bids', 'submitting', 50), ('detail', 'submitted', 73), ('session', 'attended', 91), ('Evidence', 'indicates', 114), ('Evidence', 'indicates', 135), ('Vendor', 'produced', 139), ('report', 'produced', 139), ('work', 'certifying', 153), ('conflict', 'presenting', 159)]</t>
-  </si>
-  <si>
-    <t>[('States', 'informing', 82), ('emissions', 'reduce', 93), ('States', 'inform', 139)]</t>
+    <t>[('Allegation', 'produced', 11), ('Vendor', 'produced', 11), ('results', 'produced', 11), ('quality', 'confirm', 17), ('memorandum', 'indicates', 60), ('Official', 'authorised', 65), ('work', 'authorised', 65), ('memorandum', 'adds', 74), ('Official', 'told', 91), ('ITF', 'told', 91), ('tender', 'progress', 98), ('he', 'had', 107), ('she', 'had', 107), ('survey', 'organise', 109), ('He', 'added', 117), ('she', 'added', 117), ('report', 'suggests', 139), ('information', 'appear', 150), ('letter', 'suggests', 207), ('it', 'carried', 210), ('tests', 'carried', 210)]</t>
+  </si>
+  <si>
+    <t>[('Official', 'explained', 4), ('tender', 'winning', 43), ('they', 'fulfil', 51), ('specification', 'fulfil', 51), ('who', 'arrived', 67), ('excerpts', 'send', 89), ('Engineer', 'expressed', 105), ('concern', 'expressed', 105), ('documents', 'preparing', 112), ('detail', 'contain', 128), ('Official', 'stated', 137), ('documents', 'prepare', 147), ('it', 'cost', 155), ('money', 'cost', 155), ('He', 'prepared', 164), ('she', 'prepared', 164), ('documents', 'prepared', 164), ('them', 'sent', 172), ('him', 'help', 184), ('Official', 'expressed', 228), ('view', 'expressed', 228), ('specifications', 'review', 250), ('Official', 'emphasised', 259), ('work', 'support', 267), ('fact', 'emphasised', 259), ('that', 'made', 283)]</t>
+  </si>
+  <si>
+    <t>[('Official', 'bear', 24), ('amount', 'bear', 24), ('companies', 'prejudiced', 41), ('bids', 'submitting', 49), ('detail', 'submitted', 72), ('session', 'attended', 90), ('Evidence', 'indicates', 113), ('Evidence', 'indicates', 134), ('Vendor', 'produced', 138), ('report', 'produced', 138), ('work', 'certifying', 152), ('conflict', 'presenting', 158)]</t>
+  </si>
+  <si>
+    <t>[('States', 'informing', 78), ('emissions', 'reduce', 89), ('States', 'inform', 130)]</t>
   </si>
   <si>
     <t>[('Emissions', 'Reducing', 6), ('change', 'regarding', 61), ('U.S.', 'agree', 69), ('METI', 'pushed', 75), ('principles', 'pushed', 75), ('Ministry', 'wants', 109), ('Abe', 'mention', 112), ('goal', 'mention', 112), ('emissions', 'reducing', 121), ('MFA', 'considering', 148), ('U.S.', 'informing', 150), ('ministry', 'expect', 164), ('Washington', 'approve', 167), ('issues', 'climate', 179), ('Abe', 'state', 203), ('goal', 'state', 203), ('Japan', 'anticipates', 220), ('harm', 'anticipates', 220)]</t>
@@ -1360,19 +1783,19 @@
     <t>[('Summit', 'held', 31), ('report', 'observes', 40), ('impetus', 'observes', 40), ('ministries', 'involving', 49), ('change', 'combat', 63), ('emissions', 'reducing', 79), ('Leadership', 'Working', 114), ('officials', 'briefed', 165), ('Ministry', 'briefed', 165), ('Machimura', 'briefed', 165), ('they', 'believe', 179), ('Japan', 'work', 182), ('agreement', 'Obtaining', 198), ('approach', 'use', 202), ('Japan', 'seeking', 227), ('leadership', 'demonstrate', 229), ('goals', 'announce', 241)]</t>
   </si>
   <si>
-    <t>[('Japanese', 'Strive', 2), ('Strive', 'appeared', 38), ('Damage', 'Avoid', 4), ('ways', 'seeking', 42), ('damage', 'prevent', 45), ('importation', 'delay', 58), ('imports', 'commence', 96), ('inspections', 'involving', 108), ('ministry', 'admit', 135), ('inspector', 'returned', 188), ('issue', 'become', 207)]</t>
-  </si>
-  <si>
-    <t>[('report', 'indicates', 49), ('Agency', 'knew', 58), ('Japan', 'seek', 82), ('relations', 'patch', 84), ('information', 'share', 126), ('report', 'indicates', 135)]</t>
-  </si>
-  <si>
-    <t>[('II', 'supervised', 38), ('Department', 'supervised', 38), ('Official', 'left', 71)]</t>
-  </si>
-  <si>
-    <t>[('investigators', 'conducted', 23), ('enquiry', 'conducted', 23), ('documents', 'obtaining', 47), ('report', 'details', 73), ('findings', 'details', 73), ('Airport', 'constitutes', 86), ('enterprise', 'constitutes', 86), ('assets', 'include', 100), ('runways', 'include', 100), ('Regulation', 'dated', 172), ('territory', 'administer', 181), ('This', 'includes', 196), ('Airport', 'includes', 196)]</t>
-  </si>
-  <si>
-    <t>[('prey', 'avoid', 53), ('concessions', 'extort', 61), ('Minister', 'pondered', 98), ('negotiations', 'start', 103), ('U.S.', 'asking', 107), ('that', 'put', 168), ('Brussels', 'put', 168), ('Boel', 'indicated', 198), ('EU', 'had', 203), ('concerns', 'had', 203), ('cabinet', 'hinted', 239), ('Japan', 'accept', 279), ('Borchardt', 'tried', 283), ('fears', 'allay', 285), ('EU', 'try', 292), ('Brussels', 'learned', 323), ('lesson', 'learned', 323)]</t>
+    <t>[('Japanese', 'Strive', 2), ('Strive', 'appeared', 38), ('Damage', 'Avoid', 4), ('ways', 'seeking', 42), ('damage', 'prevent', 45), ('importation', 'delay', 58), ('decision', 'prevent', 45), ('imports', 'commence', 96), ('inspections', 'involving', 108), ('admit', 'have', 132), ('inspector', 'returned', 188), ('issue', 'become', 207)]</t>
+  </si>
+  <si>
+    <t>[('report', 'indicates', 49), ('Agency', 'knew', 58), ('Japan', 'seek', 78), ('relations', 'patch', 80), ('information', 'share', 118), ('report', 'indicates', 127)]</t>
+  </si>
+  <si>
+    <t>[('II', 'supervised', 38), ('Department', 'supervised', 38), ('Official', 'left', 71), ('responsibility', 'passed', 176)]</t>
+  </si>
+  <si>
+    <t>[('investigators', 'conducted', 23), ('enquiry', 'conducted', 23), ('documents', 'obtaining', 47), ('Airport', 'constitutes', 86), ('enterprise', 'constitutes', 86), ('assets', 'include', 100), ('runways', 'include', 100), ('Regulation', 'dated', 172), ('territory', 'administer', 181), ('This', 'includes', 196), ('Airport', 'includes', 196)]</t>
+  </si>
+  <si>
+    <t>[('prey', 'avoid', 52), ('concessions', 'extort', 60), ('Minister', 'pondered', 97), ('U.S.', 'asking', 106), ('that', 'put', 167), ('Brussels', 'put', 167), ('Boel', 'indicated', 197), ('EU', 'had', 202), ('concerns', 'had', 202), ('cabinet', 'hinted', 238), ('Japan', 'accept', 278), ('Borchardt', 'tried', 282), ('fears', 'allay', 284), ('EU', 'try', 291), ('Brussels', 'learned', 320), ('lesson', 'learned', 320)]</t>
   </si>
   <si>
     <t>[('Merkel', 'pressured', 67), ('excuses', 'brooking', 56), ('PM', 'pressured', 67), ('palliatives', 'announce', 71), ('them', 'implement', 79), ('Berlusconi', 'told', 100), ('institutions', 'pop', 128), ('Berlusconi', 'make', 153), ('decisions', 'make', 153), ('Valentini', 'indicated', 163), ('Rompuy', 'urged', 172), ('Italy', 'urged', 172), ('policies', 'undertake', 175), ('impression', 'reducing', 179), ('it', 'struggling', 204), ('dynamism', 'showing', 209), ('Italy', 'seeking', 228)]</t>
@@ -1381,274 +1804,280 @@
     <t>[('Israel', 'reached', 2), ('rift', 'smoothing', 13), ('Berlusconi', 'insisted', 50), ('homes', 'build', 62), ('this', 'blamed', 87), ('mishandling', 'blamed', 87), ('Netanyahu', 'said', 104), ('Palestinians', 'keep', 108), ('issue', 'using', 112), ('resumption', 'block', 119), ('claims', 'advance', 126), ('that', 'risk', 131), ('negotiations', 'sinking', 132), ('he', 'asserted', 141), ('Berlusconi', 'promised', 166), ('Italy', 'put', 168), ('ties', 'mend', 176), ('officials', 'believed', 190), ('tiff', 'goes', 194), ('point', 'marking', 205)]</t>
   </si>
   <si>
-    <t>[('Japan', 'given', 25), ('notice', 'given', 25), ('it', 'intends', 29), ('Germany', 'believes', 47), ('U.S.', 'accept', 60), ('countries', 'accept', 87), ('targets', 'accept', 87), ('leaders', 'plan', 136), ('change', 'discuss', 138), ('Kono', 'emphasized', 160), ('position', 'emphasized', 160), ('Pfaffenback', 'provided', 181), ('take', 'provided', 181), ('German', 'noted', 199), ('country', 'give', 213), ('demand', 'give', 213), ('he', 'believe', 240), ('they', 'prefer', 261), ('they', 'wish', 278), ('things', 'give', 280), ('failure', 'pose', 322), ('goal', 'accept', 308), ('difficulties', 'pose', 322)]</t>
-  </si>
-  <si>
-    <t>[('moon', 'pointed', 18), ('world', 'watching', 25), ('EU', 'watching', 25), ('it', 'maintain', 38), ('role', 'maintain', 38), ('change', 'combating', 43), ('He', 'believes', 48), ('Summit', 'impact', 59), ('UN', 'make', 97), ('commitment', 'make', 97), ('Ban', 'maintained', 105), ('administration', 'have', 113), ('attitude', 'have', 113), ('EU', 'create', 136), ('conditions', 'create', 136), ('deal', 'reaching', 140), ('Ban', 'considered', 156), ('Ban', 'praised', 174), ('Merkel', 'praised', 174), ('change', 'combating', 184), ('leaders', 'encouraging', 189), ('Summit', 'come', 211), ('she', 'acknowledged', 218), ('issue', 'involve', 224), ('trading', 'involve', 224), ('Ban', 'favored', 233), ('mini', 'holding', 234), ('-', 'holding', 234), ('summit', 'holding', 234), ('administration', 'involve', 243), ('idea', 'get', 255), ('Merkel', 'believed', 264), ('it', 'work', 287)]</t>
-  </si>
-  <si>
-    <t>[('statements', 'disclosed', 12), ('cases', 'disclosed', 12), ('member', 'said', 36), ('him', 'requesting', 54), ('her', 'come', 59), ('member', 'stated', 73), ('route', 'seeking', 110), ('person', 'paid', 127), ('sum', 'handed', 154), ('5.000,00', 'handed', 154), ('persons', 'paid', 167), ('agreed', 'paid', 167), ('books', 'sign', 179)]</t>
-  </si>
-  <si>
-    <t>[('statements', 'disclosed', 12), ('cases', 'disclosed', 12), ('member', 'stated', 29), ('which', 'occurred', 47), ('circa', 'occurred', 47), ('member', 'said', 80), ('who', 'requested', 91), ('information', 'requested', 91), ('member', 'stated', 113), ('member', 'met', 126), ('member', 'met', 126), ('he', 'worked', 139), ('she', 'worked', 139), ('he', 'purchasing', 146), ('she', 'purchasing', 146), ('uniforms', 'purchasing', 146), ('he', 'asked', 158), ('she', 'asked', 158), ('him', 'asked', 158), ('her', 'asked', 158), ('job', 'obtain', 164), ('He', 'replied', 176), ('she', 'replied', 176), ('he', 'replied', 176), ('she', 'had', 180), ('problems', 'had', 180), ('him', 'getting', 184), ('her', 'had', 180), ('job', 'had', 180), ('it', 'cost', 206), ('3.000,00', 'cost', 206)]</t>
-  </si>
-  <si>
-    <t>[('statements', 'disclosed', 12), ('cases', 'disclosed', 12), ('A', 'alleges', 32), ('member', 'alleges', 32), ('Official', 'visited', 35), ('he', 'obtain', 48), ('she', 'obtain', 48), ('employment', 'obtain', 48), ('He', 'stated', 57), ('she', 'stated', 57), ('Official', 'replied', 62), ('persons', 'paid', 102), ('7,000.00', 'paid', 102), ('employment', 'receiving', 119)]</t>
-  </si>
-  <si>
-    <t>[('statements', 'disclosed', 12), ('cases', 'disclosed', 12), ('member', 'told', 25), ('ITF', 'told', 25), ('1.000,00', 'pay', 43), ('which', 'given', 55), ('he', 'given', 55), ('that', 'having', 84), ('Official', 'having', 84), ('member', 'said', 96), ('he', 'paid', 101), ('she', 'paid', 101), ('180', 'paid', 101), ('amounts', 'pay', 145), ('member', 'stated', 162), ('who', 'spoke', 208), ('English', 'spoke', 208), ('member', 'stated', 228), ('others', 'congratulated', 257), ('member', 'congratulated', 257), ('Investigators', 'believe', 269), ('staff', 'attempting', 278), ('who', 'authorize', 297), ('employment', 'authorize', 297)]</t>
-  </si>
-  <si>
-    <t>[('Memorandum', 'dated', 19), ('which', 'described', 25), ('audit', 'described', 25), ('concerns', 'raised', 38), ('SHKTA', 'dated', 19), ('04', 'dated', 110), ('that', 'competed', 123), ('contract', 'awarded', 131), ('uniforms', 'supply', 137), ('author', 'alleged', 151), ('existence', 'alleged', 151), ('letter', 'identified', 202), ('intention', 'identified', 202), ('action', 'seek', 206), ('rules', 'violating', 215), ('member', 'replacing', 223), ('member', 'allowing', 236), ('Vendor', 'favouring', 255), ('Officer', 'told', 274), ('ITF', 'told', 274), ('Manager', 'made', 291), ('utterances', 'made', 291), ('her', 'made', 291), ('Officer', 'interpreted', 302), ('ITF', 'commenced', 309), ('inquiry', 'commenced', 309), ('summary', 'provides', 321)]</t>
-  </si>
-  <si>
-    <t>[('Agency', 'dated', 18), ('which', 'described', 24), ('audit', 'described', 24), ('concerns', 'raised', 37), ('SHKTA', 'dated', 18), ('04', 'dated', 108), ('that', 'competed', 121), ('contract', 'awarded', 129), ('uniforms', 'supply', 135), ('author', 'alleged', 149), ('existence', 'alleged', 149), ('letter', 'identified', 200), ('intention', 'identified', 200), ('action', 'seek', 204), ('rules', 'violating', 213), ('member', 'replacing', 221), ('member', 'allowing', 234), ('Vendor', 'favouring', 253), ('Officer', 'told', 271), ('ITF', 'told', 271), ('Manager', 'made', 288), ('utterances', 'made', 288), ('her', 'made', 288), ('Officer', 'interpreted', 299), ('ITF', 'commenced', 306), ('inquiry', 'commenced', 306), ('summary', 'provides', 318)]</t>
+    <t>[('Japan', 'given', 25), ('notice', 'given', 25), ('it', 'intends', 29), ('Germany', 'believes', 47), ('U.S.', 'accept', 60), ('language', 'going', 61), ('countries', 'accept', 86), ('targets', 'accept', 86), ('leaders', 'plan', 135), ('change', 'discuss', 137), ('Kono', 'emphasized', 159), ('position', 'emphasized', 159), ('Pfaffenback', 'provided', 180), ('German', 'noted', 198), ('country', 'give', 212), ('demand', 'give', 212), ('he', 'believe', 239), ('they', 'prefer', 260), ('they', 'wish', 277), ('things', 'give', 279), ('failure', 'pose', 321), ('goal', 'accept', 307), ('difficulties', 'pose', 321)]</t>
+  </si>
+  <si>
+    <t>[('moon', 'pointed', 18), ('world', 'watching', 25), ('EU', 'watching', 25), ('it', 'maintain', 38), ('role', 'maintain', 38), ('change', 'combating', 43), ('He', 'believes', 48), ('Summit', 'impact', 59), ('UN', 'make', 97), ('commitment', 'make', 97), ('Ban', 'maintained', 105), ('administration', 'have', 113), ('attitude', 'have', 113), ('conditions', 'create', 136), ('deal', 'reaching', 140), ('Ban', 'considered', 156), ('Ban', 'praised', 174), ('Merkel', 'praised', 174), ('change', 'combating', 184), ('leaders', 'encouraging', 189), ('Summit', 'come', 211), ('she', 'acknowledged', 218), ('issue', 'involve', 224), ('trading', 'involve', 224), ('Ban', 'favored', 233), ('mini', 'holding', 234), ('-', 'holding', 234), ('summit', 'holding', 234), ('administration', 'involve', 243), ('idea', 'get', 255), ('Merkel', 'believed', 264), ('it', 'work', 287)]</t>
+  </si>
+  <si>
+    <t>[('statements', 'disclosed', 12), ('A', 'said', 36), ('member', 'said', 36), ('him', 'requesting', 54), ('her', 'come', 59), ('member', 'stated', 73), ('route', 'seeking', 110), ('person', 'paid', 127), ('sum', 'paid', 127), ('herself', 'paid', 127), ('person', 'handed', 154), ('books', 'sign', 179)]</t>
+  </si>
+  <si>
+    <t>[('statements', 'disclosed', 12), ('member', 'stated', 29), ('which', 'occurred', 47), ('circa', 'occurred', 47), ('member', 'said', 80), ('who', 'requested', 91), ('information', 'requested', 91), ('member', 'stated', 113), ('member', 'met', 126), ('member', 'met', 126), ('he', 'worked', 139), ('she', 'worked', 139), ('he', 'purchasing', 146), ('she', 'purchasing', 146), ('uniforms', 'purchasing', 146), ('he', 'asked', 158), ('she', 'asked', 158), ('him', 'asked', 158), ('her', 'asked', 158), ('job', 'obtain', 164), ('He', 'replied', 176), ('she', 'replied', 176), ('he', 'replied', 176), ('she', 'had', 180), ('problems', 'had', 180), ('him', 'getting', 184), ('her', 'had', 180), ('job', 'had', 180), ('it', 'cost', 206), ('3.000,00', 'cost', 206)]</t>
+  </si>
+  <si>
+    <t>[('statements', 'disclosed', 12), ('cases', 'following', 14), ('member', 'alleges', 32), ('Official', 'visited', 35), ('he', 'obtain', 48), ('she', 'obtain', 48), ('employment', 'obtain', 48), ('He', 'stated', 57), ('she', 'stated', 57), ('Official', 'replied', 62), ('persons', 'paid', 102), ('7,000.00', 'paid', 102), ('employment', 'receiving', 119)]</t>
+  </si>
+  <si>
+    <t>[('statements', 'disclosed', 12), ('cases', 'following', 14), ('member', 'told', 25), ('ITF', 'told', 25), ('1.000,00', 'pay', 43), ('which', 'given', 55), ('he', 'given', 55), ('Official', 'having', 84), ('member', 'said', 96), ('he', 'paid', 101), ('she', 'paid', 101), ('180', 'paid', 101), ('amounts', 'pay', 145), ('member', 'stated', 162), ('who', 'spoke', 208), ('English', 'spoke', 208), ('member', 'stated', 228), ('others', 'congratulated', 257), ('member', 'congratulated', 257), ('Investigators', 'believe', 269), ('staff', 'attempting', 278), ('who', 'authorize', 297), ('employment', 'authorize', 297)]</t>
+  </si>
+  <si>
+    <t>[('Memorandum', 'dated', 19), ('which', 'described', 25), ('audit', 'described', 25), ('concerns', 'raised', 38), ('SHKTA', 'dated', 19), ('04', 'dated', 110), ('that', 'competed', 123), ('contract', 'awarded', 131), ('uniforms', 'supply', 137), ('author', 'alleged', 151), ('existence', 'alleged', 151), ('letter', 'identified', 202), ('intention', 'identified', 202), ('action', 'seek', 206), ('rules', 'violating', 215), ('member', 'replacing', 222), ('member', 'allowing', 235), ('Vendor', 'favouring', 254), ('Officer', 'told', 273), ('ITF', 'told', 273), ('Manager', 'made', 290), ('utterances', 'made', 290), ('her', 'made', 290), ('Officer', 'interpreted', 301), ('ITF', 'commenced', 308), ('inquiry', 'commenced', 308), ('summary', 'provides', 320)]</t>
+  </si>
+  <si>
+    <t>[('Agency', 'dated', 18), ('which', 'described', 24), ('audit', 'described', 24), ('concerns', 'raised', 37), ('SHKTA', 'dated', 18), ('04', 'dated', 108), ('that', 'competed', 121), ('contract', 'awarded', 129), ('uniforms', 'supply', 135), ('author', 'alleged', 149), ('existence', 'alleged', 149), ('letter', 'identified', 200), ('intention', 'identified', 200), ('action', 'seek', 204), ('rules', 'violating', 213), ('member', 'replacing', 220), ('member', 'allowing', 233), ('Vendor', 'favouring', 252), ('Officer', 'told', 270), ('ITF', 'told', 270), ('Manager', 'made', 287), ('utterances', 'made', 287), ('her', 'made', 287), ('Officer', 'interpreted', 298), ('ITF', 'commenced', 305), ('inquiry', 'commenced', 305), ('summary', 'provides', 317)]</t>
   </si>
   <si>
     <t>[('Manager', 'referred', 51), ('staff', 'locate', 93), ('record', 'locate', 93)]</t>
   </si>
   <si>
-    <t>[('agent', 'handling', 10), ('agent', 'handling', 28), ('Airport', 'collects', 33), ('revenues', 'collects', 33), ('revenues', 'deposits', 44), ('commission', 'deducting', 54), ('issues', 'related', 71), ('mail', 'handling', 87)]</t>
-  </si>
-  <si>
-    <t>[('OIOS', 'requested', 3), ('officer', 'requested', 3), ('bid', 'review', 9), ('annotations', 'explain', 15), ('officer', 'pointed', 25), ('Vendor', 'offered', 37), ('device', 'offered', 37), ('He', 'found', 47), ('she', 'found', 47), ('model', 'differ', 64), ('officer', 'stated', 84), ('model', 'complied', 92), ('it', 'comply', 145), ('Vendor', 'appeared', 162), ('they', 'offered', 171), ('number', 'offered', 171), ('product', 'comply', 189), ('members', 'did', 214)]</t>
-  </si>
-  <si>
-    <t>[('officer', 'stated', 16), ('DRA', 'advised', 21), ('them', 'advised', 21), ('specifications', 'monitor', 24), ('officer', 'highlighted', 56), ('criteria', 'highlighted', 56), ('device', 'broke', 118), ('farmers', 'run', 132), ('risk', 'run', 132)]</t>
-  </si>
-  <si>
-    <t>[('OIOS', 'spoke', 21), ('who', 'explained', 32), ('process', 'explained', 32), ('panel', 'recommended', 40), ('bidder', 'recommended', 40), ('panel', 'examined', 57), ('documents', 'examined', 57), ('comments', 'made', 70), ('panel', 'relied', 89), ('officer', 'told', 124), ('OIOS', 'told', 124), ('he', 'verified', 154), ('she', 'verified', 154), ('product', 'possess', 163), ('features', 'possess', 163), ('he', 'checked', 172), ('she', 'checked', 172), ('data', 'checked', 172)]</t>
-  </si>
-  <si>
-    <t>[('complainant', 'raised', 2), ('issues', 'raised', 2), ('it', 'offered', 23), ('number', 'offered', 23), ('bidders', 'offered', 40), ('product', 'offered', 40), ('report', 'identified', 66), ('issues', 'identified', 66), ('Investigators', 'reviewed', 74), ('bids', 'reviewed', 74), ('officer', 'disqualified', 87), ('two', 'disqualified', 87), ('price', 'exceeded', 118), ('ceiling', 'exceeded', 118), ('officer', 'noted', 140), ('Vendor', 'include', 146), ('taxes', 'include', 146), ('price', 'exceed', 165), ('ceiling', 'exceed', 165), ('offer', 'include', 185), ('fee', 'include', 185), ('bid', 'causing', 194), ('ceiling', 'exceed', 198)]</t>
-  </si>
-  <si>
-    <t>[('consultant', 'prepared', 7), ('specifications', 'prepared', 7), ('DRA', 'launched', 34), ('tender', 'launched', 34), ('bids', 'exceeded', 55), ('amount', 'exceeded', 55), ('specifications', 'using', 108), ('DRA', 'provided', 121), ('bidders', 'provided', 121), ('they', 'state', 135), ('number', 'state', 135), ('company', 'offer', 146), ('DRA', 'received', 168), ('bids', 'received', 168), ('complainant', 'told', 212), ('OIOS', 'told', 212), ('process', 'occurred', 221)]</t>
-  </si>
-  <si>
-    <t>[('evidence', 'confirms', 7), ('PDAs', 'conform', 17), ('complainant', 'offered', 29), ('number', 'offered', 29), ('OIOS', 'determined', 62), ('procurement', 'governing', 78), ('funds', 'using', 91), ('OIOS', 'makes', 105), ('recommendation', 'makes', 105), ('UNMIK', 'take', 119), ('note', 'take', 119), ('members', 'advise', 130)]</t>
-  </si>
-  <si>
-    <t>[('review', 'highlighted', 16), ('irregularities', 'highlighted', 16), ('OIOS', 'investigated', 70), ('process', 'investigated', 70), ('violations', 'occurred', 84), ('DRA', 'comprises', 128), ('Services', 'comprises', 128), ('DRA', 'remains', 145), ('DRA', 'undertakes', 174), ('procurement', 'undertakes', 174)]</t>
-  </si>
-  <si>
-    <t>[('estimates', 'showed', 18), ('models', 'showed', 18), ('prices', 'ranged', 35), ('OIOS', 'adduced', 48), ('ID', 'found', 84), ('OIOS', 'found', 84), ('features', 'include', 100), ('that', 'make', 105), ('specifications', 'envisaged', 126), ('product', 'envisaged', 126), ('OIOS', 'verified', 175), ('this', 'verified', 175)]</t>
-  </si>
-  <si>
-    <t>[('investigation', 'documented', 7), ('management', 'failed', 12), ('duties', 'perform', 14), ('performance', 'caused', 64), ('damage', 'caused', 64), ('Both', 'failed', 116), ('duties', 'perform', 118), ('they', 'failed', 127), ('interest', 'promote', 129)]</t>
+    <t>[('agent', 'handling', 10), ('agent', 'handling', 28), ('Airport', 'collects', 33), ('revenues', 'collects', 33), ('revenues', 'deposits', 44), ('commission', 'deducting', 54), ('issues', 'related', 70), ('mail', 'handling', 86)]</t>
+  </si>
+  <si>
+    <t>[('OIOS', 'requested', 3), ('officer', 'requested', 3), ('bid', 'review', 9), ('annotations', 'explain', 15), ('officer', 'pointed', 25), ('Vendor', 'offered', 37), ('device', 'offered', 37), ('He', 'found', 47), ('she', 'found', 47), ('model', 'differ', 64), ('officer', 'stated', 84), ('model', 'complied', 92), ('it', 'comply', 145), ('Vendor', 'appeared', 162), ('they', 'offered', 171), ('number', 'offered', 171), ('product', 'comply', 189), ('members', 'did', 214), ('list', 'did', 214)]</t>
+  </si>
+  <si>
+    <t>[('officer', 'stated', 16), ('DRA', 'advised', 21), ('them', 'advised', 21), ('specifications', 'monitor', 24), ('officer', 'highlighted', 56), ('device', 'broke', 118), ('farmers', 'run', 132), ('risk', 'run', 132)]</t>
+  </si>
+  <si>
+    <t>[('OIOS', 'spoke', 21), ('who', 'explained', 32), ('process', 'explained', 32), ('panel', 'recommended', 40), ('bidder', 'recommended', 40), ('panel', 'examined', 57), ('documents', 'examined', 57), ('comments', 'made', 70), ('panel', 'relied', 89), ('officer', 'told', 124), ('OIOS', 'told', 124), ('he', 'verified', 154), ('she', 'verified', 154), ('product', 'declared', 165), ('possess', 'declared', 165), ('features', 'declared', 165), ('he', 'checked', 172), ('she', 'checked', 172), ('data', 'checked', 172)]</t>
+  </si>
+  <si>
+    <t>[('complainant', 'raised', 1), ('issues', 'raised', 1), ('it', 'offered', 22), ('number', 'offered', 22), ('bidders', 'offered', 39), ('product', 'offered', 39), ('bidder', 'winning', 45), ('report', 'identified', 65), ('issues', 'identified', 65), ('Investigators', 'reviewed', 73), ('bids', 'reviewed', 73), ('officer', 'disqualified', 86), ('two', 'disqualified', 86), ('price', 'exceeded', 117), ('ceiling', 'exceeded', 117), ('officer', 'noted', 139), ('Vendor', 'include', 145), ('taxes', 'include', 145), ('price', 'exceed', 164), ('ceiling', 'exceed', 164), ('offer', 'include', 184), ('fee', 'include', 184), ('bid', 'causing', 193), ('ceiling', 'exceed', 197)]</t>
+  </si>
+  <si>
+    <t>[('consultant', 'prepared', 7), ('specifications', 'prepared', 7), ('DRA', 'launched', 34), ('tender', 'launched', 34), ('bids', 'exceeded', 55), ('amount', 'exceeded', 55), ('specifications', 'using', 108), ('DRA', 'provided', 121), ('bidders', 'provided', 121), ('company', 'offer', 146), ('DRA', 'received', 168), ('bids', 'received', 168), ('complainant', 'told', 212), ('OIOS', 'told', 212), ('process', 'occurred', 221)]</t>
+  </si>
+  <si>
+    <t>[('evidence', 'confirms', 6), ('PDAs', 'conform', 16), ('complainant', 'offered', 28), ('number', 'offered', 28), ('OIOS', 'determined', 61), ('procurement', 'governing', 77), ('funds', 'using', 90), ('RECOMMENDATION', 'following', 106), ('recommendation', 'following', 106), ('UNMIK', 'take', 118), ('note', 'take', 118), ('members', 'advise', 129)]</t>
+  </si>
+  <si>
+    <t>[('review', 'highlighted', 16), ('irregularities', 'highlighted', 16), ('OIOS', 'investigated', 70), ('process', 'investigated', 70), ('violations', 'occurred', 84), ('DRA', 'comprises', 127), ('Services', 'comprises', 127), ('DRA', 'remains', 144), ('DRA', 'undertakes', 173), ('procurement', 'undertakes', 173)]</t>
+  </si>
+  <si>
+    <t>[('estimates', 'stated', 10), ('models', 'showed', 18), ('prices', 'ranged', 35), ('OIOS', 'adduced', 48), ('ID', 'found', 84), ('OIOS', 'found', 84), ('features', 'include', 100), ('that', 'make', 105), ('specifications', 'envisaged', 126), ('product', 'envisaged', 126), ('price', 'envisaged', 126), ('OIOS', 'verified', 175), ('this', 'verified', 175)]</t>
+  </si>
+  <si>
+    <t>[('investigation', 'documented', 6), ('management', 'failed', 11), ('duties', 'perform', 13), ('performance', 'caused', 63), ('damage', 'caused', 63), ('Both', 'failed', 115), ('duties', 'perform', 117), ('they', 'failed', 126), ('interest', 'promote', 128)]</t>
   </si>
   <si>
     <t>[('Documentation', 'shows', 10), ('management', 'failed', 14), ('that', 'guarantee', 26), ('use', 'guarantee', 26), ('documentation', 'provided', 34), ('who', 'attended', 63), ('courses', 'attended', 63), ('necessity', 'remains', 113), ('documentation', 'provide', 122), ('proof', 'provide', 122)]</t>
   </si>
   <si>
-    <t>[('Official', 'stated', 3), ('he', 'experienced', 14), ('he', 'hired', 23), ('she', 'hired', 23), ('Officer', 'hired', 23), ('who', 'had', 33), ('background', 'had', 33), ('He', 'said', 46), ('she', 'said', 46), ('he', 'accepted', 69), ('she', 'accepted', 69), ('Official', 'agreed', 89), ('funds', 'requesting', 102), ('need', 'addressing', 114), ('Official', 'indicated', 128), ('he', 'trusted', 133), ('she', 'trusted', 133), ('staff', 'trusted', 133), ('he', 'realized', 154), ('she', 'realized', 154), ('he', 'devoted', 161), ('she', 'devoted', 161), ('effort', 'devoted', 161)]</t>
-  </si>
-  <si>
-    <t>[('Official', 'indicated', 4), ('superiors', 'approved', 10), ('bills', 'approved', 10), ('cards', 'Recharging', 66), ('car', 'Rent', 96), ('Official', 'stated', 108), ('he', 'support', 128), ('she', 'support', 128), ('claim', 'support', 128), ('Official', 'added', 138), ('that', 'had', 140), ('cash', 'get', 155), ('He', 'insisted', 179), ('she', 'insisted', 179), ('they', 'request', 215), ('justifications', 'request', 215)]</t>
-  </si>
-  <si>
-    <t>[('ITF', 'interviewed', 2), ('Official', 'interviewed', 2), ('he', 'acknowledged', 13), ('she', 'acknowledged', 13), ('all', 'show', 34), ('irregularities', 'show', 34), ('He', 'studied', 41), ('she', 'studied', 41), ('files', 'studied', 41), ('four', 'contained', 51), ('information', 'contained', 51), ('allocation', 'justify', 55), ('Official', 'acknowledged', 85), ('01/2002', 'showed', 107), ('irregularities', 'showed', 107), ('payments', 'prove', 115), ('signatures', 'missing', 118), ('they', 'received', 127), ('ticket', 'received', 127), ('ITF', 'concluded', 150), ('payments', 'prove', 176), ('documentation', 'secure', 193), ('Official', 'certifying', 208), ('expenses', 'certifying', 208), ('Official', 'provide', 224), ('explanations', 'provide', 224)]</t>
-  </si>
-  <si>
-    <t>[('Manager', 'said', 3), ('Official', 'bring', 9), ('request', 'bring', 9), ('he', 'detail', 22), ('she', 'detail', 22), ('need', 'detail', 22), ('Manager', 'found', 33), ('he', 'approve', 50), ('she', 'approve', 50), ('it', 'approve', 50), ('records', 'keeping', 68), ('Official', 'had', 82), ('she', 'had', 102), ('cash', 'had', 102), ('Manager', 'indicated', 116), ('her', 'check', 127), ('bill', 'check', 127), ('he', 'delegated', 136), ('authority', 'delegated', 136)]</t>
-  </si>
-  <si>
-    <t>[('ITF', 'interviewed', 2), ('Official', 'interviewed', 2), ('He', 'stated', 12), ('She', 'stated', 12), ('he', 'travelled', 20), ('she', 'travelled', 20), ('conditions', 'negotiate', 34), ('they', 'received', 57), ('accommodation', 'received', 57), ('he', 'returned', 82), ('she', 'returned', 82), ('any', 'return', 92), ('he', 'knew', 105), ('she', 'knew', 105), ('Official', 'return', 116), ('any', 'return', 116)]</t>
+    <t>[('Official', 'stated', 2), ('he', 'experienced', 13), ('he', 'hired', 22), ('she', 'hired', 22), ('Officer', 'hired', 22), ('who', 'had', 32), ('background', 'had', 32), ('He', 'said', 45), ('she', 'said', 45), ('he', 'accepted', 68), ('she', 'accepted', 68), ('Official', 'agreed', 88), ('funds', 'requesting', 101), ('need', 'addressing', 113), ('Official', 'indicated', 127), ('he', 'trusted', 132), ('she', 'trusted', 132), ('staff', 'trusted', 132), ('he', 'realized', 153), ('she', 'realized', 153), ('he', 'devoted', 160), ('she', 'devoted', 160), ('effort', 'devoted', 160)]</t>
+  </si>
+  <si>
+    <t>[('Official', 'indicated', 3), ('superiors', 'approved', 9), ('bills', 'approved', 9), ('cards', 'Recharging', 65), ('car', 'Rent', 95), ('Official', 'stated', 107), ('he', 'support', 127), ('she', 'support', 127), ('claim', 'support', 127), ('Official', 'added', 137), ('that', 'had', 139), ('cash', 'get', 154), ('He', 'insisted', 178), ('she', 'insisted', 178), ('they', 'request', 214), ('justifications', 'request', 214), ('her', 'request', 214)]</t>
+  </si>
+  <si>
+    <t>[('ITF', 'interviewed', 1), ('Official', 'interviewed', 1), ('he', 'acknowledged', 12), ('she', 'acknowledged', 12), ('cases', 'show', 32), ('all', 'show', 32), ('irregularities', 'show', 32), ('He', 'studied', 39), ('she', 'studied', 39), ('files', 'studied', 39), ('four', 'contained', 49), ('information', 'contained', 49), ('allocation', 'justify', 53), ('Official', 'acknowledged', 82), ('01/2002', 'showed', 103), ('irregularities', 'showed', 103), ('payments', 'prove', 111), ('signatures', 'missing', 114), ('they', 'received', 123), ('ticket', 'received', 123), ('ITF', 'concluded', 146), ('payments', 'prove', 172), ('documentation', 'secure', 189), ('Official', 'certifying', 204), ('expenses', 'certifying', 204), ('Official', 'provide', 220), ('explanations', 'provide', 220)]</t>
+  </si>
+  <si>
+    <t>[('Manager', 'said', 2), ('Official', 'bring', 8), ('request', 'bring', 8), ('he', 'detail', 21), ('she', 'detail', 21), ('need', 'detail', 21), ('Manager', 'found', 32), ('justification', 'found', 32), ('he', 'approve', 49), ('she', 'approve', 49), ('it', 'approve', 49), ('records', 'keeping', 67), ('Official', 'had', 81), ('he', 'had', 101), ('she', 'had', 101), ('cash', 'had', 101), ('Manager', 'indicated', 115), ('her', 'check', 126), ('bill', 'check', 126), ('he', 'delegated', 135), ('authority', 'delegated', 135)]</t>
+  </si>
+  <si>
+    <t>[('ITF', 'interviewed', 1), ('Official', 'interviewed', 1), ('He', 'stated', 11), ('She', 'stated', 11), ('he', 'travelled', 19), ('she', 'travelled', 19), ('conditions', 'negotiate', 33), ('they', 'received', 56), ('accommodation', 'received', 56), ('he', 'returned', 81), ('she', 'returned', 81), ('any', 'return', 91), ('he', 'knew', 104), ('she', 'knew', 104), ('Official', 'return', 115), ('any', 'return', 115)]</t>
   </si>
   <si>
     <t>[('review', 'revealed', 22), ('number', 'revealed', 22), ('report', 'highlighted', 107), ('Official', 'travelled', 112), ('which', 'included', 165), ('management', 'included', 165), ('Official', 'working', 219)]</t>
   </si>
   <si>
-    <t>[('Investigators', 'Reviewed', 55), ('procedures', 'Reviewed', 55), ('requests', 'Examined', 95), ('documentation', 'supporting', 101)]</t>
-  </si>
-  <si>
-    <t>[('Investigators', 'Reviewed', 50), ('files', 'Reviewed', 50), ('details', 'checked', 65), ('withdrawals', 'authorize', 87), ('signatures', '•', 111), ('sums', '•', 111), ('cashbook', 'maintain', 150), ('Investigators', 'interviewed', 182), ('1', 'interviewed', 182)]</t>
+    <t>[('Investigators', 'Reviewed', 54), ('procedures', 'Reviewed', 54), ('documentation', 'supporting', 100)]</t>
+  </si>
+  <si>
+    <t>[('Investigators', 'Reviewed', 49), ('files', 'Reviewed', 49), ('withdrawals', 'authorize', 86), ('signatures', '•', 110), ('sums', '•', 110), ('cashbook', 'maintain', 149), ('Investigators', 'interviewed', 181), ('1', 'interviewed', 181)]</t>
   </si>
   <si>
     <t>[('investigators', 'identified', 10), ('number', 'identified', 10), ('review', 'finalized', 28), ('they', 'interviewed', 33), ('staff', 'interviewed', 33), ('withdrawals', 'approving', 42), ('that', 'handled', 51), ('cash', 'handled', 51), ('that', 'travelled', 65), ('ITF', 'interviewed', 77), ('Officer', 'interviewed', 77), ('Officer', 'described', 99), ('procedures', 'described', 99), ('Employee', 'identified', 111), ('cash', 'withdraw', 170)]</t>
   </si>
   <si>
-    <t>[('Regulation', 'apply', 17), ('following', 'states', 44), ('misconduct', 'include', 54), ('following', 'include', 54), ('obligations', 'perform', 65), ('behavior', 'states', 44), ('relationship', 'continue', 136), ('performance', 'include', 142), ('following', 'include', 142), ('dismissal', 'justify', 167), ('which', 'given', 173), ('frequency', 'given', 173), ('course', 'disrupt', 178)]</t>
-  </si>
-  <si>
-    <t>[('ITF', 'interviewed', 2), ('Officer', 'interviewed', 2), ('who', 'stated', 15), ('he', 'stated', 15), ('Officer', 'provided', 33), ('information', 'provided', 33), ('he', 'found', 77), ('she', 'found', 77), ('office', 'have', 96), ('structures', 'have', 96), ('they', 'processing', 121), ('Officer', 'tried', 130), ('improvements', 'suggest', 132), ('Official', 'told', 140), ('him', 'told', 140), ('her', 'told', 140), ('UNMIK', 'wanted', 151), ('he', 'follow', 162), ('she', 'follow', 162), ('instructions', 'follow', 162), ('he', 'lose', 179), ('she', 'lose', 179), ('job', 'lose', 179), ('he', 'raised', 188), ('she', 'raised', 188), ('objections', 'raised', 188), ('he', 'decided', 196), ('she', 'decided', 196)]</t>
-  </si>
-  <si>
-    <t>[('ITF', 'interviewed', 2), ('Official', 'interviewed', 2), ('files', 'review', 15), ('documents', 'shown', 29), ('He', 'concluded', 43), ('She', 'concluded', 43), ('four', 'contain', 48), ('information', 'contain', 48), ('allocation', 'justify', 52), ('none', 'had', 67), ('information', 'had', 67), ('that', 'document', 72), ('Information', 'contained', 81), ('55/2002', 'request', 145), ('reservations', 'indicating', 149), ('they', 'prove', 157), ('None', 'contained', 169), ('tickets', 'contained', 169), ('they', 'contain', 183), ('proof', 'contain', 183), ('travellers', 'sign', 208), ('personnel', 'travelled', 227)]</t>
+    <t>[('following', 'apply', 17), ('states', 'include', 54), ('refusal', 'following', 56), ('obligations', 'perform', 65), ('theft', 'include', 54), ('behavior', 'include', 54), ('relationship', 'continue', 136), ('performance', 'include', 142), ('absence', 'following', 144), ('mistakes', 'include', 142), ('dismissal', 'justify', 167), ('which', 'given', 173), ('frequency', 'given', 173), ('course', 'disrupt', 178)]</t>
+  </si>
+  <si>
+    <t>[('ITF', 'interviewed', 1), ('Officer', 'interviewed', 1), ('who', 'stated', 14), ('he', 'stated', 14), ('Officer', 'provided', 32), ('information', 'provided', 32), ('he', 'found', 76), ('she', 'found', 76), ('office', 'have', 95), ('structures', 'have', 95), ('they', 'processing', 120), ('Officer', 'tried', 129), ('improvements', 'suggest', 131), ('Official', 'told', 139), ('him', 'told', 139), ('her', 'told', 139), ('UNMIK', 'wanted', 150), ('he', 'follow', 161), ('she', 'follow', 161), ('instructions', 'follow', 161), ('he', 'lose', 178), ('she', 'lose', 178), ('job', 'lose', 178), ('he', 'raised', 187), ('she', 'raised', 187), ('objections', 'raised', 187), ('he', 'decided', 195), ('she', 'decided', 195)]</t>
+  </si>
+  <si>
+    <t>[('ITF', 'interviewed', 1), ('Official', 'interviewed', 1), ('4', 'interviewed', 1), ('files', 'review', 14), ('documents', 'shown', 28), ('He', 'concluded', 42), ('She', 'concluded', 42), ('four', 'contain', 47), ('information', 'contain', 47), ('allocation', 'justify', 51), ('none', 'had', 66), ('information', 'had', 66), ('that', 'document', 71), ('Information', 'contained', 80), ('55/2002', 'request', 142), ('reservations', 'indicating', 146), ('they', 'prove', 154), ('None', 'contained', 166), ('tickets', 'contained', 166), ('they', 'contain', 180), ('proof', 'contain', 180), ('travellers', 'sign', 205), ('it', 'documented', 219), ('personnel', 'travelled', 224)]</t>
   </si>
   <si>
     <t>[('files', 'review', 6), ('files', 'studied', 29), ('he', 'concluded', 36), ('she', 'concluded', 36), ('files', 'revealed', 40), ('absence', 'revealed', 40), ('files', 'review', 62), ('He', 'concluded', 85), ('She', 'concluded', 85), ('withdrawals', 'justify', 96), ('cash', 'appeared', 105)]</t>
   </si>
   <si>
-    <t>[('Investigators', 'interviewed', 2), ('Manager', 'interviewed', 2), ('he', 'explained', 13), ('she', 'explained', 13), ('controllers', 'train', 25), ('forecasters', 'explained', 13), ('All', 'received', 46), ('classroom', 'received', 46), ('He', 'said', 71), ('she', 'said', 71), ('airport', 'has', 75), ('rules', 'has', 75), ('authorization', 'requesting', 90), ('Official', 'visit', 121), ('who', 'travelled', 117), ('staff', 'visit', 121), ('courses', 'undertaking', 124)]</t>
+    <t>[('Investigators', 'interviewed', 2), ('Manager', 'interviewed', 2), ('he', 'explained', 13), ('she', 'explained', 13), ('controllers', 'train', 25), ('forecasters', 'explained', 13), ('All', 'received', 46), ('classroom', 'received', 46), ('training', 'received', 46), ('He', 'said', 69), ('she', 'said', 69), ('airport', 'has', 73), ('rules', 'has', 73), ('authorization', 'requesting', 88), ('Official', 'visit', 119), ('who', 'travelled', 115), ('staff', 'visit', 119), ('courses', 'undertaking', 122)]</t>
   </si>
   <si>
     <t>[('Officer', 'confirmed', 4), ('Manager', 'supervised', 13), ('work', 'supervised', 13), ('He', 'indicated', 26), ('she', 'indicated', 26), ('Officer', 'prepare', 56), ('request', 'prepare', 56), ('opportunity', 'given', 87), ('documentation', 'review', 91), ('Officer', 'established', 127), ('requests', 'had', 141), ('justification', 'had', 141), ('all', 'lacked', 154), ('documentation', 'lacked', 154), ('that', 'indicate', 158), ('explanations', 'provide', 172), ('recollection', 'had', 180), ('Official', 'made', 188), ('checks', 'made', 188)]</t>
   </si>
   <si>
-    <t>[('Assistant', 'claimed', 3), ('he', 'noticed', 7), ('footer', 'noticed', 7), ('OIOS', 'asked', 17), ('photocopies', 'have', 32), ('footer', 'have', 32), ('he', 'disclaimed', 37), ('responsibility', 'disclaimed', 37), ('assistants', 'working', 56), ('access', 'had', 67), ('Assistant', 'Photocopying', 73), ('Assistant', 'assisted', 101), ('father', 'assisted', 101), ('assistants', 'helped', 115), ('which', 'included', 128), ('documents', 'included', 128), ('them', 'copying', 135), ('them', 'returning', 138), ('Assistant', 'working', 148), ('Assistant', 'worked', 170), ('Review', 'showed', 202), ('Bratislava', 'relies', 208), ('authenticity', 'verify', 219), ('Bratislava', 'maintains', 230), ('sheet', 'maintains', 230), ('which', 'requires', 237), ('information', 'requires', 237), ('disperses', 'cheques', 261), ('payee', 'signs', 280), ('disbursement', 'signs', 280), ('office', 'retain', 298), ('copy', 'retain', 298), ('Bratislava', 'maintain', 315), ('log', 'maintain', 315), ('accounts', 'reconciling', 325), ('UNON', 'attempt', 338), ('account', 'reconcile', 340), ('Narobi', 'stated', 363), ('it', 'had', 367), ('problems', 'had', 367)]</t>
-  </si>
-  <si>
-    <t>[('Emails', 'wrote', 24), ('member', 'wrote', 24), ('email', 'wrote', 24), ('that', 'written', 51), ('he', 'written', 51), ('he', 'had', 58), ('chat', 'had', 58), ('who', 'thought', 64), ('Mzumara', 'replied', 108), ('Mzumara', 'pointed', 131), ('he', 'writing', 149), ('Mzumara', 'stated', 158), ('I', 'thought', 163), ('you', 'going', 172), ('what', 'comes', 191), ('member', 'responded\\', 200), ('who', 'broadcasted', 243), ('message', 'broadcasted', 243), ('who', 'wrote', 250), ('system', 'functioned', 268), ('control', 'do', 289), ('Boss', 'get', 293), ('problem', 'address', 298), ('ladies', 'continue', 314), ('It', 'produce', 330), ('results', 'produce', 330), ('He', 'added', 344), ('he', 'wrote', 347), ('man', 'show', 353)]</t>
-  </si>
-  <si>
-    <t>[('person', 'sent', 29), ('identities', 'using', 21), ('email', 'sent', 29), ('email', 'had', 66), ('attachment', 'had', 66), ('allegations', 'highlighted', 79), ('Secretary', 'failed', 157), ('ECA', 'failed', 157), ('action', 'take', 159), ('members', 'raped', 172), ('Abebe', 'asking', 185), ('Government', 'asking', 185)]</t>
-  </si>
-  <si>
-    <t>[('Division', 'received', 16), ('emails', 'received', 16), ('which', 'alleged', 28), ('that', 'revealed', 71), ('member', 'sent', 83), ('emails', 'sent', 83)]</t>
-  </si>
-  <si>
-    <t>[('Regulation', 'provides', 13), ('members', 'exercise', 19), ('discretion', 'exercise', 19), ('They', 'communicate', 35), ('source', 'communicate', 35), ('that', 'know', 60), ('they', 'know', 60), ('obligations', 'cease', 95), ('investigation', 'entailed', 110), ('obtaining', 'entailed', 110), ('documents', 'analyzing', 113), ('member', 'worked', 135), ('He', 'retired', 144)]</t>
+    <t>[('Assistant', 'claimed', 3), ('he', 'noticed', 7), ('footer', 'noticed', 7), ('OIOS', 'asked', 17), ('photocopies', 'have', 32), ('footer', 'have', 32), ('he', 'disclaimed', 37), ('responsibility', 'disclaimed', 37), ('assistants', 'working', 56), ('access', 'had', 67), ('Assistant', 'Photocopying', 73), ('Assistant', 'assisted', 101), ('father', 'assisted', 101), ('assistants', 'helped', 115), ('which', 'included', 128), ('documents', 'included', 128), ('them', 'copying', 135), ('them', 'returning', 138), ('Assistant', 'working', 148), ('Photocopying', 'worked', 170), ('Assistant', 'worked', 170), ('Review', 'showed', 202), ('Bratislava', 'relies', 208), ('signatures', 'authorizing', 211), ('authenticity', 'verify', 219), ('Bratislava', 'maintains', 230), ('sheet', 'maintains', 230), ('which', 'requires', 237), ('information', 'requires', 237), ('disperses', 'cheques', 261), ('payee', 'signs', 280), ('disbursement', 'signs', 280), ('office', 'retain', 298), ('copy', 'retain', 298), ('Bratislava', 'maintain', 315), ('log', 'maintain', 315), ('accounts', 'reconciling', 325), ('UNON', 'attempt', 338), ('August', 'reconcile', 340), ('account', 'reconcile', 340), ('Narobi', 'stated', 363), ('it', 'had', 367), ('problems', 'had', 367)]</t>
+  </si>
+  <si>
+    <t>[('Emails', 'wrote', 24), ('member', 'wrote', 24), ('email', 'wrote', 24), ('that', 'written', 51), ('he', 'written', 51), ('he', 'had', 58), ('chat', 'had', 58), ('who', 'thought', 64), ('Mzumara', 'replied', 108), ('Mzumara', 'pointed', 131), ('member', 'writing', 149), ('Mzumara', 'stated', 158), ('I', 'thought', 163), ('you', 'going', 172), ('what', 'comes', 191), ('member', 'responded\\', 200), ('who', 'broadcasted', 243), ('message', 'broadcasted', 243), ('who', 'wrote', 250), ('system', 'functioned', 268), ('control', 'do', 289), ('Boss', 'address', 298), ('problem', 'address', 298), ('ladies', 'continue', 314), ('It', 'produce', 330), ('results', 'produce', 330), ('He', 'added', 344), ('he', 'wrote', 347), ('man', 'show', 353)]</t>
+  </si>
+  <si>
+    <t>[('person', 'sent', 29), ('identities', 'using', 21), ('email', 'sent', 29), ('email', 'had', 66), ('attachment', 'had', 66), ('allegations', 'highlighted', 79), ('ECA', 'failed', 157), ('action', 'take', 159), ('members', 'raped', 172), ('Abebe', 'asking', 185), ('Government', 'asking', 185)]</t>
+  </si>
+  <si>
+    <t>[('Division', 'received', 15), ('emails', 'received', 15), ('which', 'alleged', 27), ('that', 'revealed', 70), ('member', 'sent', 82), ('emails', 'sent', 82), ('President', 'sent', 82)]</t>
+  </si>
+  <si>
+    <t>[('Regulation', 'provides', 13), ('members', 'exercise', 19), ('discretion', 'exercise', 19), ('They', 'communicate', 35), ('source', 'communicate', 35), ('that', 'know', 60), ('they', 'know', 60), ('obligations', 'cease', 95), ('investigation', 'entailed', 110), ('obtaining', 'entailed', 110), ('documents', 'analyzing', 113), ('member', 'worked', 134), ('He', 'retired', 143)]</t>
   </si>
   <si>
     <t>[('person', 'sent', 42), ('identities', 'using', 34), ('email', 'sent', 42), ('email', 'had', 79), ('attachment', 'had', 79), ('allegations', 'highlighted', 92)]</t>
   </si>
   <si>
-    <t>[('Officer', 'interviewed', 6), ('OIOS', 'told', 10), ('2', 'asked', 18), ('him', 'asked', 18), ('expenses', 'pay', 21), ('He', 'said', 35), ('ECA', 'written', 39), ('who', 'asked', 45), ('HQ', 'asked', 45), ('funds', 'transfer', 51), ('Officer', 'cashed', 62), ('funds', 'cashed', 62), ('DSA', 'disbursed', 66), ('He', 'said', 73), ('he', 'paid', 80), ('group', 'paid', 80), ('He', 'indicated', 98), ('payment', 'indicated', 98), ('asterisks', 'placing', 107), ('Barclays', 'paid', 118), ('participants', 'paid', 118), ('list', 'using', 122), ('tellers', 'had', 143), ('participant', 'sign', 146), ('name', 'sign', 146), ('DSA', 'paid', 156), ('Officer', 'said', 163), ('tellers', 'paid', 172), ('participants', 'paid', 172)]</t>
-  </si>
-  <si>
-    <t>[('Officer', 'explained', 8), ('discrepancies', 'explained', 8), ('employee', 'tampered', 19), ('who', 'attend', 32), ('DSA', 'pocketed', 35), ('He', 'said', 40), ('he', 'dealt', 43), ('one', 'signed', 65), ('list', 'signed', 65), ('he', 'acknowledged', 75), ('he', 'witnessed', 79), ('he', 'raised', 92), ('questions', 'raised', 92), ('he', 'claimed', 117), ('He', 'acknowledged', 133), ('he', 'received', 137), ('memoranda', 'received', 137), ('4', 'received', 137), ('him', 'asking', 142), ('that', 'given', 158), ('he', 'thought', 164)]</t>
-  </si>
-  <si>
-    <t>[('evidence', 'adduced', 3), ('Member', 'received', 13), ('appointment', 'received', 13), ('he', 'began', 29), ('work', 'began', 29), ('he', 'received', 48), ('contracts', 'received', 48), ('management', 'advised', 56), ('OIOS', 'advised', 56), ('decision', 'justified', 76), ('contracts', 'grant', 80), ('Member', 'have', 95), ('background', 'have', 95), ('expertise', 'had', 105)]</t>
-  </si>
-  <si>
-    <t>[('Division', 'received', 16), ('report', 'received', 16), ('Consultant', 'maintained', 107), ('relationship', 'maintained', 107), ('conflict', 'creating', 117), ('Member', 'demanded', 134)]</t>
-  </si>
-  <si>
-    <t>[('evidence', 'adduced', 3), ('Member', 'have', 24), ('relationship', 'have', 24), ('BTF', 'had', 37), ('series', 'had', 37), ('Member', 'held', 90), ('contract', 'held', 90), ('company', 'had', 100), ('relationship', 'had', 100), ('this', 'created', 109), ('appearance', 'created', 109)]</t>
-  </si>
-  <si>
-    <t>[('OIOS', 'learned', 11), ('company', 'received', 16), ('contracts', 'received', 16), ('which', 'states', 37), ('functions', 'include', 42), ('actions', 'include', 42), ('consideration', 'given', 77), ('functions', 'exercising', 81), ('OIOS', 'finds', 132), ('UNEP', 'departed', 137), ('irregularities', 'seem', 150), ('urgency', 'necessitated', 166), ('BTF', 'become', 169), ('organisations', 'taken', 182), ('measures', 'taken', 182), ('problems', 'rectify', 185)]</t>
+    <t>[('Officer', 'told', 10), ('OIOS', 'told', 10), ('2', 'asked', 18), ('him', 'asked', 18), ('expenses', 'pay', 21), ('He', 'said', 35), ('ECA', 'written', 39), ('who', 'asked', 45), ('HQ', 'asked', 45), ('funds', 'transfer', 51), ('Officer', 'cashed', 62), ('funds', 'cashed', 62), ('DSA', 'disbursed', 66), ('He', 'said', 73), ('he', 'paid', 80), ('group', 'paid', 80), ('He', 'indicated', 98), ('payment', 'indicated', 98), ('asterisks', 'placing', 107), ('Barclays', 'paid', 118), ('participants', 'paid', 118), ('list', 'using', 122), ('tellers', 'had', 143), ('sign', 'had', 143), ('name', 'sign', 146), ('DSA', 'paid', 156), ('Officer', 'said', 163), ('tellers', 'paid', 172), ('participants', 'paid', 172)]</t>
+  </si>
+  <si>
+    <t>[('Officer', 'explained', 7), ('discrepancies', 'explained', 7), ('employee', 'tampered', 18), ('who', 'attend', 31), ('DSA', 'pocketed', 34), ('He', 'said', 39), ('he', 'dealt', 42), ('one', 'signed', 64), ('list', 'signed', 64), ('he', 'acknowledged', 74), ('he', 'witnessed', 78), ('payments', 'witnessed', 78), ('he', 'raised', 91), ('questions', 'raised', 91), ('he', 'claimed', 116), ('He', 'acknowledged', 132), ('he', 'received', 136), ('memoranda', 'received', 136), ('4', 'received', 136), ('him', 'asking', 141), ('that', 'given', 157), ('he', 'thought', 163)]</t>
+  </si>
+  <si>
+    <t>[('evidence', 'shows', 6), ('Member', 'received', 12), ('appointment', 'received', 12), ('he', 'began', 28), ('work', 'began', 28), ('he', 'received', 47), ('contracts', 'received', 47), ('management', 'advised', 55), ('OIOS', 'advised', 55), ('decision', 'justified', 75), ('contracts', 'grant', 79), ('Member', 'have', 94), ('background', 'have', 94), ('expertise', 'had', 104)]</t>
+  </si>
+  <si>
+    <t>[('Division', 'received', 15), ('report', 'received', 15), ('Consultant', 'maintained', 106), ('relationship', 'maintained', 106), ('conflict', 'creating', 116), ('Member', 'demanded', 133)]</t>
+  </si>
+  <si>
+    <t>[('evidence', 'shows', 6), ('Member', 'have', 23), ('relationship', 'have', 23), ('BTF', 'had', 36), ('series', 'had', 36), ('Member', 'held', 89), ('contract', 'held', 89), ('company', 'had', 99), ('relationship', 'had', 99), ('this', 'created', 108), ('appearance', 'created', 108)]</t>
+  </si>
+  <si>
+    <t>[('OIOS', 'learned', 11), ('company', 'received', 16), ('contracts', 'received', 16), ('which', 'states', 37), ('functions', 'include', 42), ('actions', 'include', 42), ('principles', 'following', 72), ('consideration', 'given', 77), ('functions', 'exercising', 81), ('OIOS', 'finds', 132), ('UNEP', 'departed', 137), ('irregularities', 'seem', 150), ('urgency', 'necessitated', 166), ('BTF', 'become', 169), ('organisations', 'taken', 182), ('measures', 'taken', 182), ('problems', 'rectify', 185)]</t>
+  </si>
+  <si>
+    <t>[('II', 'supervised', 39), ('Department', 'supervised', 39), ('Official', 'left', 72), ('responsibility', 'passed', 178)]</t>
+  </si>
+  <si>
+    <t>[('personnel', 'know', 14), ('protocols', 'follow', 21), ('member', 'confirmed', 35), ('ITF', 'concludes', 70), ('requirement', 'identify', 101), ('ITF', 'report', 142)]</t>
+  </si>
+  <si>
+    <t>[('Force', 'received', 24), ('information', 'received', 24), ('violations', 'alleging', 26), ('purchase', 'involving', 33), ('agreement', 'specified', 81), ('procedures', 'specified', 81), ('shall', 'specified', 81), ('insurances', 'maintain', 111), ('UNMIK', 'provide', 142), ('Iceland', 'provide', 142), ('ICAA', 'provide', 162), ('assistance', 'provide', 162), ('insurance', 'acquiring', 165), ('operation', 'cover', 169), ('ICAA', 'use', 179), ('results', 'use', 179), ('insurance', 'acquiring', 184)]</t>
+  </si>
+  <si>
+    <t>[('Force', 'investigating', 21), ('allegation', 'investigating', 21), ('who', 'purchased', 43), ('cover', 'purchased', 43), ('Agency', 'determined', 84), ('ITF', 'determined', 84), ('Manager', 'undertake', 91), ('efforts', 'undertake', 91), ('tenders', 'invite', 98), ('Funds', 'using', 120), ('Manager', 'prepare', 153), ('tender', 'prepare', 153), ('he', 'concluded', 173), ('contract', 'concluded', 173), ('conduct', 'demonstrates', 204), ('cause', 'demonstrates', 204)]</t>
+  </si>
+  <si>
+    <t>[('04', 'dated', 14), ('that', 'competed', 27), ('contract', 'awarded', 35), ('uniforms', 'supply', 41), ('author', 'alleged', 55), ('existence', 'alleged', 55), ('letter', 'identified', 106), ('intention', 'identified', 106), ('action', 'seek', 110), ('rules', 'violating', 119), ('member', 'replacing', 126), ('member', 'allowing', 139), ('Vendor', 'favouring', 158)]</t>
+  </si>
+  <si>
+    <t>[('Officer', 'managed', 7), ('tender', 'managed', 7), ('Officer', 'convened', 35), ('Committee', 'chaired', 37), ('that', 'comprised', 57), ('members', 'comprised', 57), ('Officer', 'formed', 83), ('Committee', 'chaired', 85), ('offerings', 'assess', 91), ('which', 'comprised', 99), ('range', 'comprised', 99), ('committee', 'resolved', 160), ('feasibility', 'determine', 168), ('committee', 'reconvened', 188), ('Official', 'announced', 210), ('cancellation', 'announced', 210), ('Official', 'awarded', 221), ('contract', 'awarded', 221), ('which', 'supplied', 249), ('uniforms', 'supplied', 249)]</t>
+  </si>
+  <si>
+    <t>[('Allegation', 'explained', 20), ('Officer', 'replaced', 8), ('member', 'replaced', 8), ('nominee', 'explained', 20), ('committee', 'convened', 48), ('who', 'attended', 63), ('session', 'attended', 63), ('member', 'confirmed', 78), ('Allegation', 'included', 97), ('Officer', 'included', 97), ('Officer', 'included', 97), ('Official', 'told', 118), ('ITF', 'told', 118), ('Officer', 'participated', 125), ('Officer', 'said', 142), ('other', 'nominated', 147), ('Officer', 'nominated', 147), ('staff', 'advised', 159), ('ITF', 'advised', 159), ('representative', 'participate', 174), ('officers', 'evaluate', 191), ('function', 'involves', 187), ('payment', 'involves', 187), ('contractors', 'evaluate', 191), ('payment', 'become', 197), ('Funds', 'Using', 237), ('who', 'sign', 256), ('contract', 'sign', 256)]</t>
+  </si>
+  <si>
+    <t>[('allegation', 'substantiate', 7), ('Officer', 'accepted', 21), ('bribes', 'accepted', 21), ('Manager', 'said', 30), ('he', 'heard', 36), ('she', 'heard', 36), ('rumours', 'heard', 36), ('he', 'remember', 50), ('she', 'remember', 50), ('he', 'heard', 57), ('she', 'heard', 57), ('rumours', 'heard', 57), ('He', 'said', 64), ('she', 'said', 64), ('he', 'referred', 74), ('she', 'referred', 74), ('he', 'heard', 90), ('rumours', 'heard', 90), ('representative', 'paid', 107), ('bribes', 'paid', 107), ('who', 'attended', 116), ('meeting', 'attended', 116), ('Vendor', 'told', 134), ('ITF', 'told', 134), ('they', 'paid', 140), ('bribes', 'paid', 140), ('Officer', 'denied', 160), ('bribes', 'accepting', 161)]</t>
   </si>
   <si>
     <t>[('II', 'supervised', 39), ('Department', 'supervised', 39), ('Official', 'left', 72)]</t>
   </si>
   <si>
-    <t>[('personnel', 'know', 14), ('protocols', 'follow', 21), ('member', 'confirmed', 35), ('ITF', 'concludes', 70), ('requirement', 'identify', 101), ('ITF', 'report', 142)]</t>
-  </si>
-  <si>
-    <t>[('Force', 'received', 24), ('information', 'received', 24), ('violations', 'alleging', 26), ('purchase', 'involving', 33), ('agreement', 'specified', 81), ('procedures', 'specified', 81), ('UNMIK', 'requested', 107), ('insurances', 'maintain', 111), ('UNMIK', 'provide', 142), ('Iceland', 'provide', 142), ('ICAA', 'provide', 162), ('assistance', 'provide', 162), ('insurance', 'acquiring', 165), ('operation', 'cover', 169), ('ICAA', 'use', 179), ('results', 'use', 179), ('insurance', 'acquiring', 184)]</t>
-  </si>
-  <si>
-    <t>[('Force', 'investigating', 22), ('allegation', 'investigating', 22), ('who', 'purchased', 44), ('cover', 'purchased', 44), ('Agency', 'determined', 85), ('ITF', 'determined', 85), ('Manager', 'undertake', 92), ('efforts', 'undertake', 92), ('tenders', 'invite', 99), ('Funds', 'using', 121), ('Manager', 'prepare', 154), ('tender', 'prepare', 154), ('he', 'concluded', 174), ('contract', 'concluded', 174), ('conduct', 'demonstrates', 205), ('cause', 'demonstrates', 205)]</t>
-  </si>
-  <si>
-    <t>[('04', 'dated', 14), ('that', 'competed', 27), ('contract', 'awarded', 35), ('uniforms', 'supply', 41), ('author', 'alleged', 55), ('existence', 'alleged', 55), ('letter', 'identified', 106), ('intention', 'identified', 106), ('action', 'seek', 110), ('rules', 'violating', 119), ('member', 'replacing', 127), ('member', 'allowing', 140), ('Vendor', 'favouring', 159)]</t>
-  </si>
-  <si>
-    <t>[('Officer', 'managed', 7), ('tender', 'managed', 7), ('Officer', 'convened', 35), ('Committee', 'chaired', 37), ('that', 'comprised', 57), ('members', 'comprised', 57), ('Officer', 'formed', 83), ('Committee', 'chaired', 85), ('offerings', 'assess', 91), ('which', 'comprised', 99), ('range', 'comprised', 99), ('committee', 'decided', 135), ('bidder', 'decided', 135), ('committee', 'resolved', 160), ('feasibility', 'determine', 168), ('committee', 'reconvened', 188), ('Official', 'announced', 210), ('cancellation', 'announced', 210), ('Official', 'awarded', 221), ('contract', 'awarded', 221), ('which', 'supplied', 249), ('uniforms', 'supplied', 249)]</t>
-  </si>
-  <si>
-    <t>[('Allegation', 'explained', 20), ('Officer', 'replaced', 8), ('member', 'replaced', 8), ('committee', 'convened', 48), ('who', 'attended', 63), ('session', 'attended', 63), ('member', 'confirmed', 78), ('Allegation', 'told', 119), ('1', 'included', 97), ('Officer', 'included', 97), ('Official', 'told', 119), ('ITF', 'told', 119), ('Officer', 'participated', 126), ('Officer', 'said', 143), ('other', 'nominated', 148), ('Officer', 'nominated', 148), ('staff', 'advised', 160), ('ITF', 'advised', 160), ('representative', 'participate', 175), ('officers', 'evaluate', 192), ('function', 'involves', 188), ('payment', 'involves', 188), ('contractors', 'evaluate', 192), ('payment', 'become', 198), ('Funds', 'Using', 238), ('who', 'sign', 257), ('contract', 'sign', 257)]</t>
-  </si>
-  <si>
-    <t>[('allegation', 'substantiate', 7), ('Officer', 'accepted', 21), ('bribes', 'accepted', 21), ('Manager', 'said', 30), ('he', 'heard', 36), ('she', 'heard', 36), ('rumours', 'heard', 36), ('he', 'remember', 50), ('she', 'remember', 50), ('he', 'heard', 57), ('she', 'heard', 57), ('rumours', 'heard', 57), ('He', 'said', 64), ('she', 'said', 64), ('he', 'referred', 74), ('she', 'referred', 74), ('he', 'heard', 90), ('rumours', 'heard', 90), ('representative', 'paid', 107), ('bribes', 'paid', 107), ('who', 'attended', 116), ('meeting', 'attended', 116), ('Vendor', 'told', 134), ('ITF', 'told', 134), ('they', 'paid', 140), ('bribes', 'paid', 140), ('Officer', 'denied', 160), ('bribes', 'accepting', 161)]</t>
-  </si>
-  <si>
-    <t>[('report', 'concluded', 5), ('company', 'has', 11), ('manufacturer', 'has', 11), ('which', 'offer', 20), ('quality', 'offer', 20), ('date', 'had', 25), ('report', 'states', 44), ('company', 'provided', 48), ('offer', 'provided', 48), ('Vendor', 'submitted', 81), ('offer', 'submitted', 81), ('which', 'contain', 88), ('articles', 'contain', 88), ('He', 'replied', 116), ('she', 'replied', 116), ('committee', 'signed', 139), ('report', 'signed', 139)]</t>
+    <t>[('report', 'concluded', 4), ('company', 'has', 10), ('manufacturer', 'has', 10), ('which', 'offer', 19), ('quality', 'offer', 19), ('date', 'had', 24), ('report', 'states', 43), ('company', 'provided', 47), ('offer', 'provided', 47), ('Vendor', 'submitted', 80), ('offer', 'submitted', 80), ('which', 'contain', 87), ('articles', 'contain', 87), ('He', 'replied', 114), ('she', 'replied', 114), ('committee', 'signed', 137), ('report', 'signed', 137)]</t>
   </si>
   <si>
     <t>[('Official', 'left', 73)]</t>
   </si>
   <si>
+    <t>[('Official', 'left', 73), ('responsibility', 'passed', 176)]</t>
+  </si>
+  <si>
     <t>[('invoices', 'dated', 36), ('Official', 'stated', 80), ('he', 'assumed', 85), ('she', 'assumed', 85), ('Airport', 'hired', 88), ('students', 'hired', 88), ('them', 'wear', 107), ('Official', 'produced', 113), ('requests', 'produced', 113)]</t>
   </si>
   <si>
     <t>[('Official', 'stated', 22), ('airport', 'run', 27), ('them', 'purchased', 35), ('it', 'suggests', 64), ('Airport', 'have', 70), ('idea', 'have', 70), ('it', 'indicates', 98), ('management', 'indicates', 98), ('procedure', 'organise', 116)]</t>
   </si>
   <si>
-    <t>[('requests', 'specify', 7), ('requirement', 'suggests', 26), ('who', 'won', 34), ('tender', 'won', 34), ('Official', 'stated', 62), ('request', 'write', 71), ('he', 'addressed', 102), ('she', 'addressed', 102), ('requests', 'addressed', 102), ('he', 'replied', 119), ('she', 'replied', 119), ('neither', 'mentions', 139), ('Official', 'spoken', 145)]</t>
+    <t>[('requests', 'specify', 7), ('requirement', 'suggests', 26), ('who', 'won', 34), ('tender', 'won', 34), ('Official', 'stated', 61), ('request', 'write', 70), ('he', 'addressed', 101), ('she', 'addressed', 101), ('requests', 'addressed', 101), ('he', 'replied', 118), ('she', 'replied', 118), ('neither', 'mentions', 138), ('Official', 'spoken', 144)]</t>
   </si>
   <si>
     <t>[('investigators', 'conducted', 25), ('enquiry', 'conducted', 25), ('interviews', 'conducting', 33), ('documents', 'obtaining', 40), ('Airport', 'constitutes', 73), ('enterprise', 'constitutes', 73), ('assets', 'include', 87), ('runways', 'include', 87), ('Regulation', 'dated', 158), ('territory', 'administer', 167), ('This', 'includes', 182), ('Airport', 'includes', 182)]</t>
   </si>
   <si>
-    <t>[('report', 'indicates', 9), ('report', 'indicates', 34), ('reason', 'specified', 81), ('committee', 'asked', 101), ('company', 'asked', 101), ('specimen', 'produce', 105), ('it', 'failed', 115)]</t>
+    <t>[('report', 'indicates', 9), ('report', 'indicates', 34), ('committee', 'asked', 100), ('company', 'asked', 100), ('specimen', 'produce', 104), ('it', 'failed', 114)]</t>
   </si>
   <si>
     <t>[('investigators', 'conducted', 27), ('enquiry', 'conducted', 27), ('documents', 'obtaining', 51), ('Airport', 'constitutes', 84), ('enterprise', 'constitutes', 84), ('assets', 'include', 98), ('runways', 'include', 98), ('Regulation', 'dated', 170), ('territory', 'administer', 179), ('This', 'includes', 194), ('Airport', 'includes', 194)]</t>
   </si>
   <si>
-    <t>[('Conclusions', 'denied', 13), ('Official', 'denied', 13), ('he', 'requested', 19), ('she', 'requested', 19), ('support', 'requested', 19), ('procurements', 'cabling', 29), ('Representative', 'granted', 35), ('ITF', 'granted', 35), ('he', 'acted', 42), ('she', 'acted', 42), ('official', 'bears', 54), ('responsibility', 'bears', 54), ('investigation', 'proved', 70), ('he', 'meet', 79), ('she', 'meet', 79), ('requirements', 'meet', 79), ('matter', 'has', 96), ('Regulation', 'indicate', 134), ('cases', 'described', 137), ('case', 'prove', 144)]</t>
-  </si>
-  <si>
-    <t>[('official', 'supported', 12), ('process', 'supported', 12), ('recommendation', 'writing', 29), ('specifications', 'defined', 41), ('FIDS', 'cable', 57), ('tender', 'had', 63), ('Procurement', 'started', 95), ('purchase', 'became', 116), ('Management', 'decided', 143), ('Vendor', 'choose', 145), ('file', 'show', 169), ('Vendor', 'delivered', 174), ('FIDS', 'delivered', 174), ('it', 'cable', 180), ('need', 'resulted', 189), ('FIDS', 'cabling', 186), ('that', 'commenced', 194), ('it', 'appeared', 205), ('2', 'won', 209), ('tender', 'won', 209)]</t>
-  </si>
-  <si>
-    <t>[('projects', 'suggest', 23), ('Engineer', 'stated', 34), ('support', 'request', 51), ('supply', 'justify', 63), ('Engineer', 'recommended', 72), ('cabling', 'recommended', 72), ('Vendor', 'provide', 124), ('he', 'stated', 134), ('she', 'stated', 134), ('management', 'allow', 142), ('Manager', 'mentioned', 160)]</t>
-  </si>
-  <si>
-    <t>[('IV', 'approved', 39), ('contract', 'signed', 41), ('Information', 'launched', 71), ('Airport', 'launched', 71), ('tender', 'launched', 71), ('equipment', 'supply', 76), ('Committee', 'awarded', 90), ('contract', 'awarded', 90), ('who', 'submitted', 100), ('tender', 'submitted', 100), ('that', 'met', 112), ('specifications', 'met', 112), ('Vendor', 'signed', 156), ('document', 'signed', 156), ('Auditor', 'expressed', 165), ('concerns', 'expressed', 165), ('which', 'resulted', 175), ('Official', 'signed', 196), ('contract', 'signed', 196), ('date', 'record', 203)]</t>
-  </si>
-  <si>
-    <t>[('Details', 'confirmed', 50), ('Official', 'told', 107), ('Airport', 'told', 107), ('Investigators', 'told', 107), ('she', 'regarded', 113), ('Kosovars', 'regarded', 113), ('Investigators', 'checked', 128), ('matter', 'checked', 128), ('who', 'confirmed', 141), ('he', 'confirmed', 141), ('interpretation', 'dispute', 153)]</t>
-  </si>
-  <si>
-    <t>[('FINDINGS', 'is', 8), ('Airline', 'sought', 15), ('charges', 'avoid', 17), ('charges', 'levied', 27), ('receipts', 'issued', 44), ('compliance', 'ensure', 83), ('practice', 'continued', 117), ('trail', 'showed', 201), ('discrepancies', 'showed', 201)]</t>
-  </si>
-  <si>
-    <t>[('ITF', 'reviewed', 8), ('procedures', 'reviewed', 8), ('they', 'complied', 22), ('extract', 'states', 57), ('following', 'states', 57), ('sheet', 'contains', 97), ('facts', 'contains', 97), ('We', 'use', 163), ('information', 'use', 163), ('taxes', 'departing', 185), ('attention', 'requiring', 191)]</t>
-  </si>
-  <si>
-    <t>[('ITF', 'reviewed', 8), ('procedures', 'reviewed', 8), ('they', 'complied', 22), ('extract', 'states', 57), ('following', 'states', 57), ('Entity', 'acquired', 80), ('system', 'implemented', 82), ('system', 'provides', 93), ('evidence', 'provides', 93), ('PA', 'integrated', 109), ('system', 'connected', 111), ('Establishment', 'provide', 128), ('controls', 'provide', 128)]</t>
-  </si>
-  <si>
-    <t>[('Investigators', 'asked', 8), ('Official', 'asked', 8), ('Airport', 'asked', 8), ('obligations', 'describe', 20), ('Official', 'stated', 31), ('passengers', 'departing', 45), ('Official', 'explained', 51), ('facilities', 'using', 61), ('He', 'explained', 77), ('She', 'explained', 77), ('guards', 'entered', 97), ('who', 'remained', 87), ('return', 'awaiting', 89), ('Airport', 'entered', 97), ('Official', 'said', 120), ('carrier', 'used', 138), ('facilities', 'used', 138)]</t>
-  </si>
-  <si>
-    <t>[('passengers', 'met', 12), ('They', 'went', 41), ('aircraft', 'boarding', 58), ('They', 'pass', 69), ('Investigators', 'reviewed', 83), ('paperwork', 'reviewed', 83), ('Official', 'provided', 102), ('book', 'provided', 102), ('payments', 'evidence', 108), ('airlines', 'pay', 137), ('Pristina', 'visiting', 130), ('services', 'handling', 141), ('book', 'sign', 178), ('ITF', 'verified', 186), ('signature', 'verified', 186)]</t>
-  </si>
-  <si>
-    <t>[('Official', 'explained', 9), ('Airline', 'paid', 13), ('cash', 'paid', 13), ('aircraft', 'used', 33), ('airport', 'used', 33), ('Official', 'explained', 40), ('he', 'endeavored', 46), ('she', 'endeavored', 46), ('account', 'open', 48), ('ITF', 'sought', 63), ('assistance', 'sought', 63), ('movements', 'monitor', 77), ('Investigators', 'monitored', 89), ('Airline', 'monitored', 89), ('flights', 'monitored', 89), ('passengers', 'went', 111), ('escorts', 'remained', 134), ('instructions', 'awaiting', 139), ('They', 'enter', 150), ('building', 'enter', 150)]</t>
-  </si>
-  <si>
-    <t>[('Investigators', 'obtained', 8), ('number', 'obtained', 8), ('schedule', 'lists', 53), ('number', 'lists', 53), ('tax', 'paid', 73), ('Investigators', 'spoke', 80), ('documents', 'record', 129), ('details', 'record', 129), ('maximum', 'take', 143), ('weight', 'take', 143)]</t>
-  </si>
-  <si>
-    <t>[('Airline', 'flies', 8), ('passengers', 'carrying', 18), ('state', 'enter', 26), ('representative', 'escort', 61), ('staff', 'escort', 61), ('passengers', 'escort', 61), ('flight', 'carries', 83), ('passengers', 'carries', 83), ('officers', 'travel', 122)]</t>
-  </si>
-  <si>
-    <t>[('investigators', 'visited', 3), ('Police', 'visited', 3), ('investigators', 'interviewed', 9), ('officer', 'recalled', 16), ('incident', 'recalled', 16), ('they', 'made', 22), ('enquiries', 'made', 22), ('report', 'trace', 29), ('5,200', 'locate', 34), ('ITF', 'sent', 54), ('letter', 'sent', 54), ('result', 'determine', 67), ('Officer', 'indicated', 96), ('Region', 'undertaking', 104), ('investigation', 'undertaking', 104), ('which', 'remains', 113)]</t>
-  </si>
-  <si>
-    <t>[('Analysis', 'suggests', 13), ('company', 'referred', 17), ('who', 'won', 33), ('contract', 'won', 33), ('representative', 'attended', 50), ('meeting', 'attended', 50), ('sum', 'alleged', 75), ('one', 'expect', 89), ('memorandum', 'alleged', 130), ('Official', 'accepted', 136), ('envelope', 'accepted', 136)]</t>
+    <t>[('Conclusions', 'denied', 13), ('Official', 'denied', 13), ('he', 'requested', 19), ('she', 'requested', 19), ('support', 'requested', 19), ('procurements', 'cabling', 29), ('Representative', 'granted', 35), ('ITF', 'granted', 35), ('he', 'acted', 42), ('she', 'acted', 42), ('official', 'bears', 54), ('responsibility', 'bears', 54), ('investigation', 'proved', 70), ('he', 'meet', 79), ('she', 'meet', 79), ('requirements', 'meet', 79), ('matter', 'has', 95), ('Regulation', 'indicate', 133), ('cases', 'described', 136), ('case', 'prove', 143)]</t>
+  </si>
+  <si>
+    <t>[('official', 'supported', 12), ('process', 'supported', 12), ('recommendation', 'writing', 29), ('specifications', 'defined', 41), ('FIDS', 'cable', 57), ('tender', 'had', 63), ('FIDS', 'cabling', 70), ('Vendor', 'started', 94), ('purchase', 'became', 115), ('Management', 'decided', 142), ('Vendor', 'choose', 144), ('file', 'show', 167), ('Vendor', 'delivered', 172), ('FIDS', 'delivered', 172), ('it', 'cable', 178), ('need', 'resulted', 187), ('FIDS', 'cabling', 184), ('that', 'commenced', 192), ('it', 'appeared', 203), ('2', 'won', 207), ('tender', 'won', 207)]</t>
+  </si>
+  <si>
+    <t>[('projects', 'suggest', 22), ('Engineer', 'stated', 33), ('support', 'request', 50), ('supply', 'justify', 62), ('Engineer', 'recommended', 71), ('cabling', 'recommended', 71), ('Vendor', 'provide', 122), ('he', 'stated', 132), ('she', 'stated', 132), ('management', 'allow', 140), ('Manager', 'mentioned', 158)]</t>
+  </si>
+  <si>
+    <t>[('IV', 'approved', 39), ('contract', 'signed', 41), ('Information', 'launched', 71), ('Airport', 'launched', 71), ('tender', 'launched', 71), ('equipment', 'supply', 76), ('Committee', 'awarded', 90), ('contract', 'awarded', 90), ('who', 'submitted', 100), ('tender', 'submitted', 100), ('that', 'met', 112), ('specifications', 'met', 112), ('Vendor', 'signed', 155), ('document', 'signed', 155), ('Auditor', 'expressed', 164), ('concerns', 'expressed', 164), ('which', 'resulted', 174), ('Official', 'signed', 195), ('contract', 'signed', 195), ('date', 'record', 202)]</t>
+  </si>
+  <si>
+    <t>[('DETAILS', 'charges', 6), ('themselves', 'charges', 6), ('List', 'published', 25), ('Details', 'confirmed', 49), ('charge', 'handling', 51), ('Airport', 'told', 106), ('Investigators', 'told', 106), ('she', 'regarded', 112), ('Kosovars', 'returning', 114), ('Investigators', 'checked', 127), ('matter', 'checked', 127), ('who', 'confirmed', 140), ('he', 'confirmed', 140), ('interpretation', 'dispute', 152)]</t>
+  </si>
+  <si>
+    <t>[('FINDINGS', 'is', 8), ('Airline', 'sought', 15), ('charges', 'avoid', 17), ('charges', 'levied', 27), ('receipts', 'issued', 44), ('compliance', 'ensure', 82), ('Official', 'appointed', 90), ('practice', 'continued', 115), ('trail', 'showed', 197), ('discrepancies', 'showed', 197)]</t>
+  </si>
+  <si>
+    <t>[('ITF', 'reviewed', 7), ('procedures', 'reviewed', 7), ('they', 'complied', 21), ('extract', 'following', 58), ('Comment', 'following', 58), ('sheet', 'contains', 96), ('facts', 'contains', 96), ('We', 'use', 162), ('information', 'use', 162), ('taxes', 'departing', 183), ('attention', 'requiring', 189)]</t>
+  </si>
+  <si>
+    <t>[('ITF', 'reviewed', 7), ('procedures', 'reviewed', 7), ('they', 'complied', 21), ('extract', 'following', 58), ('53', 'following', 58), ('Entity', 'acquired', 79), ('system', 'implemented', 81), ('system', 'provides', 92), ('evidence', 'provides', 92), ('PA', 'integrated', 108), ('system', 'connected', 110), ('Establishment', 'provide', 127), ('controls', 'provide', 127)]</t>
+  </si>
+  <si>
+    <t>[('Investigators', 'asked', 8), ('Official', 'asked', 8), ('obligations', 'describe', 20), ('Official', 'stated', 31), ('passengers', 'departing', 45), ('Official', 'explained', 51), ('facilities', 'using', 61), ('He', 'explained', 77), ('She', 'explained', 77), ('guards', 'entered', 97), ('who', 'remained', 87), ('return', 'awaiting', 89), ('Airport', 'entered', 97), ('Official', 'said', 120), ('carrier', 'used', 138), ('facilities', 'used', 138)]</t>
+  </si>
+  <si>
+    <t>[('passengers', 'met', 12), ('They', 'went', 41), ('They', 'pass', 69), ('Investigators', 'reviewed', 83), ('paperwork', 'reviewed', 83), ('Official', 'provided', 102), ('book', 'provided', 102), ('payments', 'evidence', 108), ('airlines', 'pay', 137), ('Pristina', 'visiting', 130), ('services', 'handling', 141), ('book', 'sign', 178), ('ITF', 'verified', 186), ('signature', 'verified', 186)]</t>
+  </si>
+  <si>
+    <t>[('Official', 'explained', 9), ('Airline', 'paid', 13), ('cash', 'paid', 13), ('aircraft', 'used', 33), ('airport', 'used', 33), ('Official', 'explained', 40), ('he', 'endeavored', 46), ('she', 'endeavored', 46), ('account', 'open', 48), ('ITF', 'sought', 62), ('assistance', 'sought', 62), ('movements', 'monitor', 76), ('Investigators', 'monitored', 88), ('Airline', 'monitored', 88), ('passengers', 'arriving', 107), ('escorts', 'remained', 133), ('instructions', 'awaiting', 138), ('They', 'enter', 149), ('building', 'enter', 149)]</t>
+  </si>
+  <si>
+    <t>[('Investigators', 'obtained', 8), ('number', 'obtained', 8), ('schedule', 'lists', 53), ('number', 'lists', 53), ('Airline', 'paid', 73), ('tax', 'paid', 73), ('Investigators', 'spoke', 80), ('copies', 'requested', 92), ('documents', 'record', 129), ('details', 'record', 129), ('maximum', 'take', 143), ('weight', 'take', 143)]</t>
+  </si>
+  <si>
+    <t>[('Airline', 'flies', 7), ('passengers', 'carrying', 17), ('state', 'enter', 25), ('representative', 'escort', 60), ('staff', 'escort', 60), ('passengers', 'escort', 60), ('state', 'mentioned', 76), ('flight', 'carries', 82), ('passengers', 'carries', 82), ('escorts', 'returning', 90), ('number', 'working', 113), ('officers', 'travel', 121)]</t>
+  </si>
+  <si>
+    <t>[('investigators', 'visited', 3), ('Police', 'visited', 3), ('investigators', 'interviewed', 9), ('officer', 'recalled', 16), ('incident', 'recalled', 16), ('they', 'made', 22), ('enquiries', 'made', 22), ('report', 'trace', 29), ('5,200', 'locate', 34), ('ITF', 'sent', 54), ('letter', 'sent', 54), ('result', 'sent', 54), ('Officer', 'indicated', 95), ('Region', 'undertaking', 103), ('investigation', 'undertaking', 103), ('which', 'remains', 112)]</t>
+  </si>
+  <si>
+    <t>[('Analysis', 'suggests', 13), ('company', 'referred', 17), ('who', 'won', 33), ('contract', 'won', 33), ('representative', 'attended', 50), ('meeting', 'attended', 50), ('sum', 'alleged', 74), ('one', 'expect', 88), ('memorandum', 'alleged', 129), ('Official', 'accepted', 135), ('envelope', 'accepted', 135), ('time', 'concluded', 159)]</t>
   </si>
   <si>
     <t>[('INTRODUCTION', 'alleged', 15), ('Manager', 'alleged', 15), ('5200', 'containing', 23), ('group', 'attended', 71), ('meeting', 'attended', 71), ('case', 'concerns', 106), ('allegation', 'concerns', 106)]</t>
   </si>
   <si>
-    <t>[('INFORMATION', 'advised', 12), ('Manager', 'advised', 12), ('ITF', 'advised', 12), ('which', 'occurred', 20), ('which', 'thought', 33), ('he', 'thought', 33), ('he', 'raised', 39), ('she', 'raised', 39), ('Manager', 'provided', 68), ('ITF', 'provided', 68), ('documents', 'consist', 102), ('incident', 'detailing', 139), ('list', 'annexing', 143), ('5,200', 'totalling', 152)]</t>
-  </si>
-  <si>
-    <t>[('Specialist', 'indicated', 6), ('he', 'see', 13), ('she', 'see', 13), ('anything', 'see', 13), ('he', 'heard', 30), ('she', 'heard', 30), ('He', 'expressed', 38), ('she', 'expressed', 38), ('opinion', 'expressed', 38), ('contract', 'break', 51), ('ITF', 'reviewed', 69), ('letter', 'reviewed', 69), ('which', 'indicates', 83), ('letter', 'records', 101), ('Officer', 'told', 129), ('ITF', 'told', 129), ('he', 'served', 136), ('incident', 'recalls', 146), ('He', 'stated', 155), ('she', 'stated', 155), ('he', 'serving', 164), ('she', 'serving', 164), ('enquiry', 'assigned', 173), ('she', 'left', 193), ('Mission', 'left', 193)]</t>
-  </si>
-  <si>
-    <t>[('Specialist', 'told', 5), ('ITF', 'told', 5), ('contract', 'hand', 44), ('it', 'sign', 61), ('Specialist', 'indicated', 68), ('he', 'thought', 86), ('she', 'thought', 86), ('Specialist', 'added', 100), ('party', 'winning', 109), ('bid', 'winning', 109), ('contract', 'sign', 116)]</t>
-  </si>
-  <si>
-    <t>[('investigators', 'conducted', 24), ('enquiry', 'conducted', 24), ('documents', 'obtaining', 48), ('Airport', 'constitutes', 79), ('enterprise', 'constitutes', 79), ('assets', 'include', 93), ('runways', 'include', 93), ('Regulation', 'dated', 165), ('territory', 'administer', 175), ('This', 'includes', 190), ('Airport', 'includes', 190), ('II', 'supervised', 234), ('Department', 'supervised', 234), ('Official', 'left', 267)]</t>
-  </si>
-  <si>
-    <t>[('IV', 'VIOLATIONS', 4), ('CRIMINAL', 'VIOLATIONS', 4), ('Count', 'presented', 86), ('Official', 'acting', 62), ('benefit', 'obtain', 80), ('representative', 'presented', 86), ('fees', 'claiming', 98), ('person', 'misled', 108), ('payment', 'carry', 113), ('offence', 'committing', 120)]</t>
+    <t>[('INFORMATION', 'advised', 12), ('Manager', 'advised', 12), ('ITF', 'advised', 12), ('which', 'occurred', 20), ('which', 'thought', 33), ('he', 'thought', 33), ('he', 'raised', 39), ('she', 'raised', 39), ('Manager', 'provided', 67), ('ITF', 'provided', 67), ('documents', 'consist', 100), ('incident', 'detailing', 137), ('list', 'annexing', 141), ('5,200', 'totalling', 150)]</t>
+  </si>
+  <si>
+    <t>[('Specialist', 'indicated', 5), ('he', 'see', 12), ('she', 'see', 12), ('anything', 'see', 12), ('he', 'heard', 29), ('she', 'heard', 29), ('He', 'expressed', 37), ('she', 'expressed', 37), ('opinion', 'expressed', 37), ('contract', 'break', 50), ('ITF', 'reviewed', 67), ('letter', 'reviewed', 67), ('which', 'indicates', 81), ('letter', 'records', 99), ('Officer', 'told', 126), ('ITF', 'told', 126), ('he', 'served', 133), ('she', 'served', 133), ('incident', 'recalls', 143), ('He', 'stated', 152), ('she', 'stated', 152), ('he', 'serving', 161), ('she', 'serving', 161), ('enquiry', 'assigned', 170), ('she', 'left', 190), ('Mission', 'left', 190)]</t>
+  </si>
+  <si>
+    <t>[('Specialist', 'told', 4), ('ITF', 'told', 4), ('contract', 'hand', 43), ('it', 'sign', 60), ('Specialist', 'indicated', 67), ('he', 'thought', 85), ('she', 'thought', 85), ('Specialist', 'added', 99), ('party', 'winning', 108), ('bid', 'winning', 108), ('contract', 'sign', 115)]</t>
+  </si>
+  <si>
+    <t>[('investigators', 'conducted', 24), ('enquiry', 'conducted', 24), ('documents', 'obtaining', 48), ('Airport', 'constitutes', 79), ('enterprise', 'constitutes', 79), ('assets', 'include', 93), ('runways', 'include', 93), ('Regulation', 'dated', 165), ('territory', 'administer', 175), ('This', 'includes', 190), ('Airport', 'includes', 190), ('II', 'supervised', 234), ('Department', 'supervised', 234), ('Official', 'left', 267), ('contract', 'following', 467)]</t>
+  </si>
+  <si>
+    <t>[('IV', 'VIOLATIONS', 4), ('CRIMINAL', 'VIOLATIONS', 4), ('Count', 'misled', 108), ('That', 'presented', 86), ('Official', 'acting', 62), ('benefit', 'obtain', 80), ('representative', 'presented', 86), ('fees', 'claiming', 98), ('person', 'misled', 108), ('payment', 'carry', 113), ('offence', 'committing', 120)]</t>
   </si>
   <si>
     <t>[('DETAILS', 'paid', 15), ('Partner', 'paid', 15), ('8,000.00', 'paid', 15), ('who', 'went', 26), ('it', 'hand', 31), ('Representative', 'stated', 40), ('over', 'took', 52), ('place', 'took', 52), ('Operator', 'corroborated', 76), ('who', 'observed', 68), ('meeting', 'observed', 68), ('fact', 'corroborated', 76), ('meeting', 'took', 82), ('place', 'took', 82), ('Investigators', 'visited', 90), ('Office', 'visited', 90), ('documentation', 'check', 97), ('that', 'provided', 144), ('Officer', 'provided', 144), ('Company', 'paid', 153), ('amount', 'paid', 153)]</t>
   </si>
   <si>
-    <t>[('Investigators', 'met', 7), ('who', 'explained', 14), ('part', 'involves', 21), ('importation', 'involves', 21), ('Company', 'consists', 33), ('Partner', 'consists', 33), ('partners', 'agreed', 59), ('price', 'pay', 82), ('everything', 'pay', 97), ('he', 'calculates', 172), ('she', 'calculates', 172), ('fees', 'calculates', 172), ('goods', 'retrieve', 185), ('fee', 'had', 191), ('Official', 'worked', 246), ('payments', 'complied', 278)]</t>
-  </si>
-  <si>
-    <t>[('Mission', 'taking', 36), ('No', 'promulgated', 80), ('law', 'defining', 71), ('SRSG', 'promulgated', 80), ('regulations', 'issued', 107), ('thereunder', 'issued', 107), ('Investigators', 'considered', 128), ('breaches', 'considered', 128)]</t>
-  </si>
-  <si>
-    <t>[('Kosovo', 'conducted', 11), ('investigation', 'conducted', 11), ('Account', 'surrounding', 17), ('activities', 'fall', 62), ('Investigations', 'established', 123), ('UNMIK', 'involving', 94), ('pursuant', 'established', 123)]</t>
-  </si>
-  <si>
-    <t>[('INFORMATION', 'highlighted', 9), ('problem', 'highlighted', 9), ('interest', 'going', 54), ('Investigators', 'established', 68), ('UNMIK', 'signed', 81), ('contract', 'signed', 81), ('Company', 'commenced', 120), ('fuel', 'supplying', 121)]</t>
-  </si>
-  <si>
-    <t>[('ALLEGATIONS', 'received', 32), ('Division', 'received', 32), ('information', 'received', 32), ('authority', 'abused', 63), ('evidence', 'support', 88), ('allegations', 'support', 88), ('investigation', 'found', 97), ('evidence', 'found', 97), ('he', 'abused', 117), ('authority', 'abused', 117)]</t>
+    <t>[('Investigators', 'met', 7), ('who', 'explained', 14), ('part', 'involves', 21), ('importation', 'involves', 21), ('Company', 'consists', 33), ('•', 'agreed', 58), ('price', 'pay', 81), ('everything', 'pay', 96), ('he', 'calculates', 171), ('she', 'calculates', 171), ('fees', 'calculates', 171), ('goods', 'retrieve', 184), ('fee', 'had', 190), ('Official', 'worked', 245), ('payments', 'complied', 277)]</t>
+  </si>
+  <si>
+    <t>[('law', 'defining', 71), ('SRSG', 'promulgated', 80), ('regulations', 'issued', 107), ('instruments', 'issued', 107), ('thereunder', 'issued', 107), ('Investigators', 'considered', 127), ('breaches', 'considered', 127)]</t>
+  </si>
+  <si>
+    <t>[('Kosovo', 'conducted', 10), ('investigation', 'conducted', 10), ('Account', 'surrounding', 16), ('activities', 'fall', 60), ('Investigations', 'established', 121), ('UNMIK', 'involving', 92), ('pursuant', 'established', 121)]</t>
+  </si>
+  <si>
+    <t>[('Report', 'highlighted', 8), ('problem', 'highlighted', 8), ('interest', 'going', 53), ('Investigators', 'established', 66), ('UNMIK', 'signed', 79), ('contract', 'signed', 79), ('Company', 'commenced', 118), ('fuel', 'supplying', 119)]</t>
+  </si>
+  <si>
+    <t>[('ALLEGATIONS', 'received', 31), ('Division', 'received', 31), ('information', 'received', 31), ('authority', 'abused', 62), ('evidence', 'received', 31), ('allegations', 'support', 86), ('investigation', 'found', 95), ('evidence', 'found', 95), ('he', 'abused', 115), ('authority', 'abused', 115)]</t>
   </si>
   <si>
     <t>[('Cell', 'establishing', 24), ('he', 'served', 61), ('unit', 'consisted', 73), ('Officer', 'left', 94), ('UNMIL', 'left', 94), ('replacement', 'took', 111), ('post', 'took', 111)]</t>
@@ -1657,10 +2086,10 @@
     <t>[('INTRODUCTION', 'received', 22), ('Division', 'received', 22), ('request', 'received', 22), ('that', 'recruited', 35), ('Office', 'recruited', 35), ('staff', 'engaged', 47), ('letters', 'submitting', 52), ('dates', 'showing', 57), ('loans', 'obtain', 63), ('which', 'operates', 84), ('members', 'obtained', 133), ('loans', 'obtained', 133), ('letters', 'submitting', 139), ('scheme', 'spread', 163), ('Agencies', 'based', 169)]</t>
   </si>
   <si>
-    <t>[('members', 'obtained', 44), ('loans', 'obtained', 44), ('letters', 'submitting', 50), ('scheme', 'spread', 74), ('Agencies', 'based', 80), ('findings', 'present', 153)]</t>
-  </si>
-  <si>
-    <t>[('OIOS', 'interview', 5), ('staff', 'interview', 5), ('member', 'passed', 23), ('who', 'left', 30), ('UNICEF', 'left', 30), ('interview', 'declined', 33), ('information', 'obtained', 48), ('staff', 'confirmed', 85), ('they', 'misused', 88), ('letterhead', 'misused', 88), ('they', 'forged', 98), ('signature', 'forged', 98), ('they', 'provided', 109), ('UN', 'provided', 109), ('-', 'provided', 109), ('SACCO', 'provided', 109), ('loans', 'obtain', 125), ('All', 'mentioned', 131), ('ease', 'mentioned', 131), ('they', 'accessed', 137), ('stamps', 'accessed', 137), ('drivers', 'occurred', 167), ('access', 'occurred', 167), ('interviewees', 'stated', 174), ('they', 'acted', 177), ('all', 'denied', 186), ('colleagues', 'assisted', 194), ('them', 'assisted', 194)]</t>
+    <t>[('members', 'obtained', 43), ('loans', 'obtained', 43), ('letters', 'submitting', 49), ('scheme', 'spread', 73), ('Agencies', 'based', 79), ('findings', 'present', 152)]</t>
+  </si>
+  <si>
+    <t>[('OIOS', 'interview', 5), ('staff', 'interview', 5), ('member', 'passed', 23), ('who', 'left', 30), ('UNICEF', 'left', 30), ('interview', 'declined', 33), ('information', 'obtained', 48), ('staff', 'confirmed', 85), ('they', 'misused', 88), ('letterhead', 'misused', 88), ('they', 'forged', 98), ('signature', 'forged', 98), ('they', 'provided', 109), ('-', 'provided', 109), ('SACCO', 'provided', 109), ('loans', 'obtain', 125), ('All', 'mentioned', 131), ('ease', 'mentioned', 131), ('they', 'accessed', 137), ('stamps', 'accessed', 137), ('responsibilities', 'given', 147), ('drivers', 'occurred', 167), ('access', 'occurred', 167), ('interviewees', 'stated', 174), ('they', 'acted', 177), ('all', 'denied', 186), ('colleagues', 'assisted', 194), ('them', 'assisted', 194)]</t>
   </si>
   <si>
     <t>[('Investigators', 'noted', 8), ('irregularities', 'noted', 8), ('letters', 'concerning', 11), ('officers', 'made', 51), ('copies', 'made', 51), ('them', 'compared', 57), ('signatures', 'appeared', 79), ('they', 'signed', 87), ('them', 'signed', 87), ('Investigators', 'noted', 95), ('Manager', 'informed', 108), ('management', 'informed', 108), ('s', 'admitted', 150), ('he', 'admitted', 150), ('s', 'admitted', 150), ('he', 'written', 155), ('letter', 'written', 155), ('staff', 'obtain', 183), ('loans', 'obtain', 183), ('OIOS', 'cautions', 189), ('managers', 'cautions', 189), ('issuance', 'give', 198), ('impression', 'give', 198)]</t>
@@ -1669,58 +2098,64 @@
     <t>[('Interviews', 'provided', 22), ('information', 'provided', 22), ('access', 'providing', 38), ('interviews', 'produce', 51), ('information', 'produce', 51), ('conduct', 'rule', 59), ('Documentation', 'obtained', 75), ('members', 'requested', 95), ('loans', 'obtained', 97), ('which', 'need', 124), ('Investigators', 'decided', 147), ('review', 'do', 149)]</t>
   </si>
   <si>
-    <t>[('Officer', 'requested', 3), ('copy', 'requested', 3), ('Management', 'started', 57), ('inquiry', 'started', 57), ('members', 'obtained', 70), ('loans', 'obtained', 70), ('Somalia', 'has', 78), ('members', 'has', 78), ('which', 'included', 127), ('copies', 'included', 127), ('statements', 'dated', 121), ('who', 'admitted', 145), ('conduct', 'admitted', 145)]</t>
+    <t>[('Officer', 'requested', 2), ('copy', 'requested', 2), ('Management', 'started', 56), ('inquiry', 'started', 56), ('members', 'obtained', 69), ('loans', 'obtained', 69), ('Somalia', 'has', 77), ('members', 'has', 77), ('which', 'included', 126), ('copies', 'included', 126), ('statements', 'dated', 120), ('who', 'admitted', 144), ('conduct', 'admitted', 144)]</t>
   </si>
   <si>
     <t>[('loan', 'obtain', 1), ('Form', 'complete', 12), ('member', 'attach', 47), ('applicant', 'holds', 93), ('contract', 'holds', 93), ('which', 'covers', 99), ('period', 'covers', 99), ('it', 'permits', 121), ('repayment', 'permits', 121), ('guarantee', 'ensure', 134), ('applicant', 'provide', 142), ('guarantors', 'provide', 142), ('which', 'approve', 182), ('application', 'reject', 187)]</t>
   </si>
   <si>
-    <t>[('OIOS', 'recommends', 16), ('actions', 'recommends', 16), ('UNON', 'takes', 31), ('action', 'takes', 31), ('UNON', 'takes', 59), ('measures', 'takes', 59), ('UNON', 'refund', 71), ('money', 'refund', 71), ('s', 'collected', 77), ('/', 'collected', 77), ('he', 'collected', 77), ('administration', 'instructs', 101), ('staff', 'instructs', 101), ('necessity', 'emphasizing', 138), ('administration', 'shares', 167), ('findings', 'shares', 167)]</t>
-  </si>
-  <si>
-    <t>[('FINDINGS', 'intended', 12), ('UNON', 'intended', 12), ('equipment', 'use', 14), ('permission', 'receive', 25), ('Official', 'learned', 48), ('he', 'told', 56), ('UNON', 'told', 56), ('Member', 'told', 56), ('request', 'go', 82), ('UNPOS', 'receive', 92), ('extension', 'receive', 92), ('money', 'return', 111), ('him', 'paid', 114), ('her', 'paid', 114), ('VII', 'return', 111), ('CONCLUSION', 'acted', 167), ('link', 'extend', 128), ('money', 'receiving', 137), ('link', 'provide', 145), ('money', 'return', 152), ('her', 'paid', 155), ('UNON', 'acted', 167), ('link', 'extend', 183), ('UNON', 'acted', 198)]</t>
-  </si>
-  <si>
-    <t>[('Division', 'sought', 14), ('contract', 'obtain', 16), ('Chief', 'communicated', 47), ('request', 'communicated', 47), ('CITS', 'advised', 89), ('PD', 'advised', 89), ('they', 'desired', 93), ('IBM', 'desired', 93), ('PD', 'recommended', 134), ('Toshiba', 'adding', 135), ('CITS', 'continued', 165), ('they', 'sought', 170), ('brands', 'sought', 170), ('products', 'avoid', 179), ('CITS', 'agreed', 207), ('field', 'expanding', 213), ('brands', 'include', 217), ('leaders', 'recognized', 226), ('officer', 'issued', 247), ('notification', 'issued', 247), ('quantity', 'correcting', 255)]</t>
-  </si>
-  <si>
-    <t>[('findings', 'sets', 47), ('matters', 'address', 77)]</t>
+    <t>[('RECOMMENDATIONS', 'recommends', 16), ('OIOS', 'recommends', 16), ('actions', 'following', 18), ('Recommendation', 'recommends', 16), ('UNON', 'takes', 31), ('action', 'takes', 31), ('UNON', 'takes', 59), ('measures', 'takes', 59), ('Member', 'refund', 71), ('money', 'refund', 71), ('/', 'collected', 77), ('he', 'collected', 77), ('administration', 'instructs', 101), ('staff', 'instructs', 101), ('necessity', 'emphasizing', 138)]</t>
+  </si>
+  <si>
+    <t>[('UNON', 'intended', 11), ('equipment', 'use', 13), ('permission', 'receive', 24), ('Official', 'learned', 47), ('s', 'told', 55), ('he', 'told', 55), ('UNON', 'told', 55), ('request', 'go', 81), ('UNPOS', 'receive', 91), ('extension', 'receive', 91), ('Member', 'return', 110), ('money', 'return', 110), ('him', 'paid', 113), ('her', 'paid', 113), ('VII', 'return', 110), ('CONCLUSION', 'acted', 166), ('link', 'extend', 127), ('money', 'receiving', 136), ('link', 'provide', 144), ('money', 'return', 151), ('her', 'paid', 154), ('link', 'extend', 182), ('UNON', 'acted', 197)]</t>
+  </si>
+  <si>
+    <t>[('investigators', 'conducted', 24), ('enquiry', 'conducted', 24), ('documents', 'obtaining', 48), ('Airport', 'constitutes', 79), ('enterprise', 'constitutes', 79), ('assets', 'include', 93), ('runways', 'include', 93), ('Regulation', 'dated', 165), ('territory', 'administer', 175), ('This', 'includes', 190), ('Airport', 'includes', 190), ('II', 'supervised', 234), ('Department', 'supervised', 234), ('Official', 'left', 267), ('responsibility', 'passed', 372)]</t>
+  </si>
+  <si>
+    <t>[('Division', 'sought', 14), ('contract', 'obtain', 16), ('Chief', 'communicated', 47), ('request', 'communicated', 47), ('CITS', 'advised', 89), ('PD', 'advised', 89), ('they', 'desired', 93), ('IBM', 'desired', 93), ('Toshiba', 'adding', 135), ('CITS', 'continued', 165), ('they', 'sought', 170), ('brands', 'sought', 170), ('products', 'avoid', 179), ('CITS', 'agreed', 207), ('field', 'expanding', 213), ('brands', 'include', 217), ('leaders', 'recognized', 226), ('Cabrera', 'issued', 247), ('notification', 'issued', 247), ('vendors', 'sought', 262), ('quantity', 'correcting', 255)]</t>
+  </si>
+  <si>
+    <t>[('matters', 'address', 77)]</t>
   </si>
   <si>
     <t>[('Force', 'operates', 9), ('cases', 'investigate', 34), ('exercises', 'involving', 45), ('business', 'doing', 56), ('mandate', 'includes', 80), ('review', 'includes', 80), ('investigations', 'focused', 111), ('business', 'doing', 119), ('periods', 'span', 133), ('cases', 'involving', 148), ('Force', 'report', 171), ('Force', 'given', 180), ('priority', 'given', 180), ('members', 'involving', 185)]</t>
   </si>
   <si>
-    <t>[('matters', 'address', 7), ('notification', 'provided', 53), ('support', 'provide', 79), ('report', 'found', 100), ('Cabrera', 'engaged', 103), ('report', 'found', 131), ('indicators', 'found', 131), ('Force', 'agrees', 152), ('Force', 'report', 159), ('matters', 'addressing', 171), ('Cabrera', 'acted', 196)]</t>
-  </si>
-  <si>
-    <t>[('investigation', 'revealed', 5), ('involvement', 'revealed', 5), ('vendor', 'received', 19), ('notice', 'received', 19), ('it', 'seek', 51), ('Thunderbird', 'notify', 69), ('vendor', 'meeting', 88), ('extension', 'granted', 96), ('Thunderbird', 'failed', 111), ('statements', 'submit', 113), ('weeks', 'given', 119), ('task', 'accomplish', 125), ('Thunderbird', 'took', 133), ('weeks', 'took', 133), ('forms', 'file', 138), ('Thunderbird', 'notify', 155), ('approval', 'granting', 222), ('creation', 'surrounding', 243), ('which', 'demonstrates', 291), ('Cabrera', 'demonstrates', 291)]</t>
-  </si>
-  <si>
-    <t>[('Bahel', 'convened', 19), ('York', 'leave', 12), ('meeting', 'convened', 19), ('Bahel', 'instructed', 47), ('them', 'instructed', 47), ('Thunderbird', 'notify', 50), ('contract', 'award', 56), ('he', 'understood', 68), ('Letter', 'provide', 75), ('notification', 'give', 90), ('supervisor', 'directed', 128), ('him', 'directed', 128), ('it', 'do', 131), ('understanding', 'do', 131), ('Cabrera', 'notify', 156), ('Kohli', 'notify', 156), ('HCC', 'recommended', 164), ('Thunderbird', 'receive', 177), ('contract', 'receive', 177), ('Cabrera', 'asserts', 183), ('he', 'notified', 187), ('Kohli', 'notified', 187), ('PD', 'issue', 194), ('LOI', 'issue', 194), ('minutes', 'receiving', 199), ('explanation', 'differs', 230), ('Force', 'find', 238)]</t>
+    <t>[('matters', 'address', 6), ('notification', 'provided', 52), ('support', 'provide', 78), ('report', 'found', 99), ('Cabrera', 'engaged', 102), ('report', 'found', 130), ('indicators', 'found', 130), ('Force', 'agrees', 151), ('Force', 'report', 157), ('matters', 'addressing', 169), ('Cabrera', 'acted', 194)]</t>
+  </si>
+  <si>
+    <t>[('investigation', 'revealed', 5), ('involvement', 'revealed', 5), ('vendor', 'received', 19), ('notice', 'received', 19), ('it', 'seek', 51), ('Thunderbird', 'notify', 69), ('extension', 'granted', 96), ('Thunderbird', 'failed', 111), ('statements', 'submit', 113), ('weeks', 'given', 119), ('task', 'accomplish', 125), ('Thunderbird', 'took', 133), ('weeks', 'took', 133), ('forms', 'file', 138), ('Thunderbird', 'notify', 155), ('approval', 'granting', 222), ('creation', 'surrounding', 243), ('request', 'surrounding', 243), ('which', 'demonstrates', 291), ('Cabrera', 'demonstrates', 291)]</t>
+  </si>
+  <si>
+    <t>[('Bahel', 'convened', 19), ('York', 'leave', 12), ('meeting', 'convened', 19), ('Bahel', 'instructed', 47), ('them', 'instructed', 47), ('Thunderbird', 'notify', 50), ('contract', 'award', 56), ('he', 'understood', 68), ('Letter', 'provide', 75), ('notification', 'give', 90), ('supervisor', 'directed', 128), ('him', 'directed', 128), ('it', 'do', 131), ('Cabrera', 'notify', 156), ('Kohli', 'notify', 156), ('HCC', 'recommended', 164), ('Thunderbird', 'receive', 177), ('contract', 'receive', 177), ('Cabrera', 'asserts', 183), ('he', 'notified', 187), ('Kohli', 'notified', 187), ('PD', 'issue', 194), ('LOI', 'issue', 194), ('minutes', 'receiving', 199), ('explanation', 'differs', 230), ('Force', 'find', 238)]</t>
   </si>
   <si>
     <t>[('Bahel', 'recommended', 19), ('award', 'recommended', 19), ('officials', 'questioned', 46), ('basis', 'questioned', 46), ('exercise', 'limiting', 50), ('PD', 'violated', 64), ('rules', 'violated', 64), ('communication', 'describes', 84), ('circumstance', 'describes', 84), ('HCC', 'stated', 109), ('Committee', 'recommended', 126), ('brands', 'inviting', 135), ('that', 'met', 141), ('requirement', 'met', 141)]</t>
   </si>
   <si>
-    <t>[('ITB', 'bid', 10), ('who', 'sought', 37), ('it', 'sought', 37), ('Force', 'identified', 45), ('evidence', 'identified', 45), ('finding', 'support', 49), ('documents', 'demonstrate', 63), ('Cabrera', 'continued', 67), ('dialogue', 'maintain', 69), ('Force', 'identified', 85), ('evidence', 'identified', 85), ('which', 'suggests', 88), ('Cabrera', 'sought', 91), ('bid', 'cancel', 93), ('exercise', 'seek', 99), ('investigation', 'revealed', 109), ('himself', 'interjected', 128), ('official', 'referred', 144), ('he', 'had', 150), ('conversations', 'had', 150), ('Bahel', 'confirmed', 159)]</t>
-  </si>
-  <si>
-    <t>[('they', 'relate', 7), ('LLC', 'submitted', 37), ('application', 'submitted', 37), ('it', 'authorizing', 50), ('proposals', 'submit', 53), ('proposal', 'submitted', 78), ('Bahel', 'made', 114), ('presentation', 'made', 114)]</t>
+    <t>[('ITB', 'bid', 10), ('who', 'sought', 37), ('it', 'sought', 37), ('Force', 'identified', 45), ('evidence', 'identified', 45), ('finding', 'support', 49), ('Cabrera', 'continued', 67), ('dialogue', 'maintain', 69), ('Force', 'identified', 85), ('evidence', 'identified', 85), ('which', 'suggests', 88), ('Cabrera', 'sought', 91), ('bid', 'cancel', 93), ('exercise', 'seek', 99), ('investigation', 'revealed', 109), ('himself', 'interjected', 128), ('official', 'referred', 144), ('he', 'had', 150), ('conversations', 'had', 150), ('Bahel', 'confirmed', 159)]</t>
+  </si>
+  <si>
+    <t>[('they', 'relate', 6), ('LLC', 'submitted', 36), ('application', 'submitted', 36), ('it', 'authorizing', 49), ('proposals', 'submit', 52), ('proposal', 'submitted', 77), ('Bahel', 'made', 113), ('presentation', 'made', 113)]</t>
   </si>
   <si>
     <t>[('officials', 'concede', 3), ('contract', 'award', 20), ('It', 'seems', 43), ('officer', 'maintains', 60), ('responsibility', 'maintains', 60), ('cancellation', 'communicating', 64), ('them', 'notifying', 89), ('official', 'informed', 103), ('Force', 'informed', 103), ('PD', 'expressed', 125), ('view', 'expressed', 125), ('Department', 'suggested', 148), ('re', 'suggested', 148), ('-', 'suggested', 148), ('bid', 'suggested', 148), ('official', 'objected', 163), ('that', 'told', 167), ('bid', 'cancel', 184), ('DPKO', 'found', 216), ('Cabrera', 'agrees', 232), ('issue', 'takes', 248)]</t>
   </si>
   <si>
-    <t>[('contract', 'win', 20), ('Vimont', 'revealed', 31), ('deal', 'moving', 37), ('details', 'provide', 42), ('Levitte', 'expected', 49), ('dispute', 'put', 51), ('Sarkozy', 'spoken', 75), ('who', 'asked', 83), ('president', 'asked', 83), ('Vimont', 'characterized', 120), ('issue', 'characterized', 120), ('Sarkozy', 'intends', 148), ('issue', 'broach', 150), ('Levitte', 'talk', 160), ('Levitte', 'expected', 177), ('leaders', 'discuss', 182), ('subjects', 'discuss', 182), ('he', 'provided', 227), ('details', 'provided', 227)]</t>
+    <t>[('contract', 'win', 20), ('Vimont', 'revealed', 31), ('deal', 'moving', 37), ('details', 'provide', 42), ('Levitte', 'expected', 49), ('dispute', 'put', 51), ('Sarkozy', 'spoken', 74), ('who', 'asked', 82), ('president', 'asked', 82), ('Vimont', 'characterized', 119), ('issue', 'characterized', 119), ('Sarkozy', 'intends', 147), ('issue', 'broach', 149), ('Levitte', 'talk', 159), ('Levitte', 'expected', 176), ('leaders', 'expected', 176), ('subjects', 'discuss', 181), ('Process', 'expected', 176), ('he', 'provided', 226), ('details', 'provided', 226)]</t>
   </si>
   <si>
     <t>[('Issues', 'Meet', 11), ('Presidents', 'Meet', 11), ('Week', 'Meet', 11), ('Sarkozy', 'intends', 26), ('number', 'raise', 28), ('leaders', 'meet', 42), ('Vimont', 'conveyed', 76), ('President', 'express', 82), ('frustration', 'express', 82), ('Washington', 'backed', 88), ('Sarkozy', 'intends', 99), ('Vimont', 'understand', 111), ('it', 'understand', 111), ('Levitte', 'noted', 135), ('trainers', 'authorize', 141), ('clarification', 'wants', 146)]</t>
   </si>
   <si>
-    <t>[('extract', 'summarises', 30), ('2010', 'summarises', 30), ('communications', 'summarises', 30), ('report', 'reveals', 57), ('topics', 'reveals', 57), ('Sarkozy', 'intended', 62), ('US', 'backed', 88), ('which', 'restrict', 98), ('ability', 'restrict', 98), ('issues', 'include', 110), ('commitment', 'include', 110)]</t>
+    <t>[('2010', 'summarises', 30), ('communications', 'summarises', 30), ('report', 'reveals', 57), ('topics', 'reveals', 57), ('Sarkozy', 'intended', 62), ('that', 'backed', 88), ('US', 'backed', 88), ('which', 'restrict', 98), ('ability', 'restrict', 98), ('issues', 'include', 110), ('commitment', 'include', 110)]</t>
   </si>
   <si>
     <t>[('INTRODUCTION', 'arises', 5), ('case', 'arises', 5), ('which', 'led', 29), ('investigators', 'conducted', 121), ('enquiry', 'conducted', 121), ('documents', 'obtaining', 145)]</t>
+  </si>
+  <si>
+    <t>[('Airport', 'constitutes', 7), ('enterprise', 'constitutes', 7), ('assets', 'include', 21), ('runways', 'include', 21), ('Regulation', 'dated', 93), ('territory', 'administer', 102), ('This', 'includes', 117), ('Airport', 'includes', 117), ('responsibility', 'passed', 136)]</t>
   </si>
   <si>
     <t>[('Airport', 'constitutes', 7), ('enterprise', 'constitutes', 7), ('assets', 'include', 21), ('runways', 'include', 21), ('Regulation', 'dated', 93), ('territory', 'administer', 102), ('This', 'includes', 117), ('Airport', 'includes', 117)]</t>
@@ -2577,16 +3012,16 @@
         <v>337</v>
       </c>
       <c r="E2" t="s">
-        <v>476</v>
-      </c>
-      <c r="F2">
-        <v>0.9042</v>
+        <v>478</v>
+      </c>
+      <c r="F2" t="s">
+        <v>621</v>
       </c>
       <c r="G2" t="s">
-        <v>482</v>
+        <v>627</v>
       </c>
       <c r="H2">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I2">
         <v>14</v>
@@ -2606,19 +3041,19 @@
         <v>338</v>
       </c>
       <c r="E3" t="s">
-        <v>477</v>
-      </c>
-      <c r="F3">
-        <v>0.2023</v>
+        <v>479</v>
+      </c>
+      <c r="F3" t="s">
+        <v>622</v>
       </c>
       <c r="G3" t="s">
-        <v>483</v>
+        <v>628</v>
       </c>
       <c r="H3">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2635,16 +3070,16 @@
         <v>339</v>
       </c>
       <c r="E4" t="s">
-        <v>476</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
+        <v>480</v>
+      </c>
+      <c r="F4" t="s">
+        <v>621</v>
       </c>
       <c r="G4" t="s">
-        <v>484</v>
+        <v>629</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I4">
         <v>8</v>
@@ -2664,16 +3099,16 @@
         <v>340</v>
       </c>
       <c r="E5" t="s">
-        <v>476</v>
-      </c>
-      <c r="F5">
-        <v>0.6249</v>
+        <v>481</v>
+      </c>
+      <c r="F5" t="s">
+        <v>621</v>
       </c>
       <c r="G5" t="s">
-        <v>485</v>
+        <v>630</v>
       </c>
       <c r="H5">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I5">
         <v>14</v>
@@ -2693,19 +3128,19 @@
         <v>341</v>
       </c>
       <c r="E6" t="s">
-        <v>476</v>
-      </c>
-      <c r="F6">
-        <v>0.09</v>
+        <v>482</v>
+      </c>
+      <c r="F6" t="s">
+        <v>621</v>
       </c>
       <c r="G6" t="s">
-        <v>486</v>
+        <v>631</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I6">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2722,19 +3157,19 @@
         <v>342</v>
       </c>
       <c r="E7" t="s">
-        <v>476</v>
-      </c>
-      <c r="F7">
-        <v>0.0557</v>
+        <v>483</v>
+      </c>
+      <c r="F7" t="s">
+        <v>621</v>
       </c>
       <c r="G7" t="s">
-        <v>487</v>
+        <v>632</v>
       </c>
       <c r="H7">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2751,16 +3186,16 @@
         <v>343</v>
       </c>
       <c r="E8" t="s">
-        <v>476</v>
-      </c>
-      <c r="F8">
-        <v>-0.4559</v>
+        <v>484</v>
+      </c>
+      <c r="F8" t="s">
+        <v>621</v>
       </c>
       <c r="G8" t="s">
-        <v>488</v>
+        <v>633</v>
       </c>
       <c r="H8">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I8">
         <v>12</v>
@@ -2780,19 +3215,19 @@
         <v>344</v>
       </c>
       <c r="E9" t="s">
-        <v>476</v>
-      </c>
-      <c r="F9">
-        <v>0.7845</v>
+        <v>485</v>
+      </c>
+      <c r="F9" t="s">
+        <v>621</v>
       </c>
       <c r="G9" t="s">
-        <v>489</v>
+        <v>634</v>
       </c>
       <c r="H9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2809,16 +3244,16 @@
         <v>345</v>
       </c>
       <c r="E10" t="s">
-        <v>478</v>
-      </c>
-      <c r="F10">
-        <v>0.7506</v>
+        <v>486</v>
+      </c>
+      <c r="F10" t="s">
+        <v>623</v>
       </c>
       <c r="G10" t="s">
-        <v>490</v>
+        <v>635</v>
       </c>
       <c r="H10">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I10">
         <v>11</v>
@@ -2838,13 +3273,13 @@
         <v>346</v>
       </c>
       <c r="E11" t="s">
-        <v>476</v>
-      </c>
-      <c r="F11">
-        <v>0.4404</v>
+        <v>487</v>
+      </c>
+      <c r="F11" t="s">
+        <v>621</v>
       </c>
       <c r="G11" t="s">
-        <v>491</v>
+        <v>636</v>
       </c>
       <c r="H11">
         <v>12</v>
@@ -2867,16 +3302,16 @@
         <v>347</v>
       </c>
       <c r="E12" t="s">
-        <v>476</v>
-      </c>
-      <c r="F12">
-        <v>0.6133</v>
+        <v>488</v>
+      </c>
+      <c r="F12" t="s">
+        <v>621</v>
       </c>
       <c r="G12" t="s">
-        <v>492</v>
+        <v>637</v>
       </c>
       <c r="H12">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I12">
         <v>26</v>
@@ -2896,16 +3331,16 @@
         <v>348</v>
       </c>
       <c r="E13" t="s">
-        <v>476</v>
-      </c>
-      <c r="F13">
-        <v>0.2302</v>
+        <v>489</v>
+      </c>
+      <c r="F13" t="s">
+        <v>621</v>
       </c>
       <c r="G13" t="s">
-        <v>493</v>
+        <v>638</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I13">
         <v>12</v>
@@ -2925,16 +3360,16 @@
         <v>349</v>
       </c>
       <c r="E14" t="s">
-        <v>479</v>
-      </c>
-      <c r="F14">
-        <v>0.8110000000000001</v>
+        <v>490</v>
+      </c>
+      <c r="F14" t="s">
+        <v>624</v>
       </c>
       <c r="G14" t="s">
-        <v>494</v>
+        <v>639</v>
       </c>
       <c r="H14">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I14">
         <v>3</v>
@@ -2954,16 +3389,16 @@
         <v>350</v>
       </c>
       <c r="E15" t="s">
-        <v>479</v>
-      </c>
-      <c r="F15">
-        <v>0.9031</v>
+        <v>491</v>
+      </c>
+      <c r="F15" t="s">
+        <v>624</v>
       </c>
       <c r="G15" t="s">
-        <v>495</v>
+        <v>640</v>
       </c>
       <c r="H15">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="I15">
         <v>18</v>
@@ -2983,16 +3418,16 @@
         <v>351</v>
       </c>
       <c r="E16" t="s">
-        <v>479</v>
-      </c>
-      <c r="F16">
-        <v>0.6711</v>
+        <v>492</v>
+      </c>
+      <c r="F16" t="s">
+        <v>624</v>
       </c>
       <c r="G16" t="s">
-        <v>496</v>
+        <v>641</v>
       </c>
       <c r="H16">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I16">
         <v>35</v>
@@ -3012,16 +3447,16 @@
         <v>352</v>
       </c>
       <c r="E17" t="s">
-        <v>479</v>
-      </c>
-      <c r="F17">
-        <v>0.959</v>
+        <v>493</v>
+      </c>
+      <c r="F17" t="s">
+        <v>624</v>
       </c>
       <c r="G17" t="s">
-        <v>497</v>
+        <v>642</v>
       </c>
       <c r="H17">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="I17">
         <v>17</v>
@@ -3041,19 +3476,19 @@
         <v>353</v>
       </c>
       <c r="E18" t="s">
-        <v>479</v>
-      </c>
-      <c r="F18">
-        <v>-0.8319</v>
+        <v>494</v>
+      </c>
+      <c r="F18" t="s">
+        <v>624</v>
       </c>
       <c r="G18" t="s">
-        <v>498</v>
+        <v>643</v>
       </c>
       <c r="H18">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I18">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -3070,16 +3505,16 @@
         <v>354</v>
       </c>
       <c r="E19" t="s">
-        <v>479</v>
-      </c>
-      <c r="F19">
-        <v>0.7351</v>
+        <v>495</v>
+      </c>
+      <c r="F19" t="s">
+        <v>624</v>
       </c>
       <c r="G19" t="s">
-        <v>499</v>
+        <v>644</v>
       </c>
       <c r="H19">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I19">
         <v>6</v>
@@ -3099,19 +3534,19 @@
         <v>355</v>
       </c>
       <c r="E20" t="s">
-        <v>479</v>
-      </c>
-      <c r="F20">
-        <v>0.7845</v>
+        <v>496</v>
+      </c>
+      <c r="F20" t="s">
+        <v>624</v>
       </c>
       <c r="G20" t="s">
-        <v>500</v>
+        <v>645</v>
       </c>
       <c r="H20">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I20">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -3128,19 +3563,19 @@
         <v>356</v>
       </c>
       <c r="E21" t="s">
-        <v>478</v>
-      </c>
-      <c r="F21">
-        <v>0.7506</v>
+        <v>497</v>
+      </c>
+      <c r="F21" t="s">
+        <v>623</v>
       </c>
       <c r="G21" t="s">
-        <v>501</v>
+        <v>646</v>
       </c>
       <c r="H21">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I21">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -3157,19 +3592,19 @@
         <v>357</v>
       </c>
       <c r="E22" t="s">
-        <v>479</v>
-      </c>
-      <c r="F22">
-        <v>0.9118000000000001</v>
+        <v>498</v>
+      </c>
+      <c r="F22" t="s">
+        <v>624</v>
       </c>
       <c r="G22" t="s">
-        <v>502</v>
+        <v>647</v>
       </c>
       <c r="H22">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="I22">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -3186,16 +3621,16 @@
         <v>358</v>
       </c>
       <c r="E23" t="s">
-        <v>479</v>
-      </c>
-      <c r="F23">
-        <v>-0.7166</v>
+        <v>499</v>
+      </c>
+      <c r="F23" t="s">
+        <v>624</v>
       </c>
       <c r="G23" t="s">
-        <v>503</v>
+        <v>648</v>
       </c>
       <c r="H23">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I23">
         <v>17</v>
@@ -3215,16 +3650,16 @@
         <v>359</v>
       </c>
       <c r="E24" t="s">
-        <v>479</v>
-      </c>
-      <c r="F24">
-        <v>-0.25</v>
+        <v>500</v>
+      </c>
+      <c r="F24" t="s">
+        <v>624</v>
       </c>
       <c r="G24" t="s">
-        <v>504</v>
+        <v>649</v>
       </c>
       <c r="H24">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I24">
         <v>20</v>
@@ -3244,16 +3679,16 @@
         <v>360</v>
       </c>
       <c r="E25" t="s">
-        <v>479</v>
-      </c>
-      <c r="F25">
-        <v>-0.3489</v>
+        <v>501</v>
+      </c>
+      <c r="F25" t="s">
+        <v>624</v>
       </c>
       <c r="G25" t="s">
-        <v>505</v>
+        <v>650</v>
       </c>
       <c r="H25">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="I25">
         <v>23</v>
@@ -3273,19 +3708,19 @@
         <v>361</v>
       </c>
       <c r="E26" t="s">
-        <v>479</v>
-      </c>
-      <c r="F26">
-        <v>0.9435</v>
+        <v>502</v>
+      </c>
+      <c r="F26" t="s">
+        <v>624</v>
       </c>
       <c r="G26" t="s">
-        <v>506</v>
+        <v>651</v>
       </c>
       <c r="H26">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="I26">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -3302,19 +3737,19 @@
         <v>362</v>
       </c>
       <c r="E27" t="s">
-        <v>477</v>
-      </c>
-      <c r="F27">
-        <v>0.7391</v>
+        <v>503</v>
+      </c>
+      <c r="F27" t="s">
+        <v>622</v>
       </c>
       <c r="G27" t="s">
-        <v>507</v>
+        <v>652</v>
       </c>
       <c r="H27">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I27">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -3331,19 +3766,19 @@
         <v>363</v>
       </c>
       <c r="E28" t="s">
-        <v>476</v>
-      </c>
-      <c r="F28">
-        <v>0.2568</v>
+        <v>504</v>
+      </c>
+      <c r="F28" t="s">
+        <v>621</v>
       </c>
       <c r="G28" t="s">
-        <v>508</v>
+        <v>653</v>
       </c>
       <c r="H28">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I28">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -3360,19 +3795,19 @@
         <v>364</v>
       </c>
       <c r="E29" t="s">
-        <v>476</v>
-      </c>
-      <c r="F29">
-        <v>0.5927</v>
+        <v>505</v>
+      </c>
+      <c r="F29" t="s">
+        <v>621</v>
       </c>
       <c r="G29" t="s">
-        <v>509</v>
+        <v>654</v>
       </c>
       <c r="H29">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I29">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -3389,19 +3824,19 @@
         <v>365</v>
       </c>
       <c r="E30" t="s">
-        <v>479</v>
-      </c>
-      <c r="F30">
-        <v>0.7096</v>
+        <v>506</v>
+      </c>
+      <c r="F30" t="s">
+        <v>624</v>
       </c>
       <c r="G30" t="s">
-        <v>510</v>
+        <v>655</v>
       </c>
       <c r="H30">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I30">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -3418,16 +3853,16 @@
         <v>366</v>
       </c>
       <c r="E31" t="s">
-        <v>476</v>
-      </c>
-      <c r="F31">
-        <v>0.4404</v>
+        <v>507</v>
+      </c>
+      <c r="F31" t="s">
+        <v>621</v>
       </c>
       <c r="G31" t="s">
-        <v>511</v>
+        <v>656</v>
       </c>
       <c r="H31">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I31">
         <v>27</v>
@@ -3441,22 +3876,22 @@
         <v>83</v>
       </c>
       <c r="C32" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D32" t="s">
         <v>367</v>
       </c>
       <c r="E32" t="s">
-        <v>476</v>
-      </c>
-      <c r="F32">
-        <v>0.4404</v>
+        <v>508</v>
+      </c>
+      <c r="F32" t="s">
+        <v>621</v>
       </c>
       <c r="G32" t="s">
-        <v>512</v>
+        <v>657</v>
       </c>
       <c r="H32">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I32">
         <v>27</v>
@@ -3470,22 +3905,22 @@
         <v>84</v>
       </c>
       <c r="C33" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D33" t="s">
         <v>368</v>
       </c>
       <c r="E33" t="s">
-        <v>477</v>
-      </c>
-      <c r="F33">
-        <v>-0.7351</v>
+        <v>509</v>
+      </c>
+      <c r="F33" t="s">
+        <v>622</v>
       </c>
       <c r="G33" t="s">
-        <v>513</v>
+        <v>658</v>
       </c>
       <c r="H33">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I33">
         <v>3</v>
@@ -3499,19 +3934,19 @@
         <v>85</v>
       </c>
       <c r="C34" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D34" t="s">
         <v>369</v>
       </c>
       <c r="E34" t="s">
-        <v>479</v>
-      </c>
-      <c r="F34">
-        <v>0.4215</v>
+        <v>510</v>
+      </c>
+      <c r="F34" t="s">
+        <v>624</v>
       </c>
       <c r="G34" t="s">
-        <v>514</v>
+        <v>659</v>
       </c>
       <c r="H34">
         <v>10</v>
@@ -3528,25 +3963,25 @@
         <v>86</v>
       </c>
       <c r="C35" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D35" t="s">
         <v>370</v>
       </c>
       <c r="E35" t="s">
-        <v>476</v>
-      </c>
-      <c r="F35">
-        <v>0.5059</v>
+        <v>511</v>
+      </c>
+      <c r="F35" t="s">
+        <v>621</v>
       </c>
       <c r="G35" t="s">
-        <v>515</v>
+        <v>660</v>
       </c>
       <c r="H35">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I35">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -3557,25 +3992,25 @@
         <v>87</v>
       </c>
       <c r="C36" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D36" t="s">
         <v>371</v>
       </c>
       <c r="E36" t="s">
-        <v>478</v>
-      </c>
-      <c r="F36">
-        <v>-0.3919</v>
+        <v>512</v>
+      </c>
+      <c r="F36" t="s">
+        <v>623</v>
       </c>
       <c r="G36" t="s">
-        <v>516</v>
+        <v>661</v>
       </c>
       <c r="H36">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I36">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -3586,25 +4021,25 @@
         <v>88</v>
       </c>
       <c r="C37" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D37" t="s">
         <v>372</v>
       </c>
       <c r="E37" t="s">
-        <v>476</v>
-      </c>
-      <c r="F37">
-        <v>0.0644</v>
+        <v>513</v>
+      </c>
+      <c r="F37" t="s">
+        <v>621</v>
       </c>
       <c r="G37" t="s">
-        <v>517</v>
+        <v>662</v>
       </c>
       <c r="H37">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I37">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -3615,25 +4050,25 @@
         <v>89</v>
       </c>
       <c r="C38" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D38" t="s">
         <v>373</v>
       </c>
       <c r="E38" t="s">
-        <v>476</v>
-      </c>
-      <c r="F38">
-        <v>-0.3536</v>
+        <v>514</v>
+      </c>
+      <c r="F38" t="s">
+        <v>621</v>
       </c>
       <c r="G38" t="s">
-        <v>518</v>
+        <v>663</v>
       </c>
       <c r="H38">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I38">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -3644,25 +4079,25 @@
         <v>90</v>
       </c>
       <c r="C39" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D39" t="s">
         <v>374</v>
       </c>
       <c r="E39" t="s">
-        <v>476</v>
-      </c>
-      <c r="F39">
-        <v>0.128</v>
+        <v>515</v>
+      </c>
+      <c r="F39" t="s">
+        <v>621</v>
       </c>
       <c r="G39" t="s">
-        <v>519</v>
+        <v>664</v>
       </c>
       <c r="H39">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I39">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -3673,22 +4108,22 @@
         <v>91</v>
       </c>
       <c r="C40" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D40" t="s">
         <v>375</v>
       </c>
       <c r="E40" t="s">
-        <v>476</v>
-      </c>
-      <c r="F40">
-        <v>0.4215</v>
+        <v>516</v>
+      </c>
+      <c r="F40" t="s">
+        <v>621</v>
       </c>
       <c r="G40" t="s">
-        <v>520</v>
+        <v>665</v>
       </c>
       <c r="H40">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I40">
         <v>12</v>
@@ -3702,22 +4137,22 @@
         <v>92</v>
       </c>
       <c r="C41" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D41" t="s">
         <v>376</v>
       </c>
       <c r="E41" t="s">
-        <v>476</v>
-      </c>
-      <c r="F41">
-        <v>-0.1027</v>
+        <v>517</v>
+      </c>
+      <c r="F41" t="s">
+        <v>621</v>
       </c>
       <c r="G41" t="s">
-        <v>521</v>
+        <v>666</v>
       </c>
       <c r="H41">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I41">
         <v>10</v>
@@ -3731,25 +4166,25 @@
         <v>93</v>
       </c>
       <c r="C42" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D42" t="s">
         <v>377</v>
       </c>
       <c r="E42" t="s">
-        <v>476</v>
-      </c>
-      <c r="F42">
-        <v>-0.0516</v>
+        <v>518</v>
+      </c>
+      <c r="F42" t="s">
+        <v>621</v>
       </c>
       <c r="G42" t="s">
-        <v>522</v>
+        <v>667</v>
       </c>
       <c r="H42">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I42">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -3760,22 +4195,22 @@
         <v>94</v>
       </c>
       <c r="C43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D43" t="s">
         <v>378</v>
       </c>
       <c r="E43" t="s">
-        <v>476</v>
-      </c>
-      <c r="F43">
-        <v>0.1469</v>
+        <v>519</v>
+      </c>
+      <c r="F43" t="s">
+        <v>621</v>
       </c>
       <c r="G43" t="s">
-        <v>523</v>
+        <v>668</v>
       </c>
       <c r="H43">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I43">
         <v>9</v>
@@ -3789,22 +4224,22 @@
         <v>95</v>
       </c>
       <c r="C44" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D44" t="s">
         <v>379</v>
       </c>
       <c r="E44" t="s">
-        <v>480</v>
-      </c>
-      <c r="F44">
-        <v>0.8082</v>
+        <v>520</v>
+      </c>
+      <c r="F44" t="s">
+        <v>625</v>
       </c>
       <c r="G44" t="s">
-        <v>524</v>
+        <v>669</v>
       </c>
       <c r="H44">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I44">
         <v>10</v>
@@ -3818,19 +4253,19 @@
         <v>96</v>
       </c>
       <c r="C45" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D45" t="s">
         <v>380</v>
       </c>
       <c r="E45" t="s">
-        <v>476</v>
-      </c>
-      <c r="F45">
-        <v>0.5669</v>
+        <v>521</v>
+      </c>
+      <c r="F45" t="s">
+        <v>621</v>
       </c>
       <c r="G45" t="s">
-        <v>525</v>
+        <v>670</v>
       </c>
       <c r="H45">
         <v>3</v>
@@ -3847,25 +4282,25 @@
         <v>97</v>
       </c>
       <c r="C46" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D46" t="s">
         <v>381</v>
       </c>
       <c r="E46" t="s">
-        <v>476</v>
-      </c>
-      <c r="F46">
-        <v>0.4626</v>
+        <v>522</v>
+      </c>
+      <c r="F46" t="s">
+        <v>621</v>
       </c>
       <c r="G46" t="s">
-        <v>526</v>
+        <v>671</v>
       </c>
       <c r="H46">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I46">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -3876,25 +4311,25 @@
         <v>98</v>
       </c>
       <c r="C47" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D47" t="s">
         <v>382</v>
       </c>
       <c r="E47" t="s">
-        <v>476</v>
-      </c>
-      <c r="F47">
-        <v>-0.9039</v>
+        <v>523</v>
+      </c>
+      <c r="F47" t="s">
+        <v>621</v>
       </c>
       <c r="G47" t="s">
-        <v>527</v>
+        <v>672</v>
       </c>
       <c r="H47">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I47">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -3905,25 +4340,25 @@
         <v>99</v>
       </c>
       <c r="C48" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D48" t="s">
         <v>383</v>
       </c>
       <c r="E48" t="s">
-        <v>476</v>
-      </c>
-      <c r="F48">
-        <v>0.3818</v>
+        <v>524</v>
+      </c>
+      <c r="F48" t="s">
+        <v>621</v>
       </c>
       <c r="G48" t="s">
-        <v>528</v>
+        <v>673</v>
       </c>
       <c r="H48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I48">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -3934,22 +4369,22 @@
         <v>100</v>
       </c>
       <c r="C49" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D49" t="s">
         <v>384</v>
       </c>
       <c r="E49" t="s">
-        <v>479</v>
-      </c>
-      <c r="F49">
-        <v>0.6597</v>
+        <v>525</v>
+      </c>
+      <c r="F49" t="s">
+        <v>624</v>
       </c>
       <c r="G49" t="s">
-        <v>529</v>
+        <v>674</v>
       </c>
       <c r="H49">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I49">
         <v>16</v>
@@ -3963,22 +4398,22 @@
         <v>101</v>
       </c>
       <c r="C50" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D50" t="s">
         <v>385</v>
       </c>
       <c r="E50" t="s">
-        <v>476</v>
-      </c>
-      <c r="F50">
-        <v>0.4215</v>
+        <v>526</v>
+      </c>
+      <c r="F50" t="s">
+        <v>621</v>
       </c>
       <c r="G50" t="s">
-        <v>530</v>
+        <v>675</v>
       </c>
       <c r="H50">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I50">
         <v>7</v>
@@ -3992,25 +4427,25 @@
         <v>102</v>
       </c>
       <c r="C51" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D51" t="s">
         <v>386</v>
       </c>
       <c r="E51" t="s">
-        <v>476</v>
-      </c>
-      <c r="F51">
-        <v>0.5859</v>
+        <v>527</v>
+      </c>
+      <c r="F51" t="s">
+        <v>621</v>
       </c>
       <c r="G51" t="s">
-        <v>531</v>
+        <v>676</v>
       </c>
       <c r="H51">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I51">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -4021,25 +4456,25 @@
         <v>103</v>
       </c>
       <c r="C52" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D52" t="s">
         <v>387</v>
       </c>
       <c r="E52" t="s">
-        <v>476</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
+        <v>528</v>
+      </c>
+      <c r="F52" t="s">
+        <v>621</v>
       </c>
       <c r="G52" t="s">
-        <v>532</v>
+        <v>677</v>
       </c>
       <c r="H52">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I52">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -4050,22 +4485,22 @@
         <v>104</v>
       </c>
       <c r="C53" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D53" t="s">
         <v>388</v>
       </c>
       <c r="E53" t="s">
-        <v>476</v>
-      </c>
-      <c r="F53">
-        <v>0.1027</v>
+        <v>529</v>
+      </c>
+      <c r="F53" t="s">
+        <v>621</v>
       </c>
       <c r="G53" t="s">
-        <v>533</v>
+        <v>678</v>
       </c>
       <c r="H53">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I53">
         <v>15</v>
@@ -4079,25 +4514,25 @@
         <v>105</v>
       </c>
       <c r="C54" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D54" t="s">
         <v>389</v>
       </c>
       <c r="E54" t="s">
-        <v>477</v>
-      </c>
-      <c r="F54">
-        <v>-0.6652</v>
+        <v>530</v>
+      </c>
+      <c r="F54" t="s">
+        <v>622</v>
       </c>
       <c r="G54" t="s">
-        <v>534</v>
+        <v>679</v>
       </c>
       <c r="H54">
         <v>4</v>
       </c>
       <c r="I54">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -4108,22 +4543,22 @@
         <v>106</v>
       </c>
       <c r="C55" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D55" t="s">
         <v>390</v>
       </c>
       <c r="E55" t="s">
-        <v>476</v>
-      </c>
-      <c r="F55">
-        <v>-0.5187</v>
+        <v>531</v>
+      </c>
+      <c r="F55" t="s">
+        <v>621</v>
       </c>
       <c r="G55" t="s">
-        <v>535</v>
+        <v>680</v>
       </c>
       <c r="H55">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I55">
         <v>28</v>
@@ -4137,25 +4572,25 @@
         <v>107</v>
       </c>
       <c r="C56" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D56" t="s">
         <v>391</v>
       </c>
       <c r="E56" t="s">
-        <v>476</v>
-      </c>
-      <c r="F56">
-        <v>0.8807</v>
+        <v>532</v>
+      </c>
+      <c r="F56" t="s">
+        <v>621</v>
       </c>
       <c r="G56" t="s">
-        <v>536</v>
+        <v>681</v>
       </c>
       <c r="H56">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I56">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -4166,19 +4601,19 @@
         <v>108</v>
       </c>
       <c r="C57" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D57" t="s">
         <v>392</v>
       </c>
       <c r="E57" t="s">
-        <v>476</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
+        <v>533</v>
+      </c>
+      <c r="F57" t="s">
+        <v>621</v>
       </c>
       <c r="G57" t="s">
-        <v>537</v>
+        <v>682</v>
       </c>
       <c r="H57">
         <v>5</v>
@@ -4195,25 +4630,25 @@
         <v>109</v>
       </c>
       <c r="C58" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D58" t="s">
         <v>393</v>
       </c>
       <c r="E58" t="s">
-        <v>480</v>
-      </c>
-      <c r="F58">
-        <v>0.1779</v>
+        <v>534</v>
+      </c>
+      <c r="F58" t="s">
+        <v>625</v>
       </c>
       <c r="G58" t="s">
-        <v>538</v>
+        <v>683</v>
       </c>
       <c r="H58">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I58">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -4224,22 +4659,22 @@
         <v>110</v>
       </c>
       <c r="C59" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D59" t="s">
         <v>394</v>
       </c>
       <c r="E59" t="s">
-        <v>476</v>
-      </c>
-      <c r="F59">
-        <v>0.5023</v>
+        <v>535</v>
+      </c>
+      <c r="F59" t="s">
+        <v>621</v>
       </c>
       <c r="G59" t="s">
-        <v>539</v>
+        <v>684</v>
       </c>
       <c r="H59">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I59">
         <v>19</v>
@@ -4253,25 +4688,25 @@
         <v>111</v>
       </c>
       <c r="C60" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D60" t="s">
         <v>395</v>
       </c>
       <c r="E60" t="s">
-        <v>476</v>
-      </c>
-      <c r="F60">
-        <v>-0.8202</v>
+        <v>536</v>
+      </c>
+      <c r="F60" t="s">
+        <v>621</v>
       </c>
       <c r="G60" t="s">
-        <v>540</v>
+        <v>685</v>
       </c>
       <c r="H60">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I60">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -4282,22 +4717,22 @@
         <v>112</v>
       </c>
       <c r="C61" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D61" t="s">
         <v>396</v>
       </c>
       <c r="E61" t="s">
-        <v>479</v>
-      </c>
-      <c r="F61">
-        <v>0.7506</v>
+        <v>537</v>
+      </c>
+      <c r="F61" t="s">
+        <v>624</v>
       </c>
       <c r="G61" t="s">
-        <v>541</v>
+        <v>686</v>
       </c>
       <c r="H61">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="I61">
         <v>29</v>
@@ -4311,25 +4746,25 @@
         <v>113</v>
       </c>
       <c r="C62" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D62" t="s">
         <v>397</v>
       </c>
       <c r="E62" t="s">
-        <v>477</v>
-      </c>
-      <c r="F62">
-        <v>-0.9538</v>
+        <v>538</v>
+      </c>
+      <c r="F62" t="s">
+        <v>622</v>
       </c>
       <c r="G62" t="s">
-        <v>542</v>
+        <v>687</v>
       </c>
       <c r="H62">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I62">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -4340,25 +4775,25 @@
         <v>114</v>
       </c>
       <c r="C63" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D63" t="s">
         <v>398</v>
       </c>
       <c r="E63" t="s">
-        <v>477</v>
-      </c>
-      <c r="F63">
-        <v>0.8979</v>
+        <v>539</v>
+      </c>
+      <c r="F63" t="s">
+        <v>622</v>
       </c>
       <c r="G63" t="s">
-        <v>543</v>
+        <v>688</v>
       </c>
       <c r="H63">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I63">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -4369,22 +4804,22 @@
         <v>115</v>
       </c>
       <c r="C64" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D64" t="s">
         <v>399</v>
       </c>
       <c r="E64" t="s">
-        <v>476</v>
-      </c>
-      <c r="F64">
-        <v>0.058</v>
+        <v>540</v>
+      </c>
+      <c r="F64" t="s">
+        <v>621</v>
       </c>
       <c r="G64" t="s">
-        <v>544</v>
+        <v>689</v>
       </c>
       <c r="H64">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I64">
         <v>13</v>
@@ -4398,22 +4833,22 @@
         <v>116</v>
       </c>
       <c r="C65" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D65" t="s">
         <v>400</v>
       </c>
       <c r="E65" t="s">
-        <v>477</v>
-      </c>
-      <c r="F65">
-        <v>-0.7096</v>
+        <v>541</v>
+      </c>
+      <c r="F65" t="s">
+        <v>622</v>
       </c>
       <c r="G65" t="s">
-        <v>545</v>
+        <v>690</v>
       </c>
       <c r="H65">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I65">
         <v>6</v>
@@ -4427,22 +4862,22 @@
         <v>117</v>
       </c>
       <c r="C66" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D66" t="s">
         <v>401</v>
       </c>
       <c r="E66" t="s">
-        <v>477</v>
-      </c>
-      <c r="F66">
-        <v>-0.0258</v>
+        <v>542</v>
+      </c>
+      <c r="F66" t="s">
+        <v>622</v>
       </c>
       <c r="G66" t="s">
-        <v>546</v>
+        <v>691</v>
       </c>
       <c r="H66">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I66">
         <v>29</v>
@@ -4456,25 +4891,25 @@
         <v>118</v>
       </c>
       <c r="C67" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D67" t="s">
         <v>402</v>
       </c>
       <c r="E67" t="s">
-        <v>477</v>
-      </c>
-      <c r="F67">
-        <v>0.1027</v>
+        <v>543</v>
+      </c>
+      <c r="F67" t="s">
+        <v>622</v>
       </c>
       <c r="G67" t="s">
-        <v>547</v>
+        <v>692</v>
       </c>
       <c r="H67">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I67">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -4485,22 +4920,22 @@
         <v>119</v>
       </c>
       <c r="C68" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D68" t="s">
         <v>403</v>
       </c>
       <c r="E68" t="s">
-        <v>476</v>
-      </c>
-      <c r="F68">
-        <v>0.743</v>
+        <v>544</v>
+      </c>
+      <c r="F68" t="s">
+        <v>621</v>
       </c>
       <c r="G68" t="s">
-        <v>548</v>
+        <v>693</v>
       </c>
       <c r="H68">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I68">
         <v>14</v>
@@ -4514,22 +4949,22 @@
         <v>120</v>
       </c>
       <c r="C69" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D69" t="s">
         <v>404</v>
       </c>
       <c r="E69" t="s">
-        <v>477</v>
-      </c>
-      <c r="F69">
-        <v>0.5423</v>
+        <v>545</v>
+      </c>
+      <c r="F69" t="s">
+        <v>622</v>
       </c>
       <c r="G69" t="s">
-        <v>549</v>
+        <v>694</v>
       </c>
       <c r="H69">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I69">
         <v>6</v>
@@ -4543,22 +4978,22 @@
         <v>121</v>
       </c>
       <c r="C70" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D70" t="s">
         <v>405</v>
       </c>
       <c r="E70" t="s">
-        <v>476</v>
-      </c>
-      <c r="F70">
-        <v>0.1901</v>
+        <v>546</v>
+      </c>
+      <c r="F70" t="s">
+        <v>621</v>
       </c>
       <c r="G70" t="s">
-        <v>550</v>
+        <v>695</v>
       </c>
       <c r="H70">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I70">
         <v>11</v>
@@ -4572,25 +5007,25 @@
         <v>122</v>
       </c>
       <c r="C71" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D71" t="s">
         <v>406</v>
       </c>
       <c r="E71" t="s">
-        <v>476</v>
-      </c>
-      <c r="F71">
-        <v>0.9391</v>
+        <v>547</v>
+      </c>
+      <c r="F71" t="s">
+        <v>621</v>
       </c>
       <c r="G71" t="s">
-        <v>551</v>
+        <v>696</v>
       </c>
       <c r="H71">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I71">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -4604,22 +5039,22 @@
         <v>214</v>
       </c>
       <c r="D72" t="s">
-        <v>407</v>
+        <v>355</v>
       </c>
       <c r="E72" t="s">
-        <v>479</v>
-      </c>
-      <c r="F72">
-        <v>0.7845</v>
+        <v>548</v>
+      </c>
+      <c r="F72" t="s">
+        <v>624</v>
       </c>
       <c r="G72" t="s">
-        <v>552</v>
+        <v>697</v>
       </c>
       <c r="H72">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I72">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -4630,22 +5065,22 @@
         <v>124</v>
       </c>
       <c r="C73" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D73" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E73" t="s">
-        <v>476</v>
-      </c>
-      <c r="F73">
-        <v>0.5978</v>
+        <v>549</v>
+      </c>
+      <c r="F73" t="s">
+        <v>621</v>
       </c>
       <c r="G73" t="s">
-        <v>553</v>
+        <v>698</v>
       </c>
       <c r="H73">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I73">
         <v>6</v>
@@ -4659,22 +5094,22 @@
         <v>125</v>
       </c>
       <c r="C74" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D74" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E74" t="s">
-        <v>479</v>
-      </c>
-      <c r="F74">
-        <v>-0.5719</v>
+        <v>550</v>
+      </c>
+      <c r="F74" t="s">
+        <v>624</v>
       </c>
       <c r="G74" t="s">
-        <v>554</v>
+        <v>699</v>
       </c>
       <c r="H74">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="I74">
         <v>17</v>
@@ -4688,22 +5123,22 @@
         <v>126</v>
       </c>
       <c r="C75" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D75" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E75" t="s">
-        <v>478</v>
-      </c>
-      <c r="F75">
-        <v>0.9349</v>
+        <v>551</v>
+      </c>
+      <c r="F75" t="s">
+        <v>623</v>
       </c>
       <c r="G75" t="s">
-        <v>555</v>
+        <v>700</v>
       </c>
       <c r="H75">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I75">
         <v>16</v>
@@ -4717,22 +5152,22 @@
         <v>127</v>
       </c>
       <c r="C76" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D76" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E76" t="s">
-        <v>476</v>
-      </c>
-      <c r="F76">
-        <v>0.1531</v>
+        <v>552</v>
+      </c>
+      <c r="F76" t="s">
+        <v>621</v>
       </c>
       <c r="G76" t="s">
-        <v>556</v>
+        <v>701</v>
       </c>
       <c r="H76">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I76">
         <v>13</v>
@@ -4746,25 +5181,25 @@
         <v>128</v>
       </c>
       <c r="C77" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D77" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E77" t="s">
-        <v>476</v>
-      </c>
-      <c r="F77">
-        <v>0.6876</v>
+        <v>553</v>
+      </c>
+      <c r="F77" t="s">
+        <v>621</v>
       </c>
       <c r="G77" t="s">
-        <v>557</v>
+        <v>702</v>
       </c>
       <c r="H77">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I77">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -4775,25 +5210,25 @@
         <v>129</v>
       </c>
       <c r="C78" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D78" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E78" t="s">
-        <v>476</v>
-      </c>
-      <c r="F78">
-        <v>0.6626</v>
+        <v>554</v>
+      </c>
+      <c r="F78" t="s">
+        <v>621</v>
       </c>
       <c r="G78" t="s">
-        <v>558</v>
+        <v>703</v>
       </c>
       <c r="H78">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="I78">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -4804,22 +5239,22 @@
         <v>130</v>
       </c>
       <c r="C79" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D79" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E79" t="s">
-        <v>476</v>
-      </c>
-      <c r="F79">
-        <v>-0.3638</v>
+        <v>555</v>
+      </c>
+      <c r="F79" t="s">
+        <v>621</v>
       </c>
       <c r="G79" t="s">
-        <v>559</v>
+        <v>704</v>
       </c>
       <c r="H79">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I79">
         <v>28</v>
@@ -4833,22 +5268,22 @@
         <v>131</v>
       </c>
       <c r="C80" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D80" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="E80" t="s">
-        <v>479</v>
-      </c>
-      <c r="F80">
-        <v>0.5574</v>
+        <v>556</v>
+      </c>
+      <c r="F80" t="s">
+        <v>624</v>
       </c>
       <c r="G80" t="s">
-        <v>560</v>
+        <v>705</v>
       </c>
       <c r="H80">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I80">
         <v>3</v>
@@ -4862,22 +5297,22 @@
         <v>132</v>
       </c>
       <c r="C81" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D81" t="s">
         <v>415</v>
       </c>
       <c r="E81" t="s">
-        <v>476</v>
-      </c>
-      <c r="F81">
-        <v>-0.7003</v>
+        <v>557</v>
+      </c>
+      <c r="F81" t="s">
+        <v>621</v>
       </c>
       <c r="G81" t="s">
-        <v>561</v>
+        <v>706</v>
       </c>
       <c r="H81">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I81">
         <v>17</v>
@@ -4891,22 +5326,22 @@
         <v>133</v>
       </c>
       <c r="C82" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D82" t="s">
         <v>416</v>
       </c>
       <c r="E82" t="s">
-        <v>476</v>
-      </c>
-      <c r="F82">
-        <v>0.2263</v>
+        <v>558</v>
+      </c>
+      <c r="F82" t="s">
+        <v>621</v>
       </c>
       <c r="G82" t="s">
-        <v>562</v>
+        <v>707</v>
       </c>
       <c r="H82">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I82">
         <v>1</v>
@@ -4920,25 +5355,25 @@
         <v>134</v>
       </c>
       <c r="C83" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D83" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E83" t="s">
-        <v>476</v>
-      </c>
-      <c r="F83">
-        <v>0.6369</v>
+        <v>559</v>
+      </c>
+      <c r="F83" t="s">
+        <v>621</v>
       </c>
       <c r="G83" t="s">
-        <v>563</v>
+        <v>708</v>
       </c>
       <c r="H83">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -4949,22 +5384,22 @@
         <v>135</v>
       </c>
       <c r="C84" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D84" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E84" t="s">
-        <v>477</v>
-      </c>
-      <c r="F84">
-        <v>0.7347</v>
+        <v>560</v>
+      </c>
+      <c r="F84" t="s">
+        <v>622</v>
       </c>
       <c r="G84" t="s">
-        <v>564</v>
+        <v>709</v>
       </c>
       <c r="H84">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I84">
         <v>9</v>
@@ -4978,19 +5413,19 @@
         <v>136</v>
       </c>
       <c r="C85" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D85" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E85" t="s">
-        <v>476</v>
-      </c>
-      <c r="F85">
-        <v>-0.5574</v>
+        <v>561</v>
+      </c>
+      <c r="F85" t="s">
+        <v>621</v>
       </c>
       <c r="G85" t="s">
-        <v>564</v>
+        <v>709</v>
       </c>
       <c r="H85">
         <v>4</v>
@@ -5007,22 +5442,22 @@
         <v>137</v>
       </c>
       <c r="C86" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D86" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E86" t="s">
-        <v>476</v>
-      </c>
-      <c r="F86">
-        <v>0.9001</v>
+        <v>562</v>
+      </c>
+      <c r="F86" t="s">
+        <v>621</v>
       </c>
       <c r="G86" t="s">
-        <v>565</v>
+        <v>710</v>
       </c>
       <c r="H86">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I86">
         <v>13</v>
@@ -5036,22 +5471,22 @@
         <v>138</v>
       </c>
       <c r="C87" t="s">
-        <v>204</v>
+        <v>279</v>
       </c>
       <c r="D87" t="s">
-        <v>420</v>
+        <v>345</v>
       </c>
       <c r="E87" t="s">
-        <v>478</v>
-      </c>
-      <c r="F87">
-        <v>0.7506</v>
+        <v>563</v>
+      </c>
+      <c r="F87" t="s">
+        <v>623</v>
       </c>
       <c r="G87" t="s">
-        <v>566</v>
+        <v>711</v>
       </c>
       <c r="H87">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I87">
         <v>12</v>
@@ -5071,19 +5506,19 @@
         <v>421</v>
       </c>
       <c r="E88" t="s">
-        <v>476</v>
-      </c>
-      <c r="F88">
-        <v>-0.8779</v>
+        <v>564</v>
+      </c>
+      <c r="F88" t="s">
+        <v>621</v>
       </c>
       <c r="G88" t="s">
-        <v>567</v>
+        <v>712</v>
       </c>
       <c r="H88">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I88">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -5100,16 +5535,16 @@
         <v>422</v>
       </c>
       <c r="E89" t="s">
-        <v>478</v>
-      </c>
-      <c r="F89">
-        <v>0.7506</v>
+        <v>565</v>
+      </c>
+      <c r="F89" t="s">
+        <v>623</v>
       </c>
       <c r="G89" t="s">
-        <v>568</v>
+        <v>713</v>
       </c>
       <c r="H89">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I89">
         <v>11</v>
@@ -5129,16 +5564,16 @@
         <v>423</v>
       </c>
       <c r="E90" t="s">
-        <v>479</v>
-      </c>
-      <c r="F90">
-        <v>0.6689000000000001</v>
+        <v>566</v>
+      </c>
+      <c r="F90" t="s">
+        <v>624</v>
       </c>
       <c r="G90" t="s">
-        <v>569</v>
+        <v>714</v>
       </c>
       <c r="H90">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I90">
         <v>20</v>
@@ -5158,19 +5593,19 @@
         <v>424</v>
       </c>
       <c r="E91" t="s">
-        <v>476</v>
-      </c>
-      <c r="F91">
-        <v>0.9631</v>
+        <v>567</v>
+      </c>
+      <c r="F91" t="s">
+        <v>621</v>
       </c>
       <c r="G91" t="s">
-        <v>570</v>
+        <v>715</v>
       </c>
       <c r="H91">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I91">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -5187,16 +5622,16 @@
         <v>425</v>
       </c>
       <c r="E92" t="s">
-        <v>476</v>
-      </c>
-      <c r="F92">
-        <v>0.4359</v>
+        <v>568</v>
+      </c>
+      <c r="F92" t="s">
+        <v>621</v>
       </c>
       <c r="G92" t="s">
-        <v>571</v>
+        <v>716</v>
       </c>
       <c r="H92">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I92">
         <v>11</v>
@@ -5216,16 +5651,16 @@
         <v>426</v>
       </c>
       <c r="E93" t="s">
-        <v>476</v>
-      </c>
-      <c r="F93">
-        <v>0.7481</v>
+        <v>569</v>
+      </c>
+      <c r="F93" t="s">
+        <v>621</v>
       </c>
       <c r="G93" t="s">
-        <v>572</v>
+        <v>717</v>
       </c>
       <c r="H93">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I93">
         <v>20</v>
@@ -5245,19 +5680,19 @@
         <v>427</v>
       </c>
       <c r="E94" t="s">
-        <v>481</v>
-      </c>
-      <c r="F94">
-        <v>0.07290000000000001</v>
+        <v>570</v>
+      </c>
+      <c r="F94" t="s">
+        <v>626</v>
       </c>
       <c r="G94" t="s">
-        <v>573</v>
+        <v>718</v>
       </c>
       <c r="H94">
         <v>11</v>
       </c>
       <c r="I94">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -5274,19 +5709,19 @@
         <v>428</v>
       </c>
       <c r="E95" t="s">
-        <v>478</v>
-      </c>
-      <c r="F95">
-        <v>-0.7845</v>
+        <v>571</v>
+      </c>
+      <c r="F95" t="s">
+        <v>623</v>
       </c>
       <c r="G95" t="s">
-        <v>574</v>
+        <v>719</v>
       </c>
       <c r="H95">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I95">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -5303,13 +5738,13 @@
         <v>429</v>
       </c>
       <c r="E96" t="s">
-        <v>476</v>
-      </c>
-      <c r="F96">
-        <v>-0.296</v>
+        <v>572</v>
+      </c>
+      <c r="F96" t="s">
+        <v>621</v>
       </c>
       <c r="G96" t="s">
-        <v>575</v>
+        <v>720</v>
       </c>
       <c r="H96">
         <v>5</v>
@@ -5332,16 +5767,16 @@
         <v>430</v>
       </c>
       <c r="E97" t="s">
-        <v>476</v>
-      </c>
-      <c r="F97">
-        <v>0.4767</v>
+        <v>573</v>
+      </c>
+      <c r="F97" t="s">
+        <v>621</v>
       </c>
       <c r="G97" t="s">
-        <v>576</v>
+        <v>721</v>
       </c>
       <c r="H97">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I97">
         <v>13</v>
@@ -5361,19 +5796,19 @@
         <v>431</v>
       </c>
       <c r="E98" t="s">
-        <v>479</v>
-      </c>
-      <c r="F98">
-        <v>0.7506</v>
+        <v>574</v>
+      </c>
+      <c r="F98" t="s">
+        <v>624</v>
       </c>
       <c r="G98" t="s">
-        <v>577</v>
+        <v>722</v>
       </c>
       <c r="H98">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I98">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -5390,19 +5825,19 @@
         <v>432</v>
       </c>
       <c r="E99" t="s">
-        <v>479</v>
-      </c>
-      <c r="F99">
-        <v>-0.3612</v>
+        <v>575</v>
+      </c>
+      <c r="F99" t="s">
+        <v>624</v>
       </c>
       <c r="G99" t="s">
-        <v>578</v>
+        <v>723</v>
       </c>
       <c r="H99">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I99">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -5419,19 +5854,19 @@
         <v>433</v>
       </c>
       <c r="E100" t="s">
-        <v>479</v>
-      </c>
-      <c r="F100">
-        <v>0.3513</v>
+        <v>576</v>
+      </c>
+      <c r="F100" t="s">
+        <v>624</v>
       </c>
       <c r="G100" t="s">
-        <v>579</v>
+        <v>724</v>
       </c>
       <c r="H100">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I100">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -5448,19 +5883,19 @@
         <v>434</v>
       </c>
       <c r="E101" t="s">
-        <v>476</v>
-      </c>
-      <c r="F101">
-        <v>0.128</v>
+        <v>577</v>
+      </c>
+      <c r="F101" t="s">
+        <v>621</v>
       </c>
       <c r="G101" t="s">
-        <v>580</v>
+        <v>725</v>
       </c>
       <c r="H101">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I101">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -5477,19 +5912,19 @@
         <v>435</v>
       </c>
       <c r="E102" t="s">
-        <v>479</v>
-      </c>
-      <c r="F102">
-        <v>0.7302</v>
+        <v>578</v>
+      </c>
+      <c r="F102" t="s">
+        <v>624</v>
       </c>
       <c r="G102" t="s">
-        <v>581</v>
+        <v>726</v>
       </c>
       <c r="H102">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I102">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -5506,16 +5941,16 @@
         <v>436</v>
       </c>
       <c r="E103" t="s">
-        <v>477</v>
-      </c>
-      <c r="F103">
-        <v>-0.8270999999999999</v>
+        <v>579</v>
+      </c>
+      <c r="F103" t="s">
+        <v>622</v>
       </c>
       <c r="G103" t="s">
-        <v>582</v>
+        <v>727</v>
       </c>
       <c r="H103">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I103">
         <v>16</v>
@@ -5535,19 +5970,19 @@
         <v>437</v>
       </c>
       <c r="E104" t="s">
-        <v>476</v>
-      </c>
-      <c r="F104">
-        <v>0.7845</v>
+        <v>580</v>
+      </c>
+      <c r="F104" t="s">
+        <v>621</v>
       </c>
       <c r="G104" t="s">
-        <v>583</v>
+        <v>728</v>
       </c>
       <c r="H104">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I104">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -5564,16 +5999,16 @@
         <v>438</v>
       </c>
       <c r="E105" t="s">
-        <v>477</v>
-      </c>
-      <c r="F105">
-        <v>0.0343</v>
+        <v>581</v>
+      </c>
+      <c r="F105" t="s">
+        <v>622</v>
       </c>
       <c r="G105" t="s">
-        <v>584</v>
+        <v>729</v>
       </c>
       <c r="H105">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I105">
         <v>7</v>
@@ -5593,16 +6028,16 @@
         <v>439</v>
       </c>
       <c r="E106" t="s">
-        <v>477</v>
-      </c>
-      <c r="F106">
-        <v>-0.296</v>
+        <v>582</v>
+      </c>
+      <c r="F106" t="s">
+        <v>622</v>
       </c>
       <c r="G106" t="s">
-        <v>585</v>
+        <v>730</v>
       </c>
       <c r="H106">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="I106">
         <v>14</v>
@@ -5622,19 +6057,19 @@
         <v>440</v>
       </c>
       <c r="E107" t="s">
-        <v>476</v>
-      </c>
-      <c r="F107">
-        <v>0.0387</v>
+        <v>583</v>
+      </c>
+      <c r="F107" t="s">
+        <v>621</v>
       </c>
       <c r="G107" t="s">
-        <v>586</v>
+        <v>731</v>
       </c>
       <c r="H107">
         <v>12</v>
       </c>
       <c r="I107">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -5651,16 +6086,16 @@
         <v>441</v>
       </c>
       <c r="E108" t="s">
-        <v>476</v>
-      </c>
-      <c r="F108">
-        <v>0.8519</v>
+        <v>584</v>
+      </c>
+      <c r="F108" t="s">
+        <v>621</v>
       </c>
       <c r="G108" t="s">
-        <v>587</v>
+        <v>732</v>
       </c>
       <c r="H108">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="I108">
         <v>11</v>
@@ -5680,19 +6115,19 @@
         <v>442</v>
       </c>
       <c r="E109" t="s">
-        <v>478</v>
-      </c>
-      <c r="F109">
-        <v>0.8885</v>
+        <v>585</v>
+      </c>
+      <c r="F109" t="s">
+        <v>623</v>
       </c>
       <c r="G109" t="s">
-        <v>588</v>
+        <v>733</v>
       </c>
       <c r="H109">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="I109">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -5709,19 +6144,19 @@
         <v>443</v>
       </c>
       <c r="E110" t="s">
-        <v>477</v>
-      </c>
-      <c r="F110">
-        <v>-0.9886</v>
+        <v>586</v>
+      </c>
+      <c r="F110" t="s">
+        <v>622</v>
       </c>
       <c r="G110" t="s">
-        <v>589</v>
+        <v>734</v>
       </c>
       <c r="H110">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I110">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -5738,16 +6173,16 @@
         <v>444</v>
       </c>
       <c r="E111" t="s">
-        <v>476</v>
-      </c>
-      <c r="F111">
-        <v>0.25</v>
+        <v>587</v>
+      </c>
+      <c r="F111" t="s">
+        <v>621</v>
       </c>
       <c r="G111" t="s">
-        <v>590</v>
+        <v>735</v>
       </c>
       <c r="H111">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I111">
         <v>21</v>
@@ -5767,19 +6202,19 @@
         <v>445</v>
       </c>
       <c r="E112" t="s">
-        <v>476</v>
-      </c>
-      <c r="F112">
-        <v>0.5106000000000001</v>
+        <v>588</v>
+      </c>
+      <c r="F112" t="s">
+        <v>621</v>
       </c>
       <c r="G112" t="s">
-        <v>591</v>
+        <v>736</v>
       </c>
       <c r="H112">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I112">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -5796,19 +6231,19 @@
         <v>446</v>
       </c>
       <c r="E113" t="s">
-        <v>477</v>
-      </c>
-      <c r="F113">
-        <v>0.4284</v>
+        <v>589</v>
+      </c>
+      <c r="F113" t="s">
+        <v>622</v>
       </c>
       <c r="G113" t="s">
-        <v>592</v>
+        <v>737</v>
       </c>
       <c r="H113">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I113">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -5825,16 +6260,16 @@
         <v>447</v>
       </c>
       <c r="E114" t="s">
-        <v>477</v>
-      </c>
-      <c r="F114">
-        <v>0.1531</v>
+        <v>590</v>
+      </c>
+      <c r="F114" t="s">
+        <v>622</v>
       </c>
       <c r="G114" t="s">
-        <v>593</v>
+        <v>738</v>
       </c>
       <c r="H114">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I114">
         <v>7</v>
@@ -5854,16 +6289,16 @@
         <v>448</v>
       </c>
       <c r="E115" t="s">
-        <v>476</v>
-      </c>
-      <c r="F115">
-        <v>0.0772</v>
+        <v>591</v>
+      </c>
+      <c r="F115" t="s">
+        <v>621</v>
       </c>
       <c r="G115" t="s">
-        <v>594</v>
+        <v>739</v>
       </c>
       <c r="H115">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I115">
         <v>8</v>
@@ -5883,16 +6318,16 @@
         <v>449</v>
       </c>
       <c r="E116" t="s">
-        <v>476</v>
-      </c>
-      <c r="F116">
-        <v>-0.5938</v>
+        <v>592</v>
+      </c>
+      <c r="F116" t="s">
+        <v>621</v>
       </c>
       <c r="G116" t="s">
-        <v>595</v>
+        <v>740</v>
       </c>
       <c r="H116">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I116">
         <v>10</v>
@@ -5912,13 +6347,13 @@
         <v>450</v>
       </c>
       <c r="E117" t="s">
-        <v>476</v>
-      </c>
-      <c r="F117">
-        <v>0.7579</v>
+        <v>593</v>
+      </c>
+      <c r="F117" t="s">
+        <v>621</v>
       </c>
       <c r="G117" t="s">
-        <v>596</v>
+        <v>741</v>
       </c>
       <c r="H117">
         <v>18</v>
@@ -5941,16 +6376,16 @@
         <v>451</v>
       </c>
       <c r="E118" t="s">
-        <v>477</v>
-      </c>
-      <c r="F118">
-        <v>0.7717000000000001</v>
+        <v>594</v>
+      </c>
+      <c r="F118" t="s">
+        <v>622</v>
       </c>
       <c r="G118" t="s">
-        <v>597</v>
+        <v>742</v>
       </c>
       <c r="H118">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I118">
         <v>15</v>
@@ -5970,16 +6405,16 @@
         <v>452</v>
       </c>
       <c r="E119" t="s">
-        <v>477</v>
-      </c>
-      <c r="F119">
-        <v>0.1748</v>
+        <v>595</v>
+      </c>
+      <c r="F119" t="s">
+        <v>622</v>
       </c>
       <c r="G119" t="s">
-        <v>598</v>
+        <v>743</v>
       </c>
       <c r="H119">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I119">
         <v>6</v>
@@ -5999,16 +6434,16 @@
         <v>453</v>
       </c>
       <c r="E120" t="s">
-        <v>477</v>
-      </c>
-      <c r="F120">
-        <v>-0.8834</v>
+        <v>596</v>
+      </c>
+      <c r="F120" t="s">
+        <v>622</v>
       </c>
       <c r="G120" t="s">
-        <v>599</v>
+        <v>744</v>
       </c>
       <c r="H120">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I120">
         <v>28</v>
@@ -6028,16 +6463,16 @@
         <v>454</v>
       </c>
       <c r="E121" t="s">
-        <v>476</v>
-      </c>
-      <c r="F121">
-        <v>0.5859</v>
+        <v>597</v>
+      </c>
+      <c r="F121" t="s">
+        <v>621</v>
       </c>
       <c r="G121" t="s">
-        <v>600</v>
+        <v>745</v>
       </c>
       <c r="H121">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I121">
         <v>23</v>
@@ -6057,16 +6492,16 @@
         <v>455</v>
       </c>
       <c r="E122" t="s">
-        <v>476</v>
-      </c>
-      <c r="F122">
-        <v>0.4767</v>
+        <v>598</v>
+      </c>
+      <c r="F122" t="s">
+        <v>621</v>
       </c>
       <c r="G122" t="s">
-        <v>601</v>
+        <v>746</v>
       </c>
       <c r="H122">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I122">
         <v>12</v>
@@ -6086,16 +6521,16 @@
         <v>456</v>
       </c>
       <c r="E123" t="s">
-        <v>477</v>
-      </c>
-      <c r="F123">
-        <v>-0.5859</v>
+        <v>599</v>
+      </c>
+      <c r="F123" t="s">
+        <v>622</v>
       </c>
       <c r="G123" t="s">
-        <v>602</v>
+        <v>747</v>
       </c>
       <c r="H123">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I123">
         <v>13</v>
@@ -6115,16 +6550,16 @@
         <v>457</v>
       </c>
       <c r="E124" t="s">
-        <v>476</v>
-      </c>
-      <c r="F124">
-        <v>0.9571</v>
+        <v>600</v>
+      </c>
+      <c r="F124" t="s">
+        <v>621</v>
       </c>
       <c r="G124" t="s">
-        <v>603</v>
+        <v>748</v>
       </c>
       <c r="H124">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I124">
         <v>14</v>
@@ -6144,19 +6579,19 @@
         <v>458</v>
       </c>
       <c r="E125" t="s">
-        <v>476</v>
-      </c>
-      <c r="F125">
-        <v>0.8934</v>
+        <v>601</v>
+      </c>
+      <c r="F125" t="s">
+        <v>621</v>
       </c>
       <c r="G125" t="s">
-        <v>604</v>
+        <v>749</v>
       </c>
       <c r="H125">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I125">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -6173,19 +6608,19 @@
         <v>459</v>
       </c>
       <c r="E126" t="s">
-        <v>476</v>
-      </c>
-      <c r="F126">
-        <v>-0.296</v>
+        <v>602</v>
+      </c>
+      <c r="F126" t="s">
+        <v>621</v>
       </c>
       <c r="G126" t="s">
-        <v>605</v>
+        <v>750</v>
       </c>
       <c r="H126">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I126">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -6199,22 +6634,22 @@
         <v>319</v>
       </c>
       <c r="D127" t="s">
-        <v>442</v>
+        <v>460</v>
       </c>
       <c r="E127" t="s">
-        <v>479</v>
-      </c>
-      <c r="F127">
-        <v>0.9231</v>
+        <v>603</v>
+      </c>
+      <c r="F127" t="s">
+        <v>624</v>
       </c>
       <c r="G127" t="s">
-        <v>606</v>
+        <v>751</v>
       </c>
       <c r="H127">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I127">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -6228,19 +6663,19 @@
         <v>320</v>
       </c>
       <c r="D128" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E128" t="s">
-        <v>476</v>
-      </c>
-      <c r="F128">
-        <v>0.8452</v>
+        <v>604</v>
+      </c>
+      <c r="F128" t="s">
+        <v>621</v>
       </c>
       <c r="G128" t="s">
-        <v>607</v>
+        <v>752</v>
       </c>
       <c r="H128">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I128">
         <v>21</v>
@@ -6257,22 +6692,22 @@
         <v>321</v>
       </c>
       <c r="D129" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E129" t="s">
-        <v>476</v>
-      </c>
-      <c r="F129">
-        <v>0.25</v>
+        <v>605</v>
+      </c>
+      <c r="F129" t="s">
+        <v>621</v>
       </c>
       <c r="G129" t="s">
-        <v>608</v>
+        <v>753</v>
       </c>
       <c r="H129">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I129">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -6286,19 +6721,19 @@
         <v>322</v>
       </c>
       <c r="D130" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E130" t="s">
-        <v>476</v>
-      </c>
-      <c r="F130">
-        <v>0.9238</v>
+        <v>606</v>
+      </c>
+      <c r="F130" t="s">
+        <v>621</v>
       </c>
       <c r="G130" t="s">
-        <v>609</v>
+        <v>754</v>
       </c>
       <c r="H130">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I130">
         <v>14</v>
@@ -6315,19 +6750,19 @@
         <v>323</v>
       </c>
       <c r="D131" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E131" t="s">
-        <v>476</v>
-      </c>
-      <c r="F131">
-        <v>0.9648</v>
+        <v>607</v>
+      </c>
+      <c r="F131" t="s">
+        <v>621</v>
       </c>
       <c r="G131" t="s">
-        <v>610</v>
+        <v>755</v>
       </c>
       <c r="H131">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I131">
         <v>11</v>
@@ -6344,19 +6779,19 @@
         <v>324</v>
       </c>
       <c r="D132" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E132" t="s">
-        <v>476</v>
-      </c>
-      <c r="F132">
-        <v>0.9618</v>
+        <v>608</v>
+      </c>
+      <c r="F132" t="s">
+        <v>621</v>
       </c>
       <c r="G132" t="s">
-        <v>611</v>
+        <v>756</v>
       </c>
       <c r="H132">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I132">
         <v>20</v>
@@ -6373,22 +6808,22 @@
         <v>325</v>
       </c>
       <c r="D133" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E133" t="s">
-        <v>476</v>
-      </c>
-      <c r="F133">
-        <v>0.9578</v>
+        <v>609</v>
+      </c>
+      <c r="F133" t="s">
+        <v>621</v>
       </c>
       <c r="G133" t="s">
-        <v>612</v>
+        <v>757</v>
       </c>
       <c r="H133">
+        <v>14</v>
+      </c>
+      <c r="I133">
         <v>26</v>
-      </c>
-      <c r="I133">
-        <v>27</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -6402,19 +6837,19 @@
         <v>326</v>
       </c>
       <c r="D134" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E134" t="s">
-        <v>476</v>
-      </c>
-      <c r="F134">
-        <v>0.7269</v>
+        <v>610</v>
+      </c>
+      <c r="F134" t="s">
+        <v>621</v>
       </c>
       <c r="G134" t="s">
-        <v>613</v>
+        <v>758</v>
       </c>
       <c r="H134">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I134">
         <v>14</v>
@@ -6431,22 +6866,22 @@
         <v>327</v>
       </c>
       <c r="D135" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E135" t="s">
-        <v>476</v>
-      </c>
-      <c r="F135">
-        <v>0.2996</v>
+        <v>611</v>
+      </c>
+      <c r="F135" t="s">
+        <v>621</v>
       </c>
       <c r="G135" t="s">
-        <v>614</v>
+        <v>759</v>
       </c>
       <c r="H135">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I135">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -6460,19 +6895,19 @@
         <v>328</v>
       </c>
       <c r="D136" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E136" t="s">
-        <v>476</v>
-      </c>
-      <c r="F136">
-        <v>0.9271</v>
+        <v>612</v>
+      </c>
+      <c r="F136" t="s">
+        <v>621</v>
       </c>
       <c r="G136" t="s">
-        <v>615</v>
+        <v>760</v>
       </c>
       <c r="H136">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I136">
         <v>8</v>
@@ -6489,19 +6924,19 @@
         <v>329</v>
       </c>
       <c r="D137" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E137" t="s">
-        <v>476</v>
-      </c>
-      <c r="F137">
-        <v>-0.7766</v>
+        <v>613</v>
+      </c>
+      <c r="F137" t="s">
+        <v>621</v>
       </c>
       <c r="G137" t="s">
-        <v>616</v>
+        <v>761</v>
       </c>
       <c r="H137">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I137">
         <v>21</v>
@@ -6518,22 +6953,22 @@
         <v>330</v>
       </c>
       <c r="D138" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E138" t="s">
-        <v>479</v>
-      </c>
-      <c r="F138">
-        <v>0.8864</v>
+        <v>614</v>
+      </c>
+      <c r="F138" t="s">
+        <v>624</v>
       </c>
       <c r="G138" t="s">
-        <v>617</v>
+        <v>762</v>
       </c>
       <c r="H138">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I138">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -6547,19 +6982,19 @@
         <v>331</v>
       </c>
       <c r="D139" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E139" t="s">
-        <v>479</v>
-      </c>
-      <c r="F139">
-        <v>0.09</v>
+        <v>615</v>
+      </c>
+      <c r="F139" t="s">
+        <v>624</v>
       </c>
       <c r="G139" t="s">
-        <v>618</v>
+        <v>763</v>
       </c>
       <c r="H139">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I139">
         <v>16</v>
@@ -6576,19 +7011,19 @@
         <v>332</v>
       </c>
       <c r="D140" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E140" t="s">
-        <v>479</v>
-      </c>
-      <c r="F140">
-        <v>0.8625</v>
+        <v>616</v>
+      </c>
+      <c r="F140" t="s">
+        <v>624</v>
       </c>
       <c r="G140" t="s">
-        <v>619</v>
+        <v>764</v>
       </c>
       <c r="H140">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I140">
         <v>11</v>
@@ -6605,19 +7040,19 @@
         <v>333</v>
       </c>
       <c r="D141" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E141" t="s">
-        <v>477</v>
-      </c>
-      <c r="F141">
-        <v>0.25</v>
+        <v>617</v>
+      </c>
+      <c r="F141" t="s">
+        <v>622</v>
       </c>
       <c r="G141" t="s">
-        <v>620</v>
+        <v>765</v>
       </c>
       <c r="H141">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I141">
         <v>6</v>
@@ -6634,22 +7069,22 @@
         <v>334</v>
       </c>
       <c r="D142" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E142" t="s">
-        <v>476</v>
-      </c>
-      <c r="F142">
-        <v>0.8270999999999999</v>
+        <v>618</v>
+      </c>
+      <c r="F142" t="s">
+        <v>621</v>
       </c>
       <c r="G142" t="s">
-        <v>621</v>
+        <v>766</v>
       </c>
       <c r="H142">
         <v>21</v>
       </c>
       <c r="I142">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -6663,19 +7098,19 @@
         <v>335</v>
       </c>
       <c r="D143" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="E143" t="s">
-        <v>479</v>
-      </c>
-      <c r="F143">
-        <v>0.6597</v>
+        <v>619</v>
+      </c>
+      <c r="F143" t="s">
+        <v>624</v>
       </c>
       <c r="G143" t="s">
-        <v>622</v>
+        <v>767</v>
       </c>
       <c r="H143">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I143">
         <v>8</v>
@@ -6692,19 +7127,19 @@
         <v>336</v>
       </c>
       <c r="D144" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="E144" t="s">
-        <v>476</v>
-      </c>
-      <c r="F144">
-        <v>-0.8625</v>
+        <v>620</v>
+      </c>
+      <c r="F144" t="s">
+        <v>621</v>
       </c>
       <c r="G144" t="s">
-        <v>623</v>
+        <v>768</v>
       </c>
       <c r="H144">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I144">
         <v>15</v>
